--- a/config_Release/task_zajindan_server.xlsx
+++ b/config_Release/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4793" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="1357">
   <si>
     <t>id|任务id</t>
   </si>
@@ -6933,10 +6933,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>prop_guess_apple_bet_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>vip2周任务</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7067,10 +7063,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>38,39,40,41,42,43,44,45,46,47,48,49</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>gun_barrel_6</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7164,22 +7156,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>250000,2000000,5000000,15000000,40000000,100000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500000,20000000,50000000,150000000,400000000,1000000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>25000000,200000000,500000000,1500000000,4000000000,10000000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000000,2000000000,5000000000,15000000000,40000000000,100000000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7188,406 +7164,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>568</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,569,570,571,572,573</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>74,575,576,577,578,579</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80,581,582,583,584,585</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>86,587,588,589,590,591</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,80</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,500</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1400</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>140</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,50</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,20</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,60</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,200</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,600</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,800</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,2000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000,5000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10000,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>20000,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000,6000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000,8000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,20000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000,50000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>100000,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>200000,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>little_game_award_half_buyu</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7621,18 +7197,6 @@
   </si>
   <si>
     <t>任意游戏累计赢金5000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_3d_fire_gift_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_3d_fire_gift_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_3d_fire_gift_task</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7687,12 +7251,629 @@
     <t>buyu_3d_spend_num</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>buyu_leiji_dapao_new_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_leiji_dapao_new_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,950000,4500000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,9500000,45000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000,95000000,450000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000000,950000000,4500000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>577,578,579</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>568</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,569,570,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>571,572,573</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>574,575,576,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏畅玩卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏畅玩卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日登陆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>chang_wan_ka_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ommon</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢金任务上级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chang_wan_ka_task_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chang_wan_ka_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊任务上级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chang_wan_ka_task_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chang_wan_ka_children_normal_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chang_wan_ka_children_normal_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chang_wan_ka_children_special_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chang_wan_ka_children_special_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在财神消消乐中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计纯赢1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在疯狂捕鱼中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在弹弹乐中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在敲敲乐中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在敲敲乐财神模式中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>580</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>581</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>582</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>jykp_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tantanle_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_caishen_model_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_award_kaijiang_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_lucky_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_sky_girl</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_caishen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_spend</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_fish_id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_rate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hammer_id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_21320</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_21321</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计纯赢8000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果大战使用500万及以上档次种出一次金苹果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲敲乐财神模式中累计赢金8000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹弹乐中累计赢金8000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐使用48万及以上档次出现一次幸运时刻</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浒消消乐中累计赢金8000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神消消乐使用96万以上档次打出一次天女散花</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲敲乐使用10万及以上档次敲出2次38倍财神</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>38,39,40,41,42,43,44,45,46,47,48,49</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_award</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP赢金挑战第三期</t>
+  </si>
+  <si>
+    <t>VIP赢金任务第三期</t>
+  </si>
+  <si>
+    <t>vip_new_game_award_task_3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,6000000,12000000,24000000,48000000,104000000,200000000,400000000,800000000,1600000000,3200000000,5600000000,12000000000,26000000000</t>
+    </r>
+  </si>
+  <si>
+    <t>zajindan_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>jykp_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜尔电动牙刷</t>
+  </si>
+  <si>
+    <t>九阳电炖紫砂锅</t>
+  </si>
+  <si>
+    <t>美的智能烤箱</t>
+  </si>
+  <si>
+    <t>苏泊尔净水器</t>
+  </si>
+  <si>
+    <t>美的冰箱</t>
+  </si>
+  <si>
+    <t>苹果智能手表，北欧真皮沙发，席梦思高端床垫（三选一）</t>
+  </si>
+  <si>
+    <t>583,584,585,586,587,588,589,590,591,592,593,594,595,596,597,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在街机捕鱼中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>街机捕鱼使用10万以上炮倍击杀一条黄金龙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_target_yu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7768,8 +7949,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7836,6 +8024,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7878,7 +8078,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8127,6 +8327,43 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8412,13 +8649,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T371"/>
+  <dimension ref="A1:T393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D362" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E179" sqref="E179"/>
+      <selection pane="bottomRight" activeCell="D379" sqref="A379:D379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8426,7 +8663,7 @@
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="18" style="7" customWidth="1"/>
     <col min="3" max="3" width="52.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="69.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="70" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.625" style="7" customWidth="1"/>
     <col min="6" max="6" width="33.875" style="7" customWidth="1"/>
     <col min="7" max="12" width="27.5" style="7" customWidth="1"/>
@@ -11356,7 +11593,7 @@
         <v>21016</v>
       </c>
       <c r="B69" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>105</v>
@@ -11395,7 +11632,7 @@
         <v>21017</v>
       </c>
       <c r="B70" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>109</v>
@@ -15548,16 +15785,16 @@
         <v>21126</v>
       </c>
       <c r="B179" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" s="84" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D179" s="84" t="s">
-        <v>1271</v>
+        <v>1234</v>
       </c>
       <c r="E179" s="84" t="s">
-        <v>1272</v>
+        <v>1235</v>
       </c>
       <c r="F179" s="84" t="s">
         <v>13</v>
@@ -15587,13 +15824,13 @@
         <v>21127</v>
       </c>
       <c r="B180" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" s="84" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D180" s="84" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E180" s="84" t="s">
         <v>132</v>
@@ -15626,13 +15863,13 @@
         <v>21128</v>
       </c>
       <c r="B181" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" s="84" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D181" s="84" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E181" s="84" t="s">
         <v>132</v>
@@ -15665,13 +15902,13 @@
         <v>21129</v>
       </c>
       <c r="B182" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" s="84" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D182" s="84" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E182" s="84" t="s">
         <v>132</v>
@@ -15704,13 +15941,13 @@
         <v>21130</v>
       </c>
       <c r="B183" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" s="84" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D183" s="61" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E183" s="84" t="s">
         <v>132</v>
@@ -15743,13 +15980,13 @@
         <v>21131</v>
       </c>
       <c r="B184" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" s="84" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D184" s="61" t="s">
         <v>1198</v>
-      </c>
-      <c r="D184" s="61" t="s">
-        <v>1200</v>
       </c>
       <c r="E184" s="84" t="s">
         <v>132</v>
@@ -15782,13 +16019,13 @@
         <v>21132</v>
       </c>
       <c r="B185" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" s="84" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D185" s="84" t="s">
-        <v>1257</v>
+        <v>1223</v>
       </c>
       <c r="E185" s="84" t="s">
         <v>132</v>
@@ -15821,13 +16058,13 @@
         <v>21133</v>
       </c>
       <c r="B186" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" s="84" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D186" s="84" t="s">
-        <v>1258</v>
+        <v>1224</v>
       </c>
       <c r="E186" s="84" t="s">
         <v>132</v>
@@ -15860,13 +16097,13 @@
         <v>21134</v>
       </c>
       <c r="B187" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" s="84" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D187" s="84" t="s">
-        <v>1259</v>
+        <v>1225</v>
       </c>
       <c r="E187" s="84" t="s">
         <v>132</v>
@@ -15899,13 +16136,13 @@
         <v>21135</v>
       </c>
       <c r="B188" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" s="84" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D188" s="84" t="s">
-        <v>1260</v>
+        <v>1226</v>
       </c>
       <c r="E188" s="84" t="s">
         <v>132</v>
@@ -15938,13 +16175,13 @@
         <v>21136</v>
       </c>
       <c r="B189" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" s="84" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D189" s="84" t="s">
-        <v>1261</v>
+        <v>1227</v>
       </c>
       <c r="E189" s="84" t="s">
         <v>132</v>
@@ -15977,13 +16214,13 @@
         <v>21137</v>
       </c>
       <c r="B190" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" s="84" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D190" s="84" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E190" s="84" t="s">
         <v>132</v>
@@ -16016,13 +16253,13 @@
         <v>21138</v>
       </c>
       <c r="B191" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" s="84" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D191" s="84" t="s">
-        <v>1263</v>
+        <v>1229</v>
       </c>
       <c r="E191" s="84" t="s">
         <v>132</v>
@@ -16099,7 +16336,7 @@
         <v>237</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E193" s="51" t="s">
         <v>239</v>
@@ -16137,7 +16374,7 @@
         <v>237</v>
       </c>
       <c r="D194" s="51" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E194" s="51" t="s">
         <v>239</v>
@@ -16175,7 +16412,7 @@
         <v>237</v>
       </c>
       <c r="D195" s="51" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E195" s="51" t="s">
         <v>239</v>
@@ -16213,7 +16450,7 @@
         <v>237</v>
       </c>
       <c r="D196" s="51" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E196" s="51" t="s">
         <v>239</v>
@@ -16251,7 +16488,7 @@
         <v>237</v>
       </c>
       <c r="D197" s="51" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E197" s="51" t="s">
         <v>239</v>
@@ -16289,7 +16526,7 @@
         <v>237</v>
       </c>
       <c r="D198" s="51" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E198" s="51" t="s">
         <v>239</v>
@@ -20019,7 +20256,7 @@
         <v>852</v>
       </c>
       <c r="F296" s="16" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G296" s="12">
         <v>21243</v>
@@ -22705,16 +22942,16 @@
         <v>21314</v>
       </c>
       <c r="B367" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367" s="16" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D367" s="16" t="s">
         <v>1176</v>
       </c>
-      <c r="D367" s="16" t="s">
+      <c r="E367" s="16" t="s">
         <v>1177</v>
-      </c>
-      <c r="E367" s="16" t="s">
-        <v>1178</v>
       </c>
       <c r="F367" s="12" t="s">
         <v>108</v>
@@ -22746,22 +22983,22 @@
         <v>1</v>
       </c>
       <c r="C368" s="51" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D368" s="86" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E368" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F368" s="51" t="s">
-        <v>1264</v>
+        <v>1237</v>
       </c>
       <c r="G368" s="9">
         <v>21315</v>
       </c>
-      <c r="H368" s="9" t="b">
-        <v>1</v>
+      <c r="H368" s="51" t="b">
+        <v>0</v>
       </c>
       <c r="I368" s="9">
         <v>1</v>
@@ -22784,22 +23021,22 @@
         <v>1</v>
       </c>
       <c r="C369" s="51" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D369" s="86" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E369" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F369" s="51" t="s">
-        <v>1265</v>
+        <v>1238</v>
       </c>
       <c r="G369" s="9">
         <v>21316</v>
       </c>
-      <c r="H369" s="9" t="b">
-        <v>1</v>
+      <c r="H369" s="51" t="b">
+        <v>0</v>
       </c>
       <c r="I369" s="9">
         <v>1</v>
@@ -22822,22 +23059,22 @@
         <v>1</v>
       </c>
       <c r="C370" s="51" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D370" s="51" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E370" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F370" s="51" t="s">
-        <v>1266</v>
+        <v>1238</v>
       </c>
       <c r="G370" s="9">
         <v>21317</v>
       </c>
-      <c r="H370" s="9" t="b">
-        <v>1</v>
+      <c r="H370" s="51" t="b">
+        <v>0</v>
       </c>
       <c r="I370" s="9">
         <v>1</v>
@@ -22860,22 +23097,22 @@
         <v>1</v>
       </c>
       <c r="C371" s="51" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D371" s="51" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E371" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F371" s="51" t="s">
-        <v>1265</v>
+        <v>1238</v>
       </c>
       <c r="G371" s="9">
         <v>21318</v>
       </c>
-      <c r="H371" s="9" t="b">
-        <v>1</v>
+      <c r="H371" s="51" t="b">
+        <v>0</v>
       </c>
       <c r="I371" s="9">
         <v>1</v>
@@ -22887,6 +23124,842 @@
         <v>32503651200</v>
       </c>
       <c r="L371" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="88">
+        <v>21319</v>
+      </c>
+      <c r="B372" s="88">
+        <v>1</v>
+      </c>
+      <c r="C372" s="89" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D372" s="89" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E372" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F372" s="89" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G372" s="88">
+        <v>21319</v>
+      </c>
+      <c r="H372" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I372" s="88">
+        <v>1</v>
+      </c>
+      <c r="J372" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K372" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L372" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="88">
+        <v>21320</v>
+      </c>
+      <c r="B373" s="88">
+        <v>1</v>
+      </c>
+      <c r="C373" s="89" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D373" s="89" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E373" s="89" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F373" s="89" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G373" s="88">
+        <v>21320</v>
+      </c>
+      <c r="H373" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I373" s="88">
+        <v>1</v>
+      </c>
+      <c r="J373" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K373" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L373" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="88">
+        <v>21321</v>
+      </c>
+      <c r="B374" s="88">
+        <v>1</v>
+      </c>
+      <c r="C374" s="89" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D374" s="89" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E374" s="89" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F374" s="89" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G374" s="88">
+        <v>21321</v>
+      </c>
+      <c r="H374" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I374" s="88">
+        <v>1</v>
+      </c>
+      <c r="J374" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K374" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L374" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="88">
+        <v>21322</v>
+      </c>
+      <c r="B375" s="88">
+        <v>1</v>
+      </c>
+      <c r="C375" s="89" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D375" s="89" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E375" s="90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F375" s="89" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G375" s="88">
+        <v>21322</v>
+      </c>
+      <c r="H375" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I375" s="88">
+        <v>1</v>
+      </c>
+      <c r="J375" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K375" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L375" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="88">
+        <v>21323</v>
+      </c>
+      <c r="B376" s="88">
+        <v>1</v>
+      </c>
+      <c r="C376" s="89" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D376" s="89" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E376" s="90" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F376" s="89" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G376" s="88">
+        <v>21323</v>
+      </c>
+      <c r="H376" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I376" s="88">
+        <v>1</v>
+      </c>
+      <c r="J376" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K376" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L376" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A377" s="88">
+        <v>21324</v>
+      </c>
+      <c r="B377" s="88">
+        <v>1</v>
+      </c>
+      <c r="C377" s="89" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D377" s="89" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E377" s="90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F377" s="89" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G377" s="88">
+        <v>21324</v>
+      </c>
+      <c r="H377" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I377" s="88">
+        <v>1</v>
+      </c>
+      <c r="J377" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K377" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L377" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A378" s="88">
+        <v>21325</v>
+      </c>
+      <c r="B378" s="88">
+        <v>1</v>
+      </c>
+      <c r="C378" s="89" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D378" s="89" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E378" s="90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F378" s="89" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G378" s="88">
+        <v>21325</v>
+      </c>
+      <c r="H378" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I378" s="88">
+        <v>1</v>
+      </c>
+      <c r="J378" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K378" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L378" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A379" s="88">
+        <v>21326</v>
+      </c>
+      <c r="B379" s="88">
+        <v>1</v>
+      </c>
+      <c r="C379" s="89" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D379" s="89" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E379" s="90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F379" s="89" t="s">
+        <v>855</v>
+      </c>
+      <c r="G379" s="88">
+        <v>21326</v>
+      </c>
+      <c r="H379" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I379" s="88">
+        <v>1</v>
+      </c>
+      <c r="J379" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K379" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L379" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A380" s="88">
+        <v>21327</v>
+      </c>
+      <c r="B380" s="88">
+        <v>1</v>
+      </c>
+      <c r="C380" s="89" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D380" s="89" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E380" s="90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F380" s="89" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G380" s="88">
+        <v>21327</v>
+      </c>
+      <c r="H380" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I380" s="88">
+        <v>1</v>
+      </c>
+      <c r="J380" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K380" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L380" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A381" s="88">
+        <v>21328</v>
+      </c>
+      <c r="B381" s="88">
+        <v>1</v>
+      </c>
+      <c r="C381" s="89" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D381" s="89" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E381" s="90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F381" s="89" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G381" s="88">
+        <v>21328</v>
+      </c>
+      <c r="H381" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I381" s="88">
+        <v>1</v>
+      </c>
+      <c r="J381" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K381" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L381" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A382" s="88">
+        <v>21329</v>
+      </c>
+      <c r="B382" s="88">
+        <v>1</v>
+      </c>
+      <c r="C382" s="89" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D382" s="89" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E382" s="90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F382" s="89" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G382" s="88">
+        <v>21329</v>
+      </c>
+      <c r="H382" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I382" s="88">
+        <v>1</v>
+      </c>
+      <c r="J382" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K382" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L382" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A383" s="88">
+        <v>21330</v>
+      </c>
+      <c r="B383" s="88">
+        <v>1</v>
+      </c>
+      <c r="C383" s="89" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D383" s="89" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E383" s="90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F383" s="89" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G383" s="88">
+        <v>21330</v>
+      </c>
+      <c r="H383" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I383" s="88">
+        <v>1</v>
+      </c>
+      <c r="J383" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K383" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L383" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="91">
+        <v>21331</v>
+      </c>
+      <c r="B384" s="91">
+        <v>1</v>
+      </c>
+      <c r="C384" s="92" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D384" s="92" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E384" s="92" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F384" s="92" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G384" s="91">
+        <v>21331</v>
+      </c>
+      <c r="H384" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I384" s="91">
+        <v>1</v>
+      </c>
+      <c r="J384" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K384" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L384" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="91">
+        <v>21332</v>
+      </c>
+      <c r="B385" s="91">
+        <v>1</v>
+      </c>
+      <c r="C385" s="92" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D385" s="92" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E385" s="92" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F385" s="92" t="s">
+        <v>855</v>
+      </c>
+      <c r="G385" s="91">
+        <v>21332</v>
+      </c>
+      <c r="H385" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I385" s="91">
+        <v>1</v>
+      </c>
+      <c r="J385" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K385" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L385" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="91">
+        <v>21333</v>
+      </c>
+      <c r="B386" s="91">
+        <v>1</v>
+      </c>
+      <c r="C386" s="92" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D386" s="92" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E386" s="92" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F386" s="92" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G386" s="91">
+        <v>21333</v>
+      </c>
+      <c r="H386" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I386" s="91">
+        <v>1</v>
+      </c>
+      <c r="J386" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K386" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L386" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="91">
+        <v>21334</v>
+      </c>
+      <c r="B387" s="91">
+        <v>1</v>
+      </c>
+      <c r="C387" s="92" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D387" s="92" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E387" s="92" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F387" s="92" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G387" s="91">
+        <v>21334</v>
+      </c>
+      <c r="H387" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I387" s="91">
+        <v>1</v>
+      </c>
+      <c r="J387" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K387" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L387" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="91">
+        <v>21335</v>
+      </c>
+      <c r="B388" s="91">
+        <v>1</v>
+      </c>
+      <c r="C388" s="92" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D388" s="92" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E388" s="92" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F388" s="92" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G388" s="91">
+        <v>21335</v>
+      </c>
+      <c r="H388" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I388" s="91">
+        <v>1</v>
+      </c>
+      <c r="J388" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K388" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L388" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="91">
+        <v>21336</v>
+      </c>
+      <c r="B389" s="91">
+        <v>1</v>
+      </c>
+      <c r="C389" s="92" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D389" s="92" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E389" s="92" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F389" s="92" t="s">
+        <v>855</v>
+      </c>
+      <c r="G389" s="91">
+        <v>21336</v>
+      </c>
+      <c r="H389" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I389" s="91">
+        <v>1</v>
+      </c>
+      <c r="J389" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K389" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L389" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="91">
+        <v>21337</v>
+      </c>
+      <c r="B390" s="91">
+        <v>1</v>
+      </c>
+      <c r="C390" s="92" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D390" s="92" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E390" s="92" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F390" s="92" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G390" s="91">
+        <v>21337</v>
+      </c>
+      <c r="H390" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I390" s="91">
+        <v>1</v>
+      </c>
+      <c r="J390" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K390" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L390" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="91">
+        <v>21338</v>
+      </c>
+      <c r="B391" s="91">
+        <v>1</v>
+      </c>
+      <c r="C391" s="92" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D391" s="92" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E391" s="92" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F391" s="92" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G391" s="91">
+        <v>21338</v>
+      </c>
+      <c r="H391" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I391" s="91">
+        <v>1</v>
+      </c>
+      <c r="J391" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K391" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L391" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="91">
+        <v>21339</v>
+      </c>
+      <c r="B392" s="91">
+        <v>1</v>
+      </c>
+      <c r="C392" s="92" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D392" s="92" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E392" s="92" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F392" s="92" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G392" s="91">
+        <v>21339</v>
+      </c>
+      <c r="H392" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I392" s="91">
+        <v>1</v>
+      </c>
+      <c r="J392" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K392" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L392" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="12">
+        <v>21340</v>
+      </c>
+      <c r="B393" s="12">
+        <v>1</v>
+      </c>
+      <c r="C393" s="16" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D393" s="12" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E393" s="99" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F393" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G393" s="12">
+        <v>21340</v>
+      </c>
+      <c r="H393" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I393" s="12">
+        <v>1</v>
+      </c>
+      <c r="J393" s="12">
+        <v>1588003200</v>
+      </c>
+      <c r="K393" s="12">
+        <v>32503651200</v>
+      </c>
+      <c r="L393" s="12">
         <v>-1</v>
       </c>
     </row>
@@ -22900,13 +23973,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K371"/>
+  <dimension ref="A1:K393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G361" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E179" sqref="E179"/>
+      <selection pane="bottomRight" activeCell="B372" sqref="B372:B392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22934,7 +24007,7 @@
         <v>380</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1268</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>381</v>
@@ -22949,7 +24022,7 @@
         <v>917</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="K1" s="38"/>
     </row>
@@ -27729,7 +28802,7 @@
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="82" t="s">
-        <v>1269</v>
+        <v>1232</v>
       </c>
       <c r="G179" s="79"/>
       <c r="H179" s="83" t="s">
@@ -27754,7 +28827,7 @@
         <v>121</v>
       </c>
       <c r="F180" s="40" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="G180" s="35"/>
       <c r="H180" s="15" t="s">
@@ -27779,7 +28852,7 @@
         <v>122</v>
       </c>
       <c r="F181" s="40" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="G181" s="35"/>
       <c r="H181" s="15" t="s">
@@ -27804,7 +28877,7 @@
         <v>123</v>
       </c>
       <c r="F182" s="40" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="G182" s="35"/>
       <c r="H182" s="15" t="s">
@@ -27876,7 +28949,7 @@
         <v>21132</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1255</v>
+        <v>1221</v>
       </c>
       <c r="D185" s="11">
         <v>184</v>
@@ -28097,7 +29170,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="40" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G193" s="35"/>
       <c r="H193" s="15" t="s">
@@ -28122,7 +29195,7 @@
         <v>0</v>
       </c>
       <c r="F194" s="40" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G194" s="35"/>
       <c r="H194" s="15" t="s">
@@ -28147,7 +29220,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="40" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G195" s="35"/>
       <c r="H195" s="15" t="s">
@@ -28172,7 +29245,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="40" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G196" s="35"/>
       <c r="H196" s="15" t="s">
@@ -28197,7 +29270,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G197" s="35"/>
       <c r="H197" s="15" t="s">
@@ -28222,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="F198" s="40" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G198" s="35"/>
       <c r="H198" s="15" t="s">
@@ -30114,7 +31187,7 @@
         <v>21216</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1267</v>
+        <v>1230</v>
       </c>
       <c r="D269" s="11">
         <v>268</v>
@@ -32473,13 +33546,13 @@
       </c>
       <c r="G367" s="35"/>
       <c r="H367" s="15" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I367" s="11" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" s="10">
         <v>367</v>
       </c>
@@ -32492,17 +33565,17 @@
       </c>
       <c r="E368" s="10"/>
       <c r="F368" s="82" t="s">
-        <v>1221</v>
+        <v>1239</v>
       </c>
       <c r="G368" s="79"/>
       <c r="H368" s="83" t="s">
-        <v>1227</v>
+        <v>1244</v>
       </c>
       <c r="I368" s="19" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" s="19">
         <v>368</v>
       </c>
@@ -32515,17 +33588,17 @@
       </c>
       <c r="E369" s="10"/>
       <c r="F369" s="82" t="s">
-        <v>1222</v>
+        <v>1240</v>
       </c>
       <c r="G369" s="79"/>
       <c r="H369" s="83" t="s">
-        <v>1228</v>
+        <v>1245</v>
       </c>
       <c r="I369" s="19" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" s="10">
         <v>369</v>
       </c>
@@ -32538,17 +33611,17 @@
       </c>
       <c r="E370" s="10"/>
       <c r="F370" s="82" t="s">
-        <v>1223</v>
+        <v>1241</v>
       </c>
       <c r="G370" s="79"/>
       <c r="H370" s="83" t="s">
-        <v>1229</v>
+        <v>1246</v>
       </c>
       <c r="I370" s="19" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" s="10">
         <v>370</v>
       </c>
@@ -32561,14 +33634,522 @@
       </c>
       <c r="E371" s="10"/>
       <c r="F371" s="82" t="s">
-        <v>1224</v>
+        <v>1242</v>
       </c>
       <c r="G371" s="79"/>
       <c r="H371" s="83" t="s">
-        <v>1230</v>
+        <v>1243</v>
       </c>
       <c r="I371" s="19" t="s">
-        <v>1220</v>
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="93">
+        <v>371</v>
+      </c>
+      <c r="B372" s="91">
+        <v>21319</v>
+      </c>
+      <c r="C372" s="93"/>
+      <c r="D372" s="93">
+        <v>68</v>
+      </c>
+      <c r="E372" s="93"/>
+      <c r="F372" s="94" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G372" s="95"/>
+      <c r="H372" s="96" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I372" s="97" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="93">
+        <v>372</v>
+      </c>
+      <c r="B373" s="91">
+        <v>21320</v>
+      </c>
+      <c r="C373" s="93"/>
+      <c r="D373" s="93"/>
+      <c r="E373" s="93"/>
+      <c r="F373" s="94" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G373" s="95"/>
+      <c r="H373" s="96"/>
+      <c r="I373" s="97" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="93">
+        <v>373</v>
+      </c>
+      <c r="B374" s="91">
+        <v>21321</v>
+      </c>
+      <c r="C374" s="93"/>
+      <c r="D374" s="93"/>
+      <c r="E374" s="93"/>
+      <c r="F374" s="94" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G374" s="95"/>
+      <c r="H374" s="96"/>
+      <c r="I374" s="97" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="93">
+        <v>374</v>
+      </c>
+      <c r="B375" s="91">
+        <v>21322</v>
+      </c>
+      <c r="C375" s="93"/>
+      <c r="D375" s="93">
+        <v>371</v>
+      </c>
+      <c r="E375" s="93"/>
+      <c r="F375" s="94" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G375" s="95"/>
+      <c r="H375" s="96" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I375" s="97" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="93">
+        <v>375</v>
+      </c>
+      <c r="B376" s="91">
+        <v>21323</v>
+      </c>
+      <c r="C376" s="93"/>
+      <c r="D376" s="93">
+        <v>372</v>
+      </c>
+      <c r="E376" s="93"/>
+      <c r="F376" s="94" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G376" s="95"/>
+      <c r="H376" s="96" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I376" s="97" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="93">
+        <v>376</v>
+      </c>
+      <c r="B377" s="91">
+        <v>21324</v>
+      </c>
+      <c r="C377" s="93"/>
+      <c r="D377" s="93">
+        <v>373</v>
+      </c>
+      <c r="E377" s="93"/>
+      <c r="F377" s="94" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G377" s="95"/>
+      <c r="H377" s="96" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I377" s="97" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="93">
+        <v>377</v>
+      </c>
+      <c r="B378" s="91">
+        <v>21325</v>
+      </c>
+      <c r="C378" s="93"/>
+      <c r="D378" s="93">
+        <v>374</v>
+      </c>
+      <c r="E378" s="93"/>
+      <c r="F378" s="94" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G378" s="95"/>
+      <c r="H378" s="96" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I378" s="97" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="93">
+        <v>378</v>
+      </c>
+      <c r="B379" s="91">
+        <v>21326</v>
+      </c>
+      <c r="C379" s="93"/>
+      <c r="D379" s="93">
+        <v>375</v>
+      </c>
+      <c r="E379" s="93"/>
+      <c r="F379" s="94" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G379" s="95"/>
+      <c r="H379" s="96" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I379" s="97" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="93">
+        <v>379</v>
+      </c>
+      <c r="B380" s="91">
+        <v>21327</v>
+      </c>
+      <c r="C380" s="93"/>
+      <c r="D380" s="93">
+        <v>376</v>
+      </c>
+      <c r="E380" s="93"/>
+      <c r="F380" s="94" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G380" s="95"/>
+      <c r="H380" s="96" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I380" s="97" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="93">
+        <v>380</v>
+      </c>
+      <c r="B381" s="91">
+        <v>21328</v>
+      </c>
+      <c r="C381" s="93"/>
+      <c r="D381" s="93">
+        <v>377</v>
+      </c>
+      <c r="E381" s="93"/>
+      <c r="F381" s="94" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G381" s="95"/>
+      <c r="H381" s="96" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I381" s="97" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="93">
+        <v>381</v>
+      </c>
+      <c r="B382" s="91">
+        <v>21329</v>
+      </c>
+      <c r="C382" s="93"/>
+      <c r="D382" s="93">
+        <v>378</v>
+      </c>
+      <c r="E382" s="93"/>
+      <c r="F382" s="94" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G382" s="95"/>
+      <c r="H382" s="96" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I382" s="97" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="93">
+        <v>382</v>
+      </c>
+      <c r="B383" s="91">
+        <v>21330</v>
+      </c>
+      <c r="C383" s="93"/>
+      <c r="D383" s="93">
+        <v>379</v>
+      </c>
+      <c r="E383" s="93"/>
+      <c r="F383" s="94" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G383" s="95"/>
+      <c r="H383" s="96" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I383" s="97" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="93">
+        <v>383</v>
+      </c>
+      <c r="B384" s="91">
+        <v>21331</v>
+      </c>
+      <c r="C384" s="93"/>
+      <c r="D384" s="93">
+        <v>380</v>
+      </c>
+      <c r="E384" s="93"/>
+      <c r="F384" s="94" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G384" s="95"/>
+      <c r="H384" s="96" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I384" s="97" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="93">
+        <v>384</v>
+      </c>
+      <c r="B385" s="91">
+        <v>21332</v>
+      </c>
+      <c r="C385" s="93"/>
+      <c r="D385" s="93">
+        <v>381</v>
+      </c>
+      <c r="E385" s="93">
+        <v>258</v>
+      </c>
+      <c r="F385" s="94" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G385" s="95"/>
+      <c r="H385" s="96" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I385" s="97" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="93">
+        <v>385</v>
+      </c>
+      <c r="B386" s="91">
+        <v>21333</v>
+      </c>
+      <c r="C386" s="93"/>
+      <c r="D386" s="93">
+        <v>382</v>
+      </c>
+      <c r="E386" s="93">
+        <v>259</v>
+      </c>
+      <c r="F386" s="94" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G386" s="95"/>
+      <c r="H386" s="96" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I386" s="97" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="93">
+        <v>386</v>
+      </c>
+      <c r="B387" s="91">
+        <v>21334</v>
+      </c>
+      <c r="C387" s="93"/>
+      <c r="D387" s="93">
+        <v>383</v>
+      </c>
+      <c r="E387" s="93"/>
+      <c r="F387" s="94" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G387" s="95"/>
+      <c r="H387" s="96" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I387" s="97" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="93">
+        <v>387</v>
+      </c>
+      <c r="B388" s="91">
+        <v>21335</v>
+      </c>
+      <c r="C388" s="93"/>
+      <c r="D388" s="93">
+        <v>384</v>
+      </c>
+      <c r="E388" s="93"/>
+      <c r="F388" s="94" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G388" s="95"/>
+      <c r="H388" s="96" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I388" s="97" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="93">
+        <v>388</v>
+      </c>
+      <c r="B389" s="91">
+        <v>21336</v>
+      </c>
+      <c r="C389" s="93"/>
+      <c r="D389" s="93">
+        <v>385</v>
+      </c>
+      <c r="E389" s="93">
+        <v>260</v>
+      </c>
+      <c r="F389" s="94" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G389" s="95"/>
+      <c r="H389" s="96" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I389" s="97" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="93">
+        <v>389</v>
+      </c>
+      <c r="B390" s="91">
+        <v>21337</v>
+      </c>
+      <c r="C390" s="93"/>
+      <c r="D390" s="93">
+        <v>386</v>
+      </c>
+      <c r="E390" s="93"/>
+      <c r="F390" s="94" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G390" s="95"/>
+      <c r="H390" s="96" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I390" s="97" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="93">
+        <v>390</v>
+      </c>
+      <c r="B391" s="91">
+        <v>21338</v>
+      </c>
+      <c r="C391" s="93"/>
+      <c r="D391" s="93">
+        <v>387</v>
+      </c>
+      <c r="E391" s="93">
+        <v>261</v>
+      </c>
+      <c r="F391" s="94" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G391" s="95"/>
+      <c r="H391" s="96" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I391" s="97" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="93">
+        <v>391</v>
+      </c>
+      <c r="B392" s="91">
+        <v>21339</v>
+      </c>
+      <c r="C392" s="93"/>
+      <c r="D392" s="93">
+        <v>388</v>
+      </c>
+      <c r="E392" s="93">
+        <v>262</v>
+      </c>
+      <c r="F392" s="94" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G392" s="95"/>
+      <c r="H392" s="96" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I392" s="97" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" s="6" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="13">
+        <v>392</v>
+      </c>
+      <c r="B393" s="11">
+        <v>21340</v>
+      </c>
+      <c r="C393" s="11"/>
+      <c r="D393" s="11">
+        <v>389</v>
+      </c>
+      <c r="E393" s="11"/>
+      <c r="F393" s="40" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G393" s="35"/>
+      <c r="H393" s="40" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I393" s="13" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -32580,10 +34161,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I527"/>
+  <dimension ref="A1:I553"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D224" sqref="D224"/>
+    <sheetView topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="C539" sqref="C539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35794,7 +37375,7 @@
         <v>178</v>
       </c>
       <c r="C224" s="85" t="s">
-        <v>1273</v>
+        <v>1236</v>
       </c>
       <c r="D224" s="60">
         <v>257</v>
@@ -35808,7 +37389,7 @@
         <v>179</v>
       </c>
       <c r="C225" s="85" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="D225" s="60">
         <v>0</v>
@@ -35822,7 +37403,7 @@
         <v>180</v>
       </c>
       <c r="C226" s="85" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D226" s="60">
         <v>0</v>
@@ -35836,7 +37417,7 @@
         <v>181</v>
       </c>
       <c r="C227" s="85" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D227" s="60">
         <v>0</v>
@@ -35987,7 +37568,7 @@
         <v>184</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1256</v>
+        <v>1337</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
@@ -36113,7 +37694,7 @@
         <v>185</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1256</v>
+        <v>1222</v>
       </c>
       <c r="D245" s="11">
         <v>0</v>
@@ -36239,7 +37820,7 @@
         <v>186</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>1256</v>
+        <v>1222</v>
       </c>
       <c r="D253" s="11">
         <v>0</v>
@@ -36365,7 +37946,7 @@
         <v>187</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>1256</v>
+        <v>1222</v>
       </c>
       <c r="D261" s="11">
         <v>0</v>
@@ -36491,7 +38072,7 @@
         <v>188</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1256</v>
+        <v>1222</v>
       </c>
       <c r="D269" s="11">
         <v>0</v>
@@ -36617,7 +38198,7 @@
         <v>189</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>1256</v>
+        <v>1222</v>
       </c>
       <c r="D277" s="11">
         <v>0</v>
@@ -36743,7 +38324,7 @@
         <v>190</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>1256</v>
+        <v>1222</v>
       </c>
       <c r="D285" s="11">
         <v>0</v>
@@ -36775,7 +38356,7 @@
         <v>192</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D287" s="10">
         <v>247</v>
@@ -36790,7 +38371,7 @@
         <v>193</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D288" s="10">
         <v>248</v>
@@ -36805,7 +38386,7 @@
         <v>194</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D289" s="10">
         <v>249</v>
@@ -36820,7 +38401,7 @@
         <v>195</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D290" s="10">
         <v>250</v>
@@ -36835,7 +38416,7 @@
         <v>196</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D291" s="10">
         <v>251</v>
@@ -36850,7 +38431,7 @@
         <v>197</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D292" s="10">
         <v>252</v>
@@ -40182,7 +41763,7 @@
         <v>367</v>
       </c>
       <c r="C524" s="87" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D524" s="10">
         <v>253</v>
@@ -40196,7 +41777,7 @@
         <v>368</v>
       </c>
       <c r="C525" s="87" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D525" s="10">
         <v>254</v>
@@ -40210,7 +41791,7 @@
         <v>369</v>
       </c>
       <c r="C526" s="87" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D526" s="10">
         <v>255</v>
@@ -40224,10 +41805,389 @@
         <v>370</v>
       </c>
       <c r="C527" s="87" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D527" s="10">
         <v>256</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="11">
+        <v>527</v>
+      </c>
+      <c r="B528" s="13">
+        <v>371</v>
+      </c>
+      <c r="C528" s="13" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D528" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="11">
+        <v>528</v>
+      </c>
+      <c r="B529" s="13">
+        <v>372</v>
+      </c>
+      <c r="C529" s="13" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D529" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="11">
+        <v>529</v>
+      </c>
+      <c r="B530" s="13">
+        <v>373</v>
+      </c>
+      <c r="C530" s="13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D530" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="11">
+        <v>530</v>
+      </c>
+      <c r="B531" s="13">
+        <v>374</v>
+      </c>
+      <c r="C531" s="13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D531" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="11">
+        <v>531</v>
+      </c>
+      <c r="B532" s="13">
+        <v>375</v>
+      </c>
+      <c r="C532" s="13" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D532" s="12">
+        <v>0</v>
+      </c>
+      <c r="E532" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="11">
+        <v>532</v>
+      </c>
+      <c r="B533" s="13">
+        <v>376</v>
+      </c>
+      <c r="C533" s="13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D533" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="11">
+        <v>533</v>
+      </c>
+      <c r="B534" s="13">
+        <v>377</v>
+      </c>
+      <c r="C534" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D534" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="11">
+        <v>534</v>
+      </c>
+      <c r="B535" s="13">
+        <v>378</v>
+      </c>
+      <c r="C535" s="13" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D535" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="11">
+        <v>535</v>
+      </c>
+      <c r="B536" s="13">
+        <v>379</v>
+      </c>
+      <c r="C536" s="13" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D536" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="11">
+        <v>536</v>
+      </c>
+      <c r="B537" s="13">
+        <v>380</v>
+      </c>
+      <c r="C537" s="13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D537" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="11">
+        <v>537</v>
+      </c>
+      <c r="B538" s="13">
+        <v>381</v>
+      </c>
+      <c r="C538" s="13" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D538" s="12">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="11">
+        <v>538</v>
+      </c>
+      <c r="B539" s="13">
+        <v>382</v>
+      </c>
+      <c r="C539" s="13" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D539" s="12">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="11">
+        <v>539</v>
+      </c>
+      <c r="B540" s="13">
+        <v>383</v>
+      </c>
+      <c r="C540" s="13" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D540" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="11">
+        <v>540</v>
+      </c>
+      <c r="B541" s="13">
+        <v>384</v>
+      </c>
+      <c r="C541" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D541" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A542" s="11">
+        <v>541</v>
+      </c>
+      <c r="B542" s="13">
+        <v>385</v>
+      </c>
+      <c r="C542" s="13" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D542" s="12">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="11">
+        <v>542</v>
+      </c>
+      <c r="B543" s="13">
+        <v>386</v>
+      </c>
+      <c r="C543" s="13" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D543" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A544" s="11">
+        <v>543</v>
+      </c>
+      <c r="B544" s="13">
+        <v>387</v>
+      </c>
+      <c r="C544" s="13" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D544" s="12">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="11">
+        <v>544</v>
+      </c>
+      <c r="B545" s="13">
+        <v>388</v>
+      </c>
+      <c r="C545" s="13" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D545" s="12">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A546" s="11">
+        <v>545</v>
+      </c>
+      <c r="B546" s="11">
+        <v>389</v>
+      </c>
+      <c r="C546" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="D546" s="11">
+        <v>0</v>
+      </c>
+      <c r="E546" s="6"/>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A547" s="11">
+        <v>546</v>
+      </c>
+      <c r="B547" s="11">
+        <v>389</v>
+      </c>
+      <c r="C547" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="D547" s="11">
+        <v>0</v>
+      </c>
+      <c r="E547" s="11"/>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A548" s="11">
+        <v>547</v>
+      </c>
+      <c r="B548" s="11">
+        <v>389</v>
+      </c>
+      <c r="C548" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="D548" s="11">
+        <v>0</v>
+      </c>
+      <c r="E548" s="11"/>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A549" s="11">
+        <v>548</v>
+      </c>
+      <c r="B549" s="11">
+        <v>389</v>
+      </c>
+      <c r="C549" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="D549" s="11">
+        <v>0</v>
+      </c>
+      <c r="E549" s="11"/>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A550" s="11">
+        <v>549</v>
+      </c>
+      <c r="B550" s="11">
+        <v>389</v>
+      </c>
+      <c r="C550" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D550" s="11">
+        <v>0</v>
+      </c>
+      <c r="E550" s="11"/>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A551" s="11">
+        <v>550</v>
+      </c>
+      <c r="B551" s="11">
+        <v>389</v>
+      </c>
+      <c r="C551" s="13" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D551" s="11">
+        <v>0</v>
+      </c>
+      <c r="E551" s="11"/>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A552" s="11">
+        <v>551</v>
+      </c>
+      <c r="B552" s="11">
+        <v>389</v>
+      </c>
+      <c r="C552" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D552" s="11">
+        <v>0</v>
+      </c>
+      <c r="E552" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A553" s="11">
+        <v>552</v>
+      </c>
+      <c r="B553" s="11">
+        <v>389</v>
+      </c>
+      <c r="C553" s="13" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D553" s="11">
+        <v>0</v>
+      </c>
+      <c r="E553" s="11">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -40239,13 +42199,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M369"/>
+  <dimension ref="A1:M375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C345" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C347" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C369" sqref="C369"/>
+      <selection pane="bottomRight" activeCell="D371" sqref="D371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46985,7 +48945,7 @@
         <v>688</v>
       </c>
       <c r="D360" s="15" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E360" s="11">
         <v>2</v>
@@ -47002,7 +48962,7 @@
         <v>688</v>
       </c>
       <c r="D361" s="15" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E361" s="11">
         <v>2</v>
@@ -47019,7 +48979,7 @@
         <v>688</v>
       </c>
       <c r="D362" s="15" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E362" s="11">
         <v>2</v>
@@ -47036,7 +48996,7 @@
         <v>688</v>
       </c>
       <c r="D363" s="15" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E363" s="11">
         <v>2</v>
@@ -47053,7 +49013,7 @@
         <v>688</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>1196</v>
+        <v>1332</v>
       </c>
       <c r="E364" s="11">
         <v>2</v>
@@ -47067,10 +49027,10 @@
         <v>253</v>
       </c>
       <c r="C365" s="19" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D365" s="83" t="s">
         <v>1216</v>
-      </c>
-      <c r="D365" s="83" t="s">
-        <v>1218</v>
       </c>
       <c r="E365" s="10">
         <v>2</v>
@@ -47084,7 +49044,7 @@
         <v>254</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D366" s="10">
         <v>3</v>
@@ -47101,7 +49061,7 @@
         <v>255</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D367" s="10">
         <v>4</v>
@@ -47118,7 +49078,7 @@
         <v>256</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D368" s="10">
         <v>5</v>
@@ -47138,13 +49098,115 @@
         <v>675</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>1270</v>
+        <v>1233</v>
       </c>
       <c r="E369" s="29">
         <v>2</v>
       </c>
       <c r="F369" s="29"/>
       <c r="G369" s="29"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A370" s="7">
+        <v>399</v>
+      </c>
+      <c r="B370" s="12">
+        <v>258</v>
+      </c>
+      <c r="C370" s="13" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D370" s="11">
+        <v>5000000</v>
+      </c>
+      <c r="E370" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A371" s="7">
+        <v>400</v>
+      </c>
+      <c r="B371" s="12">
+        <v>259</v>
+      </c>
+      <c r="C371" s="13" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D371" s="13">
+        <v>20</v>
+      </c>
+      <c r="E371" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A372" s="7">
+        <v>401</v>
+      </c>
+      <c r="B372" s="12">
+        <v>259</v>
+      </c>
+      <c r="C372" s="13" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D372" s="11">
+        <v>100000</v>
+      </c>
+      <c r="E372" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A373" s="7">
+        <v>402</v>
+      </c>
+      <c r="B373" s="12">
+        <v>260</v>
+      </c>
+      <c r="C373" s="13" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D373" s="11">
+        <v>480000</v>
+      </c>
+      <c r="E373" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A374" s="7">
+        <v>403</v>
+      </c>
+      <c r="B374" s="12">
+        <v>261</v>
+      </c>
+      <c r="C374" s="13" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D374" s="11">
+        <v>960000</v>
+      </c>
+      <c r="E374" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A375" s="7">
+        <v>404</v>
+      </c>
+      <c r="B375" s="12">
+        <v>262</v>
+      </c>
+      <c r="C375" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D375" s="11">
+        <v>10</v>
+      </c>
+      <c r="E375" s="11">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -47155,13 +49217,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W798"/>
+  <dimension ref="A1:W830"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C676" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C797" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H790" sqref="H790"/>
+      <selection pane="bottomRight" activeCell="E812" sqref="E812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -53022,7 +55084,7 @@
         <v>766</v>
       </c>
       <c r="E264" s="10">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="F264" s="10">
         <v>1</v>
@@ -53060,8 +55122,8 @@
         <v>151</v>
       </c>
       <c r="C266" s="10"/>
-      <c r="D266" s="10" t="s">
-        <v>776</v>
+      <c r="D266" s="19" t="s">
+        <v>1333</v>
       </c>
       <c r="E266" s="10">
         <v>1</v>
@@ -53085,7 +55147,7 @@
         <v>766</v>
       </c>
       <c r="E267" s="78">
-        <v>66000</v>
+        <v>660000</v>
       </c>
       <c r="F267" s="78">
         <v>1</v>
@@ -53103,7 +55165,7 @@
       </c>
       <c r="C268" s="78"/>
       <c r="D268" s="77" t="s">
-        <v>1175</v>
+        <v>1335</v>
       </c>
       <c r="E268" s="78">
         <v>10</v>
@@ -53123,8 +55185,8 @@
         <v>152</v>
       </c>
       <c r="C269" s="78"/>
-      <c r="D269" s="78" t="s">
-        <v>776</v>
+      <c r="D269" s="77" t="s">
+        <v>1334</v>
       </c>
       <c r="E269" s="78">
         <v>1</v>
@@ -57141,7 +59203,7 @@
       </c>
       <c r="C473" s="13"/>
       <c r="D473" s="13" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E473" s="11">
         <v>604800</v>
@@ -61263,7 +63325,7 @@
       </c>
       <c r="C670" s="11"/>
       <c r="D670" s="13" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="E670" s="11">
         <v>12000</v>
@@ -63360,7 +65422,7 @@
         <v>766</v>
       </c>
       <c r="E772" s="11">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F772" s="11">
         <v>1</v>
@@ -63398,8 +65460,8 @@
         <v>567</v>
       </c>
       <c r="C774" s="11"/>
-      <c r="D774" s="11" t="s">
-        <v>776</v>
+      <c r="D774" s="13" t="s">
+        <v>1336</v>
       </c>
       <c r="E774" s="11">
         <v>1</v>
@@ -63420,67 +65482,74 @@
       </c>
       <c r="C775" s="10"/>
       <c r="D775" s="19" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="E775" s="83" t="s">
-        <v>1238</v>
+        <v>1247</v>
       </c>
       <c r="F775" s="10">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H775" s="33"/>
     </row>
     <row r="776" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A776" s="9">
         <v>775</v>
       </c>
       <c r="B776" s="10">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C776" s="10"/>
       <c r="D776" s="19" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="E776" s="83" t="s">
-        <v>1239</v>
+        <v>1248</v>
       </c>
       <c r="F776" s="10">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G776" s="29"/>
+      <c r="H776" s="33"/>
+      <c r="I776" s="29"/>
     </row>
     <row r="777" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A777" s="9">
         <v>776</v>
       </c>
       <c r="B777" s="10">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C777" s="10"/>
       <c r="D777" s="19" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="E777" s="83" t="s">
-        <v>1240</v>
+        <v>1249</v>
       </c>
       <c r="F777" s="10">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G777" s="29"/>
+      <c r="H777" s="33"/>
+      <c r="I777" s="29"/>
     </row>
     <row r="778" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A778" s="9">
         <v>777</v>
       </c>
       <c r="B778" s="10">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C778" s="10"/>
       <c r="D778" s="19" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="E778" s="83" t="s">
-        <v>1237</v>
+        <v>1250</v>
       </c>
       <c r="F778" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="779" spans="1:9" x14ac:dyDescent="0.2">
@@ -63488,17 +65557,17 @@
         <v>778</v>
       </c>
       <c r="B779" s="10">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C779" s="10"/>
       <c r="D779" s="19" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="E779" s="83" t="s">
-        <v>1235</v>
+        <v>1251</v>
       </c>
       <c r="F779" s="10">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="780" spans="1:9" x14ac:dyDescent="0.2">
@@ -63506,119 +65575,125 @@
         <v>779</v>
       </c>
       <c r="B780" s="10">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C780" s="10"/>
       <c r="D780" s="19" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="E780" s="83" t="s">
-        <v>1236</v>
+        <v>1252</v>
       </c>
       <c r="F780" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="781" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A781" s="12">
+      <c r="A781" s="9">
         <v>780</v>
       </c>
-      <c r="B781" s="29">
-        <v>574</v>
-      </c>
-      <c r="D781" s="13" t="s">
-        <v>1226</v>
+      <c r="B781" s="10">
+        <v>570</v>
+      </c>
+      <c r="C781" s="10"/>
+      <c r="D781" s="19" t="s">
+        <v>1220</v>
       </c>
       <c r="E781" s="83" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F781" s="11">
-        <v>1</v>
+        <v>1253</v>
+      </c>
+      <c r="F781" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="782" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A782" s="12">
+      <c r="A782" s="9">
         <v>781</v>
       </c>
-      <c r="B782" s="29">
-        <v>575</v>
-      </c>
-      <c r="D782" s="13" t="s">
-        <v>1226</v>
+      <c r="B782" s="10">
+        <v>570</v>
+      </c>
+      <c r="C782" s="10"/>
+      <c r="D782" s="19" t="s">
+        <v>1220</v>
       </c>
       <c r="E782" s="83" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F782" s="11">
-        <v>1</v>
+        <v>1254</v>
+      </c>
+      <c r="F782" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="783" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A783" s="12">
+      <c r="A783" s="9">
         <v>782</v>
       </c>
-      <c r="B783" s="29">
-        <v>576</v>
-      </c>
-      <c r="D783" s="13" t="s">
-        <v>1226</v>
+      <c r="B783" s="10">
+        <v>570</v>
+      </c>
+      <c r="C783" s="10"/>
+      <c r="D783" s="19" t="s">
+        <v>1220</v>
       </c>
       <c r="E783" s="83" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F783" s="11">
-        <v>1</v>
+        <v>1255</v>
+      </c>
+      <c r="F783" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="784" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A784" s="12">
+      <c r="A784" s="9">
         <v>783</v>
       </c>
-      <c r="B784" s="29">
-        <v>577</v>
-      </c>
-      <c r="D784" s="13" t="s">
-        <v>1226</v>
+      <c r="B784" s="10">
+        <v>571</v>
+      </c>
+      <c r="C784" s="10"/>
+      <c r="D784" s="19" t="s">
+        <v>1220</v>
       </c>
       <c r="E784" s="83" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F784" s="11">
-        <v>1</v>
+        <v>1251</v>
+      </c>
+      <c r="F784" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A785" s="12">
+      <c r="A785" s="9">
         <v>784</v>
       </c>
-      <c r="B785" s="29">
-        <v>578</v>
-      </c>
-      <c r="D785" s="13" t="s">
-        <v>1226</v>
+      <c r="B785" s="10">
+        <v>571</v>
+      </c>
+      <c r="C785" s="10"/>
+      <c r="D785" s="19" t="s">
+        <v>1220</v>
       </c>
       <c r="E785" s="83" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F785" s="11">
-        <v>1</v>
+        <v>1256</v>
+      </c>
+      <c r="F785" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A786" s="12">
+      <c r="A786" s="9">
         <v>785</v>
       </c>
-      <c r="B786" s="29">
-        <v>579</v>
-      </c>
-      <c r="D786" s="13" t="s">
-        <v>1226</v>
+      <c r="B786" s="10">
+        <v>571</v>
+      </c>
+      <c r="C786" s="10"/>
+      <c r="D786" s="19" t="s">
+        <v>1220</v>
       </c>
       <c r="E786" s="83" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F786" s="11">
-        <v>1</v>
+        <v>1254</v>
+      </c>
+      <c r="F786" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.2">
@@ -63626,17 +65701,17 @@
         <v>786</v>
       </c>
       <c r="B787" s="10">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C787" s="10"/>
       <c r="D787" s="19" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="E787" s="83" t="s">
-        <v>1243</v>
+        <v>1254</v>
       </c>
       <c r="F787" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.2">
@@ -63644,17 +65719,17 @@
         <v>787</v>
       </c>
       <c r="B788" s="10">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C788" s="10"/>
       <c r="D788" s="19" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="E788" s="83" t="s">
-        <v>1244</v>
+        <v>1257</v>
       </c>
       <c r="F788" s="10">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.2">
@@ -63662,17 +65737,17 @@
         <v>788</v>
       </c>
       <c r="B789" s="10">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C789" s="10"/>
       <c r="D789" s="19" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E789" s="83" t="s">
-        <v>1245</v>
+        <v>1220</v>
+      </c>
+      <c r="E789" s="83">
+        <v>150</v>
       </c>
       <c r="F789" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.2">
@@ -63680,17 +65755,17 @@
         <v>789</v>
       </c>
       <c r="B790" s="10">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C790" s="10"/>
       <c r="D790" s="19" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E790" s="83" t="s">
-        <v>1246</v>
+        <v>1220</v>
+      </c>
+      <c r="E790" s="9">
+        <v>400</v>
       </c>
       <c r="F790" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.2">
@@ -63698,17 +65773,17 @@
         <v>790</v>
       </c>
       <c r="B791" s="10">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="C791" s="10"/>
       <c r="D791" s="19" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E791" s="83" t="s">
-        <v>1247</v>
+        <v>1220</v>
+      </c>
+      <c r="E791" s="9">
+        <v>500</v>
       </c>
       <c r="F791" s="10">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.2">
@@ -63716,120 +65791,762 @@
         <v>791</v>
       </c>
       <c r="B792" s="10">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="C792" s="10"/>
       <c r="D792" s="19" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E792" s="83" t="s">
-        <v>1248</v>
+        <v>1220</v>
+      </c>
+      <c r="E792" s="9">
+        <v>600</v>
       </c>
       <c r="F792" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A793" s="12">
+      <c r="A793" s="9">
         <v>792</v>
       </c>
-      <c r="B793" s="29">
+      <c r="B793" s="10">
+        <v>574</v>
+      </c>
+      <c r="C793" s="10"/>
+      <c r="D793" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E793" s="9">
+        <v>100</v>
+      </c>
+      <c r="F793" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A794" s="9">
+        <v>793</v>
+      </c>
+      <c r="B794" s="10">
+        <v>574</v>
+      </c>
+      <c r="C794" s="10"/>
+      <c r="D794" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E794" s="9">
+        <v>300</v>
+      </c>
+      <c r="F794" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A795" s="9">
+        <v>794</v>
+      </c>
+      <c r="B795" s="10">
+        <v>574</v>
+      </c>
+      <c r="C795" s="10"/>
+      <c r="D795" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E795" s="9">
+        <v>500</v>
+      </c>
+      <c r="F795" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A796" s="9">
+        <v>795</v>
+      </c>
+      <c r="B796" s="10">
+        <v>575</v>
+      </c>
+      <c r="C796" s="10"/>
+      <c r="D796" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E796" s="9">
+        <v>500</v>
+      </c>
+      <c r="F796" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A797" s="9">
+        <v>796</v>
+      </c>
+      <c r="B797" s="10">
+        <v>575</v>
+      </c>
+      <c r="C797" s="10"/>
+      <c r="D797" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E797" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F797" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A798" s="9">
+        <v>797</v>
+      </c>
+      <c r="B798" s="10">
+        <v>575</v>
+      </c>
+      <c r="C798" s="10"/>
+      <c r="D798" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E798" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F798" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A799" s="9">
+        <v>798</v>
+      </c>
+      <c r="B799" s="10">
+        <v>576</v>
+      </c>
+      <c r="C799" s="10"/>
+      <c r="D799" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E799" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F799" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A800" s="9">
+        <v>799</v>
+      </c>
+      <c r="B800" s="10">
+        <v>576</v>
+      </c>
+      <c r="C800" s="10"/>
+      <c r="D800" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E800" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F800" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="801" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A801" s="9">
+        <v>800</v>
+      </c>
+      <c r="B801" s="10">
+        <v>576</v>
+      </c>
+      <c r="C801" s="10"/>
+      <c r="D801" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E801" s="9">
+        <v>6000</v>
+      </c>
+      <c r="F801" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="802" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A802" s="9">
+        <v>801</v>
+      </c>
+      <c r="B802" s="10">
+        <v>577</v>
+      </c>
+      <c r="C802" s="10"/>
+      <c r="D802" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E802" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F802" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="803" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A803" s="9">
+        <v>802</v>
+      </c>
+      <c r="B803" s="10">
+        <v>577</v>
+      </c>
+      <c r="C803" s="10"/>
+      <c r="D803" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E803" s="9">
+        <v>3000</v>
+      </c>
+      <c r="F803" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="804" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A804" s="9">
+        <v>803</v>
+      </c>
+      <c r="B804" s="10">
+        <v>577</v>
+      </c>
+      <c r="C804" s="10"/>
+      <c r="D804" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E804" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F804" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="805" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A805" s="9">
+        <v>804</v>
+      </c>
+      <c r="B805" s="10">
+        <v>578</v>
+      </c>
+      <c r="C805" s="10"/>
+      <c r="D805" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E805" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F805" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="806" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A806" s="9">
+        <v>805</v>
+      </c>
+      <c r="B806" s="10">
+        <v>578</v>
+      </c>
+      <c r="C806" s="10"/>
+      <c r="D806" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E806" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F806" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="807" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A807" s="9">
+        <v>806</v>
+      </c>
+      <c r="B807" s="10">
+        <v>578</v>
+      </c>
+      <c r="C807" s="10"/>
+      <c r="D807" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E807" s="9">
+        <v>15000</v>
+      </c>
+      <c r="F807" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="808" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A808" s="9">
+        <v>807</v>
+      </c>
+      <c r="B808" s="10">
+        <v>579</v>
+      </c>
+      <c r="C808" s="10"/>
+      <c r="D808" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E808" s="9">
+        <v>40000</v>
+      </c>
+      <c r="F808" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="809" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A809" s="9">
+        <v>808</v>
+      </c>
+      <c r="B809" s="10">
+        <v>579</v>
+      </c>
+      <c r="C809" s="10"/>
+      <c r="D809" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E809" s="9">
+        <v>50000</v>
+      </c>
+      <c r="F809" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="810" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A810" s="9">
+        <v>809</v>
+      </c>
+      <c r="B810" s="10">
+        <v>579</v>
+      </c>
+      <c r="C810" s="10"/>
+      <c r="D810" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E810" s="9">
+        <v>60000</v>
+      </c>
+      <c r="F810" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="811" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A811" s="12">
+        <v>810</v>
+      </c>
+      <c r="B811" s="11">
+        <v>580</v>
+      </c>
+      <c r="C811" s="11"/>
+      <c r="D811" s="13" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E811" s="27" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F811" s="11">
+        <v>1</v>
+      </c>
+      <c r="G811" s="11"/>
+      <c r="H811" s="11"/>
+      <c r="I811" s="11"/>
+    </row>
+    <row r="812" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A812" s="12">
+        <v>811</v>
+      </c>
+      <c r="B812" s="11">
+        <v>581</v>
+      </c>
+      <c r="C812" s="11"/>
+      <c r="D812" s="13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E812" s="15" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F812" s="11">
+        <v>1</v>
+      </c>
+      <c r="G812" s="11"/>
+      <c r="H812" s="11"/>
+      <c r="I812" s="11"/>
+    </row>
+    <row r="813" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A813" s="12">
+        <v>812</v>
+      </c>
+      <c r="B813" s="11">
+        <v>581</v>
+      </c>
+      <c r="C813" s="11"/>
+      <c r="D813" s="13" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E813" s="27">
+        <v>1</v>
+      </c>
+      <c r="F813" s="11">
+        <v>1</v>
+      </c>
+      <c r="G813" s="11"/>
+      <c r="H813" s="11"/>
+      <c r="I813" s="11"/>
+    </row>
+    <row r="814" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A814" s="12">
+        <v>813</v>
+      </c>
+      <c r="B814" s="11">
+        <v>582</v>
+      </c>
+      <c r="C814" s="11"/>
+      <c r="D814" s="13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E814" s="27">
+        <v>400</v>
+      </c>
+      <c r="F814" s="11">
+        <v>1</v>
+      </c>
+      <c r="G814" s="11"/>
+      <c r="H814" s="11"/>
+      <c r="I814" s="11"/>
+    </row>
+    <row r="815" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A815" s="12">
+        <v>814</v>
+      </c>
+      <c r="B815" s="11">
+        <v>582</v>
+      </c>
+      <c r="C815" s="11"/>
+      <c r="D815" s="13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E815" s="27">
+        <v>1</v>
+      </c>
+      <c r="F815" s="11">
+        <v>1</v>
+      </c>
+      <c r="G815" s="11"/>
+      <c r="H815" s="11"/>
+      <c r="I815" s="11"/>
+    </row>
+    <row r="816" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A816" s="12">
+        <v>815</v>
+      </c>
+      <c r="B816" s="11">
+        <v>583</v>
+      </c>
+      <c r="C816" s="11"/>
+      <c r="D816" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E816" s="27">
+        <v>6000</v>
+      </c>
+      <c r="F816" s="11">
+        <v>1</v>
+      </c>
+      <c r="G816" s="11"/>
+      <c r="H816" s="11"/>
+      <c r="I816" s="11"/>
+    </row>
+    <row r="817" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A817" s="12">
+        <v>816</v>
+      </c>
+      <c r="B817" s="11">
+        <v>584</v>
+      </c>
+      <c r="C817" s="11"/>
+      <c r="D817" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E817" s="27">
+        <v>10000</v>
+      </c>
+      <c r="F817" s="11">
+        <v>1</v>
+      </c>
+      <c r="G817" s="11"/>
+      <c r="H817" s="11"/>
+      <c r="I817" s="11"/>
+    </row>
+    <row r="818" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A818" s="12">
+        <v>817</v>
+      </c>
+      <c r="B818" s="11">
+        <v>585</v>
+      </c>
+      <c r="C818" s="11"/>
+      <c r="D818" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="E818" s="27">
+        <v>200</v>
+      </c>
+      <c r="F818" s="11">
+        <v>1</v>
+      </c>
+      <c r="G818" s="11"/>
+      <c r="H818" s="11"/>
+      <c r="I818" s="11"/>
+    </row>
+    <row r="819" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A819" s="12">
+        <v>818</v>
+      </c>
+      <c r="B819" s="11">
         <v>586</v>
       </c>
-      <c r="D793" s="13" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E793" s="83" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F793" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A794" s="12">
-        <v>793</v>
-      </c>
-      <c r="B794" s="29">
+      <c r="C819" s="11"/>
+      <c r="D819" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="E819" s="27">
+        <v>400</v>
+      </c>
+      <c r="F819" s="11">
+        <v>1</v>
+      </c>
+      <c r="G819" s="11"/>
+      <c r="H819" s="11"/>
+      <c r="I819" s="11"/>
+    </row>
+    <row r="820" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A820" s="12">
+        <v>819</v>
+      </c>
+      <c r="B820" s="11">
         <v>587</v>
       </c>
-      <c r="D794" s="13" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E794" s="83" t="s">
-        <v>1250</v>
-      </c>
-      <c r="F794" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A795" s="12">
-        <v>794</v>
-      </c>
-      <c r="B795" s="29">
+      <c r="C820" s="11"/>
+      <c r="D820" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="E820" s="27">
+        <v>800</v>
+      </c>
+      <c r="F820" s="11">
+        <v>1</v>
+      </c>
+      <c r="G820" s="11"/>
+      <c r="H820" s="11"/>
+      <c r="I820" s="11"/>
+    </row>
+    <row r="821" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A821" s="12">
+        <v>820</v>
+      </c>
+      <c r="B821" s="11">
         <v>588</v>
       </c>
-      <c r="D795" s="13" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E795" s="83" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F795" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A796" s="12">
-        <v>795</v>
-      </c>
-      <c r="B796" s="29">
+      <c r="C821" s="11"/>
+      <c r="D821" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="E821" s="27">
+        <v>1600</v>
+      </c>
+      <c r="F821" s="11">
+        <v>1</v>
+      </c>
+      <c r="G821" s="11"/>
+      <c r="H821" s="11"/>
+      <c r="I821" s="11"/>
+    </row>
+    <row r="822" spans="1:9" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A822" s="12">
+        <v>821</v>
+      </c>
+      <c r="B822" s="11">
         <v>589</v>
       </c>
-      <c r="D796" s="13" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E796" s="83" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F796" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A797" s="12">
-        <v>796</v>
-      </c>
-      <c r="B797" s="29">
+      <c r="C822" s="11"/>
+      <c r="D822" s="100" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E822" s="27">
+        <v>3500</v>
+      </c>
+      <c r="F822" s="11">
+        <v>1</v>
+      </c>
+      <c r="G822" s="11"/>
+      <c r="H822" s="11"/>
+      <c r="I822" s="11"/>
+    </row>
+    <row r="823" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A823" s="12">
+        <v>822</v>
+      </c>
+      <c r="B823" s="11">
         <v>590</v>
       </c>
-      <c r="D797" s="13" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E797" s="83" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F797" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A798" s="12">
-        <v>797</v>
-      </c>
-      <c r="B798" s="29">
+      <c r="C823" s="11"/>
+      <c r="D823" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="E823" s="27">
+        <v>7000</v>
+      </c>
+      <c r="F823" s="11">
+        <v>1</v>
+      </c>
+      <c r="G823" s="11"/>
+      <c r="H823" s="11"/>
+      <c r="I823" s="11"/>
+    </row>
+    <row r="824" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A824" s="12">
+        <v>823</v>
+      </c>
+      <c r="B824" s="11">
         <v>591</v>
       </c>
-      <c r="D798" s="13" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E798" s="83" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F798" s="11">
-        <v>1</v>
-      </c>
+      <c r="C824" s="11"/>
+      <c r="D824" s="13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E824" s="27">
+        <v>14000</v>
+      </c>
+      <c r="F824" s="11">
+        <v>1</v>
+      </c>
+      <c r="G824" s="11"/>
+      <c r="H824" s="11"/>
+      <c r="I824" s="11"/>
+    </row>
+    <row r="825" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A825" s="12">
+        <v>824</v>
+      </c>
+      <c r="B825" s="11">
+        <v>592</v>
+      </c>
+      <c r="C825" s="13" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D825" s="11"/>
+      <c r="E825" s="27"/>
+      <c r="F825" s="11">
+        <v>1</v>
+      </c>
+      <c r="G825" s="11"/>
+      <c r="H825" s="11">
+        <v>1</v>
+      </c>
+      <c r="I825" s="11"/>
+    </row>
+    <row r="826" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A826" s="12">
+        <v>825</v>
+      </c>
+      <c r="B826" s="11">
+        <v>593</v>
+      </c>
+      <c r="C826" s="13" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D826" s="11"/>
+      <c r="E826" s="27"/>
+      <c r="F826" s="11">
+        <v>1</v>
+      </c>
+      <c r="G826" s="11"/>
+      <c r="H826" s="11">
+        <v>1</v>
+      </c>
+      <c r="I826" s="11"/>
+    </row>
+    <row r="827" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A827" s="12">
+        <v>826</v>
+      </c>
+      <c r="B827" s="11">
+        <v>594</v>
+      </c>
+      <c r="C827" s="13" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D827" s="11"/>
+      <c r="E827" s="27"/>
+      <c r="F827" s="11">
+        <v>1</v>
+      </c>
+      <c r="G827" s="11"/>
+      <c r="H827" s="11">
+        <v>1</v>
+      </c>
+      <c r="I827" s="11"/>
+    </row>
+    <row r="828" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A828" s="12">
+        <v>827</v>
+      </c>
+      <c r="B828" s="11">
+        <v>595</v>
+      </c>
+      <c r="C828" s="13" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D828" s="11"/>
+      <c r="E828" s="27"/>
+      <c r="F828" s="11">
+        <v>1</v>
+      </c>
+      <c r="G828" s="11"/>
+      <c r="H828" s="11">
+        <v>1</v>
+      </c>
+      <c r="I828" s="11"/>
+    </row>
+    <row r="829" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A829" s="12">
+        <v>828</v>
+      </c>
+      <c r="B829" s="11">
+        <v>596</v>
+      </c>
+      <c r="C829" s="13" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D829" s="11"/>
+      <c r="E829" s="27"/>
+      <c r="F829" s="11">
+        <v>1</v>
+      </c>
+      <c r="G829" s="11"/>
+      <c r="H829" s="11">
+        <v>1</v>
+      </c>
+      <c r="I829" s="11"/>
+    </row>
+    <row r="830" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A830" s="12">
+        <v>829</v>
+      </c>
+      <c r="B830" s="11">
+        <v>597</v>
+      </c>
+      <c r="C830" s="13" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D830" s="11"/>
+      <c r="E830" s="27"/>
+      <c r="F830" s="11">
+        <v>1</v>
+      </c>
+      <c r="G830" s="11"/>
+      <c r="H830" s="11">
+        <v>1</v>
+      </c>
+      <c r="I830" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -63843,7 +66560,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_Release/task_zajindan_server.xlsx
+++ b/config_Release/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5007" uniqueCount="1361">
   <si>
     <t>id|任务id</t>
   </si>
@@ -6999,22 +6999,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>新人七天乐_3D捕鱼中捕获3条彩金鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐_3D捕鱼中捕获5条彩金鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐_3D捕鱼中捕获5条活动鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐_3D捕鱼中捕获3只BOSS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>complete_clear_task</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7023,34 +7007,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>新人七天乐_3D捕鱼中捕获3条活动鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>buyu_3d_target_yu</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7060,10 +7016,6 @@
   </si>
   <si>
     <t>28,29,30,31,32,33,34,35,36,37</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_6</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -7866,6 +7818,70 @@
   </si>
   <si>
     <t>100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_any</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_fish_id</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐_累计充值3元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐_3D捕鱼累计赢金50万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐_3D捕鱼累计赢金200万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐_小游戏赢金100万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐__成为VIP2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level_up</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level_up</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_gift</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent_charge_any</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -7957,7 +7973,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8036,6 +8052,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8078,7 +8112,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8366,6 +8400,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8652,10 +8707,10 @@
   <dimension ref="A1:T393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D362" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D379" sqref="A379:D379"/>
+      <selection pane="bottomRight" activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15788,13 +15843,13 @@
         <v>0</v>
       </c>
       <c r="C179" s="84" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="D179" s="84" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="E179" s="84" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="F179" s="84" t="s">
         <v>13</v>
@@ -15827,10 +15882,10 @@
         <v>0</v>
       </c>
       <c r="C180" s="84" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="D180" s="84" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="E180" s="84" t="s">
         <v>132</v>
@@ -15866,10 +15921,10 @@
         <v>0</v>
       </c>
       <c r="C181" s="84" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="D181" s="84" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="E181" s="84" t="s">
         <v>132</v>
@@ -15905,10 +15960,10 @@
         <v>0</v>
       </c>
       <c r="C182" s="84" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="D182" s="84" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
       <c r="E182" s="84" t="s">
         <v>132</v>
@@ -15944,10 +15999,10 @@
         <v>0</v>
       </c>
       <c r="C183" s="84" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="D183" s="61" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="E183" s="84" t="s">
         <v>132</v>
@@ -15983,10 +16038,10 @@
         <v>0</v>
       </c>
       <c r="C184" s="84" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="D184" s="61" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="E184" s="84" t="s">
         <v>132</v>
@@ -16022,10 +16077,10 @@
         <v>0</v>
       </c>
       <c r="C185" s="84" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="D185" s="84" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="E185" s="84" t="s">
         <v>132</v>
@@ -16061,10 +16116,10 @@
         <v>0</v>
       </c>
       <c r="C186" s="84" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="D186" s="84" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="E186" s="84" t="s">
         <v>132</v>
@@ -16100,10 +16155,10 @@
         <v>0</v>
       </c>
       <c r="C187" s="84" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="D187" s="84" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="E187" s="84" t="s">
         <v>132</v>
@@ -16139,10 +16194,10 @@
         <v>0</v>
       </c>
       <c r="C188" s="84" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="D188" s="84" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="E188" s="84" t="s">
         <v>132</v>
@@ -16178,10 +16233,10 @@
         <v>0</v>
       </c>
       <c r="C189" s="84" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="D189" s="84" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="E189" s="84" t="s">
         <v>132</v>
@@ -16217,10 +16272,10 @@
         <v>0</v>
       </c>
       <c r="C190" s="84" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="D190" s="84" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
       <c r="E190" s="84" t="s">
         <v>132</v>
@@ -16256,10 +16311,10 @@
         <v>0</v>
       </c>
       <c r="C191" s="84" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="D191" s="84" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="E191" s="84" t="s">
         <v>132</v>
@@ -16336,7 +16391,7 @@
         <v>237</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>1184</v>
+        <v>1350</v>
       </c>
       <c r="E193" s="51" t="s">
         <v>239</v>
@@ -16374,7 +16429,7 @@
         <v>237</v>
       </c>
       <c r="D194" s="51" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="E194" s="51" t="s">
         <v>239</v>
@@ -16412,7 +16467,7 @@
         <v>237</v>
       </c>
       <c r="D195" s="51" t="s">
-        <v>1185</v>
+        <v>1351</v>
       </c>
       <c r="E195" s="51" t="s">
         <v>239</v>
@@ -16450,7 +16505,7 @@
         <v>237</v>
       </c>
       <c r="D196" s="51" t="s">
-        <v>1180</v>
+        <v>1352</v>
       </c>
       <c r="E196" s="51" t="s">
         <v>239</v>
@@ -16488,7 +16543,7 @@
         <v>237</v>
       </c>
       <c r="D197" s="51" t="s">
-        <v>1181</v>
+        <v>1353</v>
       </c>
       <c r="E197" s="51" t="s">
         <v>239</v>
@@ -16526,7 +16581,7 @@
         <v>237</v>
       </c>
       <c r="D198" s="51" t="s">
-        <v>1182</v>
+        <v>1354</v>
       </c>
       <c r="E198" s="51" t="s">
         <v>239</v>
@@ -20256,7 +20311,7 @@
         <v>852</v>
       </c>
       <c r="F296" s="16" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="G296" s="12">
         <v>21243</v>
@@ -22983,16 +23038,16 @@
         <v>1</v>
       </c>
       <c r="C368" s="51" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="D368" s="86" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
       <c r="E368" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F368" s="51" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="G368" s="9">
         <v>21315</v>
@@ -23021,16 +23076,16 @@
         <v>1</v>
       </c>
       <c r="C369" s="51" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="D369" s="86" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="E369" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F369" s="51" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="G369" s="9">
         <v>21316</v>
@@ -23059,16 +23114,16 @@
         <v>1</v>
       </c>
       <c r="C370" s="51" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="D370" s="51" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="E370" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F370" s="51" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="G370" s="9">
         <v>21317</v>
@@ -23097,16 +23152,16 @@
         <v>1</v>
       </c>
       <c r="C371" s="51" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="D371" s="51" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="E371" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F371" s="51" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="G371" s="9">
         <v>21318</v>
@@ -23135,16 +23190,16 @@
         <v>1</v>
       </c>
       <c r="C372" s="89" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D372" s="89" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="E372" s="89" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="F372" s="89" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="G372" s="88">
         <v>21319</v>
@@ -23173,16 +23228,16 @@
         <v>1</v>
       </c>
       <c r="C373" s="89" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="D373" s="89" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="E373" s="89" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="F373" s="89" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="G373" s="88">
         <v>21320</v>
@@ -23211,16 +23266,16 @@
         <v>1</v>
       </c>
       <c r="C374" s="89" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D374" s="89" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="E374" s="89" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="F374" s="89" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="G374" s="88">
         <v>21321</v>
@@ -23249,16 +23304,16 @@
         <v>1</v>
       </c>
       <c r="C375" s="89" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D375" s="89" t="s">
-        <v>1273</v>
+        <v>1261</v>
       </c>
       <c r="E375" s="90" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="F375" s="89" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="G375" s="88">
         <v>21322</v>
@@ -23287,16 +23342,16 @@
         <v>1</v>
       </c>
       <c r="C376" s="89" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D376" s="89" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="E376" s="90" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="F376" s="89" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="G376" s="88">
         <v>21323</v>
@@ -23325,16 +23380,16 @@
         <v>1</v>
       </c>
       <c r="C377" s="89" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D377" s="89" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="E377" s="90" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="F377" s="89" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="G377" s="88">
         <v>21324</v>
@@ -23363,16 +23418,16 @@
         <v>1</v>
       </c>
       <c r="C378" s="89" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D378" s="89" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="E378" s="90" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="F378" s="89" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="G378" s="88">
         <v>21325</v>
@@ -23401,13 +23456,13 @@
         <v>1</v>
       </c>
       <c r="C379" s="89" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D379" s="89" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="E379" s="90" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="F379" s="89" t="s">
         <v>855</v>
@@ -23439,16 +23494,16 @@
         <v>1</v>
       </c>
       <c r="C380" s="89" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D380" s="89" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="E380" s="90" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="F380" s="89" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="G380" s="88">
         <v>21327</v>
@@ -23477,16 +23532,16 @@
         <v>1</v>
       </c>
       <c r="C381" s="89" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D381" s="89" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="E381" s="90" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="F381" s="89" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="G381" s="88">
         <v>21328</v>
@@ -23515,16 +23570,16 @@
         <v>1</v>
       </c>
       <c r="C382" s="89" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D382" s="89" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="E382" s="90" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="F382" s="89" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="G382" s="88">
         <v>21329</v>
@@ -23553,16 +23608,16 @@
         <v>1</v>
       </c>
       <c r="C383" s="89" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D383" s="89" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="E383" s="90" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="F383" s="89" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="G383" s="88">
         <v>21330</v>
@@ -23591,16 +23646,16 @@
         <v>1</v>
       </c>
       <c r="C384" s="92" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D384" s="92" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="E384" s="92" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="F384" s="92" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="G384" s="91">
         <v>21331</v>
@@ -23629,13 +23684,13 @@
         <v>1</v>
       </c>
       <c r="C385" s="92" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D385" s="92" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="E385" s="92" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="F385" s="92" t="s">
         <v>855</v>
@@ -23667,16 +23722,16 @@
         <v>1</v>
       </c>
       <c r="C386" s="92" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D386" s="92" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="E386" s="92" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="F386" s="92" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="G386" s="91">
         <v>21333</v>
@@ -23705,16 +23760,16 @@
         <v>1</v>
       </c>
       <c r="C387" s="92" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D387" s="92" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E387" s="92" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F387" s="92" t="s">
         <v>1258</v>
-      </c>
-      <c r="D387" s="92" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E387" s="92" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F387" s="92" t="s">
-        <v>1270</v>
       </c>
       <c r="G387" s="91">
         <v>21334</v>
@@ -23743,16 +23798,16 @@
         <v>1</v>
       </c>
       <c r="C388" s="92" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D388" s="92" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="E388" s="92" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="F388" s="92" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="G388" s="91">
         <v>21335</v>
@@ -23781,13 +23836,13 @@
         <v>1</v>
       </c>
       <c r="C389" s="92" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D389" s="92" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="E389" s="92" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="F389" s="92" t="s">
         <v>855</v>
@@ -23819,16 +23874,16 @@
         <v>1</v>
       </c>
       <c r="C390" s="92" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D390" s="92" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="E390" s="92" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="F390" s="92" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="G390" s="91">
         <v>21337</v>
@@ -23857,16 +23912,16 @@
         <v>1</v>
       </c>
       <c r="C391" s="92" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D391" s="92" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E391" s="92" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F391" s="92" t="s">
         <v>1258</v>
-      </c>
-      <c r="D391" s="92" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E391" s="92" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F391" s="92" t="s">
-        <v>1270</v>
       </c>
       <c r="G391" s="91">
         <v>21338</v>
@@ -23895,16 +23950,16 @@
         <v>1</v>
       </c>
       <c r="C392" s="92" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D392" s="92" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E392" s="92" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F392" s="92" t="s">
         <v>1258</v>
-      </c>
-      <c r="D392" s="92" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E392" s="92" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F392" s="92" t="s">
-        <v>1270</v>
       </c>
       <c r="G392" s="91">
         <v>21339</v>
@@ -23933,13 +23988,13 @@
         <v>1</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="D393" s="12" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
       <c r="E393" s="99" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="F393" s="16" t="s">
         <v>13</v>
@@ -23975,11 +24030,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K393"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G361" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B372" sqref="B372:B392"/>
+      <selection pane="bottomRight" activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24007,7 +24062,7 @@
         <v>380</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>381</v>
@@ -24022,7 +24077,7 @@
         <v>917</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="K1" s="38"/>
     </row>
@@ -28802,7 +28857,7 @@
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="82" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="G179" s="79"/>
       <c r="H179" s="83" t="s">
@@ -28827,7 +28882,7 @@
         <v>121</v>
       </c>
       <c r="F180" s="40" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
       <c r="G180" s="35"/>
       <c r="H180" s="15" t="s">
@@ -28852,7 +28907,7 @@
         <v>122</v>
       </c>
       <c r="F181" s="40" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="G181" s="35"/>
       <c r="H181" s="15" t="s">
@@ -28877,7 +28932,7 @@
         <v>123</v>
       </c>
       <c r="F182" s="40" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="G182" s="35"/>
       <c r="H182" s="15" t="s">
@@ -28949,7 +29004,7 @@
         <v>21132</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="D185" s="11">
         <v>184</v>
@@ -29130,178 +29185,178 @@
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="11">
+    <row r="192" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="10">
         <v>191</v>
       </c>
-      <c r="B192" s="12">
+      <c r="B192" s="9">
         <v>21139</v>
       </c>
-      <c r="C192" s="13"/>
-      <c r="D192" s="11">
+      <c r="C192" s="19"/>
+      <c r="D192" s="10">
         <v>191</v>
       </c>
-      <c r="E192" s="11">
-        <v>0</v>
-      </c>
-      <c r="F192" s="40" t="s">
+      <c r="E192" s="10">
+        <v>0</v>
+      </c>
+      <c r="F192" s="82" t="s">
         <v>450</v>
       </c>
-      <c r="G192" s="35"/>
-      <c r="H192" s="15" t="s">
+      <c r="G192" s="79"/>
+      <c r="H192" s="83" t="s">
         <v>583</v>
       </c>
-      <c r="I192" s="13" t="s">
+      <c r="I192" s="19" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="12">
+    <row r="193" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="9">
         <v>192</v>
       </c>
-      <c r="B193" s="12">
+      <c r="B193" s="9">
         <v>21140</v>
       </c>
-      <c r="C193" s="13"/>
-      <c r="D193" s="11">
+      <c r="C193" s="19"/>
+      <c r="D193" s="10">
         <v>192</v>
       </c>
-      <c r="E193" s="11">
-        <v>0</v>
-      </c>
-      <c r="F193" s="40" t="s">
-        <v>1186</v>
-      </c>
-      <c r="G193" s="35"/>
-      <c r="H193" s="15" t="s">
+      <c r="E193" s="10">
+        <v>0</v>
+      </c>
+      <c r="F193" s="82" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G193" s="79"/>
+      <c r="H193" s="83" t="s">
         <v>584</v>
       </c>
-      <c r="I193" s="13" t="s">
+      <c r="I193" s="19" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="11">
+    <row r="194" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="10">
         <v>193</v>
       </c>
-      <c r="B194" s="12">
+      <c r="B194" s="9">
         <v>21141</v>
       </c>
-      <c r="C194" s="13"/>
-      <c r="D194" s="11">
+      <c r="C194" s="19"/>
+      <c r="D194" s="10">
         <v>193</v>
       </c>
-      <c r="E194" s="11">
-        <v>0</v>
-      </c>
-      <c r="F194" s="40" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G194" s="35"/>
-      <c r="H194" s="15" t="s">
+      <c r="E194" s="10">
+        <v>0</v>
+      </c>
+      <c r="F194" s="82" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G194" s="79"/>
+      <c r="H194" s="83" t="s">
         <v>585</v>
       </c>
-      <c r="I194" s="13" t="s">
+      <c r="I194" s="19" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="12">
+    <row r="195" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="9">
         <v>194</v>
       </c>
-      <c r="B195" s="12">
+      <c r="B195" s="9">
         <v>21142</v>
       </c>
-      <c r="C195" s="13"/>
-      <c r="D195" s="11">
+      <c r="C195" s="19"/>
+      <c r="D195" s="10">
         <v>194</v>
       </c>
-      <c r="E195" s="11">
-        <v>0</v>
-      </c>
-      <c r="F195" s="40" t="s">
-        <v>1188</v>
-      </c>
-      <c r="G195" s="35"/>
-      <c r="H195" s="15" t="s">
+      <c r="E195" s="10">
+        <v>0</v>
+      </c>
+      <c r="F195" s="82" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G195" s="79"/>
+      <c r="H195" s="83" t="s">
         <v>586</v>
       </c>
-      <c r="I195" s="13" t="s">
+      <c r="I195" s="19" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="11">
+    <row r="196" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="10">
         <v>195</v>
       </c>
-      <c r="B196" s="12">
+      <c r="B196" s="9">
         <v>21143</v>
       </c>
-      <c r="C196" s="13"/>
-      <c r="D196" s="11">
+      <c r="C196" s="19"/>
+      <c r="D196" s="10">
         <v>195</v>
       </c>
-      <c r="E196" s="11">
-        <v>0</v>
-      </c>
-      <c r="F196" s="40" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G196" s="35"/>
-      <c r="H196" s="15" t="s">
+      <c r="E196" s="10">
+        <v>0</v>
+      </c>
+      <c r="F196" s="82" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G196" s="79"/>
+      <c r="H196" s="83" t="s">
         <v>587</v>
       </c>
-      <c r="I196" s="13" t="s">
+      <c r="I196" s="19" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="12">
+    <row r="197" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="9">
         <v>196</v>
       </c>
-      <c r="B197" s="12">
+      <c r="B197" s="9">
         <v>21144</v>
       </c>
-      <c r="C197" s="13"/>
-      <c r="D197" s="11">
+      <c r="C197" s="19"/>
+      <c r="D197" s="10">
         <v>196</v>
       </c>
-      <c r="E197" s="11">
-        <v>0</v>
-      </c>
-      <c r="F197" s="40" t="s">
-        <v>1190</v>
-      </c>
-      <c r="G197" s="35"/>
-      <c r="H197" s="15" t="s">
+      <c r="E197" s="10">
+        <v>0</v>
+      </c>
+      <c r="F197" s="82" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G197" s="79"/>
+      <c r="H197" s="83" t="s">
         <v>588</v>
       </c>
-      <c r="I197" s="13" t="s">
+      <c r="I197" s="19" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="11">
+    <row r="198" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="10">
         <v>197</v>
       </c>
-      <c r="B198" s="12">
+      <c r="B198" s="9">
         <v>21145</v>
       </c>
-      <c r="C198" s="13"/>
-      <c r="D198" s="11">
+      <c r="C198" s="19"/>
+      <c r="D198" s="10">
         <v>197</v>
       </c>
-      <c r="E198" s="11">
-        <v>0</v>
-      </c>
-      <c r="F198" s="40" t="s">
-        <v>1191</v>
-      </c>
-      <c r="G198" s="35"/>
-      <c r="H198" s="15" t="s">
+      <c r="E198" s="10">
+        <v>0</v>
+      </c>
+      <c r="F198" s="82" t="s">
+        <v>968</v>
+      </c>
+      <c r="G198" s="79"/>
+      <c r="H198" s="83" t="s">
         <v>589</v>
       </c>
-      <c r="I198" s="13" t="s">
+      <c r="I198" s="19" t="s">
         <v>387</v>
       </c>
     </row>
@@ -31187,7 +31242,7 @@
         <v>21216</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="D269" s="11">
         <v>268</v>
@@ -33565,14 +33620,14 @@
       </c>
       <c r="E368" s="10"/>
       <c r="F368" s="82" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="G368" s="79"/>
       <c r="H368" s="83" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="I368" s="19" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.2">
@@ -33588,14 +33643,14 @@
       </c>
       <c r="E369" s="10"/>
       <c r="F369" s="82" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="G369" s="79"/>
       <c r="H369" s="83" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="I369" s="19" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.2">
@@ -33611,14 +33666,14 @@
       </c>
       <c r="E370" s="10"/>
       <c r="F370" s="82" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="G370" s="79"/>
       <c r="H370" s="83" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="I370" s="19" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.2">
@@ -33634,14 +33689,14 @@
       </c>
       <c r="E371" s="10"/>
       <c r="F371" s="82" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="G371" s="79"/>
       <c r="H371" s="83" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="I371" s="19" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="372" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33657,14 +33712,14 @@
       </c>
       <c r="E372" s="93"/>
       <c r="F372" s="94" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="G372" s="95"/>
       <c r="H372" s="96" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="I372" s="97" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="373" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33678,12 +33733,12 @@
       <c r="D373" s="93"/>
       <c r="E373" s="93"/>
       <c r="F373" s="94" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="G373" s="95"/>
       <c r="H373" s="96"/>
       <c r="I373" s="97" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="374" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33697,12 +33752,12 @@
       <c r="D374" s="93"/>
       <c r="E374" s="93"/>
       <c r="F374" s="94" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="G374" s="95"/>
       <c r="H374" s="96"/>
       <c r="I374" s="97" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="375" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33718,14 +33773,14 @@
       </c>
       <c r="E375" s="93"/>
       <c r="F375" s="94" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="G375" s="95"/>
       <c r="H375" s="96" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="I375" s="97" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="376" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33741,14 +33796,14 @@
       </c>
       <c r="E376" s="93"/>
       <c r="F376" s="94" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="G376" s="95"/>
       <c r="H376" s="96" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="I376" s="97" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="377" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33764,14 +33819,14 @@
       </c>
       <c r="E377" s="93"/>
       <c r="F377" s="94" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="G377" s="95"/>
       <c r="H377" s="96" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="I377" s="97" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="378" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33787,14 +33842,14 @@
       </c>
       <c r="E378" s="93"/>
       <c r="F378" s="94" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="G378" s="95"/>
       <c r="H378" s="96" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="I378" s="97" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="379" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33810,14 +33865,14 @@
       </c>
       <c r="E379" s="93"/>
       <c r="F379" s="94" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="G379" s="95"/>
       <c r="H379" s="96" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="I379" s="97" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="380" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33833,14 +33888,14 @@
       </c>
       <c r="E380" s="93"/>
       <c r="F380" s="94" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="G380" s="95"/>
       <c r="H380" s="96" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="I380" s="97" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="381" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33856,14 +33911,14 @@
       </c>
       <c r="E381" s="93"/>
       <c r="F381" s="94" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="G381" s="95"/>
       <c r="H381" s="96" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="I381" s="97" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="382" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33879,14 +33934,14 @@
       </c>
       <c r="E382" s="93"/>
       <c r="F382" s="94" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="G382" s="95"/>
       <c r="H382" s="96" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="I382" s="97" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="383" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33902,14 +33957,14 @@
       </c>
       <c r="E383" s="93"/>
       <c r="F383" s="94" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="G383" s="95"/>
       <c r="H383" s="96" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="I383" s="97" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="384" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33925,14 +33980,14 @@
       </c>
       <c r="E384" s="93"/>
       <c r="F384" s="94" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="G384" s="95"/>
       <c r="H384" s="96" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="I384" s="97" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="385" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33950,14 +34005,14 @@
         <v>258</v>
       </c>
       <c r="F385" s="94" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="G385" s="95"/>
       <c r="H385" s="96" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="I385" s="97" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="386" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33975,14 +34030,14 @@
         <v>259</v>
       </c>
       <c r="F386" s="94" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="G386" s="95"/>
       <c r="H386" s="96" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="I386" s="97" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="387" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33998,14 +34053,14 @@
       </c>
       <c r="E387" s="93"/>
       <c r="F387" s="94" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="G387" s="95"/>
       <c r="H387" s="96" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="I387" s="97" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="388" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -34021,14 +34076,14 @@
       </c>
       <c r="E388" s="93"/>
       <c r="F388" s="94" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="G388" s="95"/>
       <c r="H388" s="96" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="I388" s="97" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="389" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -34046,14 +34101,14 @@
         <v>260</v>
       </c>
       <c r="F389" s="94" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="G389" s="95"/>
       <c r="H389" s="96" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="I389" s="97" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="390" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -34069,14 +34124,14 @@
       </c>
       <c r="E390" s="93"/>
       <c r="F390" s="94" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="G390" s="95"/>
       <c r="H390" s="96" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="I390" s="97" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="391" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -34094,14 +34149,14 @@
         <v>261</v>
       </c>
       <c r="F391" s="94" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="G391" s="95"/>
       <c r="H391" s="96" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="I391" s="97" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="392" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -34119,14 +34174,14 @@
         <v>262</v>
       </c>
       <c r="F392" s="94" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="G392" s="95"/>
       <c r="H392" s="96" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="I392" s="97" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="393" spans="1:9" s="6" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -34142,11 +34197,11 @@
       </c>
       <c r="E393" s="11"/>
       <c r="F393" s="40" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
       <c r="G393" s="35"/>
       <c r="H393" s="40" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="I393" s="13" t="s">
         <v>387</v>
@@ -34161,10 +34216,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I553"/>
+  <dimension ref="A1:I559"/>
   <sheetViews>
-    <sheetView topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="C539" sqref="C539"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="D287" sqref="D287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34372,8 +34427,8 @@
       <c r="B14" s="11">
         <v>13</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>413</v>
+      <c r="C14" s="13" t="s">
+        <v>1355</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -37375,7 +37430,7 @@
         <v>178</v>
       </c>
       <c r="C224" s="85" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="D224" s="60">
         <v>257</v>
@@ -37389,7 +37444,7 @@
         <v>179</v>
       </c>
       <c r="C225" s="85" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="D225" s="60">
         <v>0</v>
@@ -37403,7 +37458,7 @@
         <v>180</v>
       </c>
       <c r="C226" s="85" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="D226" s="60">
         <v>0</v>
@@ -37417,7 +37472,7 @@
         <v>181</v>
       </c>
       <c r="C227" s="85" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="D227" s="60">
         <v>0</v>
@@ -37568,7 +37623,7 @@
         <v>184</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
@@ -37694,7 +37749,7 @@
         <v>185</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="D245" s="11">
         <v>0</v>
@@ -37820,7 +37875,7 @@
         <v>186</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="D253" s="11">
         <v>0</v>
@@ -37946,7 +38001,7 @@
         <v>187</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="D261" s="11">
         <v>0</v>
@@ -38072,7 +38127,7 @@
         <v>188</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="D269" s="11">
         <v>0</v>
@@ -38198,7 +38253,7 @@
         <v>189</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="D277" s="11">
         <v>0</v>
@@ -38324,7 +38379,7 @@
         <v>190</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="D285" s="11">
         <v>0</v>
@@ -38356,10 +38411,10 @@
         <v>192</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>1192</v>
+        <v>1358</v>
       </c>
       <c r="D287" s="10">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="E287" s="81"/>
     </row>
@@ -38371,7 +38426,7 @@
         <v>193</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="D288" s="10">
         <v>248</v>
@@ -38386,10 +38441,10 @@
         <v>194</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>1192</v>
+        <v>1210</v>
       </c>
       <c r="D289" s="10">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="E289" s="81"/>
     </row>
@@ -38401,10 +38456,10 @@
         <v>195</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>1192</v>
+        <v>1210</v>
       </c>
       <c r="D290" s="10">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E290" s="10"/>
     </row>
@@ -38416,10 +38471,10 @@
         <v>196</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>1192</v>
+        <v>389</v>
       </c>
       <c r="D291" s="10">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="E291" s="81"/>
     </row>
@@ -38428,110 +38483,116 @@
         <v>291</v>
       </c>
       <c r="B292" s="10">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>1192</v>
+        <v>393</v>
       </c>
       <c r="D292" s="10">
-        <v>252</v>
-      </c>
-      <c r="E292" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="E292" s="81"/>
     </row>
     <row r="293" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="11">
         <v>292</v>
       </c>
-      <c r="B293" s="11">
-        <v>198</v>
-      </c>
-      <c r="C293" s="11"/>
-      <c r="D293" s="11">
-        <v>0</v>
-      </c>
+      <c r="B293" s="10">
+        <v>196</v>
+      </c>
+      <c r="C293" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="D293" s="10">
+        <v>0</v>
+      </c>
+      <c r="E293" s="81"/>
     </row>
     <row r="294" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="11">
         <v>293</v>
       </c>
-      <c r="B294" s="11">
-        <v>199</v>
-      </c>
-      <c r="C294" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="D294" s="11">
-        <v>0</v>
-      </c>
+      <c r="B294" s="10">
+        <v>196</v>
+      </c>
+      <c r="C294" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="D294" s="10">
+        <v>0</v>
+      </c>
+      <c r="E294" s="81"/>
     </row>
     <row r="295" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="11">
         <v>294</v>
       </c>
-      <c r="B295" s="11">
-        <v>200</v>
-      </c>
-      <c r="C295" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="D295" s="11">
-        <v>0</v>
-      </c>
+      <c r="B295" s="10">
+        <v>196</v>
+      </c>
+      <c r="C295" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="D295" s="10">
+        <v>0</v>
+      </c>
+      <c r="E295" s="81"/>
     </row>
     <row r="296" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="11">
         <v>295</v>
       </c>
-      <c r="B296" s="11">
-        <v>201</v>
-      </c>
-      <c r="C296" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="D296" s="11">
-        <v>0</v>
-      </c>
+      <c r="B296" s="10">
+        <v>196</v>
+      </c>
+      <c r="C296" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="D296" s="10">
+        <v>0</v>
+      </c>
+      <c r="E296" s="81"/>
     </row>
     <row r="297" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="11">
         <v>296</v>
       </c>
-      <c r="B297" s="11">
-        <v>202</v>
-      </c>
-      <c r="C297" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="D297" s="11">
-        <v>124</v>
-      </c>
+      <c r="B297" s="10">
+        <v>196</v>
+      </c>
+      <c r="C297" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="D297" s="10">
+        <v>0</v>
+      </c>
+      <c r="E297" s="81"/>
     </row>
     <row r="298" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="11">
         <v>297</v>
       </c>
-      <c r="B298" s="11">
-        <v>203</v>
-      </c>
-      <c r="C298" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="D298" s="11">
-        <v>124</v>
-      </c>
+      <c r="B298" s="10">
+        <v>197</v>
+      </c>
+      <c r="C298" s="19" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D298" s="10">
+        <v>0</v>
+      </c>
+      <c r="E298" s="10"/>
     </row>
     <row r="299" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="11">
         <v>298</v>
       </c>
       <c r="B299" s="11">
-        <v>204</v>
-      </c>
-      <c r="C299" s="11" t="s">
-        <v>419</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C299" s="11"/>
       <c r="D299" s="11">
-        <v>124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38539,13 +38600,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="11">
-        <v>205</v>
-      </c>
-      <c r="C300" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C300" s="13" t="s">
         <v>419</v>
       </c>
       <c r="D300" s="11">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38553,13 +38614,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="11">
-        <v>206</v>
-      </c>
-      <c r="C301" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C301" s="13" t="s">
         <v>419</v>
       </c>
       <c r="D301" s="11">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38567,13 +38628,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="11">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C302" s="11" t="s">
         <v>419</v>
       </c>
       <c r="D302" s="11">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38581,13 +38642,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="11">
-        <v>208</v>
-      </c>
-      <c r="C303" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C303" s="13" t="s">
         <v>419</v>
       </c>
       <c r="D303" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="304" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38595,13 +38656,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="11">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C304" s="11" t="s">
         <v>419</v>
       </c>
       <c r="D304" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="305" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38609,13 +38670,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="11">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C305" s="11" t="s">
         <v>419</v>
       </c>
       <c r="D305" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="306" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38623,13 +38684,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="11">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D306" s="11">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="307" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38637,13 +38698,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="11">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D307" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="308" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38651,13 +38712,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="11">
-        <v>213</v>
-      </c>
-      <c r="C308" s="13" t="s">
-        <v>602</v>
+        <v>207</v>
+      </c>
+      <c r="C308" s="11" t="s">
+        <v>419</v>
       </c>
       <c r="D308" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="309" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38665,13 +38726,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="11">
-        <v>214</v>
-      </c>
-      <c r="C309" s="13" t="s">
-        <v>604</v>
+        <v>208</v>
+      </c>
+      <c r="C309" s="11" t="s">
+        <v>419</v>
       </c>
       <c r="D309" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="310" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38679,13 +38740,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="11">
-        <v>215</v>
-      </c>
-      <c r="C310" s="13" t="s">
-        <v>604</v>
+        <v>209</v>
+      </c>
+      <c r="C310" s="11" t="s">
+        <v>419</v>
       </c>
       <c r="D310" s="11">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="311" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38693,13 +38754,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="11">
-        <v>216</v>
-      </c>
-      <c r="C311" s="13" t="s">
-        <v>604</v>
+        <v>210</v>
+      </c>
+      <c r="C311" s="11" t="s">
+        <v>419</v>
       </c>
       <c r="D311" s="11">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="312" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38707,13 +38768,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="11">
-        <v>217</v>
-      </c>
-      <c r="C312" s="13" t="s">
-        <v>604</v>
+        <v>211</v>
+      </c>
+      <c r="C312" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="D312" s="11">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38721,13 +38782,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="11">
-        <v>218</v>
-      </c>
-      <c r="C313" s="13" t="s">
-        <v>604</v>
+        <v>212</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>418</v>
       </c>
       <c r="D313" s="11">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="314" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38735,13 +38796,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="11">
-        <v>219</v>
-      </c>
-      <c r="C314" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="D314" s="12">
-        <v>134</v>
+        <v>213</v>
+      </c>
+      <c r="C314" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="D314" s="11">
+        <v>128</v>
       </c>
     </row>
     <row r="315" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38749,13 +38810,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="11">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="D315" s="11">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="316" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38763,13 +38824,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="11">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C316" s="13" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="D316" s="11">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="317" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38777,13 +38838,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="11">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>468</v>
+        <v>604</v>
       </c>
       <c r="D317" s="11">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="318" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38791,13 +38852,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="11">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C318" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="D318" s="12">
-        <v>138</v>
+        <v>604</v>
+      </c>
+      <c r="D318" s="11">
+        <v>132</v>
       </c>
     </row>
     <row r="319" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38805,13 +38866,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="11">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="D319" s="12">
-        <v>139</v>
+        <v>604</v>
+      </c>
+      <c r="D319" s="11">
+        <v>133</v>
       </c>
     </row>
     <row r="320" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38819,13 +38880,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="11">
-        <v>225</v>
-      </c>
-      <c r="C320" s="13" t="s">
-        <v>546</v>
+        <v>219</v>
+      </c>
+      <c r="C320" s="16" t="s">
+        <v>542</v>
       </c>
       <c r="D320" s="12">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="321" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38833,13 +38894,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="11">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C321" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="D321" s="12">
-        <v>141</v>
+        <v>542</v>
+      </c>
+      <c r="D321" s="11">
+        <v>135</v>
       </c>
     </row>
     <row r="322" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38847,13 +38908,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="11">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C322" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="D322" s="12">
-        <v>142</v>
+        <v>542</v>
+      </c>
+      <c r="D322" s="11">
+        <v>136</v>
       </c>
     </row>
     <row r="323" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38861,13 +38922,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="11">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="D323" s="12">
-        <v>143</v>
+        <v>468</v>
+      </c>
+      <c r="D323" s="11">
+        <v>137</v>
       </c>
     </row>
     <row r="324" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38875,13 +38936,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="11">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C324" s="13" t="s">
         <v>546</v>
       </c>
       <c r="D324" s="12">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="325" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38889,13 +38950,13 @@
         <v>324</v>
       </c>
       <c r="B325" s="11">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C325" s="13" t="s">
         <v>546</v>
       </c>
       <c r="D325" s="12">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="326" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38903,13 +38964,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="11">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C326" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="D326" s="11">
-        <v>146</v>
+        <v>546</v>
+      </c>
+      <c r="D326" s="12">
+        <v>140</v>
       </c>
     </row>
     <row r="327" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38917,13 +38978,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="11">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>418</v>
+        <v>546</v>
       </c>
       <c r="D327" s="12">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="328" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38931,13 +38992,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="11">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>418</v>
+        <v>546</v>
       </c>
       <c r="D328" s="12">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="329" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38945,13 +39006,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="11">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>418</v>
+        <v>546</v>
       </c>
       <c r="D329" s="12">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="330" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38959,13 +39020,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="11">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C330" s="13" t="s">
         <v>546</v>
       </c>
       <c r="D330" s="12">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="331" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38973,13 +39034,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="11">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C331" s="13" t="s">
         <v>546</v>
       </c>
       <c r="D331" s="12">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="332" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38987,13 +39048,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="11">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C332" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="D332" s="12">
-        <v>140</v>
+        <v>468</v>
+      </c>
+      <c r="D332" s="11">
+        <v>146</v>
       </c>
     </row>
     <row r="333" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39001,13 +39062,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="11">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>546</v>
+        <v>418</v>
       </c>
       <c r="D333" s="12">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="334" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39015,13 +39076,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="11">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="D334" s="11">
-        <v>150</v>
+        <v>418</v>
+      </c>
+      <c r="D334" s="12">
+        <v>148</v>
       </c>
     </row>
     <row r="335" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39029,13 +39090,13 @@
         <v>334</v>
       </c>
       <c r="B335" s="11">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="D335" s="11">
-        <v>151</v>
+        <v>418</v>
+      </c>
+      <c r="D335" s="12">
+        <v>149</v>
       </c>
     </row>
     <row r="336" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39043,315 +39104,307 @@
         <v>335</v>
       </c>
       <c r="B336" s="11">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="D336" s="11">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+      <c r="D336" s="12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="11">
         <v>336</v>
       </c>
       <c r="B337" s="11">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="D337" s="11">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+      <c r="D337" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="11">
         <v>337</v>
       </c>
       <c r="B338" s="11">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="D338" s="11">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+      <c r="D338" s="12">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="11">
         <v>338</v>
       </c>
       <c r="B339" s="11">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="D339" s="11">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+      <c r="D339" s="12">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="11">
         <v>339</v>
       </c>
       <c r="B340" s="11">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C340" s="13" t="s">
         <v>614</v>
       </c>
       <c r="D340" s="11">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A341" s="11">
         <v>340</v>
       </c>
       <c r="B341" s="11">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C341" s="13" t="s">
         <v>614</v>
       </c>
       <c r="D341" s="11">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="11">
         <v>341</v>
       </c>
       <c r="B342" s="11">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C342" s="13" t="s">
         <v>614</v>
       </c>
       <c r="D342" s="11">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343" s="11">
         <v>342</v>
       </c>
       <c r="B343" s="11">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C343" s="13" t="s">
         <v>614</v>
       </c>
       <c r="D343" s="11">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="11">
         <v>343</v>
       </c>
       <c r="B344" s="11">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C344" s="13" t="s">
         <v>614</v>
       </c>
       <c r="D344" s="11">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345" s="11">
         <v>344</v>
       </c>
       <c r="B345" s="11">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C345" s="13" t="s">
         <v>614</v>
       </c>
       <c r="D345" s="11">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="11">
         <v>345</v>
       </c>
       <c r="B346" s="11">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="D346" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+      <c r="D346" s="11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347" s="11">
         <v>346</v>
       </c>
       <c r="B347" s="11">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="D347" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+      <c r="D347" s="11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="11">
         <v>347</v>
       </c>
       <c r="B348" s="11">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="D348" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+      <c r="D348" s="11">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A349" s="11">
         <v>348</v>
       </c>
       <c r="B349" s="11">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="D349" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+      <c r="D349" s="11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="11">
         <v>349</v>
       </c>
       <c r="B350" s="11">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D350" s="11">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" s="11">
         <v>350</v>
       </c>
       <c r="B351" s="11">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D351" s="11">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A352" s="11">
         <v>351</v>
       </c>
       <c r="B352" s="11">
-        <v>257</v>
-      </c>
-      <c r="C352" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="D352" s="11">
-        <v>0</v>
-      </c>
-      <c r="E352" s="11"/>
+        <v>251</v>
+      </c>
+      <c r="C352" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D352" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="353" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" s="11">
         <v>352</v>
       </c>
       <c r="B353" s="11">
-        <v>257</v>
-      </c>
-      <c r="C353" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="D353" s="11">
-        <v>0</v>
-      </c>
-      <c r="E353" s="11"/>
+        <v>252</v>
+      </c>
+      <c r="C353" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D353" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="354" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A354" s="11">
         <v>353</v>
       </c>
       <c r="B354" s="11">
-        <v>257</v>
-      </c>
-      <c r="C354" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="D354" s="11">
-        <v>0</v>
-      </c>
-      <c r="E354" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="C354" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D354" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="355" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="11">
         <v>354</v>
       </c>
       <c r="B355" s="11">
-        <v>257</v>
-      </c>
-      <c r="C355" s="11" t="s">
-        <v>665</v>
-      </c>
-      <c r="D355" s="11">
-        <v>0</v>
-      </c>
-      <c r="E355" s="11"/>
+        <v>254</v>
+      </c>
+      <c r="C355" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D355" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="356" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="11">
         <v>355</v>
       </c>
       <c r="B356" s="11">
-        <v>257</v>
-      </c>
-      <c r="C356" s="11" t="s">
-        <v>384</v>
+        <v>255</v>
+      </c>
+      <c r="C356" s="13" t="s">
+        <v>618</v>
       </c>
       <c r="D356" s="11">
-        <v>0</v>
-      </c>
-      <c r="E356" s="11"/>
+        <v>166</v>
+      </c>
     </row>
     <row r="357" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="11">
         <v>356</v>
       </c>
       <c r="B357" s="11">
-        <v>257</v>
-      </c>
-      <c r="C357" s="11" t="s">
-        <v>389</v>
+        <v>256</v>
+      </c>
+      <c r="C357" s="13" t="s">
+        <v>620</v>
       </c>
       <c r="D357" s="11">
-        <v>0</v>
-      </c>
-      <c r="E357" s="11">
-        <v>0.5</v>
+        <v>167</v>
       </c>
     </row>
     <row r="358" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39361,82 +39414,89 @@
       <c r="B358" s="11">
         <v>257</v>
       </c>
-      <c r="C358" s="11" t="s">
-        <v>666</v>
+      <c r="C358" s="23" t="s">
+        <v>393</v>
       </c>
       <c r="D358" s="11">
         <v>0</v>
       </c>
-      <c r="E358" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E358" s="11"/>
     </row>
     <row r="359" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="11">
         <v>358</v>
       </c>
       <c r="B359" s="11">
-        <v>258</v>
-      </c>
-      <c r="C359" s="13"/>
+        <v>257</v>
+      </c>
+      <c r="C359" s="11" t="s">
+        <v>438</v>
+      </c>
       <c r="D359" s="11">
         <v>0</v>
       </c>
+      <c r="E359" s="11"/>
     </row>
     <row r="360" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="11">
         <v>359</v>
       </c>
       <c r="B360" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>418</v>
+        <v>664</v>
       </c>
       <c r="D360" s="11">
-        <v>168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E360" s="11"/>
     </row>
     <row r="361" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="11">
         <v>360</v>
       </c>
       <c r="B361" s="11">
-        <v>260</v>
-      </c>
-      <c r="C361" s="13" t="s">
-        <v>435</v>
+        <v>257</v>
+      </c>
+      <c r="C361" s="11" t="s">
+        <v>665</v>
       </c>
       <c r="D361" s="11">
-        <v>169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E361" s="11"/>
     </row>
     <row r="362" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="11">
         <v>361</v>
       </c>
       <c r="B362" s="11">
-        <v>261</v>
-      </c>
-      <c r="C362" s="13" t="s">
-        <v>435</v>
+        <v>257</v>
+      </c>
+      <c r="C362" s="11" t="s">
+        <v>384</v>
       </c>
       <c r="D362" s="11">
-        <v>170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E362" s="11"/>
     </row>
     <row r="363" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="11">
         <v>362</v>
       </c>
       <c r="B363" s="11">
-        <v>262</v>
-      </c>
-      <c r="C363" s="13" t="s">
-        <v>435</v>
+        <v>257</v>
+      </c>
+      <c r="C363" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="D363" s="11">
-        <v>171</v>
+        <v>0</v>
+      </c>
+      <c r="E363" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="364" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39444,13 +39504,16 @@
         <v>363</v>
       </c>
       <c r="B364" s="11">
-        <v>263</v>
-      </c>
-      <c r="C364" s="13" t="s">
-        <v>627</v>
+        <v>257</v>
+      </c>
+      <c r="C364" s="11" t="s">
+        <v>666</v>
       </c>
       <c r="D364" s="11">
         <v>0</v>
+      </c>
+      <c r="E364" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="365" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39458,13 +39521,11 @@
         <v>364</v>
       </c>
       <c r="B365" s="11">
-        <v>264</v>
-      </c>
-      <c r="C365" s="13" t="s">
-        <v>1070</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C365" s="13"/>
       <c r="D365" s="11">
-        <v>172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39472,13 +39533,13 @@
         <v>365</v>
       </c>
       <c r="B366" s="11">
-        <v>265</v>
-      </c>
-      <c r="C366" s="13" t="s">
-        <v>435</v>
+        <v>259</v>
+      </c>
+      <c r="C366" s="11" t="s">
+        <v>418</v>
       </c>
       <c r="D366" s="11">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="367" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39486,13 +39547,13 @@
         <v>366</v>
       </c>
       <c r="B367" s="11">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C367" s="13" t="s">
         <v>435</v>
       </c>
       <c r="D367" s="11">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="368" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39500,13 +39561,13 @@
         <v>367</v>
       </c>
       <c r="B368" s="11">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C368" s="13" t="s">
         <v>435</v>
       </c>
       <c r="D368" s="11">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="369" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39514,13 +39575,13 @@
         <v>368</v>
       </c>
       <c r="B369" s="11">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C369" s="13" t="s">
-        <v>630</v>
+        <v>435</v>
       </c>
       <c r="D369" s="11">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="370" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39528,13 +39589,13 @@
         <v>369</v>
       </c>
       <c r="B370" s="11">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D370" s="11">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39542,13 +39603,13 @@
         <v>370</v>
       </c>
       <c r="B371" s="11">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>630</v>
+        <v>1070</v>
       </c>
       <c r="D371" s="11">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="372" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39556,13 +39617,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="11">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="D372" s="12">
-        <v>179</v>
+        <v>435</v>
+      </c>
+      <c r="D372" s="11">
+        <v>173</v>
       </c>
     </row>
     <row r="373" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39570,13 +39631,13 @@
         <v>372</v>
       </c>
       <c r="B373" s="11">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C373" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="D373" s="12">
-        <v>180</v>
+      <c r="D373" s="11">
+        <v>174</v>
       </c>
     </row>
     <row r="374" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39584,13 +39645,13 @@
         <v>373</v>
       </c>
       <c r="B374" s="11">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C374" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="D374" s="12">
-        <v>181</v>
+      <c r="D374" s="11">
+        <v>175</v>
       </c>
     </row>
     <row r="375" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39598,13 +39659,13 @@
         <v>374</v>
       </c>
       <c r="B375" s="11">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="D375" s="12">
-        <v>182</v>
+        <v>630</v>
+      </c>
+      <c r="D375" s="11">
+        <v>176</v>
       </c>
     </row>
     <row r="376" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39612,11 +39673,13 @@
         <v>375</v>
       </c>
       <c r="B376" s="11">
-        <v>275</v>
-      </c>
-      <c r="C376" s="11"/>
-      <c r="D376" s="12">
-        <v>0</v>
+        <v>269</v>
+      </c>
+      <c r="C376" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="D376" s="11">
+        <v>177</v>
       </c>
     </row>
     <row r="377" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39624,11 +39687,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="11">
-        <v>276</v>
-      </c>
-      <c r="C377" s="11"/>
-      <c r="D377" s="12">
-        <v>0</v>
+        <v>270</v>
+      </c>
+      <c r="C377" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="D377" s="11">
+        <v>178</v>
       </c>
     </row>
     <row r="378" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39636,11 +39701,13 @@
         <v>377</v>
       </c>
       <c r="B378" s="11">
-        <v>277</v>
-      </c>
-      <c r="C378" s="11"/>
+        <v>271</v>
+      </c>
+      <c r="C378" s="13" t="s">
+        <v>468</v>
+      </c>
       <c r="D378" s="12">
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="379" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39648,11 +39715,13 @@
         <v>378</v>
       </c>
       <c r="B379" s="11">
-        <v>278</v>
-      </c>
-      <c r="C379" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="C379" s="13" t="s">
+        <v>435</v>
+      </c>
       <c r="D379" s="12">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="380" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39660,11 +39729,13 @@
         <v>379</v>
       </c>
       <c r="B380" s="11">
-        <v>279</v>
-      </c>
-      <c r="C380" s="11"/>
+        <v>273</v>
+      </c>
+      <c r="C380" s="13" t="s">
+        <v>435</v>
+      </c>
       <c r="D380" s="12">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="381" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39672,11 +39743,13 @@
         <v>380</v>
       </c>
       <c r="B381" s="11">
-        <v>280</v>
-      </c>
-      <c r="C381" s="11"/>
+        <v>274</v>
+      </c>
+      <c r="C381" s="13" t="s">
+        <v>435</v>
+      </c>
       <c r="D381" s="12">
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="382" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39684,7 +39757,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="11">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C382" s="11"/>
       <c r="D382" s="12">
@@ -39696,7 +39769,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="11">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C383" s="11"/>
       <c r="D383" s="12">
@@ -39708,243 +39781,226 @@
         <v>383</v>
       </c>
       <c r="B384" s="11">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C384" s="11"/>
       <c r="D384" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="11">
         <v>384</v>
       </c>
       <c r="B385" s="11">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C385" s="11"/>
       <c r="D385" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="11">
         <v>385</v>
       </c>
       <c r="B386" s="11">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C386" s="11"/>
       <c r="D386" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="11">
         <v>386</v>
       </c>
       <c r="B387" s="11">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C387" s="11"/>
       <c r="D387" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="11">
         <v>387</v>
       </c>
       <c r="B388" s="11">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C388" s="11"/>
       <c r="D388" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="11">
         <v>388</v>
       </c>
       <c r="B389" s="11">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C389" s="11"/>
       <c r="D389" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="11">
         <v>389</v>
       </c>
       <c r="B390" s="11">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C390" s="11"/>
       <c r="D390" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="11">
         <v>390</v>
       </c>
       <c r="B391" s="11">
-        <v>290</v>
-      </c>
-      <c r="C391" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="D391" s="11">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="C391" s="11"/>
+      <c r="D391" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="11">
         <v>391</v>
       </c>
       <c r="B392" s="11">
-        <v>291</v>
-      </c>
-      <c r="C392" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="D392" s="11">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="C392" s="11"/>
+      <c r="D392" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="11">
         <v>392</v>
       </c>
       <c r="B393" s="11">
-        <v>292</v>
-      </c>
-      <c r="C393" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="D393" s="11">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="C393" s="11"/>
+      <c r="D393" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="11">
         <v>393</v>
       </c>
       <c r="B394" s="11">
-        <v>293</v>
-      </c>
-      <c r="C394" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="D394" s="11">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="C394" s="11"/>
+      <c r="D394" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="11">
         <v>394</v>
       </c>
       <c r="B395" s="11">
-        <v>294</v>
-      </c>
-      <c r="C395" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="D395" s="11">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="C395" s="11"/>
+      <c r="D395" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="11">
         <v>395</v>
       </c>
       <c r="B396" s="11">
-        <v>295</v>
-      </c>
-      <c r="C396" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="D396" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="C396" s="11"/>
+      <c r="D396" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="11">
         <v>396</v>
       </c>
       <c r="B397" s="11">
-        <v>295</v>
-      </c>
-      <c r="C397" s="23" t="s">
-        <v>393</v>
+        <v>290</v>
+      </c>
+      <c r="C397" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="D397" s="11">
-        <v>0</v>
-      </c>
-      <c r="E397" s="11"/>
-    </row>
-    <row r="398" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="11">
         <v>397</v>
       </c>
       <c r="B398" s="11">
-        <v>295</v>
-      </c>
-      <c r="C398" s="11" t="s">
-        <v>438</v>
+        <v>291</v>
+      </c>
+      <c r="C398" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="D398" s="11">
-        <v>0</v>
-      </c>
-      <c r="E398" s="11"/>
-    </row>
-    <row r="399" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="11">
         <v>398</v>
       </c>
       <c r="B399" s="11">
-        <v>295</v>
-      </c>
-      <c r="C399" s="11" t="s">
-        <v>664</v>
+        <v>292</v>
+      </c>
+      <c r="C399" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="D399" s="11">
-        <v>0</v>
-      </c>
-      <c r="E399" s="11"/>
-    </row>
-    <row r="400" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="11">
         <v>399</v>
       </c>
       <c r="B400" s="11">
-        <v>295</v>
-      </c>
-      <c r="C400" s="11" t="s">
-        <v>665</v>
+        <v>293</v>
+      </c>
+      <c r="C400" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="D400" s="11">
-        <v>0</v>
-      </c>
-      <c r="E400" s="11"/>
+        <v>186</v>
+      </c>
     </row>
     <row r="401" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="11">
         <v>400</v>
       </c>
       <c r="B401" s="11">
-        <v>295</v>
-      </c>
-      <c r="C401" s="11" t="s">
-        <v>384</v>
+        <v>294</v>
+      </c>
+      <c r="C401" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="D401" s="11">
-        <v>0</v>
-      </c>
-      <c r="E401" s="11"/>
+        <v>187</v>
+      </c>
     </row>
     <row r="402" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="11">
@@ -39954,13 +40010,10 @@
         <v>295</v>
       </c>
       <c r="C402" s="11" t="s">
-        <v>389</v>
+        <v>663</v>
       </c>
       <c r="D402" s="11">
         <v>0</v>
-      </c>
-      <c r="E402" s="11">
-        <v>0.5</v>
       </c>
     </row>
     <row r="403" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39970,39 +40023,38 @@
       <c r="B403" s="11">
         <v>295</v>
       </c>
-      <c r="C403" s="11" t="s">
-        <v>666</v>
+      <c r="C403" s="23" t="s">
+        <v>393</v>
       </c>
       <c r="D403" s="11">
         <v>0</v>
       </c>
-      <c r="E403" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E403" s="11"/>
     </row>
     <row r="404" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="11">
         <v>403</v>
       </c>
       <c r="B404" s="11">
-        <v>296</v>
-      </c>
-      <c r="C404" s="13" t="s">
-        <v>921</v>
-      </c>
-      <c r="D404" s="12">
-        <v>188</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C404" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="D404" s="11">
+        <v>0</v>
+      </c>
+      <c r="E404" s="11"/>
     </row>
     <row r="405" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="11">
         <v>404</v>
       </c>
       <c r="B405" s="11">
-        <v>297</v>
-      </c>
-      <c r="C405" s="23" t="s">
-        <v>393</v>
+        <v>295</v>
+      </c>
+      <c r="C405" s="11" t="s">
+        <v>664</v>
       </c>
       <c r="D405" s="11">
         <v>0</v>
@@ -40014,10 +40066,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C406" s="11" t="s">
-        <v>438</v>
+        <v>665</v>
       </c>
       <c r="D406" s="11">
         <v>0</v>
@@ -40029,10 +40081,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C407" s="11" t="s">
-        <v>664</v>
+        <v>384</v>
       </c>
       <c r="D407" s="11">
         <v>0</v>
@@ -40044,46 +40096,47 @@
         <v>407</v>
       </c>
       <c r="B408" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C408" s="11" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="D408" s="11">
         <v>0</v>
       </c>
-      <c r="E408" s="11"/>
+      <c r="E408" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="409" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="11">
         <v>408</v>
       </c>
       <c r="B409" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C409" s="11" t="s">
-        <v>384</v>
+        <v>666</v>
       </c>
       <c r="D409" s="11">
         <v>0</v>
       </c>
-      <c r="E409" s="11"/>
+      <c r="E409" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="410" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="11">
         <v>409</v>
       </c>
       <c r="B410" s="11">
-        <v>297</v>
-      </c>
-      <c r="C410" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="D410" s="11">
-        <v>0</v>
-      </c>
-      <c r="E410" s="11">
-        <v>0.5</v>
+        <v>296</v>
+      </c>
+      <c r="C410" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="D410" s="12">
+        <v>188</v>
       </c>
     </row>
     <row r="411" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -40093,25 +40146,23 @@
       <c r="B411" s="11">
         <v>297</v>
       </c>
-      <c r="C411" s="11" t="s">
-        <v>666</v>
+      <c r="C411" s="23" t="s">
+        <v>393</v>
       </c>
       <c r="D411" s="11">
         <v>0</v>
       </c>
-      <c r="E411" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E411" s="11"/>
     </row>
     <row r="412" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="11">
         <v>411</v>
       </c>
       <c r="B412" s="11">
-        <v>298</v>
-      </c>
-      <c r="C412" s="23" t="s">
-        <v>393</v>
+        <v>297</v>
+      </c>
+      <c r="C412" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="D412" s="11">
         <v>0</v>
@@ -40123,10 +40174,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C413" s="11" t="s">
-        <v>438</v>
+        <v>664</v>
       </c>
       <c r="D413" s="11">
         <v>0</v>
@@ -40138,10 +40189,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D414" s="11">
         <v>0</v>
@@ -40153,10 +40204,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>665</v>
+        <v>384</v>
       </c>
       <c r="D415" s="11">
         <v>0</v>
@@ -40168,25 +40219,27 @@
         <v>415</v>
       </c>
       <c r="B416" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C416" s="11" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D416" s="11">
         <v>0</v>
       </c>
-      <c r="E416" s="11"/>
+      <c r="E416" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="417" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A417" s="11">
         <v>416</v>
       </c>
       <c r="B417" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>389</v>
+        <v>666</v>
       </c>
       <c r="D417" s="11">
         <v>0</v>
@@ -40202,39 +40255,38 @@
       <c r="B418" s="11">
         <v>298</v>
       </c>
-      <c r="C418" s="11" t="s">
-        <v>666</v>
+      <c r="C418" s="23" t="s">
+        <v>393</v>
       </c>
       <c r="D418" s="11">
         <v>0</v>
       </c>
-      <c r="E418" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E418" s="11"/>
     </row>
     <row r="419" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A419" s="11">
         <v>418</v>
       </c>
       <c r="B419" s="11">
-        <v>299</v>
-      </c>
-      <c r="C419" s="23" t="s">
-        <v>905</v>
+        <v>298</v>
+      </c>
+      <c r="C419" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="D419" s="11">
         <v>0</v>
       </c>
+      <c r="E419" s="11"/>
     </row>
     <row r="420" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="11">
         <v>419</v>
       </c>
       <c r="B420" s="11">
-        <v>299</v>
-      </c>
-      <c r="C420" s="23" t="s">
-        <v>393</v>
+        <v>298</v>
+      </c>
+      <c r="C420" s="11" t="s">
+        <v>664</v>
       </c>
       <c r="D420" s="11">
         <v>0</v>
@@ -40246,10 +40298,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C421" s="11" t="s">
-        <v>438</v>
+        <v>665</v>
       </c>
       <c r="D421" s="11">
         <v>0</v>
@@ -40261,10 +40313,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>664</v>
+        <v>384</v>
       </c>
       <c r="D422" s="11">
         <v>0</v>
@@ -40276,30 +40328,34 @@
         <v>422</v>
       </c>
       <c r="B423" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="D423" s="11">
         <v>0</v>
       </c>
-      <c r="E423" s="11"/>
+      <c r="E423" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="424" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="11">
         <v>423</v>
       </c>
       <c r="B424" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>384</v>
+        <v>666</v>
       </c>
       <c r="D424" s="11">
         <v>0</v>
       </c>
-      <c r="E424" s="11"/>
+      <c r="E424" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="425" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="11">
@@ -40308,14 +40364,11 @@
       <c r="B425" s="11">
         <v>299</v>
       </c>
-      <c r="C425" s="11" t="s">
-        <v>389</v>
+      <c r="C425" s="23" t="s">
+        <v>905</v>
       </c>
       <c r="D425" s="11">
         <v>0</v>
-      </c>
-      <c r="E425" s="11">
-        <v>0.5</v>
       </c>
     </row>
     <row r="426" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -40325,154 +40378,162 @@
       <c r="B426" s="11">
         <v>299</v>
       </c>
-      <c r="C426" s="11" t="s">
-        <v>666</v>
+      <c r="C426" s="23" t="s">
+        <v>393</v>
       </c>
       <c r="D426" s="11">
         <v>0</v>
       </c>
-      <c r="E426" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E426" s="11"/>
     </row>
     <row r="427" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="11">
         <v>426</v>
       </c>
       <c r="B427" s="11">
-        <v>300</v>
-      </c>
-      <c r="C427" s="13" t="s">
-        <v>924</v>
+        <v>299</v>
+      </c>
+      <c r="C427" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="D427" s="11">
         <v>0</v>
       </c>
+      <c r="E427" s="11"/>
     </row>
     <row r="428" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A428" s="11">
         <v>427</v>
       </c>
       <c r="B428" s="11">
-        <v>301</v>
-      </c>
-      <c r="C428" s="13" t="s">
-        <v>922</v>
+        <v>299</v>
+      </c>
+      <c r="C428" s="11" t="s">
+        <v>664</v>
       </c>
       <c r="D428" s="11">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E428" s="11"/>
     </row>
     <row r="429" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="11">
         <v>428</v>
       </c>
       <c r="B429" s="11">
-        <v>302</v>
-      </c>
-      <c r="C429" s="13" t="s">
-        <v>412</v>
+        <v>299</v>
+      </c>
+      <c r="C429" s="11" t="s">
+        <v>665</v>
       </c>
       <c r="D429" s="11">
         <v>0</v>
       </c>
+      <c r="E429" s="11"/>
     </row>
     <row r="430" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="11">
         <v>429</v>
       </c>
       <c r="B430" s="11">
-        <v>303</v>
-      </c>
-      <c r="C430" s="13" t="s">
-        <v>923</v>
+        <v>299</v>
+      </c>
+      <c r="C430" s="11" t="s">
+        <v>384</v>
       </c>
       <c r="D430" s="11">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E430" s="11"/>
+    </row>
+    <row r="431" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="11">
         <v>430</v>
       </c>
-      <c r="B431" s="29">
-        <v>304</v>
-      </c>
-      <c r="C431" s="13" t="s">
-        <v>435</v>
+      <c r="B431" s="11">
+        <v>299</v>
+      </c>
+      <c r="C431" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="D431" s="11">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E431" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="11">
         <v>431</v>
       </c>
-      <c r="B432" s="29">
-        <v>305</v>
-      </c>
-      <c r="C432" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="D432" s="12">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B432" s="11">
+        <v>299</v>
+      </c>
+      <c r="C432" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="D432" s="11">
+        <v>0</v>
+      </c>
+      <c r="E432" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="11">
         <v>432</v>
       </c>
-      <c r="B433" s="29">
-        <v>306</v>
+      <c r="B433" s="11">
+        <v>300</v>
       </c>
       <c r="C433" s="13" t="s">
-        <v>435</v>
+        <v>924</v>
       </c>
       <c r="D433" s="11">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="11">
         <v>433</v>
       </c>
-      <c r="B434" s="29">
-        <v>307</v>
+      <c r="B434" s="11">
+        <v>301</v>
       </c>
       <c r="C434" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="D434" s="12">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+        <v>922</v>
+      </c>
+      <c r="D434" s="11">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="11">
         <v>434</v>
       </c>
-      <c r="B435" s="29">
-        <v>308</v>
+      <c r="B435" s="11">
+        <v>302</v>
       </c>
       <c r="C435" s="13" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="D435" s="11">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="11">
         <v>435</v>
       </c>
-      <c r="B436" s="29">
-        <v>309</v>
+      <c r="B436" s="11">
+        <v>303</v>
       </c>
       <c r="C436" s="13" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D436" s="12">
-        <v>196</v>
+        <v>923</v>
+      </c>
+      <c r="D436" s="11">
+        <v>190</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
@@ -40480,13 +40541,13 @@
         <v>436</v>
       </c>
       <c r="B437" s="29">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C437" s="13" t="s">
         <v>435</v>
       </c>
       <c r="D437" s="11">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
@@ -40494,13 +40555,13 @@
         <v>437</v>
       </c>
       <c r="B438" s="29">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C438" s="13" t="s">
         <v>435</v>
       </c>
       <c r="D438" s="12">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
@@ -40508,133 +40569,125 @@
         <v>438</v>
       </c>
       <c r="B439" s="29">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C439" s="13" t="s">
         <v>435</v>
       </c>
       <c r="D439" s="11">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="11">
         <v>439</v>
       </c>
-      <c r="B440" s="11">
-        <v>313</v>
+      <c r="B440" s="29">
+        <v>307</v>
       </c>
       <c r="C440" s="13" t="s">
-        <v>627</v>
-      </c>
-      <c r="D440" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+      <c r="D440" s="12">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="11">
         <v>440</v>
       </c>
-      <c r="B441" s="11">
-        <v>314</v>
+      <c r="B441" s="29">
+        <v>308</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="D441" s="12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1357</v>
+      </c>
+      <c r="D441" s="11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="11">
         <v>441</v>
       </c>
-      <c r="B442" s="11">
-        <v>315</v>
-      </c>
-      <c r="C442" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="D442" s="11">
-        <v>0</v>
-      </c>
-      <c r="E442" s="11"/>
-    </row>
-    <row r="443" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B442" s="29">
+        <v>309</v>
+      </c>
+      <c r="C442" s="13" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D442" s="12">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="11">
         <v>442</v>
       </c>
-      <c r="B443" s="11">
-        <v>315</v>
-      </c>
-      <c r="C443" s="11" t="s">
-        <v>438</v>
+      <c r="B443" s="29">
+        <v>310</v>
+      </c>
+      <c r="C443" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="D443" s="11">
-        <v>0</v>
-      </c>
-      <c r="E443" s="11"/>
-    </row>
-    <row r="444" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="11">
         <v>443</v>
       </c>
-      <c r="B444" s="11">
-        <v>315</v>
-      </c>
-      <c r="C444" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="D444" s="11">
-        <v>0</v>
-      </c>
-      <c r="E444" s="11"/>
-    </row>
-    <row r="445" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B444" s="29">
+        <v>311</v>
+      </c>
+      <c r="C444" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D444" s="12">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="11">
         <v>444</v>
       </c>
-      <c r="B445" s="11">
-        <v>315</v>
-      </c>
-      <c r="C445" s="11" t="s">
-        <v>665</v>
+      <c r="B445" s="29">
+        <v>312</v>
+      </c>
+      <c r="C445" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="D445" s="11">
-        <v>0</v>
-      </c>
-      <c r="E445" s="11"/>
+        <v>199</v>
+      </c>
     </row>
     <row r="446" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="11">
         <v>445</v>
       </c>
       <c r="B446" s="11">
-        <v>315</v>
-      </c>
-      <c r="C446" s="11" t="s">
-        <v>384</v>
+        <v>313</v>
+      </c>
+      <c r="C446" s="13" t="s">
+        <v>627</v>
       </c>
       <c r="D446" s="11">
         <v>0</v>
       </c>
-      <c r="E446" s="11"/>
     </row>
     <row r="447" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="11">
         <v>446</v>
       </c>
       <c r="B447" s="11">
-        <v>315</v>
-      </c>
-      <c r="C447" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="D447" s="11">
-        <v>0</v>
-      </c>
-      <c r="E447" s="11">
-        <v>0.5</v>
+        <v>314</v>
+      </c>
+      <c r="C447" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="D447" s="12">
+        <v>200</v>
       </c>
     </row>
     <row r="448" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -40644,84 +40697,89 @@
       <c r="B448" s="11">
         <v>315</v>
       </c>
-      <c r="C448" s="11" t="s">
-        <v>666</v>
+      <c r="C448" s="23" t="s">
+        <v>393</v>
       </c>
       <c r="D448" s="11">
         <v>0</v>
       </c>
-      <c r="E448" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E448" s="11"/>
     </row>
     <row r="449" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" s="11">
         <v>448</v>
       </c>
       <c r="B449" s="11">
-        <v>316</v>
-      </c>
-      <c r="C449" s="13" t="s">
-        <v>435</v>
+        <v>315</v>
+      </c>
+      <c r="C449" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="D449" s="11">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E449" s="11"/>
     </row>
     <row r="450" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A450" s="11">
         <v>449</v>
       </c>
       <c r="B450" s="11">
-        <v>317</v>
-      </c>
-      <c r="C450" s="13" t="s">
-        <v>435</v>
+        <v>315</v>
+      </c>
+      <c r="C450" s="11" t="s">
+        <v>664</v>
       </c>
       <c r="D450" s="11">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E450" s="11"/>
     </row>
     <row r="451" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="11">
         <v>450</v>
       </c>
       <c r="B451" s="11">
-        <v>318</v>
-      </c>
-      <c r="C451" s="13" t="s">
-        <v>435</v>
+        <v>315</v>
+      </c>
+      <c r="C451" s="11" t="s">
+        <v>665</v>
       </c>
       <c r="D451" s="11">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E451" s="11"/>
     </row>
     <row r="452" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A452" s="11">
         <v>451</v>
       </c>
       <c r="B452" s="11">
-        <v>319</v>
-      </c>
-      <c r="C452" s="13" t="s">
-        <v>435</v>
+        <v>315</v>
+      </c>
+      <c r="C452" s="11" t="s">
+        <v>384</v>
       </c>
       <c r="D452" s="11">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E452" s="11"/>
     </row>
     <row r="453" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="11">
         <v>452</v>
       </c>
       <c r="B453" s="11">
-        <v>320</v>
-      </c>
-      <c r="C453" s="13" t="s">
-        <v>435</v>
+        <v>315</v>
+      </c>
+      <c r="C453" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="D453" s="11">
-        <v>205</v>
+        <v>0</v>
+      </c>
+      <c r="E453" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="454" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -40729,13 +40787,16 @@
         <v>453</v>
       </c>
       <c r="B454" s="11">
-        <v>321</v>
-      </c>
-      <c r="C454" s="13" t="s">
-        <v>435</v>
+        <v>315</v>
+      </c>
+      <c r="C454" s="11" t="s">
+        <v>666</v>
       </c>
       <c r="D454" s="11">
-        <v>206</v>
+        <v>0</v>
+      </c>
+      <c r="E454" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="455" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -40743,13 +40804,13 @@
         <v>454</v>
       </c>
       <c r="B455" s="11">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C455" s="13" t="s">
         <v>435</v>
       </c>
       <c r="D455" s="11">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="456" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -40757,98 +40818,84 @@
         <v>455</v>
       </c>
       <c r="B456" s="11">
-        <v>323</v>
-      </c>
-      <c r="C456" s="23" t="s">
-        <v>393</v>
+        <v>317</v>
+      </c>
+      <c r="C456" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="D456" s="11">
-        <v>0</v>
-      </c>
-      <c r="E456" s="11"/>
-      <c r="F456" s="11"/>
+        <v>202</v>
+      </c>
     </row>
     <row r="457" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="11">
         <v>456</v>
       </c>
       <c r="B457" s="11">
-        <v>323</v>
-      </c>
-      <c r="C457" s="11" t="s">
-        <v>438</v>
+        <v>318</v>
+      </c>
+      <c r="C457" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="D457" s="11">
-        <v>0</v>
-      </c>
-      <c r="E457" s="11"/>
-      <c r="F457" s="11"/>
+        <v>203</v>
+      </c>
     </row>
     <row r="458" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A458" s="11">
         <v>457</v>
       </c>
       <c r="B458" s="11">
-        <v>323</v>
-      </c>
-      <c r="C458" s="11" t="s">
-        <v>664</v>
+        <v>319</v>
+      </c>
+      <c r="C458" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="D458" s="11">
-        <v>0</v>
-      </c>
-      <c r="E458" s="11"/>
-      <c r="F458" s="11"/>
+        <v>204</v>
+      </c>
     </row>
     <row r="459" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="11">
         <v>458</v>
       </c>
       <c r="B459" s="11">
-        <v>323</v>
-      </c>
-      <c r="C459" s="11" t="s">
-        <v>665</v>
+        <v>320</v>
+      </c>
+      <c r="C459" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="D459" s="11">
-        <v>0</v>
-      </c>
-      <c r="E459" s="11"/>
-      <c r="F459" s="11"/>
+        <v>205</v>
+      </c>
     </row>
     <row r="460" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A460" s="11">
         <v>459</v>
       </c>
       <c r="B460" s="11">
-        <v>323</v>
-      </c>
-      <c r="C460" s="11" t="s">
-        <v>384</v>
+        <v>321</v>
+      </c>
+      <c r="C460" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="D460" s="11">
-        <v>0</v>
-      </c>
-      <c r="E460" s="11"/>
-      <c r="F460" s="11"/>
+        <v>206</v>
+      </c>
     </row>
     <row r="461" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" s="11">
         <v>460</v>
       </c>
       <c r="B461" s="11">
-        <v>323</v>
-      </c>
-      <c r="C461" s="11" t="s">
-        <v>389</v>
+        <v>322</v>
+      </c>
+      <c r="C461" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="D461" s="11">
-        <v>0</v>
-      </c>
-      <c r="E461" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F461" s="11"/>
+        <v>207</v>
+      </c>
     </row>
     <row r="462" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A462" s="11">
@@ -40857,15 +40904,13 @@
       <c r="B462" s="11">
         <v>323</v>
       </c>
-      <c r="C462" s="11" t="s">
-        <v>666</v>
+      <c r="C462" s="23" t="s">
+        <v>393</v>
       </c>
       <c r="D462" s="11">
         <v>0</v>
       </c>
-      <c r="E462" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E462" s="11"/>
       <c r="F462" s="11"/>
     </row>
     <row r="463" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -40873,85 +40918,92 @@
         <v>462</v>
       </c>
       <c r="B463" s="11">
-        <v>324</v>
-      </c>
-      <c r="C463" s="23" t="s">
-        <v>393</v>
+        <v>323</v>
+      </c>
+      <c r="C463" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="D463" s="11">
         <v>0</v>
       </c>
       <c r="E463" s="11"/>
+      <c r="F463" s="11"/>
     </row>
     <row r="464" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A464" s="11">
         <v>463</v>
       </c>
       <c r="B464" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C464" s="11" t="s">
-        <v>438</v>
+        <v>664</v>
       </c>
       <c r="D464" s="11">
         <v>0</v>
       </c>
       <c r="E464" s="11"/>
-    </row>
-    <row r="465" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F464" s="11"/>
+    </row>
+    <row r="465" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="11">
         <v>464</v>
       </c>
       <c r="B465" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C465" s="11" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D465" s="11">
         <v>0</v>
       </c>
       <c r="E465" s="11"/>
-    </row>
-    <row r="466" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F465" s="11"/>
+    </row>
+    <row r="466" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="11">
         <v>465</v>
       </c>
       <c r="B466" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C466" s="11" t="s">
-        <v>665</v>
+        <v>384</v>
       </c>
       <c r="D466" s="11">
         <v>0</v>
       </c>
       <c r="E466" s="11"/>
-    </row>
-    <row r="467" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F466" s="11"/>
+    </row>
+    <row r="467" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="11">
         <v>466</v>
       </c>
       <c r="B467" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C467" s="11" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D467" s="11">
         <v>0</v>
       </c>
-      <c r="E467" s="11"/>
-    </row>
-    <row r="468" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E467" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F467" s="11"/>
+    </row>
+    <row r="468" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="11">
         <v>467</v>
       </c>
       <c r="B468" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C468" s="11" t="s">
-        <v>389</v>
+        <v>666</v>
       </c>
       <c r="D468" s="11">
         <v>0</v>
@@ -40959,176 +41011,185 @@
       <c r="E468" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F468" s="11"/>
+    </row>
+    <row r="469" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="11">
         <v>468</v>
       </c>
       <c r="B469" s="11">
         <v>324</v>
       </c>
-      <c r="C469" s="11" t="s">
-        <v>666</v>
+      <c r="C469" s="23" t="s">
+        <v>393</v>
       </c>
       <c r="D469" s="11">
         <v>0</v>
       </c>
-      <c r="E469" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E469" s="11"/>
+    </row>
+    <row r="470" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="11">
         <v>469</v>
       </c>
       <c r="B470" s="11">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C470" s="11" t="s">
-        <v>1032</v>
+        <v>438</v>
       </c>
       <c r="D470" s="11">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E470" s="11"/>
+    </row>
+    <row r="471" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="11">
         <v>470</v>
       </c>
       <c r="B471" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C471" s="11" t="s">
-        <v>1032</v>
+        <v>664</v>
       </c>
       <c r="D471" s="11">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E471" s="11"/>
+    </row>
+    <row r="472" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="11">
         <v>471</v>
       </c>
       <c r="B472" s="11">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C472" s="11" t="s">
-        <v>1032</v>
+        <v>665</v>
       </c>
       <c r="D472" s="11">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E472" s="11"/>
+    </row>
+    <row r="473" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="11">
         <v>472</v>
       </c>
       <c r="B473" s="11">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C473" s="11" t="s">
-        <v>1032</v>
+        <v>384</v>
       </c>
       <c r="D473" s="11">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E473" s="11"/>
+    </row>
+    <row r="474" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="11">
         <v>473</v>
       </c>
       <c r="B474" s="11">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C474" s="11" t="s">
-        <v>1032</v>
+        <v>389</v>
       </c>
       <c r="D474" s="11">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E474" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="11">
         <v>474</v>
       </c>
       <c r="B475" s="11">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C475" s="11" t="s">
-        <v>1032</v>
+        <v>666</v>
       </c>
       <c r="D475" s="11">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E475" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="11">
         <v>475</v>
       </c>
       <c r="B476" s="11">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C476" s="11" t="s">
         <v>1032</v>
       </c>
       <c r="D476" s="11">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="11">
         <v>476</v>
       </c>
       <c r="B477" s="11">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C477" s="11" t="s">
         <v>1032</v>
       </c>
       <c r="D477" s="11">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="11">
         <v>477</v>
       </c>
       <c r="B478" s="11">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C478" s="11" t="s">
         <v>1032</v>
       </c>
       <c r="D478" s="11">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="11">
         <v>478</v>
       </c>
       <c r="B479" s="11">
-        <v>334</v>
-      </c>
-      <c r="C479" s="23" t="s">
-        <v>1076</v>
+        <v>328</v>
+      </c>
+      <c r="C479" s="11" t="s">
+        <v>1032</v>
       </c>
       <c r="D479" s="11">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" s="11">
         <v>479</v>
       </c>
       <c r="B480" s="11">
-        <v>335</v>
-      </c>
-      <c r="C480" s="23" t="s">
-        <v>1076</v>
+        <v>329</v>
+      </c>
+      <c r="C480" s="11" t="s">
+        <v>1032</v>
       </c>
       <c r="D480" s="11">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="481" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41136,13 +41197,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="11">
-        <v>336</v>
-      </c>
-      <c r="C481" s="23" t="s">
-        <v>1076</v>
+        <v>330</v>
+      </c>
+      <c r="C481" s="11" t="s">
+        <v>1032</v>
       </c>
       <c r="D481" s="11">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="482" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41150,13 +41211,13 @@
         <v>481</v>
       </c>
       <c r="B482" s="11">
-        <v>337</v>
-      </c>
-      <c r="C482" s="23" t="s">
-        <v>1076</v>
+        <v>331</v>
+      </c>
+      <c r="C482" s="11" t="s">
+        <v>1032</v>
       </c>
       <c r="D482" s="11">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="483" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41164,13 +41225,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="11">
-        <v>338</v>
-      </c>
-      <c r="C483" s="23" t="s">
-        <v>1076</v>
+        <v>332</v>
+      </c>
+      <c r="C483" s="11" t="s">
+        <v>1032</v>
       </c>
       <c r="D483" s="11">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="484" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41178,13 +41239,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="11">
-        <v>339</v>
-      </c>
-      <c r="C484" s="23" t="s">
-        <v>1076</v>
+        <v>333</v>
+      </c>
+      <c r="C484" s="11" t="s">
+        <v>1032</v>
       </c>
       <c r="D484" s="11">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="485" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41192,13 +41253,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="11">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C485" s="23" t="s">
         <v>1076</v>
       </c>
       <c r="D485" s="11">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="486" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41206,13 +41267,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="11">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C486" s="23" t="s">
         <v>1076</v>
       </c>
       <c r="D486" s="11">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="487" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41220,13 +41281,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="11">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C487" s="23" t="s">
         <v>1076</v>
       </c>
       <c r="D487" s="11">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="488" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41234,13 +41295,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="11">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C488" s="23" t="s">
         <v>1076</v>
       </c>
       <c r="D488" s="11">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="489" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41248,91 +41309,83 @@
         <v>488</v>
       </c>
       <c r="B489" s="11">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C489" s="23" t="s">
-        <v>393</v>
+        <v>1076</v>
       </c>
       <c r="D489" s="11">
-        <v>0</v>
-      </c>
-      <c r="E489" s="11"/>
+        <v>221</v>
+      </c>
     </row>
     <row r="490" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A490" s="11">
         <v>489</v>
       </c>
       <c r="B490" s="11">
-        <v>344</v>
-      </c>
-      <c r="C490" s="11" t="s">
-        <v>438</v>
+        <v>339</v>
+      </c>
+      <c r="C490" s="23" t="s">
+        <v>1076</v>
       </c>
       <c r="D490" s="11">
-        <v>0</v>
-      </c>
-      <c r="E490" s="11"/>
+        <v>222</v>
+      </c>
     </row>
     <row r="491" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" s="11">
         <v>490</v>
       </c>
       <c r="B491" s="11">
-        <v>344</v>
-      </c>
-      <c r="C491" s="11" t="s">
-        <v>664</v>
+        <v>340</v>
+      </c>
+      <c r="C491" s="23" t="s">
+        <v>1076</v>
       </c>
       <c r="D491" s="11">
-        <v>0</v>
-      </c>
-      <c r="E491" s="11"/>
+        <v>223</v>
+      </c>
     </row>
     <row r="492" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A492" s="11">
         <v>491</v>
       </c>
       <c r="B492" s="11">
-        <v>344</v>
-      </c>
-      <c r="C492" s="11" t="s">
-        <v>665</v>
+        <v>341</v>
+      </c>
+      <c r="C492" s="23" t="s">
+        <v>1076</v>
       </c>
       <c r="D492" s="11">
-        <v>0</v>
-      </c>
-      <c r="E492" s="11"/>
+        <v>224</v>
+      </c>
     </row>
     <row r="493" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" s="11">
         <v>492</v>
       </c>
       <c r="B493" s="11">
-        <v>344</v>
-      </c>
-      <c r="C493" s="11" t="s">
-        <v>384</v>
+        <v>342</v>
+      </c>
+      <c r="C493" s="23" t="s">
+        <v>1076</v>
       </c>
       <c r="D493" s="11">
-        <v>0</v>
-      </c>
-      <c r="E493" s="11"/>
+        <v>225</v>
+      </c>
     </row>
     <row r="494" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A494" s="11">
         <v>493</v>
       </c>
       <c r="B494" s="11">
-        <v>344</v>
-      </c>
-      <c r="C494" s="11" t="s">
-        <v>389</v>
+        <v>343</v>
+      </c>
+      <c r="C494" s="23" t="s">
+        <v>1076</v>
       </c>
       <c r="D494" s="11">
-        <v>0</v>
-      </c>
-      <c r="E494" s="11">
-        <v>0.5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="495" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41342,25 +41395,23 @@
       <c r="B495" s="11">
         <v>344</v>
       </c>
-      <c r="C495" s="11" t="s">
-        <v>666</v>
+      <c r="C495" s="23" t="s">
+        <v>393</v>
       </c>
       <c r="D495" s="11">
         <v>0</v>
       </c>
-      <c r="E495" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E495" s="11"/>
     </row>
     <row r="496" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A496" s="11">
         <v>495</v>
       </c>
       <c r="B496" s="11">
-        <v>345</v>
-      </c>
-      <c r="C496" s="23" t="s">
-        <v>393</v>
+        <v>344</v>
+      </c>
+      <c r="C496" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="D496" s="11">
         <v>0</v>
@@ -41372,10 +41423,10 @@
         <v>496</v>
       </c>
       <c r="B497" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C497" s="11" t="s">
-        <v>438</v>
+        <v>664</v>
       </c>
       <c r="D497" s="11">
         <v>0</v>
@@ -41387,10 +41438,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C498" s="11" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D498" s="11">
         <v>0</v>
@@ -41402,10 +41453,10 @@
         <v>498</v>
       </c>
       <c r="B499" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C499" s="11" t="s">
-        <v>665</v>
+        <v>384</v>
       </c>
       <c r="D499" s="11">
         <v>0</v>
@@ -41417,25 +41468,27 @@
         <v>499</v>
       </c>
       <c r="B500" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C500" s="11" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D500" s="11">
         <v>0</v>
       </c>
-      <c r="E500" s="11"/>
+      <c r="E500" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="501" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" s="11">
         <v>500</v>
       </c>
       <c r="B501" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C501" s="11" t="s">
-        <v>389</v>
+        <v>666</v>
       </c>
       <c r="D501" s="11">
         <v>0</v>
@@ -41451,84 +41504,89 @@
       <c r="B502" s="11">
         <v>345</v>
       </c>
-      <c r="C502" s="11" t="s">
-        <v>666</v>
+      <c r="C502" s="23" t="s">
+        <v>393</v>
       </c>
       <c r="D502" s="11">
         <v>0</v>
       </c>
-      <c r="E502" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E502" s="11"/>
     </row>
     <row r="503" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="11">
         <v>502</v>
       </c>
       <c r="B503" s="11">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C503" s="11" t="s">
-        <v>1031</v>
+        <v>438</v>
       </c>
       <c r="D503" s="11">
-        <v>227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E503" s="11"/>
     </row>
     <row r="504" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A504" s="11">
         <v>503</v>
       </c>
       <c r="B504" s="11">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C504" s="11" t="s">
-        <v>1031</v>
+        <v>664</v>
       </c>
       <c r="D504" s="11">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E504" s="11"/>
     </row>
     <row r="505" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" s="11">
         <v>504</v>
       </c>
       <c r="B505" s="11">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C505" s="11" t="s">
-        <v>1031</v>
+        <v>665</v>
       </c>
       <c r="D505" s="11">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E505" s="11"/>
     </row>
     <row r="506" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A506" s="11">
         <v>505</v>
       </c>
       <c r="B506" s="11">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C506" s="11" t="s">
-        <v>1031</v>
+        <v>384</v>
       </c>
       <c r="D506" s="11">
-        <v>230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E506" s="11"/>
     </row>
     <row r="507" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" s="11">
         <v>506</v>
       </c>
       <c r="B507" s="11">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C507" s="11" t="s">
-        <v>1031</v>
+        <v>389</v>
       </c>
       <c r="D507" s="11">
-        <v>231</v>
+        <v>0</v>
+      </c>
+      <c r="E507" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="508" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41536,13 +41594,16 @@
         <v>507</v>
       </c>
       <c r="B508" s="11">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C508" s="11" t="s">
-        <v>1031</v>
+        <v>666</v>
       </c>
       <c r="D508" s="11">
-        <v>232</v>
+        <v>0</v>
+      </c>
+      <c r="E508" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="509" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41550,13 +41611,13 @@
         <v>508</v>
       </c>
       <c r="B509" s="11">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C509" s="11" t="s">
         <v>1031</v>
       </c>
       <c r="D509" s="11">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="510" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41564,13 +41625,13 @@
         <v>509</v>
       </c>
       <c r="B510" s="11">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C510" s="11" t="s">
         <v>1031</v>
       </c>
       <c r="D510" s="11">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="511" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41578,13 +41639,13 @@
         <v>510</v>
       </c>
       <c r="B511" s="11">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C511" s="11" t="s">
         <v>1031</v>
       </c>
       <c r="D511" s="11">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="512" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41592,13 +41653,13 @@
         <v>511</v>
       </c>
       <c r="B512" s="11">
-        <v>355</v>
-      </c>
-      <c r="C512" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C512" s="11" t="s">
         <v>1031</v>
       </c>
       <c r="D512" s="11">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="513" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41606,13 +41667,13 @@
         <v>512</v>
       </c>
       <c r="B513" s="11">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C513" s="11" t="s">
         <v>1031</v>
       </c>
-      <c r="D513" s="12">
-        <v>237</v>
+      <c r="D513" s="11">
+        <v>231</v>
       </c>
     </row>
     <row r="514" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41620,13 +41681,13 @@
         <v>513</v>
       </c>
       <c r="B514" s="11">
-        <v>357</v>
-      </c>
-      <c r="C514" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C514" s="11" t="s">
         <v>1031</v>
       </c>
-      <c r="D514" s="12">
-        <v>238</v>
+      <c r="D514" s="11">
+        <v>232</v>
       </c>
     </row>
     <row r="515" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41634,13 +41695,13 @@
         <v>514</v>
       </c>
       <c r="B515" s="11">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C515" s="11" t="s">
         <v>1031</v>
       </c>
-      <c r="D515" s="12">
-        <v>239</v>
+      <c r="D515" s="11">
+        <v>233</v>
       </c>
     </row>
     <row r="516" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41648,13 +41709,13 @@
         <v>515</v>
       </c>
       <c r="B516" s="11">
-        <v>359</v>
-      </c>
-      <c r="C516" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="C516" s="11" t="s">
         <v>1031</v>
       </c>
-      <c r="D516" s="12">
-        <v>240</v>
+      <c r="D516" s="11">
+        <v>234</v>
       </c>
     </row>
     <row r="517" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41662,13 +41723,13 @@
         <v>516</v>
       </c>
       <c r="B517" s="11">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C517" s="11" t="s">
         <v>1031</v>
       </c>
-      <c r="D517" s="12">
-        <v>241</v>
+      <c r="D517" s="11">
+        <v>235</v>
       </c>
     </row>
     <row r="518" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41676,13 +41737,13 @@
         <v>517</v>
       </c>
       <c r="B518" s="11">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C518" s="23" t="s">
         <v>1031</v>
       </c>
-      <c r="D518" s="12">
-        <v>242</v>
+      <c r="D518" s="11">
+        <v>236</v>
       </c>
     </row>
     <row r="519" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41690,13 +41751,13 @@
         <v>518</v>
       </c>
       <c r="B519" s="11">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C519" s="11" t="s">
         <v>1031</v>
       </c>
       <c r="D519" s="12">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="520" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41704,13 +41765,13 @@
         <v>519</v>
       </c>
       <c r="B520" s="11">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C520" s="23" t="s">
         <v>1031</v>
       </c>
       <c r="D520" s="12">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="521" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41718,13 +41779,13 @@
         <v>520</v>
       </c>
       <c r="B521" s="11">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C521" s="11" t="s">
         <v>1031</v>
       </c>
       <c r="D521" s="12">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="522" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41732,13 +41793,13 @@
         <v>521</v>
       </c>
       <c r="B522" s="11">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C522" s="23" t="s">
         <v>1031</v>
       </c>
       <c r="D522" s="12">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="523" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41746,156 +41807,153 @@
         <v>522</v>
       </c>
       <c r="B523" s="11">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C523" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="D523" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1031</v>
+      </c>
+      <c r="D523" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A524" s="11">
         <v>523</v>
       </c>
-      <c r="B524" s="10">
-        <v>367</v>
-      </c>
-      <c r="C524" s="87" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D524" s="10">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B524" s="11">
+        <v>361</v>
+      </c>
+      <c r="C524" s="23" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D524" s="12">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="11">
         <v>524</v>
       </c>
-      <c r="B525" s="10">
-        <v>368</v>
-      </c>
-      <c r="C525" s="87" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D525" s="10">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B525" s="11">
+        <v>362</v>
+      </c>
+      <c r="C525" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D525" s="12">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526" s="11">
         <v>525</v>
       </c>
-      <c r="B526" s="10">
-        <v>369</v>
-      </c>
-      <c r="C526" s="87" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D526" s="10">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B526" s="11">
+        <v>363</v>
+      </c>
+      <c r="C526" s="23" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D526" s="12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="11">
         <v>526</v>
       </c>
-      <c r="B527" s="10">
-        <v>370</v>
-      </c>
-      <c r="C527" s="87" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D527" s="10">
-        <v>256</v>
+      <c r="B527" s="11">
+        <v>364</v>
+      </c>
+      <c r="C527" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D527" s="12">
+        <v>245</v>
       </c>
     </row>
     <row r="528" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A528" s="11">
         <v>527</v>
       </c>
-      <c r="B528" s="13">
-        <v>371</v>
-      </c>
-      <c r="C528" s="13" t="s">
-        <v>1302</v>
+      <c r="B528" s="11">
+        <v>365</v>
+      </c>
+      <c r="C528" s="23" t="s">
+        <v>1031</v>
       </c>
       <c r="D528" s="12">
-        <v>0</v>
+        <v>246</v>
       </c>
     </row>
     <row r="529" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="11">
         <v>528</v>
       </c>
-      <c r="B529" s="13">
-        <v>372</v>
-      </c>
-      <c r="C529" s="13" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D529" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B529" s="11">
+        <v>366</v>
+      </c>
+      <c r="C529" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D529" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A530" s="11">
         <v>529</v>
       </c>
-      <c r="B530" s="13">
-        <v>373</v>
-      </c>
-      <c r="C530" s="13" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D530" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B530" s="10">
+        <v>367</v>
+      </c>
+      <c r="C530" s="87" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D530" s="10">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A531" s="11">
         <v>530</v>
       </c>
-      <c r="B531" s="13">
-        <v>374</v>
-      </c>
-      <c r="C531" s="13" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D531" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B531" s="10">
+        <v>368</v>
+      </c>
+      <c r="C531" s="87" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D531" s="10">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A532" s="11">
         <v>531</v>
       </c>
-      <c r="B532" s="13">
-        <v>375</v>
-      </c>
-      <c r="C532" s="13" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D532" s="12">
-        <v>0</v>
-      </c>
-      <c r="E532" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B532" s="10">
+        <v>369</v>
+      </c>
+      <c r="C532" s="87" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D532" s="10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A533" s="11">
         <v>532</v>
       </c>
-      <c r="B533" s="13">
-        <v>376</v>
-      </c>
-      <c r="C533" s="13" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D533" s="12">
-        <v>0</v>
+      <c r="B533" s="10">
+        <v>370</v>
+      </c>
+      <c r="C533" s="87" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D533" s="10">
+        <v>256</v>
       </c>
     </row>
     <row r="534" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41903,10 +41961,10 @@
         <v>533</v>
       </c>
       <c r="B534" s="13">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C534" s="13" t="s">
-        <v>1307</v>
+        <v>1290</v>
       </c>
       <c r="D534" s="12">
         <v>0</v>
@@ -41917,10 +41975,10 @@
         <v>534</v>
       </c>
       <c r="B535" s="13">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C535" s="13" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="D535" s="12">
         <v>0</v>
@@ -41931,10 +41989,10 @@
         <v>535</v>
       </c>
       <c r="B536" s="13">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C536" s="13" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="D536" s="12">
         <v>0</v>
@@ -41945,10 +42003,10 @@
         <v>536</v>
       </c>
       <c r="B537" s="13">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C537" s="13" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="D537" s="12">
         <v>0</v>
@@ -41959,13 +42017,16 @@
         <v>537</v>
       </c>
       <c r="B538" s="13">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C538" s="13" t="s">
-        <v>1310</v>
+        <v>1341</v>
       </c>
       <c r="D538" s="12">
-        <v>258</v>
+        <v>0</v>
+      </c>
+      <c r="E538" s="13">
+        <v>0.5</v>
       </c>
     </row>
     <row r="539" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41973,13 +42034,13 @@
         <v>538</v>
       </c>
       <c r="B539" s="13">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C539" s="13" t="s">
-        <v>1354</v>
+        <v>1294</v>
       </c>
       <c r="D539" s="12">
-        <v>259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41987,10 +42048,10 @@
         <v>539</v>
       </c>
       <c r="B540" s="13">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C540" s="13" t="s">
-        <v>1309</v>
+        <v>1295</v>
       </c>
       <c r="D540" s="12">
         <v>0</v>
@@ -42001,10 +42062,10 @@
         <v>540</v>
       </c>
       <c r="B541" s="13">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C541" s="13" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="D541" s="12">
         <v>0</v>
@@ -42015,13 +42076,13 @@
         <v>541</v>
       </c>
       <c r="B542" s="13">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C542" s="13" t="s">
-        <v>1311</v>
+        <v>1297</v>
       </c>
       <c r="D542" s="12">
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -42029,10 +42090,10 @@
         <v>542</v>
       </c>
       <c r="B543" s="13">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C543" s="13" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="D543" s="12">
         <v>0</v>
@@ -42043,13 +42104,13 @@
         <v>543</v>
       </c>
       <c r="B544" s="13">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C544" s="13" t="s">
-        <v>1312</v>
+        <v>1298</v>
       </c>
       <c r="D544" s="12">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="545" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -42057,104 +42118,98 @@
         <v>544</v>
       </c>
       <c r="B545" s="13">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C545" s="13" t="s">
-        <v>1313</v>
+        <v>1342</v>
       </c>
       <c r="D545" s="12">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="11">
         <v>545</v>
       </c>
-      <c r="B546" s="11">
-        <v>389</v>
-      </c>
-      <c r="C546" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="D546" s="11">
-        <v>0</v>
-      </c>
-      <c r="E546" s="6"/>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B546" s="13">
+        <v>383</v>
+      </c>
+      <c r="C546" s="13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D546" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A547" s="11">
         <v>546</v>
       </c>
-      <c r="B547" s="11">
-        <v>389</v>
-      </c>
-      <c r="C547" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="D547" s="11">
-        <v>0</v>
-      </c>
-      <c r="E547" s="11"/>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B547" s="13">
+        <v>384</v>
+      </c>
+      <c r="C547" s="13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D547" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" s="11">
         <v>547</v>
       </c>
-      <c r="B548" s="11">
-        <v>389</v>
-      </c>
-      <c r="C548" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="D548" s="11">
-        <v>0</v>
-      </c>
-      <c r="E548" s="11"/>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B548" s="13">
+        <v>385</v>
+      </c>
+      <c r="C548" s="13" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D548" s="12">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549" s="11">
         <v>548</v>
       </c>
-      <c r="B549" s="11">
-        <v>389</v>
-      </c>
-      <c r="C549" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="D549" s="11">
-        <v>0</v>
-      </c>
-      <c r="E549" s="11"/>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B549" s="13">
+        <v>386</v>
+      </c>
+      <c r="C549" s="13" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D549" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="11">
         <v>549</v>
       </c>
-      <c r="B550" s="11">
-        <v>389</v>
+      <c r="B550" s="13">
+        <v>387</v>
       </c>
       <c r="C550" s="13" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D550" s="11">
-        <v>0</v>
-      </c>
-      <c r="E550" s="11"/>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="D550" s="12">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="11">
         <v>550</v>
       </c>
-      <c r="B551" s="11">
-        <v>389</v>
+      <c r="B551" s="13">
+        <v>388</v>
       </c>
       <c r="C551" s="13" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D551" s="11">
-        <v>0</v>
-      </c>
-      <c r="E551" s="11"/>
+        <v>1301</v>
+      </c>
+      <c r="D551" s="12">
+        <v>262</v>
+      </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" s="11">
@@ -42164,14 +42219,12 @@
         <v>389</v>
       </c>
       <c r="C552" s="11" t="s">
-        <v>389</v>
+        <v>663</v>
       </c>
       <c r="D552" s="11">
         <v>0</v>
       </c>
-      <c r="E552" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E552" s="6"/>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" s="11">
@@ -42180,13 +42233,105 @@
       <c r="B553" s="11">
         <v>389</v>
       </c>
-      <c r="C553" s="13" t="s">
-        <v>1343</v>
+      <c r="C553" s="23" t="s">
+        <v>393</v>
       </c>
       <c r="D553" s="11">
         <v>0</v>
       </c>
-      <c r="E553" s="11">
+      <c r="E553" s="11"/>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A554" s="11">
+        <v>553</v>
+      </c>
+      <c r="B554" s="11">
+        <v>389</v>
+      </c>
+      <c r="C554" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="D554" s="11">
+        <v>0</v>
+      </c>
+      <c r="E554" s="11"/>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A555" s="11">
+        <v>554</v>
+      </c>
+      <c r="B555" s="11">
+        <v>389</v>
+      </c>
+      <c r="C555" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="D555" s="11">
+        <v>0</v>
+      </c>
+      <c r="E555" s="11"/>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A556" s="11">
+        <v>555</v>
+      </c>
+      <c r="B556" s="11">
+        <v>389</v>
+      </c>
+      <c r="C556" s="13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D556" s="11">
+        <v>0</v>
+      </c>
+      <c r="E556" s="11"/>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A557" s="11">
+        <v>556</v>
+      </c>
+      <c r="B557" s="11">
+        <v>389</v>
+      </c>
+      <c r="C557" s="13" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D557" s="11">
+        <v>0</v>
+      </c>
+      <c r="E557" s="11"/>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A558" s="11">
+        <v>557</v>
+      </c>
+      <c r="B558" s="11">
+        <v>389</v>
+      </c>
+      <c r="C558" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D558" s="11">
+        <v>0</v>
+      </c>
+      <c r="E558" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A559" s="11">
+        <v>558</v>
+      </c>
+      <c r="B559" s="11">
+        <v>389</v>
+      </c>
+      <c r="C559" s="13" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D559" s="11">
+        <v>0</v>
+      </c>
+      <c r="E559" s="11">
         <v>0.5</v>
       </c>
     </row>
@@ -42202,10 +42347,10 @@
   <dimension ref="A1:M375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C347" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C336" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D371" sqref="D371"/>
+      <selection pane="bottomRight" activeCell="D360" sqref="D360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48815,7 +48960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="11">
         <v>382</v>
       </c>
@@ -48832,7 +48977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="11">
         <v>383</v>
       </c>
@@ -48849,7 +48994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="11">
         <v>384</v>
       </c>
@@ -48866,7 +49011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="11">
         <v>385</v>
       </c>
@@ -48883,7 +49028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="11">
         <v>386</v>
       </c>
@@ -48900,7 +49045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="11">
         <v>387</v>
       </c>
@@ -48917,109 +49062,114 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" s="11">
+    <row r="359" spans="1:6" s="109" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="107">
         <v>388</v>
       </c>
-      <c r="B359" s="11">
+      <c r="B359" s="107">
         <v>247</v>
       </c>
-      <c r="C359" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D359" s="11">
-        <v>3</v>
-      </c>
-      <c r="E359" s="11">
+      <c r="C359" s="108" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D359" s="107">
+        <v>0</v>
+      </c>
+      <c r="E359" s="107">
         <v>2</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F359" s="107"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="11">
         <v>389</v>
       </c>
       <c r="B360" s="11">
         <v>248</v>
       </c>
-      <c r="C360" s="11" t="s">
-        <v>688</v>
+      <c r="C360" s="13" t="s">
+        <v>1346</v>
       </c>
       <c r="D360" s="15" t="s">
-        <v>1193</v>
+        <v>969</v>
       </c>
       <c r="E360" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361" s="11">
+    <row r="361" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="101">
         <v>390</v>
       </c>
-      <c r="B361" s="11">
+      <c r="B361" s="101">
         <v>249</v>
       </c>
-      <c r="C361" s="11" t="s">
+      <c r="C361" s="101" t="s">
         <v>688</v>
       </c>
-      <c r="D361" s="15" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E361" s="11">
+      <c r="D361" s="102" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E361" s="101">
         <v>2</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A362" s="11">
+      <c r="F361" s="101"/>
+    </row>
+    <row r="362" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="101">
         <v>391</v>
       </c>
-      <c r="B362" s="11">
+      <c r="B362" s="101">
         <v>250</v>
       </c>
-      <c r="C362" s="11" t="s">
+      <c r="C362" s="101" t="s">
         <v>688</v>
       </c>
-      <c r="D362" s="15" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E362" s="11">
+      <c r="D362" s="102" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E362" s="101">
         <v>2</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A363" s="11">
+      <c r="F362" s="101"/>
+    </row>
+    <row r="363" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="101">
         <v>392</v>
       </c>
-      <c r="B363" s="11">
+      <c r="B363" s="101">
         <v>251</v>
       </c>
-      <c r="C363" s="11" t="s">
+      <c r="C363" s="101" t="s">
         <v>688</v>
       </c>
-      <c r="D363" s="15" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E363" s="11">
+      <c r="D363" s="102" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E363" s="101">
         <v>2</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A364" s="11">
+      <c r="F363" s="101"/>
+    </row>
+    <row r="364" spans="1:6" s="106" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="104">
         <v>393</v>
       </c>
-      <c r="B364" s="11">
+      <c r="B364" s="104">
         <v>252</v>
       </c>
-      <c r="C364" s="11" t="s">
+      <c r="C364" s="104" t="s">
         <v>688</v>
       </c>
-      <c r="D364" s="15" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E364" s="11">
+      <c r="D364" s="105" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E364" s="104">
         <v>2</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F364" s="104"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="10">
         <v>394</v>
       </c>
@@ -49027,16 +49177,16 @@
         <v>253</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="D365" s="83" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="E365" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="10">
         <v>395</v>
       </c>
@@ -49044,7 +49194,7 @@
         <v>254</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="D366" s="10">
         <v>3</v>
@@ -49053,7 +49203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="10">
         <v>396</v>
       </c>
@@ -49061,7 +49211,7 @@
         <v>255</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="D367" s="10">
         <v>4</v>
@@ -49070,7 +49220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="10">
         <v>397</v>
       </c>
@@ -49078,7 +49228,7 @@
         <v>256</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="D368" s="10">
         <v>5</v>
@@ -49098,7 +49248,7 @@
         <v>675</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="E369" s="29">
         <v>2</v>
@@ -49114,7 +49264,7 @@
         <v>258</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="D370" s="11">
         <v>5000000</v>
@@ -49131,7 +49281,7 @@
         <v>259</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
       <c r="D371" s="13">
         <v>20</v>
@@ -49148,7 +49298,7 @@
         <v>259</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="D372" s="11">
         <v>100000</v>
@@ -49165,7 +49315,7 @@
         <v>260</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="D373" s="11">
         <v>480000</v>
@@ -49182,7 +49332,7 @@
         <v>261</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="D374" s="11">
         <v>960000</v>
@@ -49199,7 +49349,7 @@
         <v>262</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="D375" s="11">
         <v>10</v>
@@ -49219,11 +49369,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W830"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C797" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C449" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E812" sqref="E812"/>
+      <selection pane="bottomRight" activeCell="C459" sqref="C459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -55123,7 +55273,7 @@
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="19" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="E266" s="10">
         <v>1</v>
@@ -55165,7 +55315,7 @@
       </c>
       <c r="C268" s="78"/>
       <c r="D268" s="77" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="E268" s="78">
         <v>10</v>
@@ -55186,7 +55336,7 @@
       </c>
       <c r="C269" s="78"/>
       <c r="D269" s="77" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="E269" s="78">
         <v>1</v>
@@ -59068,154 +59218,152 @@
       <c r="H466" s="11"/>
       <c r="I466" s="11"/>
     </row>
-    <row r="467" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="12">
+    <row r="467" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="9">
         <v>466</v>
       </c>
-      <c r="B467" s="15" t="s">
+      <c r="B467" s="83" t="s">
         <v>583</v>
       </c>
-      <c r="C467" s="13"/>
-      <c r="D467" s="13" t="s">
+      <c r="C467" s="19"/>
+      <c r="D467" s="19" t="s">
         <v>773</v>
       </c>
-      <c r="E467" s="11">
-        <v>20000</v>
-      </c>
-      <c r="F467" s="11">
-        <v>1</v>
-      </c>
-      <c r="G467" s="11"/>
-      <c r="H467" s="11"/>
-      <c r="I467" s="11"/>
-    </row>
-    <row r="468" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="12">
+      <c r="E467" s="10">
+        <v>50000</v>
+      </c>
+      <c r="F467" s="10">
+        <v>1</v>
+      </c>
+      <c r="G467" s="10"/>
+      <c r="H467" s="10"/>
+      <c r="I467" s="10"/>
+    </row>
+    <row r="468" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="9">
         <v>467</v>
       </c>
-      <c r="B468" s="15" t="s">
+      <c r="B468" s="83" t="s">
         <v>584</v>
       </c>
-      <c r="C468" s="13"/>
-      <c r="D468" s="13" t="s">
+      <c r="C468" s="19"/>
+      <c r="D468" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="E468" s="11">
-        <v>20</v>
-      </c>
-      <c r="F468" s="11">
-        <v>1</v>
-      </c>
-      <c r="G468" s="11"/>
-      <c r="H468" s="11"/>
-      <c r="I468" s="11"/>
-    </row>
-    <row r="469" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="12">
+      <c r="E468" s="10">
+        <v>200</v>
+      </c>
+      <c r="F468" s="10">
+        <v>1</v>
+      </c>
+      <c r="G468" s="10"/>
+      <c r="H468" s="10"/>
+      <c r="I468" s="10"/>
+    </row>
+    <row r="469" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="9">
         <v>468</v>
       </c>
-      <c r="B469" s="15" t="s">
+      <c r="B469" s="83" t="s">
         <v>585</v>
       </c>
-      <c r="C469" s="13"/>
-      <c r="D469" s="13" t="s">
+      <c r="C469" s="19"/>
+      <c r="D469" s="19" t="s">
         <v>773</v>
       </c>
-      <c r="E469" s="11">
-        <v>50000</v>
-      </c>
-      <c r="F469" s="11">
-        <v>1</v>
-      </c>
-      <c r="G469" s="11"/>
-      <c r="H469" s="11"/>
-      <c r="I469" s="11"/>
-    </row>
-    <row r="470" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="12">
+      <c r="E469" s="10">
+        <v>80000</v>
+      </c>
+      <c r="F469" s="10">
+        <v>1</v>
+      </c>
+      <c r="G469" s="10"/>
+      <c r="H469" s="10"/>
+      <c r="I469" s="10"/>
+    </row>
+    <row r="470" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="9">
         <v>469</v>
       </c>
-      <c r="B470" s="15" t="s">
+      <c r="B470" s="83" t="s">
         <v>586</v>
       </c>
-      <c r="C470" s="13"/>
-      <c r="D470" s="13" t="s">
+      <c r="C470" s="19"/>
+      <c r="D470" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="E470" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F470" s="10">
+        <v>1</v>
+      </c>
+      <c r="G470" s="10"/>
+      <c r="H470" s="10"/>
+      <c r="I470" s="10"/>
+    </row>
+    <row r="471" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="9">
+        <v>470</v>
+      </c>
+      <c r="B471" s="83" t="s">
+        <v>587</v>
+      </c>
+      <c r="C471" s="19"/>
+      <c r="D471" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="E470" s="11">
-        <v>50</v>
-      </c>
-      <c r="F470" s="11">
-        <v>1</v>
-      </c>
-      <c r="G470" s="11"/>
-      <c r="H470" s="11"/>
-      <c r="I470" s="11"/>
-    </row>
-    <row r="471" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="12">
-        <v>470</v>
-      </c>
-      <c r="B471" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="C471" s="13"/>
-      <c r="D471" s="13" t="s">
+      <c r="E471" s="10">
+        <v>500</v>
+      </c>
+      <c r="F471" s="10">
+        <v>1</v>
+      </c>
+      <c r="G471" s="10"/>
+      <c r="H471" s="10"/>
+      <c r="I471" s="10"/>
+    </row>
+    <row r="472" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="9">
+        <v>471</v>
+      </c>
+      <c r="B472" s="83" t="s">
+        <v>588</v>
+      </c>
+      <c r="C472" s="19"/>
+      <c r="D472" s="19" t="s">
         <v>773</v>
       </c>
-      <c r="E471" s="11">
-        <v>80000</v>
-      </c>
-      <c r="F471" s="11">
-        <v>1</v>
-      </c>
-      <c r="G471" s="11"/>
-      <c r="H471" s="11"/>
-      <c r="I471" s="11"/>
-    </row>
-    <row r="472" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="12">
-        <v>471</v>
-      </c>
-      <c r="B472" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="C472" s="13"/>
-      <c r="D472" s="13" t="s">
+      <c r="E472" s="10">
+        <v>200000</v>
+      </c>
+      <c r="F472" s="10">
+        <v>1</v>
+      </c>
+      <c r="G472" s="10"/>
+      <c r="H472" s="10"/>
+      <c r="I472" s="10"/>
+    </row>
+    <row r="473" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="9">
+        <v>472</v>
+      </c>
+      <c r="B473" s="83" t="s">
+        <v>589</v>
+      </c>
+      <c r="C473" s="19"/>
+      <c r="D473" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="E472" s="11">
-        <v>80</v>
-      </c>
-      <c r="F472" s="11">
-        <v>1</v>
-      </c>
-      <c r="G472" s="11"/>
-      <c r="H472" s="11"/>
-      <c r="I472" s="11"/>
-    </row>
-    <row r="473" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="12">
-        <v>472</v>
-      </c>
-      <c r="B473" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="C473" s="13"/>
-      <c r="D473" s="13" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E473" s="11">
-        <v>604800</v>
-      </c>
-      <c r="F473" s="11">
-        <v>1</v>
-      </c>
-      <c r="G473" s="11">
-        <v>1</v>
-      </c>
-      <c r="H473" s="11"/>
-      <c r="I473" s="11"/>
+      <c r="E473" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F473" s="10">
+        <v>1</v>
+      </c>
+      <c r="G473" s="10"/>
+      <c r="H473" s="10"/>
+      <c r="I473" s="10"/>
     </row>
     <row r="474" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="12">
@@ -63325,7 +63473,7 @@
       </c>
       <c r="C670" s="11"/>
       <c r="D670" s="13" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="E670" s="11">
         <v>12000</v>
@@ -65461,7 +65609,7 @@
       </c>
       <c r="C774" s="11"/>
       <c r="D774" s="13" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
       <c r="E774" s="11">
         <v>1</v>
@@ -65482,10 +65630,10 @@
       </c>
       <c r="C775" s="10"/>
       <c r="D775" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E775" s="83" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="F775" s="10">
         <v>25</v>
@@ -65501,10 +65649,10 @@
       </c>
       <c r="C776" s="10"/>
       <c r="D776" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E776" s="83" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="F776" s="10">
         <v>50</v>
@@ -65522,10 +65670,10 @@
       </c>
       <c r="C777" s="10"/>
       <c r="D777" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E777" s="83" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="F777" s="10">
         <v>25</v>
@@ -65543,10 +65691,10 @@
       </c>
       <c r="C778" s="10"/>
       <c r="D778" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E778" s="83" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="F778" s="10">
         <v>25</v>
@@ -65561,10 +65709,10 @@
       </c>
       <c r="C779" s="10"/>
       <c r="D779" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E779" s="83" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="F779" s="10">
         <v>50</v>
@@ -65579,10 +65727,10 @@
       </c>
       <c r="C780" s="10"/>
       <c r="D780" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E780" s="83" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="F780" s="10">
         <v>25</v>
@@ -65597,10 +65745,10 @@
       </c>
       <c r="C781" s="10"/>
       <c r="D781" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E781" s="83" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="F781" s="10">
         <v>25</v>
@@ -65615,10 +65763,10 @@
       </c>
       <c r="C782" s="10"/>
       <c r="D782" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E782" s="83" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="F782" s="10">
         <v>50</v>
@@ -65633,10 +65781,10 @@
       </c>
       <c r="C783" s="10"/>
       <c r="D783" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E783" s="83" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="F783" s="10">
         <v>25</v>
@@ -65651,10 +65799,10 @@
       </c>
       <c r="C784" s="10"/>
       <c r="D784" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E784" s="83" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="F784" s="10">
         <v>25</v>
@@ -65669,10 +65817,10 @@
       </c>
       <c r="C785" s="10"/>
       <c r="D785" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E785" s="83" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="F785" s="10">
         <v>50</v>
@@ -65687,10 +65835,10 @@
       </c>
       <c r="C786" s="10"/>
       <c r="D786" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E786" s="83" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="F786" s="10">
         <v>25</v>
@@ -65705,10 +65853,10 @@
       </c>
       <c r="C787" s="10"/>
       <c r="D787" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E787" s="83" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="F787" s="10">
         <v>25</v>
@@ -65723,10 +65871,10 @@
       </c>
       <c r="C788" s="10"/>
       <c r="D788" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E788" s="83" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="F788" s="10">
         <v>50</v>
@@ -65741,7 +65889,7 @@
       </c>
       <c r="C789" s="10"/>
       <c r="D789" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E789" s="83">
         <v>150</v>
@@ -65759,7 +65907,7 @@
       </c>
       <c r="C790" s="10"/>
       <c r="D790" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E790" s="9">
         <v>400</v>
@@ -65777,7 +65925,7 @@
       </c>
       <c r="C791" s="10"/>
       <c r="D791" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E791" s="9">
         <v>500</v>
@@ -65795,7 +65943,7 @@
       </c>
       <c r="C792" s="10"/>
       <c r="D792" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E792" s="9">
         <v>600</v>
@@ -65813,7 +65961,7 @@
       </c>
       <c r="C793" s="10"/>
       <c r="D793" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E793" s="9">
         <v>100</v>
@@ -65831,7 +65979,7 @@
       </c>
       <c r="C794" s="10"/>
       <c r="D794" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E794" s="9">
         <v>300</v>
@@ -65849,7 +65997,7 @@
       </c>
       <c r="C795" s="10"/>
       <c r="D795" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E795" s="9">
         <v>500</v>
@@ -65867,7 +66015,7 @@
       </c>
       <c r="C796" s="10"/>
       <c r="D796" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E796" s="9">
         <v>500</v>
@@ -65885,7 +66033,7 @@
       </c>
       <c r="C797" s="10"/>
       <c r="D797" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E797" s="9">
         <v>1000</v>
@@ -65903,7 +66051,7 @@
       </c>
       <c r="C798" s="10"/>
       <c r="D798" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E798" s="9">
         <v>1500</v>
@@ -65921,7 +66069,7 @@
       </c>
       <c r="C799" s="10"/>
       <c r="D799" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E799" s="9">
         <v>4000</v>
@@ -65939,7 +66087,7 @@
       </c>
       <c r="C800" s="10"/>
       <c r="D800" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E800" s="9">
         <v>5000</v>
@@ -65957,7 +66105,7 @@
       </c>
       <c r="C801" s="10"/>
       <c r="D801" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E801" s="9">
         <v>6000</v>
@@ -65975,7 +66123,7 @@
       </c>
       <c r="C802" s="10"/>
       <c r="D802" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E802" s="9">
         <v>1000</v>
@@ -65993,7 +66141,7 @@
       </c>
       <c r="C803" s="10"/>
       <c r="D803" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E803" s="9">
         <v>3000</v>
@@ -66011,7 +66159,7 @@
       </c>
       <c r="C804" s="10"/>
       <c r="D804" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E804" s="9">
         <v>5000</v>
@@ -66029,7 +66177,7 @@
       </c>
       <c r="C805" s="10"/>
       <c r="D805" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E805" s="9">
         <v>5000</v>
@@ -66047,7 +66195,7 @@
       </c>
       <c r="C806" s="10"/>
       <c r="D806" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E806" s="9">
         <v>10000</v>
@@ -66065,7 +66213,7 @@
       </c>
       <c r="C807" s="10"/>
       <c r="D807" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E807" s="9">
         <v>15000</v>
@@ -66083,7 +66231,7 @@
       </c>
       <c r="C808" s="10"/>
       <c r="D808" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E808" s="9">
         <v>40000</v>
@@ -66101,7 +66249,7 @@
       </c>
       <c r="C809" s="10"/>
       <c r="D809" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E809" s="9">
         <v>50000</v>
@@ -66119,7 +66267,7 @@
       </c>
       <c r="C810" s="10"/>
       <c r="D810" s="19" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E810" s="9">
         <v>60000</v>
@@ -66137,10 +66285,10 @@
       </c>
       <c r="C811" s="11"/>
       <c r="D811" s="13" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="E811" s="27" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="F811" s="11">
         <v>1</v>
@@ -66158,10 +66306,10 @@
       </c>
       <c r="C812" s="11"/>
       <c r="D812" s="13" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="E812" s="15" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="F812" s="11">
         <v>1</v>
@@ -66179,7 +66327,7 @@
       </c>
       <c r="C813" s="11"/>
       <c r="D813" s="13" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="E813" s="27">
         <v>1</v>
@@ -66200,7 +66348,7 @@
       </c>
       <c r="C814" s="11"/>
       <c r="D814" s="13" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="E814" s="27">
         <v>400</v>
@@ -66221,7 +66369,7 @@
       </c>
       <c r="C815" s="11"/>
       <c r="D815" s="13" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="E815" s="27">
         <v>1</v>
@@ -66368,7 +66516,7 @@
       </c>
       <c r="C822" s="11"/>
       <c r="D822" s="100" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="E822" s="27">
         <v>3500</v>
@@ -66410,7 +66558,7 @@
       </c>
       <c r="C824" s="11"/>
       <c r="D824" s="13" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="E824" s="27">
         <v>14000</v>
@@ -66430,7 +66578,7 @@
         <v>592</v>
       </c>
       <c r="C825" s="13" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="D825" s="11"/>
       <c r="E825" s="27"/>
@@ -66451,7 +66599,7 @@
         <v>593</v>
       </c>
       <c r="C826" s="13" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="D826" s="11"/>
       <c r="E826" s="27"/>
@@ -66472,7 +66620,7 @@
         <v>594</v>
       </c>
       <c r="C827" s="13" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="D827" s="11"/>
       <c r="E827" s="27"/>
@@ -66493,7 +66641,7 @@
         <v>595</v>
       </c>
       <c r="C828" s="13" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="D828" s="11"/>
       <c r="E828" s="27"/>
@@ -66514,7 +66662,7 @@
         <v>596</v>
       </c>
       <c r="C829" s="13" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="D829" s="11"/>
       <c r="E829" s="27"/>
@@ -66535,7 +66683,7 @@
         <v>597</v>
       </c>
       <c r="C830" s="13" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
       <c r="D830" s="11"/>
       <c r="E830" s="27"/>

--- a/config_Release/task_zajindan_server.xlsx
+++ b/config_Release/task_zajindan_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5007" uniqueCount="1361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5052" uniqueCount="1370">
   <si>
     <t>id|任务id</t>
   </si>
@@ -6061,10 +6061,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>own_type|获得类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>p_recharge_sunshine_value</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7692,22 +7688,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>prop_3d_fish_lock</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_lock</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_guess_apple_bet_2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>prop_guess_apple_bet_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>buyu_3d_award</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7721,6 +7705,127 @@
     <t>vip_new_game_award_task_3</t>
   </si>
   <si>
+    <t>zajindan_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>jykp_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜尔电动牙刷</t>
+  </si>
+  <si>
+    <t>九阳电炖紫砂锅</t>
+  </si>
+  <si>
+    <t>美的智能烤箱</t>
+  </si>
+  <si>
+    <t>苏泊尔净水器</t>
+  </si>
+  <si>
+    <t>美的冰箱</t>
+  </si>
+  <si>
+    <t>苹果智能手表，北欧真皮沙发，席梦思高端床垫（三选一）</t>
+  </si>
+  <si>
+    <t>583,584,585,586,587,588,589,590,591,592,593,594,595,596,597,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在街机捕鱼中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>街机捕鱼使用10万以上炮倍击杀一条黄金龙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_target_yu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_any</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_fish_id</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐_累计充值3元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐_3D捕鱼累计赢金50万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐_3D捕鱼累计赢金200万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐_小游戏赢金100万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐__成为VIP2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level_up</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level_up</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_gift</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent_charge_any</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -7730,6 +7835,32 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>IP富豪福利</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>own_type|获得类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_frozen</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_regal_welfare</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史身上拥有金币数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>3000000</t>
     </r>
     <r>
@@ -7765,123 +7896,33 @@
       </rPr>
       <t>,6000000,12000000,24000000,48000000,104000000,200000000,400000000,800000000,1600000000,3200000000,5600000000,12000000000,26000000000</t>
     </r>
-  </si>
-  <si>
-    <t>zajindan_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>jykp_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>拜尔电动牙刷</t>
-  </si>
-  <si>
-    <t>九阳电炖紫砂锅</t>
-  </si>
-  <si>
-    <t>美的智能烤箱</t>
-  </si>
-  <si>
-    <t>苏泊尔净水器</t>
-  </si>
-  <si>
-    <t>美的冰箱</t>
-  </si>
-  <si>
-    <t>苹果智能手表，北欧真皮沙发，席梦思高端床垫（三选一）</t>
-  </si>
-  <si>
-    <t>583,584,585,586,587,588,589,590,591,592,593,594,595,596,597,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>在街机捕鱼中累计赢金1000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>街机捕鱼使用10万以上炮倍击杀一条黄金龙</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyu_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyu_target_yu</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
+    <t>598,599,600,601,602,603,604,605,606,607,608,609,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>charge_any</t>
+    <t>max_asset_observe</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>base_fish_id</t>
+    <t>asset_type</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>300</t>
+    <t>jing_bi</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
+    <t>prop_3d_fish_summon_fish</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_summon_fish</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>500000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐_累计充值3元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐_3D捕鱼累计赢金50万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐_3D捕鱼累计赢金200万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐_小游戏赢金100万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐__成为VIP2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_level_up</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_level_up</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy_gift</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>agent_charge_any</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000</t>
+    <t>2000000,3000000,5000000,10000000,30000000,50000000,100000000,300000000,500000000,1000000000,1000000000,2000000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -8112,7 +8153,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8421,6 +8462,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8704,13 +8748,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T393"/>
+  <dimension ref="A1:T395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M383" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G196" sqref="G196"/>
+      <selection pane="bottomRight" activeCell="N394" sqref="N394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8742,10 +8786,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>998</v>
+        <v>1357</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -15843,13 +15887,13 @@
         <v>0</v>
       </c>
       <c r="C179" s="84" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D179" s="84" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E179" s="84" t="s">
         <v>1222</v>
-      </c>
-      <c r="E179" s="84" t="s">
-        <v>1223</v>
       </c>
       <c r="F179" s="84" t="s">
         <v>13</v>
@@ -15882,10 +15926,10 @@
         <v>0</v>
       </c>
       <c r="C180" s="84" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D180" s="84" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E180" s="84" t="s">
         <v>132</v>
@@ -15921,10 +15965,10 @@
         <v>0</v>
       </c>
       <c r="C181" s="84" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D181" s="84" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E181" s="84" t="s">
         <v>132</v>
@@ -15960,10 +16004,10 @@
         <v>0</v>
       </c>
       <c r="C182" s="84" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D182" s="84" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E182" s="84" t="s">
         <v>132</v>
@@ -15999,10 +16043,10 @@
         <v>0</v>
       </c>
       <c r="C183" s="84" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D183" s="61" t="s">
         <v>1184</v>
-      </c>
-      <c r="D183" s="61" t="s">
-        <v>1185</v>
       </c>
       <c r="E183" s="84" t="s">
         <v>132</v>
@@ -16038,10 +16082,10 @@
         <v>0</v>
       </c>
       <c r="C184" s="84" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D184" s="61" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E184" s="84" t="s">
         <v>132</v>
@@ -16077,10 +16121,10 @@
         <v>0</v>
       </c>
       <c r="C185" s="84" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D185" s="84" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E185" s="84" t="s">
         <v>132</v>
@@ -16116,10 +16160,10 @@
         <v>0</v>
       </c>
       <c r="C186" s="84" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D186" s="84" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E186" s="84" t="s">
         <v>132</v>
@@ -16155,10 +16199,10 @@
         <v>0</v>
       </c>
       <c r="C187" s="84" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D187" s="84" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E187" s="84" t="s">
         <v>132</v>
@@ -16194,10 +16238,10 @@
         <v>0</v>
       </c>
       <c r="C188" s="84" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D188" s="84" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E188" s="84" t="s">
         <v>132</v>
@@ -16233,10 +16277,10 @@
         <v>0</v>
       </c>
       <c r="C189" s="84" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D189" s="84" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E189" s="84" t="s">
         <v>132</v>
@@ -16272,10 +16316,10 @@
         <v>0</v>
       </c>
       <c r="C190" s="84" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D190" s="84" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E190" s="84" t="s">
         <v>132</v>
@@ -16311,10 +16355,10 @@
         <v>0</v>
       </c>
       <c r="C191" s="84" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D191" s="84" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E191" s="84" t="s">
         <v>132</v>
@@ -16391,7 +16435,7 @@
         <v>237</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="E193" s="51" t="s">
         <v>239</v>
@@ -16429,7 +16473,7 @@
         <v>237</v>
       </c>
       <c r="D194" s="51" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E194" s="51" t="s">
         <v>239</v>
@@ -16467,7 +16511,7 @@
         <v>237</v>
       </c>
       <c r="D195" s="51" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="E195" s="51" t="s">
         <v>239</v>
@@ -16505,7 +16549,7 @@
         <v>237</v>
       </c>
       <c r="D196" s="51" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="E196" s="51" t="s">
         <v>239</v>
@@ -16543,7 +16587,7 @@
         <v>237</v>
       </c>
       <c r="D197" s="51" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="E197" s="51" t="s">
         <v>239</v>
@@ -16581,7 +16625,7 @@
         <v>237</v>
       </c>
       <c r="D198" s="51" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="E198" s="51" t="s">
         <v>239</v>
@@ -19130,7 +19174,7 @@
         <v>334</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F265" s="16" t="s">
         <v>13</v>
@@ -19209,7 +19253,7 @@
         <v>335</v>
       </c>
       <c r="F267" s="16" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G267" s="12">
         <v>21214</v>
@@ -20118,7 +20162,7 @@
         <v>372</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F291" s="16" t="s">
         <v>13</v>
@@ -20311,7 +20355,7 @@
         <v>852</v>
       </c>
       <c r="F296" s="16" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G296" s="12">
         <v>21243</v>
@@ -20387,7 +20431,7 @@
         <v>895</v>
       </c>
       <c r="F298" s="16" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G298" s="12">
         <v>21245</v>
@@ -20650,7 +20694,7 @@
         <v>942</v>
       </c>
       <c r="E305" s="49" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F305" s="49" t="s">
         <v>954</v>
@@ -20954,10 +20998,10 @@
         <v>950</v>
       </c>
       <c r="E313" s="49" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F313" s="49" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G313" s="7">
         <v>21260</v>
@@ -21062,13 +21106,13 @@
         <v>0</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D316" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F316" s="16" t="s">
         <v>993</v>
@@ -21100,16 +21144,16 @@
         <v>0</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D317" s="16" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F317" s="16" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G317" s="12">
         <v>21264</v>
@@ -21138,16 +21182,16 @@
         <v>0</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D318" s="16" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F318" s="16" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G318" s="12">
         <v>21265</v>
@@ -21176,16 +21220,16 @@
         <v>0</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D319" s="16" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F319" s="16" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G319" s="12">
         <v>21266</v>
@@ -21214,16 +21258,16 @@
         <v>0</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F320" s="16" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G320" s="12">
         <v>21267</v>
@@ -21252,16 +21296,16 @@
         <v>0</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D321" s="16" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F321" s="16" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G321" s="12">
         <v>21268</v>
@@ -21290,16 +21334,16 @@
         <v>0</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D322" s="16" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F322" s="16" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G322" s="12">
         <v>21269</v>
@@ -21328,16 +21372,16 @@
         <v>0</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D323" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F323" s="16" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G323" s="12">
         <v>21270</v>
@@ -21366,16 +21410,16 @@
         <v>0</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D324" s="16" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F324" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G324" s="12">
         <v>21271</v>
@@ -21404,16 +21448,16 @@
         <v>0</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D325" s="16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E325" s="16" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F325" s="16" t="s">
         <v>1027</v>
-      </c>
-      <c r="E325" s="16" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F325" s="16" t="s">
-        <v>1028</v>
       </c>
       <c r="G325" s="12">
         <v>21272</v>
@@ -21442,16 +21486,16 @@
         <v>0</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D326" s="16" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F326" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G326" s="12">
         <v>21273</v>
@@ -21480,16 +21524,16 @@
         <v>0</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D327" s="16" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F327" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G327" s="12">
         <v>21274</v>
@@ -21518,16 +21562,16 @@
         <v>0</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D328" s="16" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F328" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G328" s="12">
         <v>21275</v>
@@ -21556,16 +21600,16 @@
         <v>0</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D329" s="16" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F329" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G329" s="12">
         <v>21276</v>
@@ -21594,16 +21638,16 @@
         <v>0</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D330" s="16" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F330" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G330" s="12">
         <v>21277</v>
@@ -21632,16 +21676,16 @@
         <v>0</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D331" s="16" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F331" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G331" s="12">
         <v>21278</v>
@@ -21670,16 +21714,16 @@
         <v>0</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D332" s="16" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F332" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G332" s="12">
         <v>21279</v>
@@ -21708,16 +21752,16 @@
         <v>0</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D333" s="16" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F333" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G333" s="12">
         <v>21280</v>
@@ -21746,16 +21790,16 @@
         <v>0</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F334" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G334" s="12">
         <v>21281</v>
@@ -21784,16 +21828,16 @@
         <v>0</v>
       </c>
       <c r="C335" s="16" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D335" s="16" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E335" s="16" t="s">
         <v>1092</v>
       </c>
-      <c r="D335" s="16" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E335" s="16" t="s">
-        <v>1093</v>
-      </c>
       <c r="F335" s="16" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G335" s="12">
         <v>21282</v>
@@ -21822,16 +21866,16 @@
         <v>0</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F336" s="16" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G336" s="12">
         <v>21283</v>
@@ -21860,16 +21904,16 @@
         <v>0</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D337" s="16" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F337" s="16" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G337" s="12">
         <v>21284</v>
@@ -21898,16 +21942,16 @@
         <v>0</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D338" s="16" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F338" s="16" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G338" s="12">
         <v>21285</v>
@@ -21936,16 +21980,16 @@
         <v>0</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D339" s="16" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F339" s="16" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G339" s="12">
         <v>21286</v>
@@ -21974,16 +22018,16 @@
         <v>0</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D340" s="16" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F340" s="16" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G340" s="12">
         <v>21287</v>
@@ -22012,16 +22056,16 @@
         <v>0</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D341" s="16" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F341" s="16" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G341" s="12">
         <v>21288</v>
@@ -22050,16 +22094,16 @@
         <v>0</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D342" s="16" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F342" s="16" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G342" s="12">
         <v>21289</v>
@@ -22088,16 +22132,16 @@
         <v>0</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D343" s="16" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F343" s="16" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G343" s="12">
         <v>21290</v>
@@ -22126,16 +22170,16 @@
         <v>0</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D344" s="12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F344" s="16" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G344" s="12">
         <v>21291</v>
@@ -22164,16 +22208,16 @@
         <v>0</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D345" s="16" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F345" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G345" s="12">
         <v>21292</v>
@@ -22202,16 +22246,16 @@
         <v>0</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D346" s="16" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F346" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G346" s="12">
         <v>21293</v>
@@ -22240,16 +22284,16 @@
         <v>0</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D347" s="16" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F347" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G347" s="12">
         <v>21294</v>
@@ -22278,16 +22322,16 @@
         <v>0</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D348" s="16" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F348" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G348" s="12">
         <v>21295</v>
@@ -22316,16 +22360,16 @@
         <v>0</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D349" s="16" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F349" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G349" s="12">
         <v>21296</v>
@@ -22354,16 +22398,16 @@
         <v>0</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D350" s="16" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F350" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G350" s="12">
         <v>21297</v>
@@ -22392,16 +22436,16 @@
         <v>0</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D351" s="16" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F351" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G351" s="12">
         <v>21298</v>
@@ -22430,16 +22474,16 @@
         <v>0</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D352" s="16" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F352" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G352" s="12">
         <v>21299</v>
@@ -22468,16 +22512,16 @@
         <v>0</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F353" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G353" s="12">
         <v>21300</v>
@@ -22506,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D354" s="16" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F354" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G354" s="12">
         <v>21301</v>
@@ -22544,16 +22588,16 @@
         <v>0</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D355" s="16" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F355" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G355" s="12">
         <v>21302</v>
@@ -22582,13 +22626,13 @@
         <v>0</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F356" s="16" t="s">
         <v>855</v>
@@ -22620,16 +22664,16 @@
         <v>0</v>
       </c>
       <c r="C357" s="16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D357" s="16" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E357" s="16" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F357" s="16" t="s">
         <v>1138</v>
-      </c>
-      <c r="D357" s="16" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E357" s="16" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F357" s="16" t="s">
-        <v>1139</v>
       </c>
       <c r="G357" s="12">
         <v>21304</v>
@@ -22658,16 +22702,16 @@
         <v>0</v>
       </c>
       <c r="C358" s="16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D358" s="16" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E358" s="16" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F358" s="16" t="s">
         <v>1138</v>
-      </c>
-      <c r="D358" s="16" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E358" s="16" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F358" s="16" t="s">
-        <v>1139</v>
       </c>
       <c r="G358" s="12">
         <v>21305</v>
@@ -22696,16 +22740,16 @@
         <v>0</v>
       </c>
       <c r="C359" s="16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D359" s="16" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E359" s="16" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F359" s="16" t="s">
         <v>1138</v>
-      </c>
-      <c r="D359" s="16" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E359" s="16" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F359" s="16" t="s">
-        <v>1139</v>
       </c>
       <c r="G359" s="12">
         <v>21306</v>
@@ -22734,16 +22778,16 @@
         <v>0</v>
       </c>
       <c r="C360" s="16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D360" s="16" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E360" s="16" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F360" s="16" t="s">
         <v>1138</v>
-      </c>
-      <c r="D360" s="16" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E360" s="16" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F360" s="16" t="s">
-        <v>1139</v>
       </c>
       <c r="G360" s="12">
         <v>21307</v>
@@ -22772,16 +22816,16 @@
         <v>0</v>
       </c>
       <c r="C361" s="16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D361" s="16" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E361" s="16" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F361" s="16" t="s">
         <v>1138</v>
-      </c>
-      <c r="D361" s="16" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E361" s="16" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F361" s="16" t="s">
-        <v>1139</v>
       </c>
       <c r="G361" s="12">
         <v>21308</v>
@@ -22810,16 +22854,16 @@
         <v>0</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F362" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G362" s="12">
         <v>21309</v>
@@ -22848,16 +22892,16 @@
         <v>0</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D363" s="16" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F363" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G363" s="12">
         <v>21310</v>
@@ -22886,16 +22930,16 @@
         <v>0</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D364" s="16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F364" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G364" s="12">
         <v>21311</v>
@@ -22924,16 +22968,16 @@
         <v>0</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D365" s="16" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F365" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G365" s="12">
         <v>21312</v>
@@ -22962,16 +23006,16 @@
         <v>0</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D366" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F366" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G366" s="12">
         <v>21313</v>
@@ -23000,13 +23044,13 @@
         <v>1</v>
       </c>
       <c r="C367" s="16" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D367" s="16" t="s">
         <v>1175</v>
       </c>
-      <c r="D367" s="16" t="s">
+      <c r="E367" s="16" t="s">
         <v>1176</v>
-      </c>
-      <c r="E367" s="16" t="s">
-        <v>1177</v>
       </c>
       <c r="F367" s="12" t="s">
         <v>108</v>
@@ -23038,16 +23082,16 @@
         <v>1</v>
       </c>
       <c r="C368" s="51" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D368" s="86" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E368" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F368" s="51" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G368" s="9">
         <v>21315</v>
@@ -23076,16 +23120,16 @@
         <v>1</v>
       </c>
       <c r="C369" s="51" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D369" s="86" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E369" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F369" s="51" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G369" s="9">
         <v>21316</v>
@@ -23114,16 +23158,16 @@
         <v>1</v>
       </c>
       <c r="C370" s="51" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D370" s="51" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E370" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F370" s="51" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G370" s="9">
         <v>21317</v>
@@ -23152,16 +23196,16 @@
         <v>1</v>
       </c>
       <c r="C371" s="51" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D371" s="51" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E371" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F371" s="51" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G371" s="9">
         <v>21318</v>
@@ -23190,16 +23234,16 @@
         <v>1</v>
       </c>
       <c r="C372" s="89" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D372" s="89" t="s">
         <v>1247</v>
       </c>
-      <c r="D372" s="89" t="s">
+      <c r="E372" s="89" t="s">
         <v>1248</v>
       </c>
-      <c r="E372" s="89" t="s">
+      <c r="F372" s="89" t="s">
         <v>1249</v>
-      </c>
-      <c r="F372" s="89" t="s">
-        <v>1250</v>
       </c>
       <c r="G372" s="88">
         <v>21319</v>
@@ -23228,16 +23272,16 @@
         <v>1</v>
       </c>
       <c r="C373" s="89" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D373" s="89" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E373" s="89" t="s">
         <v>1251</v>
       </c>
-      <c r="E373" s="89" t="s">
+      <c r="F373" s="89" t="s">
         <v>1252</v>
-      </c>
-      <c r="F373" s="89" t="s">
-        <v>1253</v>
       </c>
       <c r="G373" s="88">
         <v>21320</v>
@@ -23266,16 +23310,16 @@
         <v>1</v>
       </c>
       <c r="C374" s="89" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D374" s="89" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E374" s="89" t="s">
         <v>1254</v>
       </c>
-      <c r="E374" s="89" t="s">
-        <v>1255</v>
-      </c>
       <c r="F374" s="89" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G374" s="88">
         <v>21321</v>
@@ -23304,16 +23348,16 @@
         <v>1</v>
       </c>
       <c r="C375" s="89" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D375" s="89" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E375" s="90" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F375" s="89" t="s">
         <v>1257</v>
-      </c>
-      <c r="F375" s="89" t="s">
-        <v>1258</v>
       </c>
       <c r="G375" s="88">
         <v>21322</v>
@@ -23342,16 +23386,16 @@
         <v>1</v>
       </c>
       <c r="C376" s="89" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D376" s="89" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E376" s="90" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F376" s="89" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G376" s="88">
         <v>21323</v>
@@ -23380,16 +23424,16 @@
         <v>1</v>
       </c>
       <c r="C377" s="89" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D377" s="89" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E377" s="90" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F377" s="89" t="s">
         <v>1257</v>
-      </c>
-      <c r="F377" s="89" t="s">
-        <v>1258</v>
       </c>
       <c r="G377" s="88">
         <v>21324</v>
@@ -23418,16 +23462,16 @@
         <v>1</v>
       </c>
       <c r="C378" s="89" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D378" s="89" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E378" s="90" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F378" s="89" t="s">
         <v>1257</v>
-      </c>
-      <c r="F378" s="89" t="s">
-        <v>1258</v>
       </c>
       <c r="G378" s="88">
         <v>21325</v>
@@ -23456,13 +23500,13 @@
         <v>1</v>
       </c>
       <c r="C379" s="89" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D379" s="89" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="E379" s="90" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F379" s="89" t="s">
         <v>855</v>
@@ -23494,16 +23538,16 @@
         <v>1</v>
       </c>
       <c r="C380" s="89" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D380" s="89" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E380" s="90" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F380" s="89" t="s">
         <v>1257</v>
-      </c>
-      <c r="F380" s="89" t="s">
-        <v>1258</v>
       </c>
       <c r="G380" s="88">
         <v>21327</v>
@@ -23532,16 +23576,16 @@
         <v>1</v>
       </c>
       <c r="C381" s="89" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D381" s="89" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E381" s="90" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F381" s="89" t="s">
         <v>1257</v>
-      </c>
-      <c r="F381" s="89" t="s">
-        <v>1258</v>
       </c>
       <c r="G381" s="88">
         <v>21328</v>
@@ -23570,16 +23614,16 @@
         <v>1</v>
       </c>
       <c r="C382" s="89" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D382" s="89" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E382" s="90" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F382" s="89" t="s">
         <v>1257</v>
-      </c>
-      <c r="F382" s="89" t="s">
-        <v>1258</v>
       </c>
       <c r="G382" s="88">
         <v>21329</v>
@@ -23608,16 +23652,16 @@
         <v>1</v>
       </c>
       <c r="C383" s="89" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D383" s="89" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E383" s="90" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F383" s="89" t="s">
         <v>1257</v>
-      </c>
-      <c r="F383" s="89" t="s">
-        <v>1258</v>
       </c>
       <c r="G383" s="88">
         <v>21330</v>
@@ -23646,16 +23690,16 @@
         <v>1</v>
       </c>
       <c r="C384" s="92" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D384" s="92" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E384" s="92" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F384" s="92" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G384" s="91">
         <v>21331</v>
@@ -23684,13 +23728,13 @@
         <v>1</v>
       </c>
       <c r="C385" s="92" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D385" s="92" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E385" s="92" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F385" s="92" t="s">
         <v>855</v>
@@ -23722,16 +23766,16 @@
         <v>1</v>
       </c>
       <c r="C386" s="92" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D386" s="92" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="E386" s="92" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F386" s="92" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G386" s="91">
         <v>21333</v>
@@ -23760,16 +23804,16 @@
         <v>1</v>
       </c>
       <c r="C387" s="92" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D387" s="92" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E387" s="92" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F387" s="92" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G387" s="91">
         <v>21334</v>
@@ -23798,16 +23842,16 @@
         <v>1</v>
       </c>
       <c r="C388" s="92" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D388" s="92" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E388" s="92" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F388" s="92" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G388" s="91">
         <v>21335</v>
@@ -23836,13 +23880,13 @@
         <v>1</v>
       </c>
       <c r="C389" s="92" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D389" s="92" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E389" s="92" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F389" s="92" t="s">
         <v>855</v>
@@ -23874,16 +23918,16 @@
         <v>1</v>
       </c>
       <c r="C390" s="92" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D390" s="92" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E390" s="92" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F390" s="92" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G390" s="91">
         <v>21337</v>
@@ -23912,16 +23956,16 @@
         <v>1</v>
       </c>
       <c r="C391" s="92" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D391" s="92" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E391" s="92" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F391" s="92" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G391" s="91">
         <v>21338</v>
@@ -23950,16 +23994,16 @@
         <v>1</v>
       </c>
       <c r="C392" s="92" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D392" s="92" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E392" s="92" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F392" s="92" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G392" s="91">
         <v>21339</v>
@@ -23988,13 +24032,13 @@
         <v>1</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="D393" s="12" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="E393" s="99" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="F393" s="16" t="s">
         <v>13</v>
@@ -24017,6 +24061,47 @@
       <c r="L393" s="12">
         <v>-1</v>
       </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A394" s="12">
+        <v>21341</v>
+      </c>
+      <c r="B394" s="7">
+        <v>1</v>
+      </c>
+      <c r="C394" s="49" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D394" s="49" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E394" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F394" s="49" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G394" s="12">
+        <v>21341</v>
+      </c>
+      <c r="H394" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I394" s="12">
+        <v>1</v>
+      </c>
+      <c r="J394" s="12">
+        <v>1588003200</v>
+      </c>
+      <c r="K394" s="12">
+        <v>32503651200</v>
+      </c>
+      <c r="L394" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A395" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B367"/>
@@ -24028,13 +24113,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K393"/>
+  <dimension ref="A1:K399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C382" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F196" sqref="F196"/>
+      <selection pane="bottomRight" activeCell="F394" sqref="F394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24062,7 +24147,7 @@
         <v>380</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>381</v>
@@ -24077,7 +24162,7 @@
         <v>917</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="K1" s="38"/>
     </row>
@@ -28857,7 +28942,7 @@
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="82" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G179" s="79"/>
       <c r="H179" s="83" t="s">
@@ -28882,7 +28967,7 @@
         <v>121</v>
       </c>
       <c r="F180" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G180" s="35"/>
       <c r="H180" s="15" t="s">
@@ -28907,7 +28992,7 @@
         <v>122</v>
       </c>
       <c r="F181" s="40" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G181" s="35"/>
       <c r="H181" s="15" t="s">
@@ -28932,7 +29017,7 @@
         <v>123</v>
       </c>
       <c r="F182" s="40" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G182" s="35"/>
       <c r="H182" s="15" t="s">
@@ -29004,7 +29089,7 @@
         <v>21132</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D185" s="11">
         <v>184</v>
@@ -29225,7 +29310,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="82" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="G193" s="79"/>
       <c r="H193" s="83" t="s">
@@ -29250,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="F194" s="82" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="G194" s="79"/>
       <c r="H194" s="83" t="s">
@@ -29275,7 +29360,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="82" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="G195" s="79"/>
       <c r="H195" s="83" t="s">
@@ -29300,7 +29385,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="82" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="G196" s="79"/>
       <c r="H196" s="83" t="s">
@@ -29325,7 +29410,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="82" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="G197" s="79"/>
       <c r="H197" s="83" t="s">
@@ -31134,7 +31219,7 @@
         <v>21212</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D265" s="11">
         <v>264</v>
@@ -31242,7 +31327,7 @@
         <v>21216</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D269" s="11">
         <v>268</v>
@@ -31432,7 +31517,7 @@
         <v>0</v>
       </c>
       <c r="F276" s="42" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G276" s="11"/>
       <c r="H276" s="25" t="s">
@@ -32338,7 +32423,7 @@
         <v>964</v>
       </c>
       <c r="I313" s="16" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -32423,11 +32508,11 @@
       </c>
       <c r="E317" s="11"/>
       <c r="F317" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G317" s="35"/>
       <c r="H317" s="15" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I317" s="16" t="s">
         <v>856</v>
@@ -32446,11 +32531,11 @@
       </c>
       <c r="E318" s="11"/>
       <c r="F318" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G318" s="35"/>
       <c r="H318" s="15" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I318" s="16" t="s">
         <v>856</v>
@@ -32469,11 +32554,11 @@
       </c>
       <c r="E319" s="11"/>
       <c r="F319" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G319" s="35"/>
       <c r="H319" s="15" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I319" s="16" t="s">
         <v>856</v>
@@ -32492,11 +32577,11 @@
       </c>
       <c r="E320" s="11"/>
       <c r="F320" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G320" s="35"/>
       <c r="H320" s="15" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I320" s="16" t="s">
         <v>856</v>
@@ -32515,11 +32600,11 @@
       </c>
       <c r="E321" s="11"/>
       <c r="F321" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G321" s="35"/>
       <c r="H321" s="15" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I321" s="16" t="s">
         <v>856</v>
@@ -32538,11 +32623,11 @@
       </c>
       <c r="E322" s="11"/>
       <c r="F322" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G322" s="35"/>
       <c r="H322" s="15" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I322" s="16" t="s">
         <v>856</v>
@@ -32561,11 +32646,11 @@
       </c>
       <c r="E323" s="11"/>
       <c r="F323" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G323" s="35"/>
       <c r="H323" s="15" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I323" s="16" t="s">
         <v>856</v>
@@ -32588,10 +32673,10 @@
       </c>
       <c r="G324" s="35"/>
       <c r="H324" s="15" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I324" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32611,10 +32696,10 @@
       </c>
       <c r="G325" s="35"/>
       <c r="H325" s="15" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I325" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32630,14 +32715,14 @@
       </c>
       <c r="E326" s="11"/>
       <c r="F326" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G326" s="35"/>
       <c r="H326" s="11">
         <v>516</v>
       </c>
       <c r="I326" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32653,14 +32738,14 @@
       </c>
       <c r="E327" s="11"/>
       <c r="F327" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G327" s="35"/>
       <c r="H327" s="11">
         <v>517</v>
       </c>
       <c r="I327" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32676,14 +32761,14 @@
       </c>
       <c r="E328" s="11"/>
       <c r="F328" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G328" s="35"/>
       <c r="H328" s="11">
         <v>518</v>
       </c>
       <c r="I328" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32699,14 +32784,14 @@
       </c>
       <c r="E329" s="11"/>
       <c r="F329" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G329" s="35"/>
       <c r="H329" s="11">
         <v>519</v>
       </c>
       <c r="I329" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32722,14 +32807,14 @@
       </c>
       <c r="E330" s="11"/>
       <c r="F330" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G330" s="35"/>
       <c r="H330" s="11">
         <v>520</v>
       </c>
       <c r="I330" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="331" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32745,14 +32830,14 @@
       </c>
       <c r="E331" s="11"/>
       <c r="F331" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G331" s="35"/>
       <c r="H331" s="11">
         <v>521</v>
       </c>
       <c r="I331" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="332" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32768,14 +32853,14 @@
       </c>
       <c r="E332" s="11"/>
       <c r="F332" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G332" s="35"/>
       <c r="H332" s="11">
         <v>522</v>
       </c>
       <c r="I332" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32791,14 +32876,14 @@
       </c>
       <c r="E333" s="11"/>
       <c r="F333" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G333" s="35"/>
       <c r="H333" s="11">
         <v>523</v>
       </c>
       <c r="I333" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="334" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32814,14 +32899,14 @@
       </c>
       <c r="E334" s="11"/>
       <c r="F334" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G334" s="35"/>
       <c r="H334" s="11">
         <v>524</v>
       </c>
       <c r="I334" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="335" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32832,21 +32917,21 @@
         <v>21282</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D335" s="11">
         <v>334</v>
       </c>
       <c r="E335" s="11"/>
       <c r="F335" s="40" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G335" s="35"/>
       <c r="H335" s="15" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I335" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="336" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32857,21 +32942,21 @@
         <v>21283</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D336" s="11">
         <v>335</v>
       </c>
       <c r="E336" s="11"/>
       <c r="F336" s="40" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G336" s="35"/>
       <c r="H336" s="15" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I336" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="337" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32882,21 +32967,21 @@
         <v>21284</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D337" s="11">
         <v>336</v>
       </c>
       <c r="E337" s="11"/>
       <c r="F337" s="40" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G337" s="35"/>
       <c r="H337" s="15" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I337" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="338" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32907,21 +32992,21 @@
         <v>21285</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D338" s="11">
         <v>337</v>
       </c>
       <c r="E338" s="11"/>
       <c r="F338" s="40" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G338" s="35"/>
       <c r="H338" s="15" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I338" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="339" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32932,21 +33017,21 @@
         <v>21286</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D339" s="11">
         <v>338</v>
       </c>
       <c r="E339" s="11"/>
       <c r="F339" s="40" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G339" s="35"/>
       <c r="H339" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I339" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="340" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32957,21 +33042,21 @@
         <v>21287</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D340" s="11">
         <v>339</v>
       </c>
       <c r="E340" s="11"/>
       <c r="F340" s="40" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G340" s="35"/>
       <c r="H340" s="15" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I340" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="341" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -32982,21 +33067,21 @@
         <v>21288</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D341" s="11">
         <v>340</v>
       </c>
       <c r="E341" s="11"/>
       <c r="F341" s="40" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G341" s="35"/>
       <c r="H341" s="15" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I341" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="342" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33007,21 +33092,21 @@
         <v>21289</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D342" s="11">
         <v>341</v>
       </c>
       <c r="E342" s="11"/>
       <c r="F342" s="40" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G342" s="35"/>
       <c r="H342" s="15" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I342" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="343" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33032,21 +33117,21 @@
         <v>21290</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D343" s="11">
         <v>342</v>
       </c>
       <c r="E343" s="11"/>
       <c r="F343" s="40" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G343" s="35"/>
       <c r="H343" s="15" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I343" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="344" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33057,21 +33142,21 @@
         <v>21291</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D344" s="11">
         <v>343</v>
       </c>
       <c r="E344" s="11"/>
       <c r="F344" s="40" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G344" s="35"/>
       <c r="H344" s="15" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I344" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="345" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33091,10 +33176,10 @@
       </c>
       <c r="G345" s="35"/>
       <c r="H345" s="15" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I345" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="346" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33114,10 +33199,10 @@
       </c>
       <c r="G346" s="35"/>
       <c r="H346" s="15" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I346" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="347" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33133,14 +33218,14 @@
       </c>
       <c r="E347" s="11"/>
       <c r="F347" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G347" s="35"/>
       <c r="H347" s="11">
         <v>537</v>
       </c>
       <c r="I347" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="348" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33156,14 +33241,14 @@
       </c>
       <c r="E348" s="11"/>
       <c r="F348" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G348" s="35"/>
       <c r="H348" s="11">
         <v>538</v>
       </c>
       <c r="I348" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="349" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33179,14 +33264,14 @@
       </c>
       <c r="E349" s="11"/>
       <c r="F349" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G349" s="35"/>
       <c r="H349" s="11">
         <v>539</v>
       </c>
       <c r="I349" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="350" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33202,14 +33287,14 @@
       </c>
       <c r="E350" s="11"/>
       <c r="F350" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G350" s="35"/>
       <c r="H350" s="11">
         <v>540</v>
       </c>
       <c r="I350" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="351" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33225,14 +33310,14 @@
       </c>
       <c r="E351" s="11"/>
       <c r="F351" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G351" s="35"/>
       <c r="H351" s="11">
         <v>541</v>
       </c>
       <c r="I351" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="352" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33248,14 +33333,14 @@
       </c>
       <c r="E352" s="11"/>
       <c r="F352" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G352" s="35"/>
       <c r="H352" s="11">
         <v>542</v>
       </c>
       <c r="I352" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="353" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33271,14 +33356,14 @@
       </c>
       <c r="E353" s="11"/>
       <c r="F353" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G353" s="35"/>
       <c r="H353" s="11">
         <v>543</v>
       </c>
       <c r="I353" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="354" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33294,14 +33379,14 @@
       </c>
       <c r="E354" s="11"/>
       <c r="F354" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G354" s="35"/>
       <c r="H354" s="11">
         <v>544</v>
       </c>
       <c r="I354" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="355" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33317,14 +33402,14 @@
       </c>
       <c r="E355" s="11"/>
       <c r="F355" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G355" s="35"/>
       <c r="H355" s="11">
         <v>545</v>
       </c>
       <c r="I355" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="356" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33335,7 +33420,7 @@
         <v>21303</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D356" s="11">
         <v>355</v>
@@ -33346,7 +33431,7 @@
       </c>
       <c r="G356" s="35"/>
       <c r="H356" s="15" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I356" s="13" t="s">
         <v>856</v>
@@ -33365,14 +33450,14 @@
       </c>
       <c r="E357" s="11"/>
       <c r="F357" s="40" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G357" s="35"/>
       <c r="H357" s="11">
         <v>547</v>
       </c>
       <c r="I357" s="13" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="358" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33388,14 +33473,14 @@
       </c>
       <c r="E358" s="11"/>
       <c r="F358" s="40" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G358" s="35"/>
       <c r="H358" s="11">
         <v>548</v>
       </c>
       <c r="I358" s="13" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="359" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33411,14 +33496,14 @@
       </c>
       <c r="E359" s="11"/>
       <c r="F359" s="40" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G359" s="35"/>
       <c r="H359" s="11">
         <v>549</v>
       </c>
       <c r="I359" s="13" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="360" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33434,14 +33519,14 @@
       </c>
       <c r="E360" s="11"/>
       <c r="F360" s="40" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G360" s="35"/>
       <c r="H360" s="11">
         <v>560</v>
       </c>
       <c r="I360" s="13" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="361" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33457,14 +33542,14 @@
       </c>
       <c r="E361" s="11"/>
       <c r="F361" s="40" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G361" s="35"/>
       <c r="H361" s="11">
         <v>561</v>
       </c>
       <c r="I361" s="13" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="362" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33480,14 +33565,14 @@
       </c>
       <c r="E362" s="11"/>
       <c r="F362" s="40" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G362" s="35"/>
       <c r="H362" s="11">
         <v>562</v>
       </c>
       <c r="I362" s="13" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="363" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33503,14 +33588,14 @@
       </c>
       <c r="E363" s="11"/>
       <c r="F363" s="40" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G363" s="35"/>
       <c r="H363" s="11">
         <v>563</v>
       </c>
       <c r="I363" s="13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="364" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33526,14 +33611,14 @@
       </c>
       <c r="E364" s="11"/>
       <c r="F364" s="40" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G364" s="35"/>
       <c r="H364" s="11">
         <v>564</v>
       </c>
       <c r="I364" s="13" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="365" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33549,14 +33634,14 @@
       </c>
       <c r="E365" s="11"/>
       <c r="F365" s="40" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G365" s="35"/>
       <c r="H365" s="11">
         <v>565</v>
       </c>
       <c r="I365" s="13" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="366" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33572,14 +33657,14 @@
       </c>
       <c r="E366" s="11"/>
       <c r="F366" s="40" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G366" s="35"/>
       <c r="H366" s="11">
         <v>566</v>
       </c>
       <c r="I366" s="13" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="367" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33601,7 +33686,7 @@
       </c>
       <c r="G367" s="35"/>
       <c r="H367" s="15" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I367" s="11" t="s">
         <v>387</v>
@@ -33620,14 +33705,14 @@
       </c>
       <c r="E368" s="10"/>
       <c r="F368" s="82" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G368" s="79"/>
       <c r="H368" s="83" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I368" s="19" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.2">
@@ -33643,14 +33728,14 @@
       </c>
       <c r="E369" s="10"/>
       <c r="F369" s="82" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G369" s="79"/>
       <c r="H369" s="83" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I369" s="19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.2">
@@ -33666,14 +33751,14 @@
       </c>
       <c r="E370" s="10"/>
       <c r="F370" s="82" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G370" s="79"/>
       <c r="H370" s="83" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I370" s="19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.2">
@@ -33689,14 +33774,14 @@
       </c>
       <c r="E371" s="10"/>
       <c r="F371" s="82" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G371" s="79"/>
       <c r="H371" s="83" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I371" s="19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="372" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33712,14 +33797,14 @@
       </c>
       <c r="E372" s="93"/>
       <c r="F372" s="94" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="G372" s="95"/>
       <c r="H372" s="96" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I372" s="97" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="373" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33733,12 +33818,12 @@
       <c r="D373" s="93"/>
       <c r="E373" s="93"/>
       <c r="F373" s="94" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G373" s="95"/>
       <c r="H373" s="96"/>
       <c r="I373" s="97" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="374" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33752,12 +33837,12 @@
       <c r="D374" s="93"/>
       <c r="E374" s="93"/>
       <c r="F374" s="94" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G374" s="95"/>
       <c r="H374" s="96"/>
       <c r="I374" s="97" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="375" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33773,14 +33858,14 @@
       </c>
       <c r="E375" s="93"/>
       <c r="F375" s="94" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G375" s="95"/>
       <c r="H375" s="96" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I375" s="97" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="376" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33796,14 +33881,14 @@
       </c>
       <c r="E376" s="93"/>
       <c r="F376" s="94" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G376" s="95"/>
       <c r="H376" s="96" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I376" s="97" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="377" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33819,14 +33904,14 @@
       </c>
       <c r="E377" s="93"/>
       <c r="F377" s="94" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G377" s="95"/>
       <c r="H377" s="96" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I377" s="97" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="378" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33842,14 +33927,14 @@
       </c>
       <c r="E378" s="93"/>
       <c r="F378" s="94" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G378" s="95"/>
       <c r="H378" s="96" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I378" s="97" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="379" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33865,14 +33950,14 @@
       </c>
       <c r="E379" s="93"/>
       <c r="F379" s="94" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G379" s="95"/>
       <c r="H379" s="96" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I379" s="97" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="380" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33888,14 +33973,14 @@
       </c>
       <c r="E380" s="93"/>
       <c r="F380" s="94" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G380" s="95"/>
       <c r="H380" s="96" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I380" s="97" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="381" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33911,14 +33996,14 @@
       </c>
       <c r="E381" s="93"/>
       <c r="F381" s="94" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G381" s="95"/>
       <c r="H381" s="96" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I381" s="97" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="382" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33934,14 +34019,14 @@
       </c>
       <c r="E382" s="93"/>
       <c r="F382" s="94" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G382" s="95"/>
       <c r="H382" s="96" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I382" s="97" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="383" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33957,14 +34042,14 @@
       </c>
       <c r="E383" s="93"/>
       <c r="F383" s="94" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G383" s="95"/>
       <c r="H383" s="96" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I383" s="97" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="384" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33980,14 +34065,14 @@
       </c>
       <c r="E384" s="93"/>
       <c r="F384" s="94" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G384" s="95"/>
       <c r="H384" s="96" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I384" s="97" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="385" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -34005,14 +34090,14 @@
         <v>258</v>
       </c>
       <c r="F385" s="94" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G385" s="95"/>
       <c r="H385" s="96" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I385" s="97" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="386" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -34030,14 +34115,14 @@
         <v>259</v>
       </c>
       <c r="F386" s="94" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G386" s="95"/>
       <c r="H386" s="96" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I386" s="97" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="387" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -34053,14 +34138,14 @@
       </c>
       <c r="E387" s="93"/>
       <c r="F387" s="94" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G387" s="95"/>
       <c r="H387" s="96" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I387" s="97" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="388" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -34076,14 +34161,14 @@
       </c>
       <c r="E388" s="93"/>
       <c r="F388" s="94" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G388" s="95"/>
       <c r="H388" s="96" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I388" s="97" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="389" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -34101,14 +34186,14 @@
         <v>260</v>
       </c>
       <c r="F389" s="94" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G389" s="95"/>
       <c r="H389" s="96" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I389" s="97" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="390" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -34124,14 +34209,14 @@
       </c>
       <c r="E390" s="93"/>
       <c r="F390" s="94" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G390" s="95"/>
       <c r="H390" s="96" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I390" s="97" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="391" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -34149,14 +34234,14 @@
         <v>261</v>
       </c>
       <c r="F391" s="94" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G391" s="95"/>
       <c r="H391" s="96" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I391" s="97" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="392" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -34174,14 +34259,14 @@
         <v>262</v>
       </c>
       <c r="F392" s="94" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G392" s="95"/>
       <c r="H392" s="96" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I392" s="97" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="393" spans="1:9" s="6" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -34197,15 +34282,38 @@
       </c>
       <c r="E393" s="11"/>
       <c r="F393" s="40" t="s">
-        <v>1329</v>
+        <v>1362</v>
       </c>
       <c r="G393" s="35"/>
       <c r="H393" s="40" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="I393" s="13" t="s">
         <v>387</v>
       </c>
+    </row>
+    <row r="394" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A394" s="13">
+        <v>393</v>
+      </c>
+      <c r="B394" s="12">
+        <v>21341</v>
+      </c>
+      <c r="D394" s="1">
+        <v>390</v>
+      </c>
+      <c r="E394" s="1">
+        <v>263</v>
+      </c>
+      <c r="F394" s="110" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H394" s="65" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E399" s="110"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -34216,10 +34324,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I559"/>
+  <dimension ref="A1:I560"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="D287" sqref="D287"/>
+    <sheetView topLeftCell="A528" workbookViewId="0">
+      <selection activeCell="C560" sqref="C560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34428,7 +34536,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -37430,7 +37538,7 @@
         <v>178</v>
       </c>
       <c r="C224" s="85" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D224" s="60">
         <v>257</v>
@@ -37444,7 +37552,7 @@
         <v>179</v>
       </c>
       <c r="C225" s="85" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D225" s="60">
         <v>0</v>
@@ -37458,7 +37566,7 @@
         <v>180</v>
       </c>
       <c r="C226" s="85" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D226" s="60">
         <v>0</v>
@@ -37472,7 +37580,7 @@
         <v>181</v>
       </c>
       <c r="C227" s="85" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D227" s="60">
         <v>0</v>
@@ -37623,7 +37731,7 @@
         <v>184</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
@@ -37749,7 +37857,7 @@
         <v>185</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D245" s="11">
         <v>0</v>
@@ -37875,7 +37983,7 @@
         <v>186</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D253" s="11">
         <v>0</v>
@@ -38001,7 +38109,7 @@
         <v>187</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D261" s="11">
         <v>0</v>
@@ -38127,7 +38235,7 @@
         <v>188</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D269" s="11">
         <v>0</v>
@@ -38253,7 +38361,7 @@
         <v>189</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D277" s="11">
         <v>0</v>
@@ -38379,7 +38487,7 @@
         <v>190</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D285" s="11">
         <v>0</v>
@@ -38411,7 +38519,7 @@
         <v>192</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="D287" s="10">
         <v>0</v>
@@ -38426,7 +38534,7 @@
         <v>193</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D288" s="10">
         <v>248</v>
@@ -38441,7 +38549,7 @@
         <v>194</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D289" s="10">
         <v>0</v>
@@ -38456,7 +38564,7 @@
         <v>195</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D290" s="10">
         <v>0</v>
@@ -38576,7 +38684,7 @@
         <v>197</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="D298" s="10">
         <v>0</v>
@@ -39606,7 +39714,7 @@
         <v>264</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D371" s="11">
         <v>172</v>
@@ -40600,7 +40708,7 @@
         <v>308</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="D441" s="11">
         <v>195</v>
@@ -40614,7 +40722,7 @@
         <v>309</v>
       </c>
       <c r="C442" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D442" s="12">
         <v>196</v>
@@ -41130,7 +41238,7 @@
         <v>325</v>
       </c>
       <c r="C476" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D476" s="11">
         <v>208</v>
@@ -41144,7 +41252,7 @@
         <v>326</v>
       </c>
       <c r="C477" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D477" s="11">
         <v>209</v>
@@ -41158,7 +41266,7 @@
         <v>327</v>
       </c>
       <c r="C478" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D478" s="11">
         <v>210</v>
@@ -41172,7 +41280,7 @@
         <v>328</v>
       </c>
       <c r="C479" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D479" s="11">
         <v>211</v>
@@ -41186,7 +41294,7 @@
         <v>329</v>
       </c>
       <c r="C480" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D480" s="11">
         <v>212</v>
@@ -41200,7 +41308,7 @@
         <v>330</v>
       </c>
       <c r="C481" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D481" s="11">
         <v>213</v>
@@ -41214,7 +41322,7 @@
         <v>331</v>
       </c>
       <c r="C482" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D482" s="11">
         <v>214</v>
@@ -41228,7 +41336,7 @@
         <v>332</v>
       </c>
       <c r="C483" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D483" s="11">
         <v>215</v>
@@ -41242,7 +41350,7 @@
         <v>333</v>
       </c>
       <c r="C484" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D484" s="11">
         <v>216</v>
@@ -41256,7 +41364,7 @@
         <v>334</v>
       </c>
       <c r="C485" s="23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D485" s="11">
         <v>217</v>
@@ -41270,7 +41378,7 @@
         <v>335</v>
       </c>
       <c r="C486" s="23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D486" s="11">
         <v>218</v>
@@ -41284,7 +41392,7 @@
         <v>336</v>
       </c>
       <c r="C487" s="23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D487" s="11">
         <v>219</v>
@@ -41298,7 +41406,7 @@
         <v>337</v>
       </c>
       <c r="C488" s="23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D488" s="11">
         <v>220</v>
@@ -41312,7 +41420,7 @@
         <v>338</v>
       </c>
       <c r="C489" s="23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D489" s="11">
         <v>221</v>
@@ -41326,7 +41434,7 @@
         <v>339</v>
       </c>
       <c r="C490" s="23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D490" s="11">
         <v>222</v>
@@ -41340,7 +41448,7 @@
         <v>340</v>
       </c>
       <c r="C491" s="23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D491" s="11">
         <v>223</v>
@@ -41354,7 +41462,7 @@
         <v>341</v>
       </c>
       <c r="C492" s="23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D492" s="11">
         <v>224</v>
@@ -41368,7 +41476,7 @@
         <v>342</v>
       </c>
       <c r="C493" s="23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D493" s="11">
         <v>225</v>
@@ -41382,7 +41490,7 @@
         <v>343</v>
       </c>
       <c r="C494" s="23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D494" s="11">
         <v>226</v>
@@ -41614,7 +41722,7 @@
         <v>346</v>
       </c>
       <c r="C509" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D509" s="11">
         <v>227</v>
@@ -41628,7 +41736,7 @@
         <v>347</v>
       </c>
       <c r="C510" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D510" s="11">
         <v>228</v>
@@ -41642,7 +41750,7 @@
         <v>348</v>
       </c>
       <c r="C511" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D511" s="11">
         <v>229</v>
@@ -41656,7 +41764,7 @@
         <v>349</v>
       </c>
       <c r="C512" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D512" s="11">
         <v>230</v>
@@ -41670,7 +41778,7 @@
         <v>350</v>
       </c>
       <c r="C513" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D513" s="11">
         <v>231</v>
@@ -41684,7 +41792,7 @@
         <v>351</v>
       </c>
       <c r="C514" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D514" s="11">
         <v>232</v>
@@ -41698,7 +41806,7 @@
         <v>352</v>
       </c>
       <c r="C515" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D515" s="11">
         <v>233</v>
@@ -41712,7 +41820,7 @@
         <v>353</v>
       </c>
       <c r="C516" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D516" s="11">
         <v>234</v>
@@ -41726,7 +41834,7 @@
         <v>354</v>
       </c>
       <c r="C517" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D517" s="11">
         <v>235</v>
@@ -41740,7 +41848,7 @@
         <v>355</v>
       </c>
       <c r="C518" s="23" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D518" s="11">
         <v>236</v>
@@ -41754,7 +41862,7 @@
         <v>356</v>
       </c>
       <c r="C519" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D519" s="12">
         <v>237</v>
@@ -41768,7 +41876,7 @@
         <v>357</v>
       </c>
       <c r="C520" s="23" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D520" s="12">
         <v>238</v>
@@ -41782,7 +41890,7 @@
         <v>358</v>
       </c>
       <c r="C521" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D521" s="12">
         <v>239</v>
@@ -41796,7 +41904,7 @@
         <v>359</v>
       </c>
       <c r="C522" s="23" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D522" s="12">
         <v>240</v>
@@ -41810,7 +41918,7 @@
         <v>360</v>
       </c>
       <c r="C523" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D523" s="12">
         <v>241</v>
@@ -41824,7 +41932,7 @@
         <v>361</v>
       </c>
       <c r="C524" s="23" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D524" s="12">
         <v>242</v>
@@ -41838,7 +41946,7 @@
         <v>362</v>
       </c>
       <c r="C525" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D525" s="12">
         <v>243</v>
@@ -41852,7 +41960,7 @@
         <v>363</v>
       </c>
       <c r="C526" s="23" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D526" s="12">
         <v>244</v>
@@ -41866,7 +41974,7 @@
         <v>364</v>
       </c>
       <c r="C527" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D527" s="12">
         <v>245</v>
@@ -41880,7 +41988,7 @@
         <v>365</v>
       </c>
       <c r="C528" s="23" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D528" s="12">
         <v>246</v>
@@ -41908,7 +42016,7 @@
         <v>367</v>
       </c>
       <c r="C530" s="87" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D530" s="10">
         <v>253</v>
@@ -41922,7 +42030,7 @@
         <v>368</v>
       </c>
       <c r="C531" s="87" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D531" s="10">
         <v>254</v>
@@ -41936,7 +42044,7 @@
         <v>369</v>
       </c>
       <c r="C532" s="87" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D532" s="10">
         <v>255</v>
@@ -41950,7 +42058,7 @@
         <v>370</v>
       </c>
       <c r="C533" s="87" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D533" s="10">
         <v>256</v>
@@ -41964,7 +42072,7 @@
         <v>371</v>
       </c>
       <c r="C534" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D534" s="12">
         <v>0</v>
@@ -41978,7 +42086,7 @@
         <v>372</v>
       </c>
       <c r="C535" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D535" s="12">
         <v>0</v>
@@ -41992,7 +42100,7 @@
         <v>373</v>
       </c>
       <c r="C536" s="13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D536" s="12">
         <v>0</v>
@@ -42006,7 +42114,7 @@
         <v>374</v>
       </c>
       <c r="C537" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D537" s="12">
         <v>0</v>
@@ -42020,7 +42128,7 @@
         <v>375</v>
       </c>
       <c r="C538" s="13" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="D538" s="12">
         <v>0</v>
@@ -42037,7 +42145,7 @@
         <v>376</v>
       </c>
       <c r="C539" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D539" s="12">
         <v>0</v>
@@ -42051,7 +42159,7 @@
         <v>377</v>
       </c>
       <c r="C540" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D540" s="12">
         <v>0</v>
@@ -42065,7 +42173,7 @@
         <v>378</v>
       </c>
       <c r="C541" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D541" s="12">
         <v>0</v>
@@ -42079,7 +42187,7 @@
         <v>379</v>
       </c>
       <c r="C542" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D542" s="12">
         <v>0</v>
@@ -42093,7 +42201,7 @@
         <v>380</v>
       </c>
       <c r="C543" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D543" s="12">
         <v>0</v>
@@ -42107,7 +42215,7 @@
         <v>381</v>
       </c>
       <c r="C544" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D544" s="12">
         <v>258</v>
@@ -42121,7 +42229,7 @@
         <v>382</v>
       </c>
       <c r="C545" s="13" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="D545" s="12">
         <v>259</v>
@@ -42135,7 +42243,7 @@
         <v>383</v>
       </c>
       <c r="C546" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D546" s="12">
         <v>0</v>
@@ -42149,7 +42257,7 @@
         <v>384</v>
       </c>
       <c r="C547" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D547" s="12">
         <v>0</v>
@@ -42163,7 +42271,7 @@
         <v>385</v>
       </c>
       <c r="C548" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D548" s="12">
         <v>260</v>
@@ -42177,7 +42285,7 @@
         <v>386</v>
       </c>
       <c r="C549" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D549" s="12">
         <v>0</v>
@@ -42191,7 +42299,7 @@
         <v>387</v>
       </c>
       <c r="C550" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D550" s="12">
         <v>261</v>
@@ -42205,7 +42313,7 @@
         <v>388</v>
       </c>
       <c r="C551" s="13" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D551" s="12">
         <v>262</v>
@@ -42279,7 +42387,7 @@
         <v>389</v>
       </c>
       <c r="C556" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D556" s="11">
         <v>0</v>
@@ -42294,7 +42402,7 @@
         <v>389</v>
       </c>
       <c r="C557" s="13" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="D557" s="11">
         <v>0</v>
@@ -42326,13 +42434,27 @@
         <v>389</v>
       </c>
       <c r="C559" s="13" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="D559" s="11">
         <v>0</v>
       </c>
       <c r="E559" s="11">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A560" s="29">
+        <v>559</v>
+      </c>
+      <c r="B560" s="29">
+        <v>390</v>
+      </c>
+      <c r="C560" s="13" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D560" s="11">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -42344,13 +42466,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M375"/>
+  <dimension ref="A1:M376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C336" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C363" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D360" sqref="D360"/>
+      <selection pane="bottomRight" activeCell="B376" sqref="B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47733,7 +47855,7 @@
         <v>169</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D281" s="11">
         <v>10170</v>
@@ -47784,7 +47906,7 @@
         <v>172</v>
       </c>
       <c r="C284" s="71" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D284" s="74" t="s">
         <v>708</v>
@@ -48553,7 +48675,7 @@
         <v>681</v>
       </c>
       <c r="D329" s="74" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E329" s="72">
         <v>2</v>
@@ -48571,7 +48693,7 @@
         <v>681</v>
       </c>
       <c r="D330" s="74" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E330" s="72">
         <v>2</v>
@@ -48589,7 +48711,7 @@
         <v>681</v>
       </c>
       <c r="D331" s="74" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E331" s="72">
         <v>2</v>
@@ -48607,7 +48729,7 @@
         <v>681</v>
       </c>
       <c r="D332" s="74" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E332" s="72">
         <v>2</v>
@@ -48625,7 +48747,7 @@
         <v>681</v>
       </c>
       <c r="D333" s="74" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E333" s="72">
         <v>2</v>
@@ -48643,7 +48765,7 @@
         <v>681</v>
       </c>
       <c r="D334" s="75" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E334" s="72">
         <v>2</v>
@@ -48661,7 +48783,7 @@
         <v>681</v>
       </c>
       <c r="D335" s="75" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E335" s="72">
         <v>2</v>
@@ -48679,7 +48801,7 @@
         <v>681</v>
       </c>
       <c r="D336" s="75" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E336" s="72">
         <v>2</v>
@@ -48697,7 +48819,7 @@
         <v>681</v>
       </c>
       <c r="D337" s="75" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E337" s="72">
         <v>2</v>
@@ -48715,7 +48837,7 @@
         <v>681</v>
       </c>
       <c r="D338" s="74" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E338" s="72">
         <v>2</v>
@@ -48886,7 +49008,7 @@
         <v>681</v>
       </c>
       <c r="D348" s="15" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E348" s="11">
         <v>2</v>
@@ -48900,10 +49022,10 @@
         <v>237</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D349" s="15" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E349" s="11">
         <v>2</v>
@@ -48917,10 +49039,10 @@
         <v>238</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D350" s="15" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E350" s="11">
         <v>2</v>
@@ -48934,10 +49056,10 @@
         <v>239</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D351" s="15" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E351" s="11">
         <v>2</v>
@@ -48951,10 +49073,10 @@
         <v>240</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D352" s="15" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E352" s="11">
         <v>2</v>
@@ -48968,10 +49090,10 @@
         <v>241</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D353" s="15" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E353" s="11">
         <v>2</v>
@@ -48985,10 +49107,10 @@
         <v>242</v>
       </c>
       <c r="C354" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D354" s="27" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E354" s="11">
         <v>2</v>
@@ -49002,10 +49124,10 @@
         <v>243</v>
       </c>
       <c r="C355" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D355" s="27" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E355" s="11">
         <v>2</v>
@@ -49019,10 +49141,10 @@
         <v>244</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D356" s="27" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E356" s="11">
         <v>2</v>
@@ -49036,10 +49158,10 @@
         <v>245</v>
       </c>
       <c r="C357" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D357" s="27" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E357" s="11">
         <v>2</v>
@@ -49053,7 +49175,7 @@
         <v>246</v>
       </c>
       <c r="C358" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D358" s="15" t="s">
         <v>861</v>
@@ -49070,7 +49192,7 @@
         <v>247</v>
       </c>
       <c r="C359" s="108" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="D359" s="107">
         <v>0</v>
@@ -49088,7 +49210,7 @@
         <v>248</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="D360" s="15" t="s">
         <v>969</v>
@@ -49108,7 +49230,7 @@
         <v>688</v>
       </c>
       <c r="D361" s="102" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E361" s="101">
         <v>2</v>
@@ -49126,7 +49248,7 @@
         <v>688</v>
       </c>
       <c r="D362" s="102" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E362" s="101">
         <v>2</v>
@@ -49144,7 +49266,7 @@
         <v>688</v>
       </c>
       <c r="D363" s="102" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E363" s="101">
         <v>2</v>
@@ -49162,7 +49284,7 @@
         <v>688</v>
       </c>
       <c r="D364" s="105" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E364" s="104">
         <v>2</v>
@@ -49177,10 +49299,10 @@
         <v>253</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D365" s="83" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E365" s="10">
         <v>2</v>
@@ -49194,7 +49316,7 @@
         <v>254</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D366" s="10">
         <v>3</v>
@@ -49211,7 +49333,7 @@
         <v>255</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D367" s="10">
         <v>4</v>
@@ -49228,7 +49350,7 @@
         <v>256</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D368" s="10">
         <v>5</v>
@@ -49248,7 +49370,7 @@
         <v>675</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E369" s="29">
         <v>2</v>
@@ -49264,7 +49386,7 @@
         <v>258</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D370" s="11">
         <v>5000000</v>
@@ -49281,7 +49403,7 @@
         <v>259</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D371" s="13">
         <v>20</v>
@@ -49298,7 +49420,7 @@
         <v>259</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D372" s="11">
         <v>100000</v>
@@ -49315,7 +49437,7 @@
         <v>260</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D373" s="11">
         <v>480000</v>
@@ -49332,7 +49454,7 @@
         <v>261</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D374" s="11">
         <v>960000</v>
@@ -49349,13 +49471,30 @@
         <v>262</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D375" s="11">
         <v>10</v>
       </c>
       <c r="E375" s="11">
         <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A376" s="12">
+        <v>405</v>
+      </c>
+      <c r="B376" s="12">
+        <v>263</v>
+      </c>
+      <c r="C376" s="13" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D376" s="13" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E376" s="11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -49367,13 +49506,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W830"/>
+  <dimension ref="A1:W868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C449" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C247" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C459" sqref="C459"/>
+      <selection pane="bottomRight" activeCell="D269" sqref="D269:E269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -55252,7 +55391,7 @@
       </c>
       <c r="C265" s="10"/>
       <c r="D265" s="19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E265" s="10">
         <v>6</v>
@@ -55273,10 +55412,10 @@
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="19" t="s">
-        <v>1321</v>
+        <v>1367</v>
       </c>
       <c r="E266" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F266" s="10">
         <v>1</v>
@@ -55315,7 +55454,7 @@
       </c>
       <c r="C268" s="78"/>
       <c r="D268" s="77" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="E268" s="78">
         <v>10</v>
@@ -55336,10 +55475,10 @@
       </c>
       <c r="C269" s="78"/>
       <c r="D269" s="77" t="s">
-        <v>1322</v>
+        <v>1367</v>
       </c>
       <c r="E269" s="78">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F269" s="78">
         <v>1</v>
@@ -63473,7 +63612,7 @@
       </c>
       <c r="C670" s="11"/>
       <c r="D670" s="13" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E670" s="11">
         <v>12000</v>
@@ -63550,7 +63689,7 @@
         <v>873</v>
       </c>
       <c r="C674" s="13" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D674" s="11"/>
       <c r="E674" s="11"/>
@@ -63569,7 +63708,7 @@
         <v>874</v>
       </c>
       <c r="C675" s="13" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D675" s="11"/>
       <c r="E675" s="11"/>
@@ -64307,7 +64446,7 @@
       </c>
       <c r="C712" s="13"/>
       <c r="D712" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E712" s="11">
         <v>60000</v>
@@ -64412,7 +64551,7 @@
       </c>
       <c r="C717" s="11"/>
       <c r="D717" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E717" s="11">
         <v>1</v>
@@ -64429,11 +64568,11 @@
         <v>717</v>
       </c>
       <c r="B718" s="15" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C718" s="11"/>
       <c r="D718" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E718" s="11">
         <v>1</v>
@@ -64450,11 +64589,11 @@
         <v>718</v>
       </c>
       <c r="B719" s="15" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C719" s="11"/>
       <c r="D719" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E719" s="11">
         <v>2</v>
@@ -64471,11 +64610,11 @@
         <v>719</v>
       </c>
       <c r="B720" s="15" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C720" s="11"/>
       <c r="D720" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E720" s="11">
         <v>4</v>
@@ -64492,11 +64631,11 @@
         <v>720</v>
       </c>
       <c r="B721" s="15" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C721" s="11"/>
       <c r="D721" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E721" s="11">
         <v>8</v>
@@ -64513,11 +64652,11 @@
         <v>721</v>
       </c>
       <c r="B722" s="15" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C722" s="11"/>
       <c r="D722" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E722" s="11">
         <v>18</v>
@@ -64534,11 +64673,11 @@
         <v>722</v>
       </c>
       <c r="B723" s="15" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C723" s="11"/>
       <c r="D723" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E723" s="11">
         <v>38</v>
@@ -64555,11 +64694,11 @@
         <v>723</v>
       </c>
       <c r="B724" s="15" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C724" s="11"/>
       <c r="D724" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E724" s="11">
         <v>98</v>
@@ -64580,7 +64719,7 @@
       </c>
       <c r="C725" s="11"/>
       <c r="D725" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E725" s="11">
         <v>1</v>
@@ -64601,7 +64740,7 @@
       </c>
       <c r="C726" s="11"/>
       <c r="D726" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E726" s="11">
         <v>1</v>
@@ -64622,7 +64761,7 @@
       </c>
       <c r="C727" s="11"/>
       <c r="D727" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E727" s="11">
         <v>4</v>
@@ -64643,7 +64782,7 @@
       </c>
       <c r="C728" s="11"/>
       <c r="D728" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E728" s="11">
         <v>8</v>
@@ -64664,7 +64803,7 @@
       </c>
       <c r="C729" s="11"/>
       <c r="D729" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E729" s="11">
         <v>18</v>
@@ -64685,7 +64824,7 @@
       </c>
       <c r="C730" s="11"/>
       <c r="D730" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E730" s="11">
         <v>28</v>
@@ -64706,7 +64845,7 @@
       </c>
       <c r="C731" s="11"/>
       <c r="D731" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E731" s="11">
         <v>58</v>
@@ -64727,7 +64866,7 @@
       </c>
       <c r="C732" s="11"/>
       <c r="D732" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E732" s="11">
         <v>118</v>
@@ -64748,7 +64887,7 @@
       </c>
       <c r="C733" s="11"/>
       <c r="D733" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E733" s="11">
         <v>298</v>
@@ -64769,7 +64908,7 @@
       </c>
       <c r="C734" s="11"/>
       <c r="D734" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E734" s="11">
         <v>598</v>
@@ -64790,7 +64929,7 @@
       </c>
       <c r="C735" s="11"/>
       <c r="D735" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E735" s="11">
         <v>1498</v>
@@ -64810,7 +64949,7 @@
         <v>525</v>
       </c>
       <c r="C736" s="13" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D736" s="11"/>
       <c r="E736" s="11"/>
@@ -64852,7 +64991,7 @@
         <v>526</v>
       </c>
       <c r="C738" s="13" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D738" s="11"/>
       <c r="E738" s="11"/>
@@ -65063,7 +65202,7 @@
       </c>
       <c r="C748" s="11"/>
       <c r="D748" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E748" s="11">
         <v>1</v>
@@ -65084,7 +65223,7 @@
       </c>
       <c r="C749" s="11"/>
       <c r="D749" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E749" s="11">
         <v>1</v>
@@ -65105,7 +65244,7 @@
       </c>
       <c r="C750" s="11"/>
       <c r="D750" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E750" s="11">
         <v>4</v>
@@ -65126,7 +65265,7 @@
       </c>
       <c r="C751" s="11"/>
       <c r="D751" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E751" s="11">
         <v>9</v>
@@ -65147,7 +65286,7 @@
       </c>
       <c r="C752" s="11"/>
       <c r="D752" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E752" s="11">
         <v>18</v>
@@ -65168,7 +65307,7 @@
       </c>
       <c r="C753" s="11"/>
       <c r="D753" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E753" s="11">
         <v>30</v>
@@ -65189,7 +65328,7 @@
       </c>
       <c r="C754" s="11"/>
       <c r="D754" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E754" s="11">
         <v>58</v>
@@ -65210,7 +65349,7 @@
       </c>
       <c r="C755" s="11"/>
       <c r="D755" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E755" s="11">
         <v>118</v>
@@ -65231,7 +65370,7 @@
       </c>
       <c r="C756" s="11"/>
       <c r="D756" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E756" s="11">
         <v>298</v>
@@ -65252,7 +65391,7 @@
       </c>
       <c r="C757" s="11"/>
       <c r="D757" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E757" s="11">
         <v>598</v>
@@ -65273,7 +65412,7 @@
       </c>
       <c r="C758" s="11"/>
       <c r="D758" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E758" s="11">
         <v>1498</v>
@@ -65293,7 +65432,7 @@
         <v>546</v>
       </c>
       <c r="C759" s="13" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D759" s="11"/>
       <c r="E759" s="11"/>
@@ -65314,7 +65453,7 @@
         <v>547</v>
       </c>
       <c r="C760" s="13" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D760" s="11"/>
       <c r="E760" s="11"/>
@@ -65356,7 +65495,7 @@
         <v>548</v>
       </c>
       <c r="C762" s="13" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D762" s="11"/>
       <c r="E762" s="11"/>
@@ -65399,7 +65538,7 @@
       </c>
       <c r="C764" s="11"/>
       <c r="D764" s="13" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E764" s="11">
         <v>480000</v>
@@ -65441,7 +65580,7 @@
       </c>
       <c r="C766" s="11"/>
       <c r="D766" s="13" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E766" s="11">
         <v>80000</v>
@@ -65504,7 +65643,7 @@
       </c>
       <c r="C769" s="11"/>
       <c r="D769" s="13" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E769" s="11">
         <v>38888</v>
@@ -65546,7 +65685,7 @@
       </c>
       <c r="C771" s="11"/>
       <c r="D771" s="13" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E771" s="11">
         <v>8888</v>
@@ -65588,7 +65727,7 @@
       </c>
       <c r="C773" s="11"/>
       <c r="D773" s="13" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E773" s="11">
         <v>2</v>
@@ -65609,10 +65748,10 @@
       </c>
       <c r="C774" s="11"/>
       <c r="D774" s="13" t="s">
-        <v>1324</v>
+        <v>1368</v>
       </c>
       <c r="E774" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F774" s="11">
         <v>1</v>
@@ -65630,13 +65769,13 @@
       </c>
       <c r="C775" s="10"/>
       <c r="D775" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E775" s="83" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F775" s="10">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H775" s="33"/>
     </row>
@@ -65649,13 +65788,13 @@
       </c>
       <c r="C776" s="10"/>
       <c r="D776" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E776" s="83" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F776" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G776" s="29"/>
       <c r="H776" s="33"/>
@@ -65670,13 +65809,13 @@
       </c>
       <c r="C777" s="10"/>
       <c r="D777" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E777" s="83" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F777" s="10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G777" s="29"/>
       <c r="H777" s="33"/>
@@ -65691,13 +65830,13 @@
       </c>
       <c r="C778" s="10"/>
       <c r="D778" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E778" s="83" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F778" s="10">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="779" spans="1:9" x14ac:dyDescent="0.2">
@@ -65709,13 +65848,13 @@
       </c>
       <c r="C779" s="10"/>
       <c r="D779" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E779" s="83" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F779" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="780" spans="1:9" x14ac:dyDescent="0.2">
@@ -65727,13 +65866,13 @@
       </c>
       <c r="C780" s="10"/>
       <c r="D780" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E780" s="83" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F780" s="10">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="781" spans="1:9" x14ac:dyDescent="0.2">
@@ -65745,13 +65884,13 @@
       </c>
       <c r="C781" s="10"/>
       <c r="D781" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E781" s="83" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F781" s="10">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="782" spans="1:9" x14ac:dyDescent="0.2">
@@ -65763,13 +65902,13 @@
       </c>
       <c r="C782" s="10"/>
       <c r="D782" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E782" s="83" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F782" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="783" spans="1:9" x14ac:dyDescent="0.2">
@@ -65781,13 +65920,13 @@
       </c>
       <c r="C783" s="10"/>
       <c r="D783" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E783" s="83" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F783" s="10">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="784" spans="1:9" x14ac:dyDescent="0.2">
@@ -65799,10 +65938,10 @@
       </c>
       <c r="C784" s="10"/>
       <c r="D784" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E784" s="83" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F784" s="10">
         <v>25</v>
@@ -65817,10 +65956,10 @@
       </c>
       <c r="C785" s="10"/>
       <c r="D785" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E785" s="83" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F785" s="10">
         <v>50</v>
@@ -65835,10 +65974,10 @@
       </c>
       <c r="C786" s="10"/>
       <c r="D786" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E786" s="83" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F786" s="10">
         <v>25</v>
@@ -65853,10 +65992,10 @@
       </c>
       <c r="C787" s="10"/>
       <c r="D787" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E787" s="83" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F787" s="10">
         <v>25</v>
@@ -65871,10 +66010,10 @@
       </c>
       <c r="C788" s="10"/>
       <c r="D788" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E788" s="83" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F788" s="10">
         <v>50</v>
@@ -65889,7 +66028,7 @@
       </c>
       <c r="C789" s="10"/>
       <c r="D789" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E789" s="83">
         <v>150</v>
@@ -65907,7 +66046,7 @@
       </c>
       <c r="C790" s="10"/>
       <c r="D790" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E790" s="9">
         <v>400</v>
@@ -65925,7 +66064,7 @@
       </c>
       <c r="C791" s="10"/>
       <c r="D791" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E791" s="9">
         <v>500</v>
@@ -65943,7 +66082,7 @@
       </c>
       <c r="C792" s="10"/>
       <c r="D792" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E792" s="9">
         <v>600</v>
@@ -65961,7 +66100,7 @@
       </c>
       <c r="C793" s="10"/>
       <c r="D793" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E793" s="9">
         <v>100</v>
@@ -65979,7 +66118,7 @@
       </c>
       <c r="C794" s="10"/>
       <c r="D794" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E794" s="9">
         <v>300</v>
@@ -65997,7 +66136,7 @@
       </c>
       <c r="C795" s="10"/>
       <c r="D795" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E795" s="9">
         <v>500</v>
@@ -66015,7 +66154,7 @@
       </c>
       <c r="C796" s="10"/>
       <c r="D796" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E796" s="9">
         <v>500</v>
@@ -66033,7 +66172,7 @@
       </c>
       <c r="C797" s="10"/>
       <c r="D797" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E797" s="9">
         <v>1000</v>
@@ -66051,7 +66190,7 @@
       </c>
       <c r="C798" s="10"/>
       <c r="D798" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E798" s="9">
         <v>1500</v>
@@ -66069,7 +66208,7 @@
       </c>
       <c r="C799" s="10"/>
       <c r="D799" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E799" s="9">
         <v>4000</v>
@@ -66087,7 +66226,7 @@
       </c>
       <c r="C800" s="10"/>
       <c r="D800" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E800" s="9">
         <v>5000</v>
@@ -66105,7 +66244,7 @@
       </c>
       <c r="C801" s="10"/>
       <c r="D801" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E801" s="9">
         <v>6000</v>
@@ -66123,7 +66262,7 @@
       </c>
       <c r="C802" s="10"/>
       <c r="D802" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E802" s="9">
         <v>1000</v>
@@ -66141,7 +66280,7 @@
       </c>
       <c r="C803" s="10"/>
       <c r="D803" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E803" s="9">
         <v>3000</v>
@@ -66159,7 +66298,7 @@
       </c>
       <c r="C804" s="10"/>
       <c r="D804" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E804" s="9">
         <v>5000</v>
@@ -66177,7 +66316,7 @@
       </c>
       <c r="C805" s="10"/>
       <c r="D805" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E805" s="9">
         <v>5000</v>
@@ -66195,7 +66334,7 @@
       </c>
       <c r="C806" s="10"/>
       <c r="D806" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E806" s="9">
         <v>10000</v>
@@ -66213,7 +66352,7 @@
       </c>
       <c r="C807" s="10"/>
       <c r="D807" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E807" s="9">
         <v>15000</v>
@@ -66231,7 +66370,7 @@
       </c>
       <c r="C808" s="10"/>
       <c r="D808" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E808" s="9">
         <v>40000</v>
@@ -66249,7 +66388,7 @@
       </c>
       <c r="C809" s="10"/>
       <c r="D809" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E809" s="9">
         <v>50000</v>
@@ -66267,7 +66406,7 @@
       </c>
       <c r="C810" s="10"/>
       <c r="D810" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E810" s="9">
         <v>60000</v>
@@ -66285,10 +66424,10 @@
       </c>
       <c r="C811" s="11"/>
       <c r="D811" s="13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E811" s="27" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="F811" s="11">
         <v>1</v>
@@ -66306,10 +66445,10 @@
       </c>
       <c r="C812" s="11"/>
       <c r="D812" s="13" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E812" s="15" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="F812" s="11">
         <v>1</v>
@@ -66327,7 +66466,7 @@
       </c>
       <c r="C813" s="11"/>
       <c r="D813" s="13" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E813" s="27">
         <v>1</v>
@@ -66348,7 +66487,7 @@
       </c>
       <c r="C814" s="11"/>
       <c r="D814" s="13" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E814" s="27">
         <v>400</v>
@@ -66369,7 +66508,7 @@
       </c>
       <c r="C815" s="11"/>
       <c r="D815" s="13" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E815" s="27">
         <v>1</v>
@@ -66516,7 +66655,7 @@
       </c>
       <c r="C822" s="11"/>
       <c r="D822" s="100" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E822" s="27">
         <v>3500</v>
@@ -66558,7 +66697,7 @@
       </c>
       <c r="C824" s="11"/>
       <c r="D824" s="13" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E824" s="27">
         <v>14000</v>
@@ -66578,7 +66717,7 @@
         <v>592</v>
       </c>
       <c r="C825" s="13" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="D825" s="11"/>
       <c r="E825" s="27"/>
@@ -66599,7 +66738,7 @@
         <v>593</v>
       </c>
       <c r="C826" s="13" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="D826" s="11"/>
       <c r="E826" s="27"/>
@@ -66620,7 +66759,7 @@
         <v>594</v>
       </c>
       <c r="C827" s="13" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="D827" s="11"/>
       <c r="E827" s="27"/>
@@ -66641,7 +66780,7 @@
         <v>595</v>
       </c>
       <c r="C828" s="13" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="D828" s="11"/>
       <c r="E828" s="27"/>
@@ -66662,7 +66801,7 @@
         <v>596</v>
       </c>
       <c r="C829" s="13" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="D829" s="11"/>
       <c r="E829" s="27"/>
@@ -66683,7 +66822,7 @@
         <v>597</v>
       </c>
       <c r="C830" s="13" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="D830" s="11"/>
       <c r="E830" s="27"/>
@@ -66695,6 +66834,632 @@
         <v>1</v>
       </c>
       <c r="I830" s="11"/>
+    </row>
+    <row r="831" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A831" s="12">
+        <v>830</v>
+      </c>
+      <c r="B831" s="11">
+        <v>598</v>
+      </c>
+      <c r="D831" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E831" s="1">
+        <v>80000</v>
+      </c>
+      <c r="F831" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A832" s="12">
+        <v>831</v>
+      </c>
+      <c r="B832" s="11">
+        <v>598</v>
+      </c>
+      <c r="C832" s="29"/>
+      <c r="D832" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E832" s="29">
+        <v>1</v>
+      </c>
+      <c r="F832" s="29">
+        <v>1</v>
+      </c>
+      <c r="G832" s="29"/>
+      <c r="H832" s="29"/>
+      <c r="I832" s="29"/>
+    </row>
+    <row r="833" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A833" s="12">
+        <v>832</v>
+      </c>
+      <c r="B833" s="11">
+        <v>598</v>
+      </c>
+      <c r="C833" s="29"/>
+      <c r="D833" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E833" s="29">
+        <v>1</v>
+      </c>
+      <c r="F833" s="29">
+        <v>1</v>
+      </c>
+      <c r="G833" s="29"/>
+      <c r="H833" s="29"/>
+      <c r="I833" s="29"/>
+    </row>
+    <row r="834" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A834" s="12">
+        <v>833</v>
+      </c>
+      <c r="B834" s="11">
+        <v>599</v>
+      </c>
+      <c r="D834" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E834" s="29">
+        <v>180000</v>
+      </c>
+      <c r="F834" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A835" s="12">
+        <v>834</v>
+      </c>
+      <c r="B835" s="11">
+        <v>599</v>
+      </c>
+      <c r="D835" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E835" s="29">
+        <v>1</v>
+      </c>
+      <c r="F835" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A836" s="12">
+        <v>835</v>
+      </c>
+      <c r="B836" s="11">
+        <v>599</v>
+      </c>
+      <c r="D836" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E836" s="29">
+        <v>1</v>
+      </c>
+      <c r="F836" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A837" s="12">
+        <v>836</v>
+      </c>
+      <c r="B837" s="11">
+        <v>600</v>
+      </c>
+      <c r="D837" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E837" s="29">
+        <v>280000</v>
+      </c>
+      <c r="F837" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A838" s="12">
+        <v>837</v>
+      </c>
+      <c r="B838" s="11">
+        <v>600</v>
+      </c>
+      <c r="D838" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E838" s="29">
+        <v>1</v>
+      </c>
+      <c r="F838" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A839" s="12">
+        <v>838</v>
+      </c>
+      <c r="B839" s="11">
+        <v>600</v>
+      </c>
+      <c r="D839" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E839" s="29">
+        <v>1</v>
+      </c>
+      <c r="F839" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A840" s="12">
+        <v>839</v>
+      </c>
+      <c r="B840" s="11">
+        <v>601</v>
+      </c>
+      <c r="D840" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E840" s="29">
+        <v>380000</v>
+      </c>
+      <c r="F840" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A841" s="12">
+        <v>840</v>
+      </c>
+      <c r="B841" s="11">
+        <v>601</v>
+      </c>
+      <c r="D841" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E841" s="29">
+        <v>2</v>
+      </c>
+      <c r="F841" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A842" s="12">
+        <v>841</v>
+      </c>
+      <c r="B842" s="11">
+        <v>601</v>
+      </c>
+      <c r="D842" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E842" s="29">
+        <v>2</v>
+      </c>
+      <c r="F842" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A843" s="12">
+        <v>842</v>
+      </c>
+      <c r="B843" s="11">
+        <v>602</v>
+      </c>
+      <c r="D843" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E843" s="29">
+        <v>480000</v>
+      </c>
+      <c r="F843" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A844" s="12">
+        <v>843</v>
+      </c>
+      <c r="B844" s="11">
+        <v>602</v>
+      </c>
+      <c r="D844" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E844" s="29">
+        <v>2</v>
+      </c>
+      <c r="F844" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A845" s="12">
+        <v>844</v>
+      </c>
+      <c r="B845" s="11">
+        <v>602</v>
+      </c>
+      <c r="D845" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E845" s="29">
+        <v>2</v>
+      </c>
+      <c r="F845" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A846" s="12">
+        <v>845</v>
+      </c>
+      <c r="B846" s="11">
+        <v>603</v>
+      </c>
+      <c r="D846" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E846" s="29">
+        <v>880000</v>
+      </c>
+      <c r="F846" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A847" s="12">
+        <v>846</v>
+      </c>
+      <c r="B847" s="11">
+        <v>603</v>
+      </c>
+      <c r="D847" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E847" s="29">
+        <v>2</v>
+      </c>
+      <c r="F847" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A848" s="12">
+        <v>847</v>
+      </c>
+      <c r="B848" s="11">
+        <v>603</v>
+      </c>
+      <c r="D848" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E848" s="29">
+        <v>2</v>
+      </c>
+      <c r="F848" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A849" s="12">
+        <v>848</v>
+      </c>
+      <c r="B849" s="11">
+        <v>604</v>
+      </c>
+      <c r="D849" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E849" s="29">
+        <v>1280000</v>
+      </c>
+      <c r="F849" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A850" s="12">
+        <v>849</v>
+      </c>
+      <c r="B850" s="11">
+        <v>604</v>
+      </c>
+      <c r="D850" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E850" s="29">
+        <v>3</v>
+      </c>
+      <c r="F850" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A851" s="12">
+        <v>850</v>
+      </c>
+      <c r="B851" s="11">
+        <v>604</v>
+      </c>
+      <c r="D851" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E851" s="29">
+        <v>3</v>
+      </c>
+      <c r="F851" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A852" s="12">
+        <v>851</v>
+      </c>
+      <c r="B852" s="11">
+        <v>605</v>
+      </c>
+      <c r="D852" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E852" s="29">
+        <v>1880000</v>
+      </c>
+      <c r="F852" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A853" s="12">
+        <v>852</v>
+      </c>
+      <c r="B853" s="11">
+        <v>605</v>
+      </c>
+      <c r="D853" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E853" s="29">
+        <v>3</v>
+      </c>
+      <c r="F853" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A854" s="12">
+        <v>853</v>
+      </c>
+      <c r="B854" s="11">
+        <v>605</v>
+      </c>
+      <c r="D854" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E854" s="29">
+        <v>3</v>
+      </c>
+      <c r="F854" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A855" s="12">
+        <v>854</v>
+      </c>
+      <c r="B855" s="11">
+        <v>606</v>
+      </c>
+      <c r="D855" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E855" s="29">
+        <v>2880000</v>
+      </c>
+      <c r="F855" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A856" s="12">
+        <v>855</v>
+      </c>
+      <c r="B856" s="11">
+        <v>606</v>
+      </c>
+      <c r="D856" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E856" s="29">
+        <v>3</v>
+      </c>
+      <c r="F856" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A857" s="12">
+        <v>856</v>
+      </c>
+      <c r="B857" s="11">
+        <v>606</v>
+      </c>
+      <c r="D857" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E857" s="29">
+        <v>3</v>
+      </c>
+      <c r="F857" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A858" s="12">
+        <v>857</v>
+      </c>
+      <c r="B858" s="11">
+        <v>607</v>
+      </c>
+      <c r="D858" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E858" s="29">
+        <v>3880000</v>
+      </c>
+      <c r="F858" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A859" s="12">
+        <v>858</v>
+      </c>
+      <c r="B859" s="11">
+        <v>607</v>
+      </c>
+      <c r="D859" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E859" s="29">
+        <v>5</v>
+      </c>
+      <c r="F859" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A860" s="12">
+        <v>859</v>
+      </c>
+      <c r="B860" s="11">
+        <v>607</v>
+      </c>
+      <c r="D860" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E860" s="29">
+        <v>5</v>
+      </c>
+      <c r="F860" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A861" s="12">
+        <v>860</v>
+      </c>
+      <c r="B861" s="11">
+        <v>608</v>
+      </c>
+      <c r="D861" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E861" s="29">
+        <v>4880000</v>
+      </c>
+      <c r="F861" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A862" s="12">
+        <v>861</v>
+      </c>
+      <c r="B862" s="11">
+        <v>608</v>
+      </c>
+      <c r="D862" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E862" s="29">
+        <v>5</v>
+      </c>
+      <c r="F862" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A863" s="12">
+        <v>862</v>
+      </c>
+      <c r="B863" s="11">
+        <v>608</v>
+      </c>
+      <c r="D863" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E863" s="29">
+        <v>5</v>
+      </c>
+      <c r="F863" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A864" s="12">
+        <v>863</v>
+      </c>
+      <c r="B864" s="11">
+        <v>609</v>
+      </c>
+      <c r="D864" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E864" s="29">
+        <v>5880000</v>
+      </c>
+      <c r="F864" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A865" s="12">
+        <v>864</v>
+      </c>
+      <c r="B865" s="11">
+        <v>609</v>
+      </c>
+      <c r="D865" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E865" s="29">
+        <v>5</v>
+      </c>
+      <c r="F865" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A866" s="12">
+        <v>865</v>
+      </c>
+      <c r="B866" s="11">
+        <v>609</v>
+      </c>
+      <c r="D866" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E866" s="29">
+        <v>5</v>
+      </c>
+      <c r="F866" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B867" s="11"/>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B868" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/config_Release/task_zajindan_server.xlsx
+++ b/config_Release/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5052" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5215" uniqueCount="1439">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7763,10 +7763,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>base_fish_id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>300</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7924,6 +7920,284 @@
   <si>
     <t>2000000,3000000,5000000,10000000,30000000,50000000,100000000,300000000,500000000,1000000000,1000000000,2000000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛夏送好礼</t>
+  </si>
+  <si>
+    <t>盛夏送好礼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_id</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利 v1-v3 每天在游戏中累计购买3次98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利 v1-v3 每天在游戏中累计购买3次50元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利 v4-v10每天在游戏中累计购买3次2498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利 v4-v10每天在游戏中累计购买3次998元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利 v4-v10每天在游戏中累计购买3次498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利 v4-v10每天在游戏中累计购买3次198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利 v4-v10每天在游戏中累计购买3次98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利 v1-v3 每天在游戏中累计购买3次30元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利 v1-v3 每天在游戏中累计购买3次15元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>110,10045</t>
+  </si>
+  <si>
+    <t>6,89</t>
+  </si>
+  <si>
+    <t>4,87</t>
+  </si>
+  <si>
+    <t>3,86</t>
+  </si>
+  <si>
+    <t>2,85</t>
+  </si>
+  <si>
+    <t>111,10189</t>
+  </si>
+  <si>
+    <t>太阳眼镜、空调被、美的风扇 （三选一）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨伞、矿泉水、鸭舌帽（三选一）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛夏送好礼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼神秘海域中用500及以上炮倍击杀3条彩金鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼神秘海域中用500及以上炮倍击杀5条活动鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中用5000及以上炮倍击杀3条美人鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中用5000及以上炮倍击杀2条深海狂鲨</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮抽红包，累计获得300及以上的福利券</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐用24万及以上档次出现1次幸运时刻</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浒消消乐用24万及以上档次累计召唤出3次英雄</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费重置3次</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>610</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>614</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>618</t>
+  </si>
+  <si>
+    <t>p_0811_wyzjf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>contend_socre_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>score_free_reset_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_target_yu</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_target_yu</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_target_yu</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_lucky_award</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_xxl_xc_num_hero</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_award_receive</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_fish_id</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_num</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_spend</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_spend</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_rate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>21315</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,21316,21317,21318</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,22,23,24,25,26,27</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,28,29,30,31,32,33,34,35,36</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_summer_lgfl2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_summer_lgfl2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_0811_wyzjf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_summer_lgfl1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8014,7 +8288,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8083,18 +8357,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8108,6 +8370,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8153,7 +8439,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8398,70 +8684,73 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -8748,13 +9037,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T395"/>
+  <dimension ref="A1:T411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M383" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E378" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N394" sqref="N394"/>
+      <selection pane="bottomRight" activeCell="G408" sqref="G408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8789,7 +9078,7 @@
         <v>1038</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -16435,7 +16724,7 @@
         <v>237</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E193" s="51" t="s">
         <v>239</v>
@@ -16511,7 +16800,7 @@
         <v>237</v>
       </c>
       <c r="D195" s="51" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E195" s="51" t="s">
         <v>239</v>
@@ -16549,7 +16838,7 @@
         <v>237</v>
       </c>
       <c r="D196" s="51" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E196" s="51" t="s">
         <v>239</v>
@@ -16587,7 +16876,7 @@
         <v>237</v>
       </c>
       <c r="D197" s="51" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E197" s="51" t="s">
         <v>239</v>
@@ -16625,7 +16914,7 @@
         <v>237</v>
       </c>
       <c r="D198" s="51" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E198" s="51" t="s">
         <v>239</v>
@@ -23074,1034 +23363,1677 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A368" s="9">
+    <row r="368" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="97">
         <v>21315</v>
       </c>
-      <c r="B368" s="9">
-        <v>1</v>
-      </c>
-      <c r="C368" s="51" t="s">
+      <c r="B368" s="97">
+        <v>1</v>
+      </c>
+      <c r="C368" s="98" t="s">
         <v>1198</v>
       </c>
-      <c r="D368" s="86" t="s">
+      <c r="D368" s="99" t="s">
         <v>1194</v>
       </c>
-      <c r="E368" s="51" t="s">
+      <c r="E368" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="F368" s="51" t="s">
+      <c r="F368" s="98" t="s">
         <v>1224</v>
       </c>
-      <c r="G368" s="9">
+      <c r="G368" s="97">
         <v>21315</v>
       </c>
-      <c r="H368" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I368" s="9">
-        <v>1</v>
-      </c>
-      <c r="J368" s="9">
+      <c r="H368" s="98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I368" s="97">
+        <v>1</v>
+      </c>
+      <c r="J368" s="97">
         <v>1593554400</v>
       </c>
-      <c r="K368" s="9">
+      <c r="K368" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L368" s="9">
+      <c r="L368" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A369" s="9">
+    <row r="369" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="97">
         <v>21316</v>
       </c>
-      <c r="B369" s="9">
-        <v>1</v>
-      </c>
-      <c r="C369" s="51" t="s">
+      <c r="B369" s="97">
+        <v>1</v>
+      </c>
+      <c r="C369" s="98" t="s">
         <v>1198</v>
       </c>
-      <c r="D369" s="86" t="s">
+      <c r="D369" s="99" t="s">
         <v>1195</v>
       </c>
-      <c r="E369" s="51" t="s">
+      <c r="E369" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="F369" s="51" t="s">
+      <c r="F369" s="98" t="s">
         <v>1225</v>
       </c>
-      <c r="G369" s="9">
+      <c r="G369" s="97">
         <v>21316</v>
       </c>
-      <c r="H369" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I369" s="9">
-        <v>1</v>
-      </c>
-      <c r="J369" s="9">
+      <c r="H369" s="98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I369" s="97">
+        <v>1</v>
+      </c>
+      <c r="J369" s="97">
         <v>1593554400</v>
       </c>
-      <c r="K369" s="9">
+      <c r="K369" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L369" s="9">
+      <c r="L369" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A370" s="9">
+    <row r="370" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="97">
         <v>21317</v>
       </c>
-      <c r="B370" s="9">
-        <v>1</v>
-      </c>
-      <c r="C370" s="51" t="s">
+      <c r="B370" s="97">
+        <v>1</v>
+      </c>
+      <c r="C370" s="98" t="s">
         <v>1198</v>
       </c>
-      <c r="D370" s="51" t="s">
+      <c r="D370" s="98" t="s">
         <v>1196</v>
       </c>
-      <c r="E370" s="51" t="s">
+      <c r="E370" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="F370" s="51" t="s">
+      <c r="F370" s="98" t="s">
         <v>1225</v>
       </c>
-      <c r="G370" s="9">
+      <c r="G370" s="97">
         <v>21317</v>
       </c>
-      <c r="H370" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I370" s="9">
-        <v>1</v>
-      </c>
-      <c r="J370" s="9">
+      <c r="H370" s="98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I370" s="97">
+        <v>1</v>
+      </c>
+      <c r="J370" s="97">
         <v>1593554400</v>
       </c>
-      <c r="K370" s="9">
+      <c r="K370" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L370" s="9">
+      <c r="L370" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A371" s="9">
+    <row r="371" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="97">
         <v>21318</v>
       </c>
-      <c r="B371" s="9">
-        <v>1</v>
-      </c>
-      <c r="C371" s="51" t="s">
+      <c r="B371" s="97">
+        <v>1</v>
+      </c>
+      <c r="C371" s="98" t="s">
         <v>1198</v>
       </c>
-      <c r="D371" s="51" t="s">
+      <c r="D371" s="98" t="s">
         <v>1197</v>
       </c>
-      <c r="E371" s="51" t="s">
+      <c r="E371" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="F371" s="51" t="s">
+      <c r="F371" s="98" t="s">
         <v>1225</v>
       </c>
-      <c r="G371" s="9">
+      <c r="G371" s="97">
         <v>21318</v>
       </c>
-      <c r="H371" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I371" s="9">
-        <v>1</v>
-      </c>
-      <c r="J371" s="9">
+      <c r="H371" s="98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I371" s="97">
+        <v>1</v>
+      </c>
+      <c r="J371" s="97">
         <v>1593554400</v>
       </c>
-      <c r="K371" s="9">
+      <c r="K371" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L371" s="9">
+      <c r="L371" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="372" spans="1:12" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="88">
+    <row r="372" spans="1:12" s="97" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="97">
         <v>21319</v>
       </c>
-      <c r="B372" s="88">
-        <v>1</v>
-      </c>
-      <c r="C372" s="89" t="s">
+      <c r="B372" s="97">
+        <v>1</v>
+      </c>
+      <c r="C372" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D372" s="89" t="s">
+      <c r="D372" s="98" t="s">
         <v>1247</v>
       </c>
-      <c r="E372" s="89" t="s">
+      <c r="E372" s="98" t="s">
         <v>1248</v>
       </c>
-      <c r="F372" s="89" t="s">
+      <c r="F372" s="98" t="s">
         <v>1249</v>
       </c>
-      <c r="G372" s="88">
+      <c r="G372" s="97">
         <v>21319</v>
       </c>
-      <c r="H372" s="88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I372" s="88">
-        <v>1</v>
-      </c>
-      <c r="J372" s="88">
+      <c r="H372" s="97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I372" s="97">
+        <v>1</v>
+      </c>
+      <c r="J372" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K372" s="88">
+      <c r="K372" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L372" s="88">
+      <c r="L372" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="373" spans="1:12" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="88">
+    <row r="373" spans="1:12" s="97" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="97">
         <v>21320</v>
       </c>
-      <c r="B373" s="88">
-        <v>1</v>
-      </c>
-      <c r="C373" s="89" t="s">
+      <c r="B373" s="97">
+        <v>1</v>
+      </c>
+      <c r="C373" s="98" t="s">
         <v>1245</v>
       </c>
-      <c r="D373" s="89" t="s">
+      <c r="D373" s="98" t="s">
         <v>1250</v>
       </c>
-      <c r="E373" s="89" t="s">
+      <c r="E373" s="98" t="s">
         <v>1251</v>
       </c>
-      <c r="F373" s="89" t="s">
+      <c r="F373" s="98" t="s">
         <v>1252</v>
       </c>
-      <c r="G373" s="88">
+      <c r="G373" s="97">
         <v>21320</v>
       </c>
-      <c r="H373" s="88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I373" s="88">
-        <v>1</v>
-      </c>
-      <c r="J373" s="88">
+      <c r="H373" s="97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I373" s="97">
+        <v>1</v>
+      </c>
+      <c r="J373" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K373" s="88">
+      <c r="K373" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L373" s="88">
+      <c r="L373" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="374" spans="1:12" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="88">
+    <row r="374" spans="1:12" s="97" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="97">
         <v>21321</v>
       </c>
-      <c r="B374" s="88">
-        <v>1</v>
-      </c>
-      <c r="C374" s="89" t="s">
+      <c r="B374" s="97">
+        <v>1</v>
+      </c>
+      <c r="C374" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D374" s="89" t="s">
+      <c r="D374" s="98" t="s">
         <v>1253</v>
       </c>
-      <c r="E374" s="89" t="s">
+      <c r="E374" s="98" t="s">
         <v>1254</v>
       </c>
-      <c r="F374" s="89" t="s">
+      <c r="F374" s="98" t="s">
         <v>1252</v>
       </c>
-      <c r="G374" s="88">
+      <c r="G374" s="97">
         <v>21321</v>
       </c>
-      <c r="H374" s="88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I374" s="88">
-        <v>1</v>
-      </c>
-      <c r="J374" s="88">
+      <c r="H374" s="97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I374" s="97">
+        <v>1</v>
+      </c>
+      <c r="J374" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K374" s="88">
+      <c r="K374" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L374" s="88">
+      <c r="L374" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="375" spans="1:12" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="88">
+    <row r="375" spans="1:12" s="97" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="97">
         <v>21322</v>
       </c>
-      <c r="B375" s="88">
-        <v>1</v>
-      </c>
-      <c r="C375" s="89" t="s">
+      <c r="B375" s="97">
+        <v>1</v>
+      </c>
+      <c r="C375" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D375" s="89" t="s">
+      <c r="D375" s="98" t="s">
         <v>1260</v>
       </c>
-      <c r="E375" s="90" t="s">
+      <c r="E375" s="100" t="s">
         <v>1256</v>
       </c>
-      <c r="F375" s="89" t="s">
+      <c r="F375" s="98" t="s">
         <v>1257</v>
       </c>
-      <c r="G375" s="88">
+      <c r="G375" s="97">
         <v>21322</v>
       </c>
-      <c r="H375" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I375" s="88">
-        <v>1</v>
-      </c>
-      <c r="J375" s="88">
+      <c r="H375" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I375" s="97">
+        <v>1</v>
+      </c>
+      <c r="J375" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K375" s="88">
+      <c r="K375" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L375" s="88">
+      <c r="L375" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="376" spans="1:12" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="88">
+    <row r="376" spans="1:12" s="97" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="97">
         <v>21323</v>
       </c>
-      <c r="B376" s="88">
-        <v>1</v>
-      </c>
-      <c r="C376" s="89" t="s">
+      <c r="B376" s="97">
+        <v>1</v>
+      </c>
+      <c r="C376" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D376" s="89" t="s">
+      <c r="D376" s="98" t="s">
         <v>1262</v>
       </c>
-      <c r="E376" s="90" t="s">
+      <c r="E376" s="100" t="s">
         <v>1255</v>
       </c>
-      <c r="F376" s="89" t="s">
+      <c r="F376" s="98" t="s">
         <v>1257</v>
       </c>
-      <c r="G376" s="88">
+      <c r="G376" s="97">
         <v>21323</v>
       </c>
-      <c r="H376" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I376" s="88">
-        <v>1</v>
-      </c>
-      <c r="J376" s="88">
+      <c r="H376" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I376" s="97">
+        <v>1</v>
+      </c>
+      <c r="J376" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K376" s="88">
+      <c r="K376" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L376" s="88">
+      <c r="L376" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="377" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A377" s="88">
+    <row r="377" spans="1:12" s="97" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A377" s="97">
         <v>21324</v>
       </c>
-      <c r="B377" s="88">
-        <v>1</v>
-      </c>
-      <c r="C377" s="89" t="s">
+      <c r="B377" s="97">
+        <v>1</v>
+      </c>
+      <c r="C377" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D377" s="89" t="s">
+      <c r="D377" s="98" t="s">
         <v>1261</v>
       </c>
-      <c r="E377" s="90" t="s">
+      <c r="E377" s="100" t="s">
         <v>1256</v>
       </c>
-      <c r="F377" s="89" t="s">
+      <c r="F377" s="98" t="s">
         <v>1257</v>
       </c>
-      <c r="G377" s="88">
+      <c r="G377" s="97">
         <v>21324</v>
       </c>
-      <c r="H377" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I377" s="88">
-        <v>1</v>
-      </c>
-      <c r="J377" s="88">
+      <c r="H377" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I377" s="97">
+        <v>1</v>
+      </c>
+      <c r="J377" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K377" s="88">
+      <c r="K377" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L377" s="88">
+      <c r="L377" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="378" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A378" s="88">
+    <row r="378" spans="1:12" s="97" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A378" s="97">
         <v>21325</v>
       </c>
-      <c r="B378" s="88">
-        <v>1</v>
-      </c>
-      <c r="C378" s="89" t="s">
+      <c r="B378" s="97">
+        <v>1</v>
+      </c>
+      <c r="C378" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D378" s="89" t="s">
+      <c r="D378" s="98" t="s">
         <v>1263</v>
       </c>
-      <c r="E378" s="90" t="s">
+      <c r="E378" s="100" t="s">
         <v>1256</v>
       </c>
-      <c r="F378" s="89" t="s">
+      <c r="F378" s="98" t="s">
         <v>1257</v>
       </c>
-      <c r="G378" s="88">
+      <c r="G378" s="97">
         <v>21325</v>
       </c>
-      <c r="H378" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I378" s="88">
-        <v>1</v>
-      </c>
-      <c r="J378" s="88">
+      <c r="H378" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I378" s="97">
+        <v>1</v>
+      </c>
+      <c r="J378" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K378" s="88">
+      <c r="K378" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L378" s="88">
+      <c r="L378" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="379" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A379" s="88">
+    <row r="379" spans="1:12" s="97" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A379" s="97">
         <v>21326</v>
       </c>
-      <c r="B379" s="88">
-        <v>1</v>
-      </c>
-      <c r="C379" s="89" t="s">
+      <c r="B379" s="97">
+        <v>1</v>
+      </c>
+      <c r="C379" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D379" s="89" t="s">
+      <c r="D379" s="98" t="s">
         <v>1334</v>
       </c>
-      <c r="E379" s="90" t="s">
+      <c r="E379" s="100" t="s">
         <v>1256</v>
       </c>
-      <c r="F379" s="89" t="s">
+      <c r="F379" s="98" t="s">
         <v>855</v>
       </c>
-      <c r="G379" s="88">
+      <c r="G379" s="97">
         <v>21326</v>
       </c>
-      <c r="H379" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I379" s="88">
-        <v>1</v>
-      </c>
-      <c r="J379" s="88">
+      <c r="H379" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I379" s="97">
+        <v>1</v>
+      </c>
+      <c r="J379" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K379" s="88">
+      <c r="K379" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L379" s="88">
+      <c r="L379" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="380" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A380" s="88">
+    <row r="380" spans="1:12" s="97" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A380" s="97">
         <v>21327</v>
       </c>
-      <c r="B380" s="88">
-        <v>1</v>
-      </c>
-      <c r="C380" s="89" t="s">
+      <c r="B380" s="97">
+        <v>1</v>
+      </c>
+      <c r="C380" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D380" s="89" t="s">
+      <c r="D380" s="98" t="s">
         <v>1264</v>
       </c>
-      <c r="E380" s="90" t="s">
+      <c r="E380" s="100" t="s">
         <v>1256</v>
       </c>
-      <c r="F380" s="89" t="s">
+      <c r="F380" s="98" t="s">
         <v>1257</v>
       </c>
-      <c r="G380" s="88">
+      <c r="G380" s="97">
         <v>21327</v>
       </c>
-      <c r="H380" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I380" s="88">
-        <v>1</v>
-      </c>
-      <c r="J380" s="88">
+      <c r="H380" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I380" s="97">
+        <v>1</v>
+      </c>
+      <c r="J380" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K380" s="88">
+      <c r="K380" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L380" s="88">
+      <c r="L380" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="381" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A381" s="88">
+    <row r="381" spans="1:12" s="97" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A381" s="97">
         <v>21328</v>
       </c>
-      <c r="B381" s="88">
-        <v>1</v>
-      </c>
-      <c r="C381" s="89" t="s">
+      <c r="B381" s="97">
+        <v>1</v>
+      </c>
+      <c r="C381" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D381" s="89" t="s">
+      <c r="D381" s="98" t="s">
         <v>1265</v>
       </c>
-      <c r="E381" s="90" t="s">
+      <c r="E381" s="100" t="s">
         <v>1256</v>
       </c>
-      <c r="F381" s="89" t="s">
+      <c r="F381" s="98" t="s">
         <v>1257</v>
       </c>
-      <c r="G381" s="88">
+      <c r="G381" s="97">
         <v>21328</v>
       </c>
-      <c r="H381" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I381" s="88">
-        <v>1</v>
-      </c>
-      <c r="J381" s="88">
+      <c r="H381" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I381" s="97">
+        <v>1</v>
+      </c>
+      <c r="J381" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K381" s="88">
+      <c r="K381" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L381" s="88">
+      <c r="L381" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="382" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A382" s="88">
+    <row r="382" spans="1:12" s="97" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A382" s="97">
         <v>21329</v>
       </c>
-      <c r="B382" s="88">
-        <v>1</v>
-      </c>
-      <c r="C382" s="89" t="s">
+      <c r="B382" s="97">
+        <v>1</v>
+      </c>
+      <c r="C382" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D382" s="89" t="s">
+      <c r="D382" s="98" t="s">
         <v>1266</v>
       </c>
-      <c r="E382" s="90" t="s">
+      <c r="E382" s="100" t="s">
         <v>1256</v>
       </c>
-      <c r="F382" s="89" t="s">
+      <c r="F382" s="98" t="s">
         <v>1257</v>
       </c>
-      <c r="G382" s="88">
+      <c r="G382" s="97">
         <v>21329</v>
       </c>
-      <c r="H382" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I382" s="88">
-        <v>1</v>
-      </c>
-      <c r="J382" s="88">
+      <c r="H382" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I382" s="97">
+        <v>1</v>
+      </c>
+      <c r="J382" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K382" s="88">
+      <c r="K382" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L382" s="88">
+      <c r="L382" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="383" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A383" s="88">
+    <row r="383" spans="1:12" s="97" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A383" s="97">
         <v>21330</v>
       </c>
-      <c r="B383" s="88">
-        <v>1</v>
-      </c>
-      <c r="C383" s="89" t="s">
+      <c r="B383" s="97">
+        <v>1</v>
+      </c>
+      <c r="C383" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D383" s="89" t="s">
+      <c r="D383" s="98" t="s">
         <v>1267</v>
       </c>
-      <c r="E383" s="90" t="s">
+      <c r="E383" s="100" t="s">
         <v>1256</v>
       </c>
-      <c r="F383" s="89" t="s">
+      <c r="F383" s="98" t="s">
         <v>1257</v>
       </c>
-      <c r="G383" s="88">
+      <c r="G383" s="97">
         <v>21330</v>
       </c>
-      <c r="H383" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I383" s="88">
-        <v>1</v>
-      </c>
-      <c r="J383" s="88">
+      <c r="H383" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I383" s="97">
+        <v>1</v>
+      </c>
+      <c r="J383" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K383" s="88">
+      <c r="K383" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L383" s="88">
+      <c r="L383" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="384" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="91">
+    <row r="384" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="97">
         <v>21331</v>
       </c>
-      <c r="B384" s="91">
-        <v>1</v>
-      </c>
-      <c r="C384" s="92" t="s">
+      <c r="B384" s="97">
+        <v>1</v>
+      </c>
+      <c r="C384" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D384" s="92" t="s">
+      <c r="D384" s="98" t="s">
         <v>1309</v>
       </c>
-      <c r="E384" s="92" t="s">
+      <c r="E384" s="98" t="s">
         <v>1259</v>
       </c>
-      <c r="F384" s="92" t="s">
+      <c r="F384" s="98" t="s">
         <v>1257</v>
       </c>
-      <c r="G384" s="91">
+      <c r="G384" s="97">
         <v>21331</v>
       </c>
-      <c r="H384" s="91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I384" s="91">
-        <v>1</v>
-      </c>
-      <c r="J384" s="91">
+      <c r="H384" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I384" s="97">
+        <v>1</v>
+      </c>
+      <c r="J384" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K384" s="91">
+      <c r="K384" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L384" s="91">
+      <c r="L384" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="385" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="91">
+    <row r="385" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="97">
         <v>21332</v>
       </c>
-      <c r="B385" s="91">
-        <v>1</v>
-      </c>
-      <c r="C385" s="92" t="s">
+      <c r="B385" s="97">
+        <v>1</v>
+      </c>
+      <c r="C385" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D385" s="92" t="s">
+      <c r="D385" s="98" t="s">
         <v>1310</v>
       </c>
-      <c r="E385" s="92" t="s">
+      <c r="E385" s="98" t="s">
         <v>1259</v>
       </c>
-      <c r="F385" s="92" t="s">
+      <c r="F385" s="98" t="s">
         <v>855</v>
       </c>
-      <c r="G385" s="91">
+      <c r="G385" s="97">
         <v>21332</v>
       </c>
-      <c r="H385" s="91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I385" s="91">
-        <v>1</v>
-      </c>
-      <c r="J385" s="91">
+      <c r="H385" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I385" s="97">
+        <v>1</v>
+      </c>
+      <c r="J385" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K385" s="91">
+      <c r="K385" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L385" s="91">
+      <c r="L385" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="386" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="91">
+    <row r="386" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="97">
         <v>21333</v>
       </c>
-      <c r="B386" s="91">
-        <v>1</v>
-      </c>
-      <c r="C386" s="92" t="s">
+      <c r="B386" s="97">
+        <v>1</v>
+      </c>
+      <c r="C386" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D386" s="92" t="s">
+      <c r="D386" s="98" t="s">
         <v>1335</v>
       </c>
-      <c r="E386" s="92" t="s">
+      <c r="E386" s="98" t="s">
         <v>1259</v>
       </c>
-      <c r="F386" s="92" t="s">
+      <c r="F386" s="98" t="s">
         <v>1257</v>
       </c>
-      <c r="G386" s="91">
+      <c r="G386" s="97">
         <v>21333</v>
       </c>
-      <c r="H386" s="91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I386" s="91">
-        <v>1</v>
-      </c>
-      <c r="J386" s="91">
+      <c r="H386" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I386" s="97">
+        <v>1</v>
+      </c>
+      <c r="J386" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K386" s="91">
+      <c r="K386" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L386" s="91">
+      <c r="L386" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="387" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="91">
+    <row r="387" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="97">
         <v>21334</v>
       </c>
-      <c r="B387" s="91">
-        <v>1</v>
-      </c>
-      <c r="C387" s="92" t="s">
+      <c r="B387" s="97">
+        <v>1</v>
+      </c>
+      <c r="C387" s="98" t="s">
         <v>1245</v>
       </c>
-      <c r="D387" s="92" t="s">
+      <c r="D387" s="98" t="s">
         <v>1311</v>
       </c>
-      <c r="E387" s="92" t="s">
+      <c r="E387" s="98" t="s">
         <v>1259</v>
       </c>
-      <c r="F387" s="92" t="s">
+      <c r="F387" s="98" t="s">
         <v>1257</v>
       </c>
-      <c r="G387" s="91">
+      <c r="G387" s="97">
         <v>21334</v>
       </c>
-      <c r="H387" s="91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I387" s="91">
-        <v>1</v>
-      </c>
-      <c r="J387" s="91">
+      <c r="H387" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I387" s="97">
+        <v>1</v>
+      </c>
+      <c r="J387" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K387" s="91">
+      <c r="K387" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L387" s="91">
+      <c r="L387" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="388" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="91">
+    <row r="388" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="97">
         <v>21335</v>
       </c>
-      <c r="B388" s="91">
-        <v>1</v>
-      </c>
-      <c r="C388" s="92" t="s">
+      <c r="B388" s="97">
+        <v>1</v>
+      </c>
+      <c r="C388" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D388" s="92" t="s">
+      <c r="D388" s="98" t="s">
         <v>1312</v>
       </c>
-      <c r="E388" s="92" t="s">
+      <c r="E388" s="98" t="s">
         <v>1259</v>
       </c>
-      <c r="F388" s="92" t="s">
+      <c r="F388" s="98" t="s">
         <v>1257</v>
       </c>
-      <c r="G388" s="91">
+      <c r="G388" s="97">
         <v>21335</v>
       </c>
-      <c r="H388" s="91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I388" s="91">
-        <v>1</v>
-      </c>
-      <c r="J388" s="91">
+      <c r="H388" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I388" s="97">
+        <v>1</v>
+      </c>
+      <c r="J388" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K388" s="91">
+      <c r="K388" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L388" s="91">
+      <c r="L388" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="389" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="91">
+    <row r="389" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="97">
         <v>21336</v>
       </c>
-      <c r="B389" s="91">
-        <v>1</v>
-      </c>
-      <c r="C389" s="92" t="s">
+      <c r="B389" s="97">
+        <v>1</v>
+      </c>
+      <c r="C389" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D389" s="92" t="s">
+      <c r="D389" s="98" t="s">
         <v>1313</v>
       </c>
-      <c r="E389" s="92" t="s">
+      <c r="E389" s="98" t="s">
         <v>1259</v>
       </c>
-      <c r="F389" s="92" t="s">
+      <c r="F389" s="98" t="s">
         <v>855</v>
       </c>
-      <c r="G389" s="91">
+      <c r="G389" s="97">
         <v>21336</v>
       </c>
-      <c r="H389" s="91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I389" s="91">
-        <v>1</v>
-      </c>
-      <c r="J389" s="91">
+      <c r="H389" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I389" s="97">
+        <v>1</v>
+      </c>
+      <c r="J389" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K389" s="91">
+      <c r="K389" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L389" s="91">
+      <c r="L389" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="390" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="91">
+    <row r="390" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="97">
         <v>21337</v>
       </c>
-      <c r="B390" s="91">
-        <v>1</v>
-      </c>
-      <c r="C390" s="92" t="s">
+      <c r="B390" s="97">
+        <v>1</v>
+      </c>
+      <c r="C390" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D390" s="92" t="s">
+      <c r="D390" s="98" t="s">
         <v>1314</v>
       </c>
-      <c r="E390" s="92" t="s">
+      <c r="E390" s="98" t="s">
         <v>1259</v>
       </c>
-      <c r="F390" s="92" t="s">
+      <c r="F390" s="98" t="s">
         <v>1257</v>
       </c>
-      <c r="G390" s="91">
+      <c r="G390" s="97">
         <v>21337</v>
       </c>
-      <c r="H390" s="91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I390" s="91">
-        <v>1</v>
-      </c>
-      <c r="J390" s="91">
+      <c r="H390" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I390" s="97">
+        <v>1</v>
+      </c>
+      <c r="J390" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K390" s="91">
+      <c r="K390" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L390" s="91">
+      <c r="L390" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="391" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="91">
+    <row r="391" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="97">
         <v>21338</v>
       </c>
-      <c r="B391" s="91">
-        <v>1</v>
-      </c>
-      <c r="C391" s="92" t="s">
+      <c r="B391" s="97">
+        <v>1</v>
+      </c>
+      <c r="C391" s="98" t="s">
         <v>1245</v>
       </c>
-      <c r="D391" s="92" t="s">
+      <c r="D391" s="98" t="s">
         <v>1315</v>
       </c>
-      <c r="E391" s="92" t="s">
+      <c r="E391" s="98" t="s">
         <v>1259</v>
       </c>
-      <c r="F391" s="92" t="s">
+      <c r="F391" s="98" t="s">
         <v>1257</v>
       </c>
-      <c r="G391" s="91">
+      <c r="G391" s="97">
         <v>21338</v>
       </c>
-      <c r="H391" s="91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I391" s="91">
-        <v>1</v>
-      </c>
-      <c r="J391" s="91">
+      <c r="H391" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I391" s="97">
+        <v>1</v>
+      </c>
+      <c r="J391" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K391" s="91">
+      <c r="K391" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L391" s="91">
+      <c r="L391" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="392" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="91">
+    <row r="392" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="97">
         <v>21339</v>
       </c>
-      <c r="B392" s="91">
-        <v>1</v>
-      </c>
-      <c r="C392" s="92" t="s">
+      <c r="B392" s="97">
+        <v>1</v>
+      </c>
+      <c r="C392" s="98" t="s">
         <v>1245</v>
       </c>
-      <c r="D392" s="92" t="s">
+      <c r="D392" s="98" t="s">
         <v>1316</v>
       </c>
-      <c r="E392" s="92" t="s">
+      <c r="E392" s="98" t="s">
         <v>1258</v>
       </c>
-      <c r="F392" s="92" t="s">
+      <c r="F392" s="98" t="s">
         <v>1257</v>
       </c>
-      <c r="G392" s="91">
+      <c r="G392" s="97">
         <v>21339</v>
       </c>
-      <c r="H392" s="91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I392" s="91">
-        <v>1</v>
-      </c>
-      <c r="J392" s="91">
+      <c r="H392" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I392" s="97">
+        <v>1</v>
+      </c>
+      <c r="J392" s="97">
         <v>1592236800</v>
       </c>
-      <c r="K392" s="91">
+      <c r="K392" s="97">
         <v>32503651200</v>
       </c>
-      <c r="L392" s="91">
+      <c r="L392" s="97">
         <v>-1</v>
       </c>
     </row>
-    <row r="393" spans="1:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="12">
+    <row r="393" spans="1:12" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="97">
         <v>21340</v>
       </c>
-      <c r="B393" s="12">
-        <v>1</v>
-      </c>
-      <c r="C393" s="16" t="s">
+      <c r="B393" s="97">
+        <v>1</v>
+      </c>
+      <c r="C393" s="98" t="s">
         <v>1322</v>
       </c>
-      <c r="D393" s="12" t="s">
+      <c r="D393" s="97" t="s">
         <v>1323</v>
       </c>
-      <c r="E393" s="99" t="s">
+      <c r="E393" s="100" t="s">
         <v>1324</v>
       </c>
-      <c r="F393" s="16" t="s">
+      <c r="F393" s="98" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G393" s="97">
+        <v>21340</v>
+      </c>
+      <c r="H393" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I393" s="97">
+        <v>1</v>
+      </c>
+      <c r="J393" s="97">
+        <v>1588003200</v>
+      </c>
+      <c r="K393" s="97">
+        <v>32503651200</v>
+      </c>
+      <c r="L393" s="97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="97">
+        <v>21341</v>
+      </c>
+      <c r="B394" s="97">
+        <v>1</v>
+      </c>
+      <c r="C394" s="98" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D394" s="98" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E394" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F394" s="98" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G394" s="97">
+        <v>21341</v>
+      </c>
+      <c r="H394" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I394" s="97">
+        <v>1</v>
+      </c>
+      <c r="J394" s="97">
+        <v>1588003200</v>
+      </c>
+      <c r="K394" s="97">
+        <v>32503651200</v>
+      </c>
+      <c r="L394" s="97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="101">
+        <v>21342</v>
+      </c>
+      <c r="B395" s="101">
+        <v>1</v>
+      </c>
+      <c r="C395" s="102" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D395" s="102" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E395" s="102" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F395" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="G393" s="12">
-        <v>21340</v>
-      </c>
-      <c r="H393" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I393" s="12">
-        <v>1</v>
-      </c>
-      <c r="J393" s="12">
-        <v>1588003200</v>
-      </c>
-      <c r="K393" s="12">
-        <v>32503651200</v>
-      </c>
-      <c r="L393" s="12">
+      <c r="G395" s="101">
+        <v>21342</v>
+      </c>
+      <c r="H395" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I395" s="101">
+        <v>1</v>
+      </c>
+      <c r="J395" s="101">
+        <v>1597075200</v>
+      </c>
+      <c r="K395" s="101">
+        <v>1597679999</v>
+      </c>
+      <c r="L395" s="101">
         <v>-1</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A394" s="12">
-        <v>21341</v>
-      </c>
-      <c r="B394" s="7">
-        <v>1</v>
-      </c>
-      <c r="C394" s="49" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D394" s="49" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E394" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F394" s="49" t="s">
-        <v>1360</v>
-      </c>
-      <c r="G394" s="12">
-        <v>21341</v>
-      </c>
-      <c r="H394" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I394" s="12">
-        <v>1</v>
-      </c>
-      <c r="J394" s="12">
-        <v>1588003200</v>
-      </c>
-      <c r="K394" s="12">
-        <v>32503651200</v>
-      </c>
-      <c r="L394" s="12">
+    <row r="396" spans="1:12" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="101">
+        <v>21343</v>
+      </c>
+      <c r="B396" s="101">
+        <v>1</v>
+      </c>
+      <c r="C396" s="102" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D396" s="102" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E396" s="102" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F396" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G396" s="101">
+        <v>21343</v>
+      </c>
+      <c r="H396" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I396" s="101">
+        <v>1</v>
+      </c>
+      <c r="J396" s="101">
+        <v>1597075200</v>
+      </c>
+      <c r="K396" s="101">
+        <v>1597679999</v>
+      </c>
+      <c r="L396" s="101">
         <v>-1</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A395" s="12"/>
+    <row r="397" spans="1:12" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="101">
+        <v>21344</v>
+      </c>
+      <c r="B397" s="101">
+        <v>1</v>
+      </c>
+      <c r="C397" s="102" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D397" s="102" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E397" s="102" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F397" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G397" s="101">
+        <v>21344</v>
+      </c>
+      <c r="H397" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I397" s="101">
+        <v>1</v>
+      </c>
+      <c r="J397" s="101">
+        <v>1597075200</v>
+      </c>
+      <c r="K397" s="101">
+        <v>1597679999</v>
+      </c>
+      <c r="L397" s="101">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="101">
+        <v>21345</v>
+      </c>
+      <c r="B398" s="101">
+        <v>1</v>
+      </c>
+      <c r="C398" s="102" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D398" s="102" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E398" s="102" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F398" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G398" s="101">
+        <v>21345</v>
+      </c>
+      <c r="H398" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I398" s="101">
+        <v>1</v>
+      </c>
+      <c r="J398" s="101">
+        <v>1597075200</v>
+      </c>
+      <c r="K398" s="101">
+        <v>1597679999</v>
+      </c>
+      <c r="L398" s="101">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="101">
+        <v>21346</v>
+      </c>
+      <c r="B399" s="101">
+        <v>1</v>
+      </c>
+      <c r="C399" s="102" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D399" s="102" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E399" s="102" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F399" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G399" s="101">
+        <v>21346</v>
+      </c>
+      <c r="H399" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I399" s="101">
+        <v>1</v>
+      </c>
+      <c r="J399" s="101">
+        <v>1597075200</v>
+      </c>
+      <c r="K399" s="101">
+        <v>1597679999</v>
+      </c>
+      <c r="L399" s="101">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="103">
+        <v>21347</v>
+      </c>
+      <c r="B400" s="103">
+        <v>1</v>
+      </c>
+      <c r="C400" s="103" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D400" s="104" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E400" s="104" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F400" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G400" s="103">
+        <v>21347</v>
+      </c>
+      <c r="H400" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I400" s="103">
+        <v>1</v>
+      </c>
+      <c r="J400" s="103">
+        <v>1597075200</v>
+      </c>
+      <c r="K400" s="103">
+        <v>1597679999</v>
+      </c>
+      <c r="L400" s="103">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="103">
+        <v>21348</v>
+      </c>
+      <c r="B401" s="103">
+        <v>1</v>
+      </c>
+      <c r="C401" s="103" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D401" s="104" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E401" s="104" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F401" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G401" s="103">
+        <v>21348</v>
+      </c>
+      <c r="H401" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I401" s="103">
+        <v>1</v>
+      </c>
+      <c r="J401" s="103">
+        <v>1597075200</v>
+      </c>
+      <c r="K401" s="103">
+        <v>1597679999</v>
+      </c>
+      <c r="L401" s="103">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="103">
+        <v>21349</v>
+      </c>
+      <c r="B402" s="103">
+        <v>1</v>
+      </c>
+      <c r="C402" s="103" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D402" s="104" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E402" s="104" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F402" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G402" s="103">
+        <v>21349</v>
+      </c>
+      <c r="H402" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I402" s="103">
+        <v>1</v>
+      </c>
+      <c r="J402" s="103">
+        <v>1597075200</v>
+      </c>
+      <c r="K402" s="103">
+        <v>1597679999</v>
+      </c>
+      <c r="L402" s="103">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="103">
+        <v>21350</v>
+      </c>
+      <c r="B403" s="103">
+        <v>1</v>
+      </c>
+      <c r="C403" s="104" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D403" s="104" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E403" s="104" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F403" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G403" s="103">
+        <v>21350</v>
+      </c>
+      <c r="H403" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I403" s="103">
+        <v>1</v>
+      </c>
+      <c r="J403" s="103">
+        <v>1597075200</v>
+      </c>
+      <c r="K403" s="103">
+        <v>1597679999</v>
+      </c>
+      <c r="L403" s="103">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A404" s="7">
+        <v>21351</v>
+      </c>
+      <c r="B404" s="7">
+        <v>1</v>
+      </c>
+      <c r="C404" s="49" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D404" s="49" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E404" s="49" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F404" s="49" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G404" s="7">
+        <v>21351</v>
+      </c>
+      <c r="H404" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I404" s="7">
+        <v>1</v>
+      </c>
+      <c r="J404" s="7">
+        <v>1597075200</v>
+      </c>
+      <c r="K404" s="7">
+        <v>1597679999</v>
+      </c>
+      <c r="L404" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A405" s="7">
+        <v>21352</v>
+      </c>
+      <c r="B405" s="7">
+        <v>1</v>
+      </c>
+      <c r="C405" s="49" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D405" s="49" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E405" s="49" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F405" s="49" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G405" s="7">
+        <v>21352</v>
+      </c>
+      <c r="H405" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I405" s="7">
+        <v>1</v>
+      </c>
+      <c r="J405" s="7">
+        <v>1597075200</v>
+      </c>
+      <c r="K405" s="7">
+        <v>1597679999</v>
+      </c>
+      <c r="L405" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A406" s="7">
+        <v>21353</v>
+      </c>
+      <c r="B406" s="7">
+        <v>1</v>
+      </c>
+      <c r="C406" s="49" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D406" s="49" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E406" s="49" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F406" s="49" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G406" s="7">
+        <v>21353</v>
+      </c>
+      <c r="H406" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I406" s="7">
+        <v>1</v>
+      </c>
+      <c r="J406" s="7">
+        <v>1597075200</v>
+      </c>
+      <c r="K406" s="7">
+        <v>1597679999</v>
+      </c>
+      <c r="L406" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A407" s="7">
+        <v>21354</v>
+      </c>
+      <c r="B407" s="7">
+        <v>1</v>
+      </c>
+      <c r="C407" s="49" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D407" s="49" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E407" s="49" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F407" s="49" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G407" s="7">
+        <v>21354</v>
+      </c>
+      <c r="H407" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I407" s="7">
+        <v>1</v>
+      </c>
+      <c r="J407" s="7">
+        <v>1597075200</v>
+      </c>
+      <c r="K407" s="7">
+        <v>1597679999</v>
+      </c>
+      <c r="L407" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A408" s="7">
+        <v>21355</v>
+      </c>
+      <c r="B408" s="7">
+        <v>1</v>
+      </c>
+      <c r="C408" s="49" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D408" s="49" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E408" s="49" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F408" s="49" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G408" s="7">
+        <v>21355</v>
+      </c>
+      <c r="H408" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I408" s="7">
+        <v>1</v>
+      </c>
+      <c r="J408" s="7">
+        <v>1597075200</v>
+      </c>
+      <c r="K408" s="7">
+        <v>1597679999</v>
+      </c>
+      <c r="L408" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A409" s="7">
+        <v>21356</v>
+      </c>
+      <c r="B409" s="7">
+        <v>1</v>
+      </c>
+      <c r="C409" s="49" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D409" s="49" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E409" s="49" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F409" s="49" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G409" s="7">
+        <v>21356</v>
+      </c>
+      <c r="H409" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I409" s="7">
+        <v>1</v>
+      </c>
+      <c r="J409" s="7">
+        <v>1597075200</v>
+      </c>
+      <c r="K409" s="7">
+        <v>1597679999</v>
+      </c>
+      <c r="L409" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A410" s="7">
+        <v>21357</v>
+      </c>
+      <c r="B410" s="7">
+        <v>1</v>
+      </c>
+      <c r="C410" s="49" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D410" s="49" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E410" s="49" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F410" s="49" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G410" s="7">
+        <v>21357</v>
+      </c>
+      <c r="H410" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I410" s="7">
+        <v>1</v>
+      </c>
+      <c r="J410" s="7">
+        <v>1597075200</v>
+      </c>
+      <c r="K410" s="7">
+        <v>1597679999</v>
+      </c>
+      <c r="L410" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A411" s="7">
+        <v>21358</v>
+      </c>
+      <c r="B411" s="7">
+        <v>1</v>
+      </c>
+      <c r="C411" s="49" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D411" s="49" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E411" s="49" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F411" s="49" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G411" s="7">
+        <v>21358</v>
+      </c>
+      <c r="H411" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I411" s="7">
+        <v>1</v>
+      </c>
+      <c r="J411" s="7">
+        <v>1597075200</v>
+      </c>
+      <c r="K411" s="7">
+        <v>1597679999</v>
+      </c>
+      <c r="L411" s="7">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B367"/>
@@ -24113,13 +25045,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K399"/>
+  <dimension ref="A1:K411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C382" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F394" sqref="F394"/>
+      <selection pane="bottomRight" activeCell="D408" sqref="D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29310,7 +30242,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="82" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G193" s="79"/>
       <c r="H193" s="83" t="s">
@@ -29335,7 +30267,7 @@
         <v>0</v>
       </c>
       <c r="F194" s="82" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G194" s="79"/>
       <c r="H194" s="83" t="s">
@@ -29360,7 +30292,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="82" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G195" s="79"/>
       <c r="H195" s="83" t="s">
@@ -29385,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="82" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G196" s="79"/>
       <c r="H196" s="83" t="s">
@@ -29410,7 +30342,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="82" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G197" s="79"/>
       <c r="H197" s="83" t="s">
@@ -33692,580 +34624,580 @@
         <v>387</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A368" s="10">
+    <row r="368" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="11">
         <v>367</v>
       </c>
-      <c r="B368" s="9">
+      <c r="B368" s="12">
         <v>21315</v>
       </c>
-      <c r="C368" s="10"/>
-      <c r="D368" s="10">
+      <c r="C368" s="11"/>
+      <c r="D368" s="11">
         <v>367</v>
       </c>
-      <c r="E368" s="10"/>
-      <c r="F368" s="82" t="s">
+      <c r="E368" s="11"/>
+      <c r="F368" s="40" t="s">
         <v>1226</v>
       </c>
-      <c r="G368" s="79"/>
-      <c r="H368" s="83" t="s">
+      <c r="G368" s="35"/>
+      <c r="H368" s="15" t="s">
         <v>1231</v>
       </c>
-      <c r="I368" s="19" t="s">
+      <c r="I368" s="13" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A369" s="19">
+    <row r="369" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="13">
         <v>368</v>
       </c>
-      <c r="B369" s="9">
+      <c r="B369" s="12">
         <v>21316</v>
       </c>
-      <c r="C369" s="10"/>
-      <c r="D369" s="10">
+      <c r="C369" s="11"/>
+      <c r="D369" s="11">
         <v>368</v>
       </c>
-      <c r="E369" s="10"/>
-      <c r="F369" s="82" t="s">
+      <c r="E369" s="11"/>
+      <c r="F369" s="40" t="s">
         <v>1227</v>
       </c>
-      <c r="G369" s="79"/>
-      <c r="H369" s="83" t="s">
+      <c r="G369" s="35"/>
+      <c r="H369" s="15" t="s">
         <v>1232</v>
       </c>
-      <c r="I369" s="19" t="s">
+      <c r="I369" s="13" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A370" s="10">
+    <row r="370" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="11">
         <v>369</v>
       </c>
-      <c r="B370" s="9">
+      <c r="B370" s="12">
         <v>21317</v>
       </c>
-      <c r="C370" s="10"/>
-      <c r="D370" s="10">
+      <c r="C370" s="11"/>
+      <c r="D370" s="11">
         <v>369</v>
       </c>
-      <c r="E370" s="10"/>
-      <c r="F370" s="82" t="s">
+      <c r="E370" s="11"/>
+      <c r="F370" s="40" t="s">
         <v>1228</v>
       </c>
-      <c r="G370" s="79"/>
-      <c r="H370" s="83" t="s">
+      <c r="G370" s="35"/>
+      <c r="H370" s="15" t="s">
         <v>1233</v>
       </c>
-      <c r="I370" s="19" t="s">
+      <c r="I370" s="13" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A371" s="10">
+    <row r="371" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="11">
         <v>370</v>
       </c>
-      <c r="B371" s="9">
+      <c r="B371" s="12">
         <v>21318</v>
       </c>
-      <c r="C371" s="10"/>
-      <c r="D371" s="10">
+      <c r="C371" s="11"/>
+      <c r="D371" s="11">
         <v>370</v>
       </c>
-      <c r="E371" s="10"/>
-      <c r="F371" s="82" t="s">
+      <c r="E371" s="11"/>
+      <c r="F371" s="40" t="s">
         <v>1229</v>
       </c>
-      <c r="G371" s="79"/>
-      <c r="H371" s="83" t="s">
+      <c r="G371" s="35"/>
+      <c r="H371" s="15" t="s">
         <v>1230</v>
       </c>
-      <c r="I371" s="19" t="s">
+      <c r="I371" s="13" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="372" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="93">
+    <row r="372" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="11">
         <v>371</v>
       </c>
-      <c r="B372" s="91">
+      <c r="B372" s="12">
         <v>21319</v>
       </c>
-      <c r="C372" s="93"/>
-      <c r="D372" s="93">
+      <c r="C372" s="11"/>
+      <c r="D372" s="11">
         <v>68</v>
       </c>
-      <c r="E372" s="93"/>
-      <c r="F372" s="94" t="s">
+      <c r="E372" s="11"/>
+      <c r="F372" s="40" t="s">
         <v>1268</v>
       </c>
-      <c r="G372" s="95"/>
-      <c r="H372" s="96" t="s">
+      <c r="G372" s="35"/>
+      <c r="H372" s="15" t="s">
         <v>1286</v>
       </c>
-      <c r="I372" s="97" t="s">
+      <c r="I372" s="13" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="373" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="93">
+    <row r="373" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="11">
         <v>372</v>
       </c>
-      <c r="B373" s="91">
+      <c r="B373" s="12">
         <v>21320</v>
       </c>
-      <c r="C373" s="93"/>
-      <c r="D373" s="93"/>
-      <c r="E373" s="93"/>
-      <c r="F373" s="94" t="s">
+      <c r="C373" s="11"/>
+      <c r="D373" s="11"/>
+      <c r="E373" s="11"/>
+      <c r="F373" s="40" t="s">
         <v>1270</v>
       </c>
-      <c r="G373" s="95"/>
-      <c r="H373" s="96"/>
-      <c r="I373" s="97" t="s">
+      <c r="G373" s="35"/>
+      <c r="H373" s="15"/>
+      <c r="I373" s="13" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="374" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="93">
+    <row r="374" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="11">
         <v>373</v>
       </c>
-      <c r="B374" s="91">
+      <c r="B374" s="12">
         <v>21321</v>
       </c>
-      <c r="C374" s="93"/>
-      <c r="D374" s="93"/>
-      <c r="E374" s="93"/>
-      <c r="F374" s="94" t="s">
+      <c r="C374" s="11"/>
+      <c r="D374" s="11"/>
+      <c r="E374" s="11"/>
+      <c r="F374" s="40" t="s">
         <v>1272</v>
       </c>
-      <c r="G374" s="95"/>
-      <c r="H374" s="96"/>
-      <c r="I374" s="97" t="s">
+      <c r="G374" s="35"/>
+      <c r="H374" s="15"/>
+      <c r="I374" s="13" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="375" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="93">
+    <row r="375" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="11">
         <v>374</v>
       </c>
-      <c r="B375" s="91">
+      <c r="B375" s="12">
         <v>21322</v>
       </c>
-      <c r="C375" s="93"/>
-      <c r="D375" s="93">
+      <c r="C375" s="11"/>
+      <c r="D375" s="11">
         <v>371</v>
       </c>
-      <c r="E375" s="93"/>
-      <c r="F375" s="94" t="s">
+      <c r="E375" s="11"/>
+      <c r="F375" s="40" t="s">
         <v>1283</v>
       </c>
-      <c r="G375" s="95"/>
-      <c r="H375" s="96" t="s">
+      <c r="G375" s="35"/>
+      <c r="H375" s="15" t="s">
         <v>1287</v>
       </c>
-      <c r="I375" s="97" t="s">
+      <c r="I375" s="13" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="376" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="93">
+    <row r="376" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="11">
         <v>375</v>
       </c>
-      <c r="B376" s="91">
+      <c r="B376" s="12">
         <v>21323</v>
       </c>
-      <c r="C376" s="93"/>
-      <c r="D376" s="93">
+      <c r="C376" s="11"/>
+      <c r="D376" s="11">
         <v>372</v>
       </c>
-      <c r="E376" s="93"/>
-      <c r="F376" s="94" t="s">
+      <c r="E376" s="11"/>
+      <c r="F376" s="40" t="s">
         <v>1284</v>
       </c>
-      <c r="G376" s="95"/>
-      <c r="H376" s="96" t="s">
+      <c r="G376" s="35"/>
+      <c r="H376" s="15" t="s">
         <v>1287</v>
       </c>
-      <c r="I376" s="97" t="s">
+      <c r="I376" s="13" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="377" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="93">
+    <row r="377" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="11">
         <v>376</v>
       </c>
-      <c r="B377" s="91">
+      <c r="B377" s="12">
         <v>21324</v>
       </c>
-      <c r="C377" s="93"/>
-      <c r="D377" s="93">
+      <c r="C377" s="11"/>
+      <c r="D377" s="11">
         <v>373</v>
       </c>
-      <c r="E377" s="93"/>
-      <c r="F377" s="94" t="s">
+      <c r="E377" s="11"/>
+      <c r="F377" s="40" t="s">
         <v>1284</v>
       </c>
-      <c r="G377" s="95"/>
-      <c r="H377" s="96" t="s">
+      <c r="G377" s="35"/>
+      <c r="H377" s="15" t="s">
         <v>1287</v>
       </c>
-      <c r="I377" s="97" t="s">
+      <c r="I377" s="13" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="378" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="93">
+    <row r="378" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="11">
         <v>377</v>
       </c>
-      <c r="B378" s="91">
+      <c r="B378" s="12">
         <v>21325</v>
       </c>
-      <c r="C378" s="93"/>
-      <c r="D378" s="93">
+      <c r="C378" s="11"/>
+      <c r="D378" s="11">
         <v>374</v>
       </c>
-      <c r="E378" s="93"/>
-      <c r="F378" s="94" t="s">
+      <c r="E378" s="11"/>
+      <c r="F378" s="40" t="s">
         <v>1285</v>
       </c>
-      <c r="G378" s="95"/>
-      <c r="H378" s="96" t="s">
+      <c r="G378" s="35"/>
+      <c r="H378" s="15" t="s">
         <v>1287</v>
       </c>
-      <c r="I378" s="97" t="s">
+      <c r="I378" s="13" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="379" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="93">
+    <row r="379" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="11">
         <v>378</v>
       </c>
-      <c r="B379" s="91">
+      <c r="B379" s="12">
         <v>21326</v>
       </c>
-      <c r="C379" s="93"/>
-      <c r="D379" s="93">
+      <c r="C379" s="11"/>
+      <c r="D379" s="11">
         <v>375</v>
       </c>
-      <c r="E379" s="93"/>
-      <c r="F379" s="94" t="s">
+      <c r="E379" s="11"/>
+      <c r="F379" s="40" t="s">
         <v>1285</v>
       </c>
-      <c r="G379" s="95"/>
-      <c r="H379" s="96" t="s">
+      <c r="G379" s="35"/>
+      <c r="H379" s="15" t="s">
         <v>1287</v>
       </c>
-      <c r="I379" s="97" t="s">
+      <c r="I379" s="13" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="380" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="93">
+    <row r="380" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="11">
         <v>379</v>
       </c>
-      <c r="B380" s="91">
+      <c r="B380" s="12">
         <v>21327</v>
       </c>
-      <c r="C380" s="93"/>
-      <c r="D380" s="93">
+      <c r="C380" s="11"/>
+      <c r="D380" s="11">
         <v>376</v>
       </c>
-      <c r="E380" s="93"/>
-      <c r="F380" s="94" t="s">
+      <c r="E380" s="11"/>
+      <c r="F380" s="40" t="s">
         <v>1283</v>
       </c>
-      <c r="G380" s="95"/>
-      <c r="H380" s="96" t="s">
+      <c r="G380" s="35"/>
+      <c r="H380" s="15" t="s">
         <v>1287</v>
       </c>
-      <c r="I380" s="97" t="s">
+      <c r="I380" s="13" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="381" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="93">
+    <row r="381" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="11">
         <v>380</v>
       </c>
-      <c r="B381" s="91">
+      <c r="B381" s="12">
         <v>21328</v>
       </c>
-      <c r="C381" s="93"/>
-      <c r="D381" s="93">
+      <c r="C381" s="11"/>
+      <c r="D381" s="11">
         <v>377</v>
       </c>
-      <c r="E381" s="93"/>
-      <c r="F381" s="94" t="s">
+      <c r="E381" s="11"/>
+      <c r="F381" s="40" t="s">
         <v>1284</v>
       </c>
-      <c r="G381" s="95"/>
-      <c r="H381" s="96" t="s">
+      <c r="G381" s="35"/>
+      <c r="H381" s="15" t="s">
         <v>1287</v>
       </c>
-      <c r="I381" s="97" t="s">
+      <c r="I381" s="13" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="382" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="93">
+    <row r="382" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="11">
         <v>381</v>
       </c>
-      <c r="B382" s="91">
+      <c r="B382" s="12">
         <v>21329</v>
       </c>
-      <c r="C382" s="93"/>
-      <c r="D382" s="93">
+      <c r="C382" s="11"/>
+      <c r="D382" s="11">
         <v>378</v>
       </c>
-      <c r="E382" s="93"/>
-      <c r="F382" s="94" t="s">
+      <c r="E382" s="11"/>
+      <c r="F382" s="40" t="s">
         <v>1284</v>
       </c>
-      <c r="G382" s="95"/>
-      <c r="H382" s="96" t="s">
+      <c r="G382" s="35"/>
+      <c r="H382" s="15" t="s">
         <v>1287</v>
       </c>
-      <c r="I382" s="97" t="s">
+      <c r="I382" s="13" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="383" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="93">
+    <row r="383" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="11">
         <v>382</v>
       </c>
-      <c r="B383" s="91">
+      <c r="B383" s="12">
         <v>21330</v>
       </c>
-      <c r="C383" s="93"/>
-      <c r="D383" s="93">
+      <c r="C383" s="11"/>
+      <c r="D383" s="11">
         <v>379</v>
       </c>
-      <c r="E383" s="93"/>
-      <c r="F383" s="94" t="s">
+      <c r="E383" s="11"/>
+      <c r="F383" s="40" t="s">
         <v>1284</v>
       </c>
-      <c r="G383" s="95"/>
-      <c r="H383" s="96" t="s">
+      <c r="G383" s="35"/>
+      <c r="H383" s="15" t="s">
         <v>1287</v>
       </c>
-      <c r="I383" s="97" t="s">
+      <c r="I383" s="13" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="384" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="93">
+    <row r="384" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="11">
         <v>383</v>
       </c>
-      <c r="B384" s="91">
+      <c r="B384" s="12">
         <v>21331</v>
       </c>
-      <c r="C384" s="93"/>
-      <c r="D384" s="93">
+      <c r="C384" s="11"/>
+      <c r="D384" s="11">
         <v>380</v>
       </c>
-      <c r="E384" s="93"/>
-      <c r="F384" s="94" t="s">
+      <c r="E384" s="11"/>
+      <c r="F384" s="40" t="s">
         <v>1317</v>
       </c>
-      <c r="G384" s="95"/>
-      <c r="H384" s="96" t="s">
+      <c r="G384" s="35"/>
+      <c r="H384" s="15" t="s">
         <v>1288</v>
       </c>
-      <c r="I384" s="97" t="s">
+      <c r="I384" s="13" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="385" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="93">
+    <row r="385" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="11">
         <v>384</v>
       </c>
-      <c r="B385" s="91">
+      <c r="B385" s="12">
         <v>21332</v>
       </c>
-      <c r="C385" s="93"/>
-      <c r="D385" s="93">
+      <c r="C385" s="11"/>
+      <c r="D385" s="11">
         <v>381</v>
       </c>
-      <c r="E385" s="93">
+      <c r="E385" s="11">
         <v>258</v>
       </c>
-      <c r="F385" s="94" t="s">
+      <c r="F385" s="40" t="s">
         <v>1280</v>
       </c>
-      <c r="G385" s="95"/>
-      <c r="H385" s="96" t="s">
+      <c r="G385" s="35"/>
+      <c r="H385" s="15" t="s">
         <v>1288</v>
       </c>
-      <c r="I385" s="97" t="s">
+      <c r="I385" s="13" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="386" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="93">
+    <row r="386" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="11">
         <v>385</v>
       </c>
-      <c r="B386" s="91">
+      <c r="B386" s="12">
         <v>21333</v>
       </c>
-      <c r="C386" s="93"/>
-      <c r="D386" s="93">
+      <c r="C386" s="11"/>
+      <c r="D386" s="11">
         <v>382</v>
       </c>
-      <c r="E386" s="93">
+      <c r="E386" s="11">
         <v>259</v>
       </c>
-      <c r="F386" s="94" t="s">
+      <c r="F386" s="40" t="s">
         <v>1280</v>
       </c>
-      <c r="G386" s="95"/>
-      <c r="H386" s="96" t="s">
+      <c r="G386" s="35"/>
+      <c r="H386" s="15" t="s">
         <v>1288</v>
       </c>
-      <c r="I386" s="97" t="s">
+      <c r="I386" s="13" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="387" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="93">
+    <row r="387" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="11">
         <v>386</v>
       </c>
-      <c r="B387" s="91">
+      <c r="B387" s="12">
         <v>21334</v>
       </c>
-      <c r="C387" s="93"/>
-      <c r="D387" s="93">
+      <c r="C387" s="11"/>
+      <c r="D387" s="11">
         <v>383</v>
       </c>
-      <c r="E387" s="93"/>
-      <c r="F387" s="94" t="s">
+      <c r="E387" s="11"/>
+      <c r="F387" s="40" t="s">
         <v>1318</v>
       </c>
-      <c r="G387" s="95"/>
-      <c r="H387" s="96" t="s">
+      <c r="G387" s="35"/>
+      <c r="H387" s="15" t="s">
         <v>1288</v>
       </c>
-      <c r="I387" s="97" t="s">
+      <c r="I387" s="13" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="388" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="93">
+    <row r="388" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="11">
         <v>387</v>
       </c>
-      <c r="B388" s="91">
+      <c r="B388" s="12">
         <v>21335</v>
       </c>
-      <c r="C388" s="93"/>
-      <c r="D388" s="93">
+      <c r="C388" s="11"/>
+      <c r="D388" s="11">
         <v>384</v>
       </c>
-      <c r="E388" s="93"/>
-      <c r="F388" s="94" t="s">
+      <c r="E388" s="11"/>
+      <c r="F388" s="40" t="s">
         <v>1318</v>
       </c>
-      <c r="G388" s="95"/>
-      <c r="H388" s="96" t="s">
+      <c r="G388" s="35"/>
+      <c r="H388" s="15" t="s">
         <v>1288</v>
       </c>
-      <c r="I388" s="97" t="s">
+      <c r="I388" s="13" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="389" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="93">
+    <row r="389" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="11">
         <v>388</v>
       </c>
-      <c r="B389" s="91">
+      <c r="B389" s="12">
         <v>21336</v>
       </c>
-      <c r="C389" s="93"/>
-      <c r="D389" s="93">
+      <c r="C389" s="11"/>
+      <c r="D389" s="11">
         <v>385</v>
       </c>
-      <c r="E389" s="93">
+      <c r="E389" s="11">
         <v>260</v>
       </c>
-      <c r="F389" s="94" t="s">
+      <c r="F389" s="40" t="s">
         <v>1280</v>
       </c>
-      <c r="G389" s="95"/>
-      <c r="H389" s="96" t="s">
+      <c r="G389" s="35"/>
+      <c r="H389" s="15" t="s">
         <v>1288</v>
       </c>
-      <c r="I389" s="97" t="s">
+      <c r="I389" s="13" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="390" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="93">
+    <row r="390" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="11">
         <v>389</v>
       </c>
-      <c r="B390" s="91">
+      <c r="B390" s="12">
         <v>21337</v>
       </c>
-      <c r="C390" s="93"/>
-      <c r="D390" s="93">
+      <c r="C390" s="11"/>
+      <c r="D390" s="11">
         <v>386</v>
       </c>
-      <c r="E390" s="93"/>
-      <c r="F390" s="94" t="s">
+      <c r="E390" s="11"/>
+      <c r="F390" s="40" t="s">
         <v>1318</v>
       </c>
-      <c r="G390" s="95"/>
-      <c r="H390" s="96" t="s">
+      <c r="G390" s="35"/>
+      <c r="H390" s="15" t="s">
         <v>1288</v>
       </c>
-      <c r="I390" s="97" t="s">
+      <c r="I390" s="13" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="391" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="93">
+    <row r="391" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="11">
         <v>390</v>
       </c>
-      <c r="B391" s="91">
+      <c r="B391" s="12">
         <v>21338</v>
       </c>
-      <c r="C391" s="93"/>
-      <c r="D391" s="93">
+      <c r="C391" s="11"/>
+      <c r="D391" s="11">
         <v>387</v>
       </c>
-      <c r="E391" s="93">
+      <c r="E391" s="11">
         <v>261</v>
       </c>
-      <c r="F391" s="94" t="s">
+      <c r="F391" s="40" t="s">
         <v>1280</v>
       </c>
-      <c r="G391" s="95"/>
-      <c r="H391" s="96" t="s">
+      <c r="G391" s="35"/>
+      <c r="H391" s="15" t="s">
         <v>1288</v>
       </c>
-      <c r="I391" s="97" t="s">
+      <c r="I391" s="13" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="392" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="93">
+    <row r="392" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="11">
         <v>391</v>
       </c>
-      <c r="B392" s="91">
+      <c r="B392" s="12">
         <v>21339</v>
       </c>
-      <c r="C392" s="93"/>
-      <c r="D392" s="93">
+      <c r="C392" s="11"/>
+      <c r="D392" s="11">
         <v>388</v>
       </c>
-      <c r="E392" s="93">
+      <c r="E392" s="11">
         <v>262</v>
       </c>
-      <c r="F392" s="94" t="s">
+      <c r="F392" s="40" t="s">
         <v>1282</v>
       </c>
-      <c r="G392" s="95"/>
-      <c r="H392" s="96" t="s">
+      <c r="G392" s="35"/>
+      <c r="H392" s="15" t="s">
         <v>1288</v>
       </c>
-      <c r="I392" s="97" t="s">
+      <c r="I392" s="13" t="s">
         <v>1273</v>
       </c>
     </row>
@@ -34282,7 +35214,7 @@
       </c>
       <c r="E393" s="11"/>
       <c r="F393" s="40" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G393" s="35"/>
       <c r="H393" s="40" t="s">
@@ -34292,28 +35224,344 @@
         <v>387</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A394" s="13">
         <v>393</v>
       </c>
       <c r="B394" s="12">
         <v>21341</v>
       </c>
-      <c r="D394" s="1">
+      <c r="C394" s="11"/>
+      <c r="D394" s="11">
         <v>390</v>
       </c>
-      <c r="E394" s="1">
+      <c r="E394" s="11">
         <v>263</v>
       </c>
-      <c r="F394" s="110" t="s">
-        <v>1369</v>
-      </c>
-      <c r="H394" s="65" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E399" s="110"/>
+      <c r="F394" s="40" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G394" s="35"/>
+      <c r="H394" s="15" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I394" s="11"/>
+    </row>
+    <row r="395" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="105">
+        <v>394</v>
+      </c>
+      <c r="B395" s="105">
+        <v>21342</v>
+      </c>
+      <c r="C395" s="106"/>
+      <c r="D395" s="105">
+        <v>391</v>
+      </c>
+      <c r="E395" s="105"/>
+      <c r="F395" s="107" t="s">
+        <v>476</v>
+      </c>
+      <c r="G395" s="108"/>
+      <c r="H395" s="109" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I395" s="106" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="105">
+        <v>395</v>
+      </c>
+      <c r="B396" s="105">
+        <v>21343</v>
+      </c>
+      <c r="C396" s="106"/>
+      <c r="D396" s="105">
+        <v>392</v>
+      </c>
+      <c r="E396" s="105"/>
+      <c r="F396" s="107" t="s">
+        <v>476</v>
+      </c>
+      <c r="G396" s="108"/>
+      <c r="H396" s="109" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I396" s="106" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="105">
+        <v>396</v>
+      </c>
+      <c r="B397" s="105">
+        <v>21344</v>
+      </c>
+      <c r="C397" s="106"/>
+      <c r="D397" s="105">
+        <v>393</v>
+      </c>
+      <c r="E397" s="105"/>
+      <c r="F397" s="107" t="s">
+        <v>476</v>
+      </c>
+      <c r="G397" s="108"/>
+      <c r="H397" s="109" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I397" s="106" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="105">
+        <v>397</v>
+      </c>
+      <c r="B398" s="105">
+        <v>21345</v>
+      </c>
+      <c r="C398" s="106"/>
+      <c r="D398" s="105">
+        <v>394</v>
+      </c>
+      <c r="E398" s="105"/>
+      <c r="F398" s="107" t="s">
+        <v>476</v>
+      </c>
+      <c r="G398" s="108"/>
+      <c r="H398" s="109" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I398" s="106" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="105">
+        <v>398</v>
+      </c>
+      <c r="B399" s="105">
+        <v>21346</v>
+      </c>
+      <c r="C399" s="106"/>
+      <c r="D399" s="105">
+        <v>395</v>
+      </c>
+      <c r="E399" s="105"/>
+      <c r="F399" s="107" t="s">
+        <v>476</v>
+      </c>
+      <c r="G399" s="108"/>
+      <c r="H399" s="109" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I399" s="106" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="105">
+        <v>399</v>
+      </c>
+      <c r="B400" s="105">
+        <v>21347</v>
+      </c>
+      <c r="C400" s="106"/>
+      <c r="D400" s="105">
+        <v>396</v>
+      </c>
+      <c r="E400" s="105"/>
+      <c r="F400" s="107" t="s">
+        <v>476</v>
+      </c>
+      <c r="G400" s="108"/>
+      <c r="H400" s="109" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I400" s="106" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="105">
+        <v>400</v>
+      </c>
+      <c r="B401" s="105">
+        <v>21348</v>
+      </c>
+      <c r="C401" s="106"/>
+      <c r="D401" s="105">
+        <v>397</v>
+      </c>
+      <c r="E401" s="105"/>
+      <c r="F401" s="107" t="s">
+        <v>476</v>
+      </c>
+      <c r="G401" s="108"/>
+      <c r="H401" s="109" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I401" s="106" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="105">
+        <v>401</v>
+      </c>
+      <c r="B402" s="105">
+        <v>21349</v>
+      </c>
+      <c r="C402" s="106"/>
+      <c r="D402" s="105">
+        <v>398</v>
+      </c>
+      <c r="E402" s="105"/>
+      <c r="F402" s="107" t="s">
+        <v>476</v>
+      </c>
+      <c r="G402" s="108"/>
+      <c r="H402" s="109" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I402" s="106" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="105">
+        <v>402</v>
+      </c>
+      <c r="B403" s="105">
+        <v>21350</v>
+      </c>
+      <c r="C403" s="106"/>
+      <c r="D403" s="105">
+        <v>399</v>
+      </c>
+      <c r="E403" s="105"/>
+      <c r="F403" s="107" t="s">
+        <v>476</v>
+      </c>
+      <c r="G403" s="108"/>
+      <c r="H403" s="109" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I403" s="106" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>403</v>
+      </c>
+      <c r="B404" s="1">
+        <v>21351</v>
+      </c>
+      <c r="D404" s="1">
+        <v>400</v>
+      </c>
+      <c r="F404" s="111" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A405" s="29">
+        <v>404</v>
+      </c>
+      <c r="B405" s="29">
+        <v>21352</v>
+      </c>
+      <c r="D405" s="29">
+        <v>401</v>
+      </c>
+      <c r="F405" s="111" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A406" s="29">
+        <v>405</v>
+      </c>
+      <c r="B406" s="29">
+        <v>21353</v>
+      </c>
+      <c r="D406" s="29">
+        <v>402</v>
+      </c>
+      <c r="F406" s="111" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A407" s="29">
+        <v>406</v>
+      </c>
+      <c r="B407" s="29">
+        <v>21354</v>
+      </c>
+      <c r="D407" s="29">
+        <v>403</v>
+      </c>
+      <c r="F407" s="111" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A408" s="29">
+        <v>407</v>
+      </c>
+      <c r="B408" s="29">
+        <v>21355</v>
+      </c>
+      <c r="D408" s="29">
+        <v>404</v>
+      </c>
+      <c r="F408" s="111" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A409" s="29">
+        <v>408</v>
+      </c>
+      <c r="B409" s="29">
+        <v>21356</v>
+      </c>
+      <c r="D409" s="29">
+        <v>405</v>
+      </c>
+      <c r="F409" s="111" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A410" s="29">
+        <v>409</v>
+      </c>
+      <c r="B410" s="29">
+        <v>21357</v>
+      </c>
+      <c r="D410" s="29">
+        <v>406</v>
+      </c>
+      <c r="F410" s="111" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A411" s="29">
+        <v>410</v>
+      </c>
+      <c r="B411" s="29">
+        <v>21358</v>
+      </c>
+      <c r="F411" s="111" t="s">
+        <v>1420</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -34324,10 +35572,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I560"/>
+  <dimension ref="A1:I576"/>
   <sheetViews>
-    <sheetView topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="C560" sqref="C560"/>
+    <sheetView topLeftCell="A544" workbookViewId="0">
+      <selection activeCell="B574" sqref="B574:D574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34536,7 +35784,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -38519,7 +39767,7 @@
         <v>192</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D287" s="10">
         <v>0</v>
@@ -38684,7 +39932,7 @@
         <v>197</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D298" s="10">
         <v>0</v>
@@ -40708,7 +41956,7 @@
         <v>308</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D441" s="11">
         <v>195</v>
@@ -42015,7 +43263,7 @@
       <c r="B530" s="10">
         <v>367</v>
       </c>
-      <c r="C530" s="87" t="s">
+      <c r="C530" s="86" t="s">
         <v>1200</v>
       </c>
       <c r="D530" s="10">
@@ -42029,7 +43277,7 @@
       <c r="B531" s="10">
         <v>368</v>
       </c>
-      <c r="C531" s="87" t="s">
+      <c r="C531" s="86" t="s">
         <v>1199</v>
       </c>
       <c r="D531" s="10">
@@ -42043,7 +43291,7 @@
       <c r="B532" s="10">
         <v>369</v>
       </c>
-      <c r="C532" s="87" t="s">
+      <c r="C532" s="86" t="s">
         <v>1199</v>
       </c>
       <c r="D532" s="10">
@@ -42057,7 +43305,7 @@
       <c r="B533" s="10">
         <v>370</v>
       </c>
-      <c r="C533" s="87" t="s">
+      <c r="C533" s="86" t="s">
         <v>1199</v>
       </c>
       <c r="D533" s="10">
@@ -42451,10 +43699,234 @@
         <v>390</v>
       </c>
       <c r="C560" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D560" s="11">
         <v>263</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A561" s="29">
+        <v>560</v>
+      </c>
+      <c r="B561" s="29">
+        <v>391</v>
+      </c>
+      <c r="C561" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D561" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A562" s="29">
+        <v>561</v>
+      </c>
+      <c r="B562" s="29">
+        <v>392</v>
+      </c>
+      <c r="C562" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D562" s="11">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A563" s="29">
+        <v>562</v>
+      </c>
+      <c r="B563" s="29">
+        <v>393</v>
+      </c>
+      <c r="C563" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D563" s="11">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A564" s="29">
+        <v>563</v>
+      </c>
+      <c r="B564" s="29">
+        <v>394</v>
+      </c>
+      <c r="C564" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D564" s="11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A565" s="29">
+        <v>564</v>
+      </c>
+      <c r="B565" s="29">
+        <v>395</v>
+      </c>
+      <c r="C565" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D565" s="11">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A566" s="29">
+        <v>565</v>
+      </c>
+      <c r="B566" s="29">
+        <v>396</v>
+      </c>
+      <c r="C566" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D566" s="11">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A567" s="29">
+        <v>566</v>
+      </c>
+      <c r="B567" s="29">
+        <v>397</v>
+      </c>
+      <c r="C567" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D567" s="11">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A568" s="29">
+        <v>567</v>
+      </c>
+      <c r="B568" s="29">
+        <v>398</v>
+      </c>
+      <c r="C568" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D568" s="11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A569" s="29">
+        <v>568</v>
+      </c>
+      <c r="B569" s="29">
+        <v>399</v>
+      </c>
+      <c r="C569" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D569" s="11">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A570" s="29">
+        <v>569</v>
+      </c>
+      <c r="B570" s="29">
+        <v>400</v>
+      </c>
+      <c r="C570" s="13" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D570" s="11">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A571" s="29">
+        <v>570</v>
+      </c>
+      <c r="B571" s="29">
+        <v>401</v>
+      </c>
+      <c r="C571" s="13" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D571" s="11">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A572" s="29">
+        <v>571</v>
+      </c>
+      <c r="B572" s="29">
+        <v>402</v>
+      </c>
+      <c r="C572" s="13" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D572" s="11">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A573" s="29">
+        <v>572</v>
+      </c>
+      <c r="B573" s="29">
+        <v>403</v>
+      </c>
+      <c r="C573" s="13" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D573" s="11">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A574" s="29">
+        <v>573</v>
+      </c>
+      <c r="B574" s="29">
+        <v>404</v>
+      </c>
+      <c r="C574" s="13" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D574" s="11">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A575" s="29">
+        <v>574</v>
+      </c>
+      <c r="B575" s="29">
+        <v>405</v>
+      </c>
+      <c r="C575" s="13" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D575" s="11">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A576" s="29">
+        <v>575</v>
+      </c>
+      <c r="B576" s="29">
+        <v>406</v>
+      </c>
+      <c r="C576" s="13" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D576" s="11">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -42466,13 +43938,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M376"/>
+  <dimension ref="A1:M397"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C363" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C367" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B376" sqref="B376"/>
+      <selection pane="bottomRight" activeCell="C394" sqref="C394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49184,23 +50656,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:6" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="107">
+    <row r="359" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="94">
         <v>388</v>
       </c>
-      <c r="B359" s="107">
+      <c r="B359" s="94">
         <v>247</v>
       </c>
-      <c r="C359" s="108" t="s">
+      <c r="C359" s="95" t="s">
         <v>1340</v>
       </c>
-      <c r="D359" s="107">
-        <v>0</v>
-      </c>
-      <c r="E359" s="107">
+      <c r="D359" s="94">
+        <v>0</v>
+      </c>
+      <c r="E359" s="94">
         <v>2</v>
       </c>
-      <c r="F359" s="107"/>
+      <c r="F359" s="94"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="11">
@@ -49210,7 +50682,7 @@
         <v>248</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>1341</v>
+        <v>1427</v>
       </c>
       <c r="D360" s="15" t="s">
         <v>969</v>
@@ -49219,77 +50691,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="101">
+    <row r="361" spans="1:6" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="88">
         <v>390</v>
       </c>
-      <c r="B361" s="101">
+      <c r="B361" s="88">
         <v>249</v>
       </c>
-      <c r="C361" s="101" t="s">
+      <c r="C361" s="88" t="s">
         <v>688</v>
       </c>
-      <c r="D361" s="102" t="s">
+      <c r="D361" s="89" t="s">
         <v>1182</v>
       </c>
-      <c r="E361" s="101">
+      <c r="E361" s="88">
         <v>2</v>
       </c>
-      <c r="F361" s="101"/>
-    </row>
-    <row r="362" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="101">
+      <c r="F361" s="88"/>
+    </row>
+    <row r="362" spans="1:6" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="88">
         <v>391</v>
       </c>
-      <c r="B362" s="101">
+      <c r="B362" s="88">
         <v>250</v>
       </c>
-      <c r="C362" s="101" t="s">
+      <c r="C362" s="88" t="s">
         <v>688</v>
       </c>
-      <c r="D362" s="102" t="s">
+      <c r="D362" s="89" t="s">
         <v>1181</v>
       </c>
-      <c r="E362" s="101">
+      <c r="E362" s="88">
         <v>2</v>
       </c>
-      <c r="F362" s="101"/>
-    </row>
-    <row r="363" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="101">
+      <c r="F362" s="88"/>
+    </row>
+    <row r="363" spans="1:6" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="88">
         <v>392</v>
       </c>
-      <c r="B363" s="101">
+      <c r="B363" s="88">
         <v>251</v>
       </c>
-      <c r="C363" s="101" t="s">
+      <c r="C363" s="88" t="s">
         <v>688</v>
       </c>
-      <c r="D363" s="102" t="s">
+      <c r="D363" s="89" t="s">
         <v>1182</v>
       </c>
-      <c r="E363" s="101">
+      <c r="E363" s="88">
         <v>2</v>
       </c>
-      <c r="F363" s="101"/>
-    </row>
-    <row r="364" spans="1:6" s="106" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="104">
+      <c r="F363" s="88"/>
+    </row>
+    <row r="364" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="91">
         <v>393</v>
       </c>
-      <c r="B364" s="104">
+      <c r="B364" s="91">
         <v>252</v>
       </c>
-      <c r="C364" s="104" t="s">
+      <c r="C364" s="91" t="s">
         <v>688</v>
       </c>
-      <c r="D364" s="105" t="s">
+      <c r="D364" s="92" t="s">
         <v>1319</v>
       </c>
-      <c r="E364" s="104">
+      <c r="E364" s="91">
         <v>2</v>
       </c>
-      <c r="F364" s="104"/>
+      <c r="F364" s="91"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="10">
@@ -49386,7 +50858,7 @@
         <v>258</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1301</v>
+        <v>1429</v>
       </c>
       <c r="D370" s="11">
         <v>5000000</v>
@@ -49488,13 +50960,370 @@
         <v>263</v>
       </c>
       <c r="C376" s="13" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D376" s="13" t="s">
         <v>1365</v>
-      </c>
-      <c r="D376" s="13" t="s">
-        <v>1366</v>
       </c>
       <c r="E376" s="11">
         <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A377" s="12">
+        <v>406</v>
+      </c>
+      <c r="B377" s="12">
+        <v>264</v>
+      </c>
+      <c r="C377" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D377" s="17" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E377" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A378" s="12">
+        <v>407</v>
+      </c>
+      <c r="B378" s="12">
+        <v>265</v>
+      </c>
+      <c r="C378" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D378" s="11" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E378" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A379" s="12">
+        <v>408</v>
+      </c>
+      <c r="B379" s="12">
+        <v>266</v>
+      </c>
+      <c r="C379" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D379" s="11" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E379" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A380" s="12">
+        <v>409</v>
+      </c>
+      <c r="B380" s="12">
+        <v>267</v>
+      </c>
+      <c r="C380" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D380" s="11" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E380" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A381" s="12">
+        <v>410</v>
+      </c>
+      <c r="B381" s="12">
+        <v>268</v>
+      </c>
+      <c r="C381" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D381" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="E381" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A382" s="12">
+        <v>411</v>
+      </c>
+      <c r="B382" s="12">
+        <v>269</v>
+      </c>
+      <c r="C382" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D382" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="E382" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A383" s="12">
+        <v>412</v>
+      </c>
+      <c r="B383" s="12">
+        <v>270</v>
+      </c>
+      <c r="C383" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D383" s="11" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E383" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A384" s="12">
+        <v>413</v>
+      </c>
+      <c r="B384" s="12">
+        <v>271</v>
+      </c>
+      <c r="C384" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D384" s="11" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E384" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385" s="12">
+        <v>414</v>
+      </c>
+      <c r="B385" s="12">
+        <v>272</v>
+      </c>
+      <c r="C385" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D385" s="11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E385" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" s="12">
+        <v>415</v>
+      </c>
+      <c r="B386" s="11">
+        <v>273</v>
+      </c>
+      <c r="C386" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="D386" s="13" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E386" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" s="12">
+        <v>416</v>
+      </c>
+      <c r="B387" s="11">
+        <v>273</v>
+      </c>
+      <c r="C387" s="13" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D387" s="11">
+        <v>500</v>
+      </c>
+      <c r="E387" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" s="12">
+        <v>417</v>
+      </c>
+      <c r="B388" s="11">
+        <v>274</v>
+      </c>
+      <c r="C388" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="D388" s="13" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E388" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389" s="12">
+        <v>418</v>
+      </c>
+      <c r="B389" s="11">
+        <v>274</v>
+      </c>
+      <c r="C389" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="D389" s="11">
+        <v>500</v>
+      </c>
+      <c r="E389" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="12">
+        <v>419</v>
+      </c>
+      <c r="B390" s="11">
+        <v>275</v>
+      </c>
+      <c r="C390" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="D390" s="11">
+        <v>33</v>
+      </c>
+      <c r="E390" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" s="12">
+        <v>420</v>
+      </c>
+      <c r="B391" s="11">
+        <v>275</v>
+      </c>
+      <c r="C391" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="D391" s="11">
+        <v>5000</v>
+      </c>
+      <c r="E391" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" s="12">
+        <v>421</v>
+      </c>
+      <c r="B392" s="11">
+        <v>276</v>
+      </c>
+      <c r="C392" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="D392" s="11">
+        <v>47</v>
+      </c>
+      <c r="E392" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" s="12">
+        <v>422</v>
+      </c>
+      <c r="B393" s="11">
+        <v>276</v>
+      </c>
+      <c r="C393" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="D393" s="11">
+        <v>5000</v>
+      </c>
+      <c r="E393" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" s="12">
+        <v>423</v>
+      </c>
+      <c r="B394" s="11">
+        <v>277</v>
+      </c>
+      <c r="C394" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="D394" s="15" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E394" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" s="12">
+        <v>424</v>
+      </c>
+      <c r="B395" s="11">
+        <v>278</v>
+      </c>
+      <c r="C395" s="13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D395" s="11">
+        <v>240000</v>
+      </c>
+      <c r="E395" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" s="12">
+        <v>425</v>
+      </c>
+      <c r="B396" s="11">
+        <v>279</v>
+      </c>
+      <c r="C396" s="13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D396" s="11">
+        <v>1</v>
+      </c>
+      <c r="E396" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" s="12">
+        <v>426</v>
+      </c>
+      <c r="B397" s="11">
+        <v>279</v>
+      </c>
+      <c r="C397" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="D397" s="11">
+        <v>240000</v>
+      </c>
+      <c r="E397" s="11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -49506,13 +51335,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W868"/>
+  <dimension ref="A1:W889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C247" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C853" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D269" sqref="D269:E269"/>
+      <selection pane="bottomRight" activeCell="D871" sqref="D871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -55412,7 +57241,7 @@
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="19" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E266" s="10">
         <v>10</v>
@@ -55475,7 +57304,7 @@
       </c>
       <c r="C269" s="78"/>
       <c r="D269" s="77" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E269" s="78">
         <v>10</v>
@@ -65748,7 +67577,7 @@
       </c>
       <c r="C774" s="11"/>
       <c r="D774" s="13" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E774" s="11">
         <v>10</v>
@@ -66570,8 +68399,8 @@
         <v>585</v>
       </c>
       <c r="C818" s="11"/>
-      <c r="D818" s="11" t="s">
-        <v>758</v>
+      <c r="D818" s="13" t="s">
+        <v>1372</v>
       </c>
       <c r="E818" s="27">
         <v>200</v>
@@ -66654,7 +68483,7 @@
         <v>589</v>
       </c>
       <c r="C822" s="11"/>
-      <c r="D822" s="100" t="s">
+      <c r="D822" s="87" t="s">
         <v>1306</v>
       </c>
       <c r="E822" s="27">
@@ -66861,7 +68690,7 @@
       </c>
       <c r="C832" s="29"/>
       <c r="D832" s="14" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E832" s="29">
         <v>1</v>
@@ -66882,7 +68711,7 @@
       </c>
       <c r="C833" s="29"/>
       <c r="D833" s="14" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E833" s="29">
         <v>1</v>
@@ -66919,7 +68748,7 @@
         <v>599</v>
       </c>
       <c r="D835" s="14" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E835" s="29">
         <v>1</v>
@@ -66936,7 +68765,7 @@
         <v>599</v>
       </c>
       <c r="D836" s="14" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E836" s="29">
         <v>1</v>
@@ -66970,7 +68799,7 @@
         <v>600</v>
       </c>
       <c r="D838" s="14" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E838" s="29">
         <v>1</v>
@@ -66987,7 +68816,7 @@
         <v>600</v>
       </c>
       <c r="D839" s="14" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E839" s="29">
         <v>1</v>
@@ -67021,7 +68850,7 @@
         <v>601</v>
       </c>
       <c r="D841" s="14" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E841" s="29">
         <v>2</v>
@@ -67038,7 +68867,7 @@
         <v>601</v>
       </c>
       <c r="D842" s="14" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E842" s="29">
         <v>2</v>
@@ -67072,7 +68901,7 @@
         <v>602</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E844" s="29">
         <v>2</v>
@@ -67089,7 +68918,7 @@
         <v>602</v>
       </c>
       <c r="D845" s="14" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E845" s="29">
         <v>2</v>
@@ -67123,7 +68952,7 @@
         <v>603</v>
       </c>
       <c r="D847" s="14" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E847" s="29">
         <v>2</v>
@@ -67140,7 +68969,7 @@
         <v>603</v>
       </c>
       <c r="D848" s="14" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E848" s="29">
         <v>2</v>
@@ -67174,7 +69003,7 @@
         <v>604</v>
       </c>
       <c r="D850" s="14" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E850" s="29">
         <v>3</v>
@@ -67191,7 +69020,7 @@
         <v>604</v>
       </c>
       <c r="D851" s="14" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E851" s="29">
         <v>3</v>
@@ -67225,7 +69054,7 @@
         <v>605</v>
       </c>
       <c r="D853" s="14" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E853" s="29">
         <v>3</v>
@@ -67242,7 +69071,7 @@
         <v>605</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E854" s="29">
         <v>3</v>
@@ -67276,7 +69105,7 @@
         <v>606</v>
       </c>
       <c r="D856" s="14" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E856" s="29">
         <v>3</v>
@@ -67293,7 +69122,7 @@
         <v>606</v>
       </c>
       <c r="D857" s="14" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E857" s="29">
         <v>3</v>
@@ -67327,7 +69156,7 @@
         <v>607</v>
       </c>
       <c r="D859" s="14" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E859" s="29">
         <v>5</v>
@@ -67344,7 +69173,7 @@
         <v>607</v>
       </c>
       <c r="D860" s="14" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E860" s="29">
         <v>5</v>
@@ -67378,7 +69207,7 @@
         <v>608</v>
       </c>
       <c r="D862" s="14" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E862" s="29">
         <v>5</v>
@@ -67395,7 +69224,7 @@
         <v>608</v>
       </c>
       <c r="D863" s="14" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E863" s="29">
         <v>5</v>
@@ -67421,7 +69250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A865" s="12">
         <v>864</v>
       </c>
@@ -67429,7 +69258,7 @@
         <v>609</v>
       </c>
       <c r="D865" s="14" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E865" s="29">
         <v>5</v>
@@ -67438,7 +69267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A866" s="12">
         <v>865</v>
       </c>
@@ -67446,7 +69275,7 @@
         <v>609</v>
       </c>
       <c r="D866" s="14" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E866" s="29">
         <v>5</v>
@@ -67455,11 +69284,240 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B867" s="11"/>
-    </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B868" s="11"/>
+    <row r="867" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A867" s="12">
+        <v>866</v>
+      </c>
+      <c r="B867" s="11">
+        <v>610</v>
+      </c>
+      <c r="C867" s="14" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F867" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A868" s="12">
+        <v>867</v>
+      </c>
+      <c r="B868" s="11">
+        <v>610</v>
+      </c>
+      <c r="C868" s="29"/>
+      <c r="D868" s="14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E868" s="29">
+        <v>9800000</v>
+      </c>
+      <c r="F868" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A869" s="12">
+        <v>868</v>
+      </c>
+      <c r="B869" s="11">
+        <v>611</v>
+      </c>
+      <c r="C869" s="14" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F869" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A870" s="12">
+        <v>869</v>
+      </c>
+      <c r="B870" s="11">
+        <v>611</v>
+      </c>
+      <c r="C870" s="29"/>
+      <c r="D870" s="14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E870" s="29">
+        <v>4800000</v>
+      </c>
+      <c r="F870" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A871" s="12">
+        <v>870</v>
+      </c>
+      <c r="B871" s="11">
+        <v>612</v>
+      </c>
+      <c r="D871" s="14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E871" s="29">
+        <v>4800000</v>
+      </c>
+      <c r="F871" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A872" s="12">
+        <v>871</v>
+      </c>
+      <c r="B872" s="11">
+        <v>613</v>
+      </c>
+      <c r="D872" s="14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E872" s="29">
+        <v>1800000</v>
+      </c>
+      <c r="F872" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A873" s="12">
+        <v>872</v>
+      </c>
+      <c r="B873" s="11">
+        <v>614</v>
+      </c>
+      <c r="D873" s="14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E873" s="29">
+        <v>800000</v>
+      </c>
+      <c r="F873" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A874" s="12">
+        <v>873</v>
+      </c>
+      <c r="B874" s="11">
+        <v>615</v>
+      </c>
+      <c r="D874" s="14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E874" s="29">
+        <v>888888</v>
+      </c>
+      <c r="F874" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A875" s="12">
+        <v>874</v>
+      </c>
+      <c r="B875" s="11">
+        <v>616</v>
+      </c>
+      <c r="D875" s="14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E875" s="29">
+        <v>588888</v>
+      </c>
+      <c r="F875" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A876" s="12">
+        <v>875</v>
+      </c>
+      <c r="B876" s="11">
+        <v>617</v>
+      </c>
+      <c r="D876" s="14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E876" s="29">
+        <v>388888</v>
+      </c>
+      <c r="F876" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A877" s="12">
+        <v>876</v>
+      </c>
+      <c r="B877" s="11">
+        <v>618</v>
+      </c>
+      <c r="D877" s="14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E877" s="29">
+        <v>188888</v>
+      </c>
+      <c r="F877" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A878" s="12"/>
+      <c r="B878" s="29"/>
+      <c r="G878" s="29"/>
+      <c r="H878" s="29"/>
+      <c r="I878" s="29"/>
+    </row>
+    <row r="879" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A879" s="12"/>
+      <c r="B879" s="29"/>
+    </row>
+    <row r="880" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A880" s="12"/>
+      <c r="B880" s="29"/>
+      <c r="G880" s="29"/>
+      <c r="H880" s="29"/>
+      <c r="I880" s="29"/>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A881" s="12"/>
+      <c r="B881" s="29"/>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A882" s="12"/>
+      <c r="B882" s="29"/>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A883" s="12"/>
+      <c r="B883" s="29"/>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A884" s="12"/>
+      <c r="B884" s="29"/>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A885" s="12"/>
+      <c r="B885" s="29"/>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A886" s="12"/>
+      <c r="B886" s="29"/>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A887" s="12"/>
+      <c r="B887" s="29"/>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B888" s="29"/>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B889" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/config_Release/task_zajindan_server.xlsx
+++ b/config_Release/task_zajindan_server.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">task!$B$1:$B$367</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5215" uniqueCount="1439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5249" uniqueCount="1458">
   <si>
     <t>id|任务id</t>
   </si>
@@ -8198,6 +8198,134 @@
   <si>
     <t>p_summer_lgfl1</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕虾福利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中任意场次，获得10\20\30张小龙虾券</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_0818_bxfl</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中任意场次，击杀1\2\3只龙虾BOSS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐使用24万及以上档次出现1次幸运时刻</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_fish_3d_bullet_item</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_type</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_target_yu</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_fish_id</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_lucky_award</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_spend</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19,620,621</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22,623,624</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9037,13 +9165,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T411"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:T414"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E378" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F350" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G408" sqref="G408"/>
+      <selection pane="bottomRight" activeCell="H369" sqref="H369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23386,13 +23515,13 @@
         <v>21315</v>
       </c>
       <c r="H368" s="98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I368" s="97">
         <v>1</v>
       </c>
       <c r="J368" s="97">
-        <v>1593554400</v>
+        <v>1593532800</v>
       </c>
       <c r="K368" s="97">
         <v>32503651200</v>
@@ -23424,13 +23553,13 @@
         <v>21316</v>
       </c>
       <c r="H369" s="98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I369" s="97">
         <v>1</v>
       </c>
       <c r="J369" s="97">
-        <v>1593554400</v>
+        <v>1593532800</v>
       </c>
       <c r="K369" s="97">
         <v>32503651200</v>
@@ -23462,13 +23591,13 @@
         <v>21317</v>
       </c>
       <c r="H370" s="98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I370" s="97">
         <v>1</v>
       </c>
       <c r="J370" s="97">
-        <v>1593554400</v>
+        <v>1593532800</v>
       </c>
       <c r="K370" s="97">
         <v>32503651200</v>
@@ -23500,13 +23629,13 @@
         <v>21318</v>
       </c>
       <c r="H371" s="98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I371" s="97">
         <v>1</v>
       </c>
       <c r="J371" s="97">
-        <v>1593554400</v>
+        <v>1593532800</v>
       </c>
       <c r="K371" s="97">
         <v>32503651200</v>
@@ -25032,6 +25161,120 @@
         <v>1597679999</v>
       </c>
       <c r="L411" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A412" s="7">
+        <v>1000001</v>
+      </c>
+      <c r="B412" s="7">
+        <v>1</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D412" s="7" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E412" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F412" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="G412" s="7">
+        <v>21359</v>
+      </c>
+      <c r="H412" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I412" s="7">
+        <v>1</v>
+      </c>
+      <c r="J412" s="7">
+        <v>1597680000</v>
+      </c>
+      <c r="K412" s="7">
+        <v>1598284799</v>
+      </c>
+      <c r="L412" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A413" s="7">
+        <v>1000002</v>
+      </c>
+      <c r="B413" s="7">
+        <v>1</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D413" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E413" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F413" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="G413" s="7">
+        <v>21360</v>
+      </c>
+      <c r="H413" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I413" s="7">
+        <v>1</v>
+      </c>
+      <c r="J413" s="7">
+        <v>1597680000</v>
+      </c>
+      <c r="K413" s="7">
+        <v>1598284799</v>
+      </c>
+      <c r="L413" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A414" s="7">
+        <v>1000003</v>
+      </c>
+      <c r="B414" s="7">
+        <v>1</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D414" s="7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E414" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F414" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="G414" s="7">
+        <v>21361</v>
+      </c>
+      <c r="H414" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I414" s="7">
+        <v>1</v>
+      </c>
+      <c r="J414" s="7">
+        <v>1597680000</v>
+      </c>
+      <c r="K414" s="7">
+        <v>1598284799</v>
+      </c>
+      <c r="L414" s="7">
         <v>-1</v>
       </c>
     </row>
@@ -25045,13 +25288,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K411"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:K414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C382" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E394" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D408" sqref="D408"/>
+      <selection pane="bottomRight" activeCell="I414" sqref="I414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35563,6 +35807,66 @@
         <v>1420</v>
       </c>
     </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>411</v>
+      </c>
+      <c r="B412" s="1">
+        <v>21359</v>
+      </c>
+      <c r="D412" s="1">
+        <v>407</v>
+      </c>
+      <c r="F412" s="32" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H412" s="65" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I412" s="14" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>412</v>
+      </c>
+      <c r="B413" s="1">
+        <v>21360</v>
+      </c>
+      <c r="D413" s="1">
+        <v>408</v>
+      </c>
+      <c r="F413" s="32" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H413" s="65" t="s">
+        <v>1456</v>
+      </c>
+      <c r="I413" s="14" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>413</v>
+      </c>
+      <c r="B414" s="1">
+        <v>21361</v>
+      </c>
+      <c r="D414" s="1">
+        <v>409</v>
+      </c>
+      <c r="F414" s="111" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H414" s="65" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I414" s="14" t="s">
+        <v>1447</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -35572,10 +35876,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I576"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:I579"/>
   <sheetViews>
-    <sheetView topLeftCell="A544" workbookViewId="0">
-      <selection activeCell="B574" sqref="B574:D574"/>
+    <sheetView topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="D582" sqref="D582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43929,6 +44234,48 @@
         <v>279</v>
       </c>
     </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A577" s="29">
+        <v>576</v>
+      </c>
+      <c r="B577" s="29">
+        <v>407</v>
+      </c>
+      <c r="C577" s="13" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D577" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A578" s="29">
+        <v>577</v>
+      </c>
+      <c r="B578" s="29">
+        <v>408</v>
+      </c>
+      <c r="C578" s="13" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D578" s="11">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A579" s="29">
+        <v>578</v>
+      </c>
+      <c r="B579" s="29">
+        <v>409</v>
+      </c>
+      <c r="C579" s="13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D579" s="11">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -43938,13 +44285,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M397"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:M400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C367" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C382" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C394" sqref="C394"/>
+      <selection pane="bottomRight" activeCell="B405" sqref="B405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -51326,6 +51674,57 @@
         <v>3</v>
       </c>
     </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="12">
+        <v>427</v>
+      </c>
+      <c r="B398" s="12">
+        <v>280</v>
+      </c>
+      <c r="C398" s="13" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D398" s="11">
+        <v>9</v>
+      </c>
+      <c r="E398" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" s="12">
+        <v>428</v>
+      </c>
+      <c r="B399" s="12">
+        <v>281</v>
+      </c>
+      <c r="C399" s="13" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D399" s="11">
+        <v>51</v>
+      </c>
+      <c r="E399" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" s="12">
+        <v>429</v>
+      </c>
+      <c r="B400" s="12">
+        <v>282</v>
+      </c>
+      <c r="C400" s="13" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D400" s="11">
+        <v>240000</v>
+      </c>
+      <c r="E400" s="11">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -51335,13 +51734,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C853" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D871" sqref="D871"/>
+      <selection pane="bottomRight" activeCell="A878" sqref="A878:XFD878"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -69468,55 +69868,146 @@
       </c>
     </row>
     <row r="878" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A878" s="12"/>
-      <c r="B878" s="29"/>
+      <c r="A878" s="12">
+        <v>877</v>
+      </c>
+      <c r="B878" s="29">
+        <v>619</v>
+      </c>
+      <c r="D878" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E878" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F878" s="1">
+        <v>1</v>
+      </c>
       <c r="G878" s="29"/>
       <c r="H878" s="29"/>
       <c r="I878" s="29"/>
     </row>
     <row r="879" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A879" s="12"/>
-      <c r="B879" s="29"/>
+      <c r="A879" s="12">
+        <v>878</v>
+      </c>
+      <c r="B879" s="29">
+        <v>620</v>
+      </c>
+      <c r="D879" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E879" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F879" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="880" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A880" s="12"/>
-      <c r="B880" s="29"/>
+      <c r="A880" s="12">
+        <v>879</v>
+      </c>
+      <c r="B880" s="29">
+        <v>621</v>
+      </c>
+      <c r="D880" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E880" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F880" s="1">
+        <v>1</v>
+      </c>
       <c r="G880" s="29"/>
       <c r="H880" s="29"/>
       <c r="I880" s="29"/>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A881" s="12"/>
-      <c r="B881" s="29"/>
-    </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A882" s="12"/>
-      <c r="B882" s="29"/>
-    </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A883" s="12"/>
-      <c r="B883" s="29"/>
-    </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A884" s="12"/>
-      <c r="B884" s="29"/>
-    </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A881" s="12">
+        <v>880</v>
+      </c>
+      <c r="B881" s="29">
+        <v>622</v>
+      </c>
+      <c r="D881" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E881" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F881" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A882" s="12">
+        <v>881</v>
+      </c>
+      <c r="B882" s="29">
+        <v>623</v>
+      </c>
+      <c r="D882" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E882" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F882" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A883" s="12">
+        <v>882</v>
+      </c>
+      <c r="B883" s="29">
+        <v>624</v>
+      </c>
+      <c r="D883" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E883" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F883" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A884" s="12">
+        <v>883</v>
+      </c>
+      <c r="B884" s="29">
+        <v>625</v>
+      </c>
+      <c r="D884" s="14" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E884" s="1">
+        <v>50</v>
+      </c>
+      <c r="F884" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A885" s="12"/>
       <c r="B885" s="29"/>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A886" s="12"/>
       <c r="B886" s="29"/>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A887" s="12"/>
       <c r="B887" s="29"/>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B888" s="29"/>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B889" s="29"/>
     </row>
   </sheetData>
@@ -69528,6 +70019,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/config_Release/task_zajindan_server.xlsx
+++ b/config_Release/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5558" uniqueCount="1591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5599" uniqueCount="1610">
   <si>
     <t>id|任务id</t>
   </si>
@@ -9422,6 +9422,173 @@
   </si>
   <si>
     <t>_cpl_hb_statistics</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>金秋送豪礼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计抽取3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\6\10\20\100\300\600\1200\2000\4000\8000\15000\50000\100000福利券</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城累计充值6\48\198\500\2498元</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_027_mfflq</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,3,4,10,90,200,300,600,800,2000,4000,7000,35000,50000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,4200,15000,30200,199800</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_award_receive</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_any</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_type</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1315,21316,21317,21318</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47,648,649,650,651,652,653,654,655,656,657,658,659,660</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>61,662,663,664,665</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,85,3,86,4,87,5,88,6,89,107,109,108,10044,110,10045,101,90,102,103,104,105,106,22,23,24,25,26,27,34,111,10189</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -10309,13 +10476,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T444"/>
+  <dimension ref="A1:T446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J419" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D425" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C430" sqref="C430:C434"/>
+      <selection pane="bottomRight" activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27181,383 +27348,459 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="435" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A435" s="61">
+    <row r="435" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="12">
         <v>1000024</v>
       </c>
-      <c r="B435" s="61">
-        <v>1</v>
-      </c>
-      <c r="C435" s="84" t="s">
+      <c r="B435" s="12">
+        <v>1</v>
+      </c>
+      <c r="C435" s="16" t="s">
         <v>1556</v>
       </c>
-      <c r="D435" s="84" t="s">
+      <c r="D435" s="16" t="s">
         <v>1557</v>
       </c>
-      <c r="E435" s="84" t="s">
+      <c r="E435" s="16" t="s">
         <v>1589</v>
       </c>
-      <c r="F435" s="84" t="s">
+      <c r="F435" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="G435" s="61">
+      <c r="G435" s="12">
         <v>21382</v>
       </c>
-      <c r="H435" s="61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I435" s="61">
-        <v>1</v>
-      </c>
-      <c r="J435" s="61">
+      <c r="H435" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I435" s="12">
+        <v>1</v>
+      </c>
+      <c r="J435" s="12">
         <v>1598311800</v>
       </c>
-      <c r="K435" s="61">
+      <c r="K435" s="12">
         <v>1598889599</v>
       </c>
-      <c r="L435" s="61">
+      <c r="L435" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="436" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="61">
+    <row r="436" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="12">
         <v>1000025</v>
       </c>
-      <c r="B436" s="61">
-        <v>1</v>
-      </c>
-      <c r="C436" s="84" t="s">
+      <c r="B436" s="12">
+        <v>1</v>
+      </c>
+      <c r="C436" s="16" t="s">
         <v>1556</v>
       </c>
-      <c r="D436" s="84" t="s">
+      <c r="D436" s="16" t="s">
         <v>1563</v>
       </c>
-      <c r="E436" s="84" t="s">
+      <c r="E436" s="16" t="s">
         <v>1558</v>
       </c>
-      <c r="F436" s="84" t="s">
+      <c r="F436" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="G436" s="61">
+      <c r="G436" s="12">
         <v>21383</v>
       </c>
-      <c r="H436" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I436" s="61">
-        <v>1</v>
-      </c>
-      <c r="J436" s="61">
+      <c r="H436" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I436" s="12">
+        <v>1</v>
+      </c>
+      <c r="J436" s="12">
         <v>1598284800</v>
       </c>
-      <c r="K436" s="61">
+      <c r="K436" s="12">
         <v>1598889599</v>
       </c>
-      <c r="L436" s="61">
+      <c r="L436" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="437" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="61">
+    <row r="437" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="12">
         <v>1000026</v>
       </c>
-      <c r="B437" s="61">
-        <v>1</v>
-      </c>
-      <c r="C437" s="84" t="s">
+      <c r="B437" s="12">
+        <v>1</v>
+      </c>
+      <c r="C437" s="16" t="s">
         <v>1556</v>
       </c>
-      <c r="D437" s="84" t="s">
+      <c r="D437" s="16" t="s">
         <v>1564</v>
       </c>
-      <c r="E437" s="84" t="s">
+      <c r="E437" s="16" t="s">
         <v>1572</v>
       </c>
-      <c r="F437" s="84" t="s">
+      <c r="F437" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="G437" s="61">
+      <c r="G437" s="12">
         <v>21384</v>
       </c>
-      <c r="H437" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I437" s="61">
-        <v>1</v>
-      </c>
-      <c r="J437" s="61">
+      <c r="H437" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I437" s="12">
+        <v>1</v>
+      </c>
+      <c r="J437" s="12">
         <v>1598284800</v>
       </c>
-      <c r="K437" s="61">
+      <c r="K437" s="12">
         <v>1598889599</v>
       </c>
-      <c r="L437" s="61">
+      <c r="L437" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="438" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="61">
+    <row r="438" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="12">
         <v>1000027</v>
       </c>
-      <c r="B438" s="61">
-        <v>1</v>
-      </c>
-      <c r="C438" s="84" t="s">
+      <c r="B438" s="12">
+        <v>1</v>
+      </c>
+      <c r="C438" s="16" t="s">
         <v>1556</v>
       </c>
-      <c r="D438" s="84" t="s">
+      <c r="D438" s="16" t="s">
         <v>1565</v>
       </c>
-      <c r="E438" s="84" t="s">
+      <c r="E438" s="16" t="s">
         <v>1572</v>
       </c>
-      <c r="F438" s="84" t="s">
+      <c r="F438" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="G438" s="61">
+      <c r="G438" s="12">
         <v>21385</v>
       </c>
-      <c r="H438" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I438" s="61">
-        <v>1</v>
-      </c>
-      <c r="J438" s="61">
+      <c r="H438" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I438" s="12">
+        <v>1</v>
+      </c>
+      <c r="J438" s="12">
         <v>1598284800</v>
       </c>
-      <c r="K438" s="61">
+      <c r="K438" s="12">
         <v>1598889599</v>
       </c>
-      <c r="L438" s="61">
+      <c r="L438" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="439" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="61">
+    <row r="439" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="12">
         <v>1000028</v>
       </c>
-      <c r="B439" s="61">
-        <v>1</v>
-      </c>
-      <c r="C439" s="84" t="s">
+      <c r="B439" s="12">
+        <v>1</v>
+      </c>
+      <c r="C439" s="16" t="s">
         <v>1556</v>
       </c>
-      <c r="D439" s="84" t="s">
+      <c r="D439" s="16" t="s">
         <v>1566</v>
       </c>
-      <c r="E439" s="84" t="s">
+      <c r="E439" s="16" t="s">
         <v>1572</v>
       </c>
-      <c r="F439" s="84" t="s">
+      <c r="F439" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="G439" s="61">
+      <c r="G439" s="12">
         <v>21386</v>
       </c>
-      <c r="H439" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I439" s="61">
-        <v>1</v>
-      </c>
-      <c r="J439" s="61">
+      <c r="H439" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I439" s="12">
+        <v>1</v>
+      </c>
+      <c r="J439" s="12">
         <v>1598284800</v>
       </c>
-      <c r="K439" s="61">
+      <c r="K439" s="12">
         <v>1598889599</v>
       </c>
-      <c r="L439" s="61">
+      <c r="L439" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="440" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="61">
+    <row r="440" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="12">
         <v>1000029</v>
       </c>
-      <c r="B440" s="61">
-        <v>1</v>
-      </c>
-      <c r="C440" s="84" t="s">
+      <c r="B440" s="12">
+        <v>1</v>
+      </c>
+      <c r="C440" s="16" t="s">
         <v>1556</v>
       </c>
-      <c r="D440" s="84" t="s">
+      <c r="D440" s="16" t="s">
         <v>1567</v>
       </c>
-      <c r="E440" s="84" t="s">
+      <c r="E440" s="16" t="s">
         <v>1572</v>
       </c>
-      <c r="F440" s="84" t="s">
+      <c r="F440" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="G440" s="61">
+      <c r="G440" s="12">
         <v>21387</v>
       </c>
-      <c r="H440" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I440" s="61">
-        <v>1</v>
-      </c>
-      <c r="J440" s="61">
+      <c r="H440" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I440" s="12">
+        <v>1</v>
+      </c>
+      <c r="J440" s="12">
         <v>1598284800</v>
       </c>
-      <c r="K440" s="61">
+      <c r="K440" s="12">
         <v>1598889599</v>
       </c>
-      <c r="L440" s="61">
+      <c r="L440" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="441" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="61">
+    <row r="441" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="12">
         <v>1000030</v>
       </c>
-      <c r="B441" s="61">
-        <v>1</v>
-      </c>
-      <c r="C441" s="84" t="s">
+      <c r="B441" s="12">
+        <v>1</v>
+      </c>
+      <c r="C441" s="16" t="s">
         <v>1588</v>
       </c>
-      <c r="D441" s="84" t="s">
+      <c r="D441" s="16" t="s">
         <v>1568</v>
       </c>
-      <c r="E441" s="84" t="s">
+      <c r="E441" s="16" t="s">
         <v>1572</v>
       </c>
-      <c r="F441" s="84" t="s">
+      <c r="F441" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="G441" s="61">
+      <c r="G441" s="12">
         <v>21388</v>
       </c>
-      <c r="H441" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I441" s="61">
-        <v>1</v>
-      </c>
-      <c r="J441" s="61">
+      <c r="H441" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I441" s="12">
+        <v>1</v>
+      </c>
+      <c r="J441" s="12">
         <v>1598284800</v>
       </c>
-      <c r="K441" s="61">
+      <c r="K441" s="12">
         <v>1598889599</v>
       </c>
-      <c r="L441" s="61">
+      <c r="L441" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="442" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A442" s="61">
+    <row r="442" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="12">
         <v>1000031</v>
       </c>
-      <c r="B442" s="61">
-        <v>1</v>
-      </c>
-      <c r="C442" s="84" t="s">
+      <c r="B442" s="12">
+        <v>1</v>
+      </c>
+      <c r="C442" s="16" t="s">
         <v>1556</v>
       </c>
-      <c r="D442" s="84" t="s">
+      <c r="D442" s="16" t="s">
         <v>1569</v>
       </c>
-      <c r="E442" s="84" t="s">
+      <c r="E442" s="16" t="s">
         <v>1572</v>
       </c>
-      <c r="F442" s="84" t="s">
+      <c r="F442" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="G442" s="61">
+      <c r="G442" s="12">
         <v>21389</v>
       </c>
-      <c r="H442" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I442" s="61">
-        <v>1</v>
-      </c>
-      <c r="J442" s="61">
+      <c r="H442" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I442" s="12">
+        <v>1</v>
+      </c>
+      <c r="J442" s="12">
         <v>1598284800</v>
       </c>
-      <c r="K442" s="61">
+      <c r="K442" s="12">
         <v>1598889599</v>
       </c>
-      <c r="L442" s="61">
+      <c r="L442" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="443" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="61">
+    <row r="443" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="12">
         <v>1000032</v>
       </c>
-      <c r="B443" s="61">
-        <v>1</v>
-      </c>
-      <c r="C443" s="84" t="s">
+      <c r="B443" s="12">
+        <v>1</v>
+      </c>
+      <c r="C443" s="16" t="s">
         <v>1556</v>
       </c>
-      <c r="D443" s="84" t="s">
+      <c r="D443" s="16" t="s">
         <v>1570</v>
       </c>
-      <c r="E443" s="84" t="s">
+      <c r="E443" s="16" t="s">
         <v>1572</v>
       </c>
-      <c r="F443" s="84" t="s">
+      <c r="F443" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="G443" s="61">
+      <c r="G443" s="12">
         <v>21390</v>
       </c>
-      <c r="H443" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I443" s="61">
-        <v>1</v>
-      </c>
-      <c r="J443" s="61">
+      <c r="H443" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I443" s="12">
+        <v>1</v>
+      </c>
+      <c r="J443" s="12">
         <v>1598284800</v>
       </c>
-      <c r="K443" s="61">
+      <c r="K443" s="12">
         <v>1598889599</v>
       </c>
-      <c r="L443" s="61">
+      <c r="L443" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="444" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="61">
+    <row r="444" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="12">
         <v>1000033</v>
       </c>
-      <c r="B444" s="61">
-        <v>1</v>
-      </c>
-      <c r="C444" s="84" t="s">
+      <c r="B444" s="12">
+        <v>1</v>
+      </c>
+      <c r="C444" s="16" t="s">
         <v>1556</v>
       </c>
-      <c r="D444" s="84" t="s">
+      <c r="D444" s="16" t="s">
         <v>1571</v>
       </c>
-      <c r="E444" s="84" t="s">
+      <c r="E444" s="16" t="s">
         <v>1572</v>
       </c>
-      <c r="F444" s="84" t="s">
+      <c r="F444" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="G444" s="61">
+      <c r="G444" s="12">
         <v>21391</v>
       </c>
-      <c r="H444" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I444" s="61">
-        <v>1</v>
-      </c>
-      <c r="J444" s="61">
+      <c r="H444" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I444" s="12">
+        <v>1</v>
+      </c>
+      <c r="J444" s="12">
         <v>1598284800</v>
       </c>
-      <c r="K444" s="61">
+      <c r="K444" s="12">
         <v>1598889599</v>
       </c>
-      <c r="L444" s="61">
+      <c r="L444" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="61">
+        <v>1000034</v>
+      </c>
+      <c r="B445" s="61">
+        <v>1</v>
+      </c>
+      <c r="C445" s="84" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D445" s="84" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E445" s="84" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F445" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G445" s="61">
+        <v>21392</v>
+      </c>
+      <c r="H445" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I445" s="61">
+        <v>1</v>
+      </c>
+      <c r="J445" s="61">
+        <v>1598889600</v>
+      </c>
+      <c r="K445" s="61">
+        <v>1599494399</v>
+      </c>
+      <c r="L445" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="61">
+        <v>1000035</v>
+      </c>
+      <c r="B446" s="61">
+        <v>1</v>
+      </c>
+      <c r="C446" s="84" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D446" s="84" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E446" s="84" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F446" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G446" s="61">
+        <v>21393</v>
+      </c>
+      <c r="H446" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I446" s="61">
+        <v>1</v>
+      </c>
+      <c r="J446" s="61">
+        <v>1598889600</v>
+      </c>
+      <c r="K446" s="61">
+        <v>1599494399</v>
+      </c>
+      <c r="L446" s="61">
         <v>-1</v>
       </c>
     </row>
@@ -27572,13 +27815,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K444"/>
+  <dimension ref="A1:K446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C412" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C427" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C442" sqref="C442"/>
+      <selection pane="bottomRight" activeCell="A449" sqref="A449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38632,264 +38875,310 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="435" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A435" s="60">
+    <row r="435" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="11">
         <v>434</v>
       </c>
-      <c r="B435" s="60">
+      <c r="B435" s="11">
         <v>21382</v>
       </c>
-      <c r="C435" s="60"/>
-      <c r="D435" s="60">
+      <c r="C435" s="11"/>
+      <c r="D435" s="11">
         <v>429</v>
       </c>
-      <c r="E435" s="60"/>
-      <c r="F435" s="62" t="s">
+      <c r="E435" s="11"/>
+      <c r="F435" s="40" t="s">
         <v>1587</v>
       </c>
-      <c r="G435" s="63"/>
-      <c r="H435" s="64" t="s">
+      <c r="G435" s="35"/>
+      <c r="H435" s="15" t="s">
         <v>1560</v>
       </c>
-      <c r="I435" s="85" t="s">
+      <c r="I435" s="13" t="s">
         <v>1144</v>
       </c>
-      <c r="J435" s="122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="60">
+      <c r="J435" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="11">
         <v>435</v>
       </c>
-      <c r="B436" s="61">
+      <c r="B436" s="12">
         <v>21383</v>
       </c>
-      <c r="C436" s="60"/>
-      <c r="D436" s="60">
+      <c r="C436" s="11"/>
+      <c r="D436" s="11">
         <v>430</v>
       </c>
-      <c r="E436" s="60"/>
-      <c r="F436" s="62" t="s">
+      <c r="E436" s="11"/>
+      <c r="F436" s="40" t="s">
         <v>1573</v>
       </c>
-      <c r="G436" s="63"/>
-      <c r="H436" s="64" t="s">
+      <c r="G436" s="35"/>
+      <c r="H436" s="15" t="s">
         <v>1575</v>
       </c>
-      <c r="I436" s="85" t="s">
+      <c r="I436" s="13" t="s">
         <v>1144</v>
       </c>
-      <c r="J436" s="122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="60">
+      <c r="J436" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="11">
         <v>436</v>
       </c>
-      <c r="B437" s="61">
+      <c r="B437" s="12">
         <v>21384</v>
       </c>
-      <c r="C437" s="60"/>
-      <c r="D437" s="60">
+      <c r="C437" s="11"/>
+      <c r="D437" s="11">
         <v>431</v>
       </c>
-      <c r="E437" s="60"/>
-      <c r="F437" s="62" t="s">
+      <c r="E437" s="11"/>
+      <c r="F437" s="40" t="s">
         <v>1573</v>
       </c>
-      <c r="G437" s="63"/>
-      <c r="H437" s="64" t="s">
+      <c r="G437" s="35"/>
+      <c r="H437" s="15" t="s">
         <v>1576</v>
       </c>
-      <c r="I437" s="85" t="s">
+      <c r="I437" s="13" t="s">
         <v>1144</v>
       </c>
-      <c r="J437" s="122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="60">
+      <c r="J437" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="11">
         <v>437</v>
       </c>
-      <c r="B438" s="61">
+      <c r="B438" s="12">
         <v>21385</v>
       </c>
-      <c r="C438" s="60"/>
-      <c r="D438" s="60">
+      <c r="C438" s="11"/>
+      <c r="D438" s="11">
         <v>432</v>
       </c>
-      <c r="E438" s="60"/>
-      <c r="F438" s="62" t="s">
+      <c r="E438" s="11"/>
+      <c r="F438" s="40" t="s">
         <v>1573</v>
       </c>
-      <c r="G438" s="63"/>
-      <c r="H438" s="64" t="s">
+      <c r="G438" s="35"/>
+      <c r="H438" s="15" t="s">
         <v>1577</v>
       </c>
-      <c r="I438" s="85" t="s">
+      <c r="I438" s="13" t="s">
         <v>1144</v>
       </c>
-      <c r="J438" s="122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="60">
+      <c r="J438" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="11">
         <v>438</v>
       </c>
-      <c r="B439" s="61">
+      <c r="B439" s="12">
         <v>21386</v>
       </c>
-      <c r="C439" s="60"/>
-      <c r="D439" s="60">
+      <c r="C439" s="11"/>
+      <c r="D439" s="11">
         <v>433</v>
       </c>
-      <c r="E439" s="60"/>
-      <c r="F439" s="62" t="s">
+      <c r="E439" s="11"/>
+      <c r="F439" s="40" t="s">
         <v>1573</v>
       </c>
-      <c r="G439" s="63"/>
-      <c r="H439" s="64" t="s">
+      <c r="G439" s="35"/>
+      <c r="H439" s="15" t="s">
         <v>1578</v>
       </c>
-      <c r="I439" s="85" t="s">
+      <c r="I439" s="13" t="s">
         <v>1144</v>
       </c>
-      <c r="J439" s="122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="60">
+      <c r="J439" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="11">
         <v>439</v>
       </c>
-      <c r="B440" s="61">
+      <c r="B440" s="12">
         <v>21387</v>
       </c>
-      <c r="C440" s="60"/>
-      <c r="D440" s="60">
+      <c r="C440" s="11"/>
+      <c r="D440" s="11">
         <v>434</v>
       </c>
-      <c r="E440" s="60"/>
-      <c r="F440" s="62" t="s">
+      <c r="E440" s="11"/>
+      <c r="F440" s="40" t="s">
         <v>1574</v>
       </c>
-      <c r="G440" s="63"/>
-      <c r="H440" s="64" t="s">
+      <c r="G440" s="35"/>
+      <c r="H440" s="15" t="s">
         <v>1579</v>
       </c>
-      <c r="I440" s="85" t="s">
+      <c r="I440" s="13" t="s">
         <v>1144</v>
       </c>
-      <c r="J440" s="122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="60">
+      <c r="J440" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="11">
         <v>440</v>
       </c>
-      <c r="B441" s="61">
+      <c r="B441" s="12">
         <v>21388</v>
       </c>
-      <c r="C441" s="60"/>
-      <c r="D441" s="60">
+      <c r="C441" s="11"/>
+      <c r="D441" s="11">
         <v>435</v>
       </c>
-      <c r="E441" s="60"/>
-      <c r="F441" s="62" t="s">
+      <c r="E441" s="11"/>
+      <c r="F441" s="40" t="s">
         <v>1573</v>
       </c>
-      <c r="G441" s="63"/>
-      <c r="H441" s="64" t="s">
+      <c r="G441" s="35"/>
+      <c r="H441" s="15" t="s">
         <v>1580</v>
       </c>
-      <c r="I441" s="85" t="s">
+      <c r="I441" s="13" t="s">
         <v>1144</v>
       </c>
-      <c r="J441" s="122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A442" s="60">
+      <c r="J441" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="11">
         <v>441</v>
       </c>
-      <c r="B442" s="61">
+      <c r="B442" s="12">
         <v>21389</v>
       </c>
-      <c r="C442" s="60"/>
-      <c r="D442" s="60">
+      <c r="C442" s="11"/>
+      <c r="D442" s="11">
         <v>436</v>
       </c>
-      <c r="E442" s="60"/>
-      <c r="F442" s="62" t="s">
+      <c r="E442" s="11"/>
+      <c r="F442" s="40" t="s">
         <v>1573</v>
       </c>
-      <c r="G442" s="63"/>
-      <c r="H442" s="64" t="s">
+      <c r="G442" s="35"/>
+      <c r="H442" s="15" t="s">
         <v>1581</v>
       </c>
-      <c r="I442" s="85" t="s">
+      <c r="I442" s="13" t="s">
         <v>1144</v>
       </c>
-      <c r="J442" s="122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="60">
+      <c r="J442" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="11">
         <v>442</v>
       </c>
-      <c r="B443" s="61">
+      <c r="B443" s="12">
         <v>21390</v>
       </c>
-      <c r="C443" s="60"/>
-      <c r="D443" s="60">
+      <c r="C443" s="11"/>
+      <c r="D443" s="11">
         <v>437</v>
       </c>
-      <c r="E443" s="60"/>
-      <c r="F443" s="62" t="s">
+      <c r="E443" s="11"/>
+      <c r="F443" s="40" t="s">
         <v>1573</v>
       </c>
-      <c r="G443" s="63"/>
-      <c r="H443" s="64" t="s">
+      <c r="G443" s="35"/>
+      <c r="H443" s="15" t="s">
         <v>1582</v>
       </c>
-      <c r="I443" s="85" t="s">
+      <c r="I443" s="13" t="s">
         <v>1144</v>
       </c>
-      <c r="J443" s="122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="60">
+      <c r="J443" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="11">
         <v>443</v>
       </c>
-      <c r="B444" s="61">
+      <c r="B444" s="12">
         <v>21391</v>
       </c>
-      <c r="C444" s="60"/>
-      <c r="D444" s="60">
+      <c r="C444" s="11"/>
+      <c r="D444" s="11">
         <v>438</v>
       </c>
-      <c r="E444" s="60"/>
-      <c r="F444" s="62" t="s">
+      <c r="E444" s="11"/>
+      <c r="F444" s="40" t="s">
         <v>1573</v>
       </c>
-      <c r="G444" s="63"/>
-      <c r="H444" s="64" t="s">
+      <c r="G444" s="35"/>
+      <c r="H444" s="15" t="s">
         <v>1583</v>
       </c>
-      <c r="I444" s="85" t="s">
+      <c r="I444" s="13" t="s">
         <v>1144</v>
       </c>
-      <c r="J444" s="122">
-        <v>1</v>
+      <c r="J444" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" s="122" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A445" s="60">
+        <v>444</v>
+      </c>
+      <c r="B445" s="61">
+        <v>21392</v>
+      </c>
+      <c r="C445" s="60"/>
+      <c r="D445" s="60">
+        <v>439</v>
+      </c>
+      <c r="E445" s="60"/>
+      <c r="F445" s="62" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G445" s="63"/>
+      <c r="H445" s="62" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I445" s="85" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="60">
+        <v>445</v>
+      </c>
+      <c r="B446" s="61">
+        <v>21393</v>
+      </c>
+      <c r="C446" s="60"/>
+      <c r="D446" s="60">
+        <v>440</v>
+      </c>
+      <c r="E446" s="60"/>
+      <c r="F446" s="62" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G446" s="63"/>
+      <c r="H446" s="64" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I446" s="85" t="s">
+        <v>856</v>
       </c>
     </row>
   </sheetData>
@@ -38902,10 +39191,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I615"/>
+  <dimension ref="A1:I617"/>
   <sheetViews>
-    <sheetView topLeftCell="A566" workbookViewId="0">
-      <selection activeCell="D585" sqref="D585"/>
+    <sheetView topLeftCell="A592" workbookViewId="0">
+      <selection activeCell="F627" sqref="F627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47557,266 +47846,306 @@
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A598" s="29">
+      <c r="A598" s="11">
         <v>597</v>
       </c>
-      <c r="B598" s="29">
+      <c r="B598" s="11">
         <v>428</v>
       </c>
-      <c r="C598" s="119" t="s">
+      <c r="C598" s="13" t="s">
         <v>1547</v>
       </c>
-      <c r="D598" s="115">
+      <c r="D598" s="11">
         <v>294</v>
       </c>
+      <c r="E598" s="6"/>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A599" s="60">
+      <c r="A599" s="11">
         <v>598</v>
       </c>
-      <c r="B599" s="60">
+      <c r="B599" s="11">
         <v>429</v>
       </c>
-      <c r="C599" s="123" t="s">
+      <c r="C599" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="D599" s="60">
-        <v>0</v>
-      </c>
-      <c r="E599" s="122"/>
+      <c r="D599" s="11">
+        <v>0</v>
+      </c>
+      <c r="E599" s="6"/>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A600" s="60">
+      <c r="A600" s="11">
         <v>599</v>
       </c>
-      <c r="B600" s="60">
+      <c r="B600" s="11">
         <v>429</v>
       </c>
-      <c r="C600" s="60" t="s">
+      <c r="C600" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="D600" s="60">
-        <v>0</v>
-      </c>
-      <c r="E600" s="122"/>
+      <c r="D600" s="11">
+        <v>0</v>
+      </c>
+      <c r="E600" s="6"/>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A601" s="60">
+      <c r="A601" s="11">
         <v>600</v>
       </c>
-      <c r="B601" s="60">
+      <c r="B601" s="11">
         <v>429</v>
       </c>
-      <c r="C601" s="60" t="s">
+      <c r="C601" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="D601" s="60">
-        <v>0</v>
-      </c>
-      <c r="E601" s="122"/>
+      <c r="D601" s="11">
+        <v>0</v>
+      </c>
+      <c r="E601" s="6"/>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A602" s="60">
+      <c r="A602" s="11">
         <v>601</v>
       </c>
-      <c r="B602" s="60">
+      <c r="B602" s="11">
         <v>429</v>
       </c>
-      <c r="C602" s="60" t="s">
+      <c r="C602" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="D602" s="60">
-        <v>0</v>
-      </c>
-      <c r="E602" s="60"/>
+      <c r="D602" s="11">
+        <v>0</v>
+      </c>
+      <c r="E602" s="11"/>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A603" s="60">
+      <c r="A603" s="11">
         <v>602</v>
       </c>
-      <c r="B603" s="60">
+      <c r="B603" s="11">
         <v>429</v>
       </c>
-      <c r="C603" s="60" t="s">
+      <c r="C603" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="D603" s="60">
-        <v>0</v>
-      </c>
-      <c r="E603" s="60"/>
+      <c r="D603" s="11">
+        <v>0</v>
+      </c>
+      <c r="E603" s="11"/>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A604" s="60">
+      <c r="A604" s="11">
         <v>603</v>
       </c>
-      <c r="B604" s="60">
+      <c r="B604" s="11">
         <v>429</v>
       </c>
-      <c r="C604" s="60" t="s">
+      <c r="C604" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="D604" s="60">
-        <v>0</v>
-      </c>
-      <c r="E604" s="60">
+      <c r="D604" s="11">
+        <v>0</v>
+      </c>
+      <c r="E604" s="11">
         <v>0.5</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A605" s="60">
+      <c r="A605" s="11">
         <v>604</v>
       </c>
-      <c r="B605" s="60">
+      <c r="B605" s="11">
         <v>429</v>
       </c>
-      <c r="C605" s="60" t="s">
+      <c r="C605" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="D605" s="60">
-        <v>0</v>
-      </c>
-      <c r="E605" s="60"/>
+      <c r="D605" s="11">
+        <v>0</v>
+      </c>
+      <c r="E605" s="11"/>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A606" s="60">
+      <c r="A606" s="11">
         <v>605</v>
       </c>
-      <c r="B606" s="60">
+      <c r="B606" s="11">
         <v>429</v>
       </c>
-      <c r="C606" s="60" t="s">
+      <c r="C606" s="11" t="s">
         <v>1585</v>
       </c>
-      <c r="D606" s="60">
-        <v>0</v>
-      </c>
-      <c r="E606" s="60"/>
+      <c r="D606" s="11">
+        <v>0</v>
+      </c>
+      <c r="E606" s="11"/>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A607" s="60">
+      <c r="A607" s="11">
         <v>606</v>
       </c>
-      <c r="B607" s="60">
+      <c r="B607" s="11">
         <v>430</v>
       </c>
-      <c r="C607" s="123" t="s">
+      <c r="C607" s="23" t="s">
         <v>1030</v>
       </c>
-      <c r="D607" s="60">
+      <c r="D607" s="11">
         <v>295</v>
       </c>
+      <c r="E607" s="6"/>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A608" s="60">
+      <c r="A608" s="11">
         <v>607</v>
       </c>
-      <c r="B608" s="60">
+      <c r="B608" s="11">
         <v>431</v>
       </c>
-      <c r="C608" s="123" t="s">
+      <c r="C608" s="23" t="s">
         <v>1030</v>
       </c>
-      <c r="D608" s="60">
+      <c r="D608" s="11">
         <v>296</v>
       </c>
-    </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A609" s="60">
+      <c r="E608" s="6"/>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A609" s="11">
         <v>608</v>
       </c>
-      <c r="B609" s="60">
+      <c r="B609" s="11">
         <v>432</v>
       </c>
-      <c r="C609" s="123" t="s">
+      <c r="C609" s="23" t="s">
         <v>1030</v>
       </c>
-      <c r="D609" s="60">
+      <c r="D609" s="11">
         <v>297</v>
       </c>
-    </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A610" s="60">
+      <c r="E609" s="6"/>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A610" s="11">
         <v>609</v>
       </c>
-      <c r="B610" s="60">
+      <c r="B610" s="11">
         <v>433</v>
       </c>
-      <c r="C610" s="123" t="s">
+      <c r="C610" s="23" t="s">
         <v>1030</v>
       </c>
-      <c r="D610" s="60">
+      <c r="D610" s="11">
         <v>298</v>
       </c>
-    </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A611" s="60">
+      <c r="E610" s="6"/>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A611" s="11">
         <v>610</v>
       </c>
-      <c r="B611" s="60">
+      <c r="B611" s="11">
         <v>434</v>
       </c>
-      <c r="C611" s="123" t="s">
+      <c r="C611" s="23" t="s">
         <v>1030</v>
       </c>
-      <c r="D611" s="60">
+      <c r="D611" s="11">
         <v>299</v>
       </c>
-    </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A612" s="60">
+      <c r="E611" s="6"/>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A612" s="11">
         <v>611</v>
       </c>
-      <c r="B612" s="60">
+      <c r="B612" s="11">
         <v>435</v>
       </c>
-      <c r="C612" s="123" t="s">
+      <c r="C612" s="23" t="s">
         <v>1030</v>
       </c>
-      <c r="D612" s="60">
+      <c r="D612" s="11">
         <v>300</v>
       </c>
-    </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A613" s="60">
+      <c r="E612" s="6"/>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A613" s="11">
         <v>612</v>
       </c>
-      <c r="B613" s="60">
+      <c r="B613" s="11">
         <v>436</v>
       </c>
-      <c r="C613" s="123" t="s">
+      <c r="C613" s="23" t="s">
         <v>1030</v>
       </c>
-      <c r="D613" s="60">
+      <c r="D613" s="11">
         <v>301</v>
       </c>
-    </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A614" s="60">
+      <c r="E613" s="6"/>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A614" s="11">
         <v>613</v>
       </c>
-      <c r="B614" s="60">
+      <c r="B614" s="11">
         <v>437</v>
       </c>
-      <c r="C614" s="123" t="s">
+      <c r="C614" s="23" t="s">
         <v>1030</v>
       </c>
-      <c r="D614" s="60">
+      <c r="D614" s="11">
         <v>302</v>
       </c>
-    </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A615" s="60">
+      <c r="E614" s="6"/>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A615" s="11">
         <v>614</v>
       </c>
-      <c r="B615" s="60">
+      <c r="B615" s="11">
         <v>438</v>
       </c>
-      <c r="C615" s="123" t="s">
+      <c r="C615" s="23" t="s">
         <v>1030</v>
       </c>
-      <c r="D615" s="60">
+      <c r="D615" s="11">
         <v>303</v>
       </c>
+      <c r="E615" s="6"/>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A616" s="60">
+        <v>615</v>
+      </c>
+      <c r="B616" s="60">
+        <v>439</v>
+      </c>
+      <c r="C616" s="123" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D616" s="60">
+        <v>304</v>
+      </c>
+      <c r="E616" s="122"/>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A617" s="60">
+        <v>616</v>
+      </c>
+      <c r="B617" s="60">
+        <v>440</v>
+      </c>
+      <c r="C617" s="123" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D617" s="60">
+        <v>305</v>
+      </c>
+      <c r="E617" s="122"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -47828,13 +48157,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M421"/>
+  <dimension ref="A1:M424"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C389" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C401" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F418" sqref="F418"/>
+      <selection pane="bottomRight" activeCell="D430" sqref="D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -55605,7 +55934,7 @@
         <v>302</v>
       </c>
       <c r="C420" s="85" t="s">
-        <v>1584</v>
+        <v>1607</v>
       </c>
       <c r="D420" s="60">
         <v>108</v>
@@ -55628,6 +55957,57 @@
         <v>110</v>
       </c>
       <c r="E421" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" s="61">
+        <v>451</v>
+      </c>
+      <c r="B422" s="61">
+        <v>304</v>
+      </c>
+      <c r="C422" s="85" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D422" s="64" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E422" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" s="61">
+        <v>452</v>
+      </c>
+      <c r="B423" s="61">
+        <v>304</v>
+      </c>
+      <c r="C423" s="85" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D423" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E423" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" s="61">
+        <v>453</v>
+      </c>
+      <c r="B424" s="61">
+        <v>305</v>
+      </c>
+      <c r="C424" s="60" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D424" s="60" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E424" s="60">
         <v>2</v>
       </c>
     </row>
@@ -55641,13 +56021,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W920"/>
+  <dimension ref="A1:W939"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C880" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C913" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F893" sqref="F893"/>
+      <selection pane="bottomRight" activeCell="C941" sqref="C941"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -73855,7 +74235,7 @@
         <v>623</v>
       </c>
       <c r="D882" s="14" t="s">
-        <v>1297</v>
+        <v>1604</v>
       </c>
       <c r="E882" s="1">
         <v>20000</v>
@@ -74133,7 +74513,7 @@
         <v>635</v>
       </c>
       <c r="D897" s="13" t="s">
-        <v>1363</v>
+        <v>1601</v>
       </c>
       <c r="E897" s="29">
         <v>3000</v>
@@ -74201,405 +74581,805 @@
       <c r="H900" s="29"/>
       <c r="I900" s="29"/>
     </row>
-    <row r="901" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A901" s="61">
+    <row r="901" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A901" s="12">
         <v>900</v>
       </c>
-      <c r="B901" s="60">
+      <c r="B901" s="11">
         <v>637</v>
       </c>
-      <c r="C901" s="60"/>
-      <c r="D901" s="85" t="s">
+      <c r="C901" s="11"/>
+      <c r="D901" s="13" t="s">
         <v>1561</v>
       </c>
-      <c r="E901" s="60">
-        <v>1</v>
-      </c>
-      <c r="F901" s="60">
-        <v>1</v>
-      </c>
-      <c r="G901" s="60"/>
-      <c r="H901" s="60"/>
-    </row>
-    <row r="902" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A902" s="61">
+      <c r="E901" s="11">
+        <v>1</v>
+      </c>
+      <c r="F901" s="11">
+        <v>1</v>
+      </c>
+      <c r="G901" s="11"/>
+      <c r="H901" s="11"/>
+      <c r="I901" s="11"/>
+    </row>
+    <row r="902" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A902" s="12">
         <v>901</v>
       </c>
-      <c r="B902" s="60">
+      <c r="B902" s="11">
         <v>637</v>
       </c>
-      <c r="C902" s="60"/>
-      <c r="D902" s="85" t="s">
+      <c r="C902" s="11"/>
+      <c r="D902" s="13" t="s">
         <v>1562</v>
       </c>
-      <c r="E902" s="60">
-        <v>1</v>
-      </c>
-      <c r="F902" s="60">
-        <v>1</v>
-      </c>
-      <c r="G902" s="60"/>
-      <c r="H902" s="60"/>
-    </row>
-    <row r="903" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A903" s="61">
+      <c r="E902" s="11">
+        <v>1</v>
+      </c>
+      <c r="F902" s="11">
+        <v>1</v>
+      </c>
+      <c r="G902" s="11"/>
+      <c r="H902" s="11"/>
+      <c r="I902" s="11"/>
+    </row>
+    <row r="903" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A903" s="12">
         <v>902</v>
       </c>
-      <c r="B903" s="60">
+      <c r="B903" s="11">
         <v>638</v>
       </c>
-      <c r="C903" s="60"/>
-      <c r="D903" s="85" t="s">
+      <c r="C903" s="11"/>
+      <c r="D903" s="13" t="s">
         <v>1561</v>
       </c>
-      <c r="E903" s="60">
+      <c r="E903" s="11">
         <v>4</v>
       </c>
-      <c r="F903" s="60">
-        <v>1</v>
-      </c>
-      <c r="G903" s="60"/>
-      <c r="H903" s="60"/>
-    </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A904" s="61">
+      <c r="F903" s="11">
+        <v>1</v>
+      </c>
+      <c r="G903" s="11"/>
+      <c r="H903" s="11"/>
+      <c r="I903" s="11"/>
+    </row>
+    <row r="904" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A904" s="12">
         <v>903</v>
       </c>
-      <c r="B904" s="60">
+      <c r="B904" s="11">
         <v>638</v>
       </c>
-      <c r="C904" s="60"/>
-      <c r="D904" s="85" t="s">
+      <c r="C904" s="11"/>
+      <c r="D904" s="13" t="s">
         <v>1562</v>
       </c>
-      <c r="E904" s="60">
+      <c r="E904" s="11">
         <v>4</v>
       </c>
-      <c r="F904" s="60">
-        <v>1</v>
-      </c>
-      <c r="G904" s="60"/>
-      <c r="H904" s="60"/>
-    </row>
-    <row r="905" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A905" s="61">
+      <c r="F904" s="11">
+        <v>1</v>
+      </c>
+      <c r="G904" s="11"/>
+      <c r="H904" s="11"/>
+      <c r="I904" s="11"/>
+    </row>
+    <row r="905" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A905" s="12">
         <v>904</v>
       </c>
-      <c r="B905" s="60">
+      <c r="B905" s="11">
         <v>639</v>
       </c>
-      <c r="C905" s="60"/>
-      <c r="D905" s="85" t="s">
+      <c r="C905" s="11"/>
+      <c r="D905" s="13" t="s">
         <v>1561</v>
       </c>
-      <c r="E905" s="60">
+      <c r="E905" s="11">
         <v>9</v>
       </c>
-      <c r="F905" s="60">
-        <v>1</v>
-      </c>
-      <c r="G905" s="60"/>
-      <c r="H905" s="60"/>
-    </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A906" s="61">
+      <c r="F905" s="11">
+        <v>1</v>
+      </c>
+      <c r="G905" s="11"/>
+      <c r="H905" s="11"/>
+      <c r="I905" s="11"/>
+    </row>
+    <row r="906" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A906" s="12">
         <v>905</v>
       </c>
-      <c r="B906" s="60">
+      <c r="B906" s="11">
         <v>639</v>
       </c>
-      <c r="C906" s="60"/>
-      <c r="D906" s="85" t="s">
+      <c r="C906" s="11"/>
+      <c r="D906" s="13" t="s">
         <v>1562</v>
       </c>
-      <c r="E906" s="60">
+      <c r="E906" s="11">
         <v>9</v>
       </c>
-      <c r="F906" s="60">
-        <v>1</v>
-      </c>
-      <c r="G906" s="60"/>
-      <c r="H906" s="60"/>
-    </row>
-    <row r="907" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A907" s="61">
+      <c r="F906" s="11">
+        <v>1</v>
+      </c>
+      <c r="G906" s="11"/>
+      <c r="H906" s="11"/>
+      <c r="I906" s="11"/>
+    </row>
+    <row r="907" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A907" s="12">
         <v>906</v>
       </c>
-      <c r="B907" s="60">
+      <c r="B907" s="11">
         <v>640</v>
       </c>
-      <c r="C907" s="60"/>
-      <c r="D907" s="85" t="s">
+      <c r="C907" s="11"/>
+      <c r="D907" s="13" t="s">
         <v>1561</v>
       </c>
-      <c r="E907" s="60">
+      <c r="E907" s="11">
         <v>18</v>
       </c>
-      <c r="F907" s="60">
-        <v>1</v>
-      </c>
-      <c r="G907" s="60"/>
-      <c r="H907" s="60"/>
-    </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A908" s="61">
+      <c r="F907" s="11">
+        <v>1</v>
+      </c>
+      <c r="G907" s="11"/>
+      <c r="H907" s="11"/>
+      <c r="I907" s="11"/>
+    </row>
+    <row r="908" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A908" s="12">
         <v>907</v>
       </c>
-      <c r="B908" s="60">
+      <c r="B908" s="11">
         <v>640</v>
       </c>
-      <c r="C908" s="60"/>
-      <c r="D908" s="85" t="s">
+      <c r="C908" s="11"/>
+      <c r="D908" s="13" t="s">
         <v>1562</v>
       </c>
-      <c r="E908" s="60">
+      <c r="E908" s="11">
         <v>18</v>
       </c>
-      <c r="F908" s="60">
-        <v>1</v>
-      </c>
-      <c r="G908" s="60"/>
-      <c r="H908" s="60"/>
-    </row>
-    <row r="909" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A909" s="61">
+      <c r="F908" s="11">
+        <v>1</v>
+      </c>
+      <c r="G908" s="11"/>
+      <c r="H908" s="11"/>
+      <c r="I908" s="11"/>
+    </row>
+    <row r="909" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A909" s="12">
         <v>908</v>
       </c>
-      <c r="B909" s="60">
+      <c r="B909" s="11">
         <v>641</v>
       </c>
-      <c r="C909" s="60"/>
-      <c r="D909" s="85" t="s">
+      <c r="C909" s="11"/>
+      <c r="D909" s="13" t="s">
         <v>1561</v>
       </c>
-      <c r="E909" s="60">
+      <c r="E909" s="11">
         <v>30</v>
       </c>
-      <c r="F909" s="60">
-        <v>1</v>
-      </c>
-      <c r="G909" s="60"/>
-      <c r="H909" s="60"/>
-    </row>
-    <row r="910" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A910" s="61">
+      <c r="F909" s="11">
+        <v>1</v>
+      </c>
+      <c r="G909" s="11"/>
+      <c r="H909" s="11"/>
+      <c r="I909" s="11"/>
+    </row>
+    <row r="910" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A910" s="12">
         <v>909</v>
       </c>
-      <c r="B910" s="60">
+      <c r="B910" s="11">
         <v>641</v>
       </c>
-      <c r="C910" s="60"/>
-      <c r="D910" s="85" t="s">
+      <c r="C910" s="11"/>
+      <c r="D910" s="13" t="s">
         <v>1562</v>
       </c>
-      <c r="E910" s="60">
+      <c r="E910" s="11">
         <v>30</v>
       </c>
-      <c r="F910" s="60">
-        <v>1</v>
-      </c>
-      <c r="G910" s="60"/>
-      <c r="H910" s="60"/>
-    </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A911" s="61">
+      <c r="F910" s="11">
+        <v>1</v>
+      </c>
+      <c r="G910" s="11"/>
+      <c r="H910" s="11"/>
+      <c r="I910" s="11"/>
+    </row>
+    <row r="911" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A911" s="12">
         <v>910</v>
       </c>
-      <c r="B911" s="60">
+      <c r="B911" s="11">
         <v>642</v>
       </c>
-      <c r="C911" s="60"/>
-      <c r="D911" s="85" t="s">
+      <c r="C911" s="11"/>
+      <c r="D911" s="13" t="s">
         <v>1561</v>
       </c>
-      <c r="E911" s="60">
+      <c r="E911" s="11">
         <v>58</v>
       </c>
-      <c r="F911" s="60">
-        <v>1</v>
-      </c>
-      <c r="G911" s="60"/>
-      <c r="H911" s="60"/>
-    </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A912" s="61">
+      <c r="F911" s="11">
+        <v>1</v>
+      </c>
+      <c r="G911" s="11"/>
+      <c r="H911" s="11"/>
+      <c r="I911" s="11"/>
+    </row>
+    <row r="912" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A912" s="12">
         <v>911</v>
       </c>
-      <c r="B912" s="60">
+      <c r="B912" s="11">
         <v>642</v>
       </c>
-      <c r="C912" s="60"/>
-      <c r="D912" s="85" t="s">
+      <c r="C912" s="11"/>
+      <c r="D912" s="13" t="s">
         <v>1562</v>
       </c>
-      <c r="E912" s="60">
+      <c r="E912" s="11">
         <v>58</v>
       </c>
-      <c r="F912" s="60">
-        <v>1</v>
-      </c>
-      <c r="G912" s="60"/>
-      <c r="H912" s="60"/>
-    </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A913" s="61">
+      <c r="F912" s="11">
+        <v>1</v>
+      </c>
+      <c r="G912" s="11"/>
+      <c r="H912" s="11"/>
+      <c r="I912" s="11"/>
+    </row>
+    <row r="913" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A913" s="12">
         <v>912</v>
       </c>
-      <c r="B913" s="60">
+      <c r="B913" s="11">
         <v>643</v>
       </c>
-      <c r="C913" s="60"/>
-      <c r="D913" s="85" t="s">
+      <c r="C913" s="11"/>
+      <c r="D913" s="13" t="s">
         <v>1561</v>
       </c>
-      <c r="E913" s="60">
+      <c r="E913" s="11">
         <v>118</v>
       </c>
-      <c r="F913" s="60">
-        <v>1</v>
-      </c>
-      <c r="G913" s="60"/>
-      <c r="H913" s="60"/>
-    </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A914" s="61">
+      <c r="F913" s="11">
+        <v>1</v>
+      </c>
+      <c r="G913" s="11"/>
+      <c r="H913" s="11"/>
+      <c r="I913" s="11"/>
+    </row>
+    <row r="914" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A914" s="12">
         <v>913</v>
       </c>
-      <c r="B914" s="60">
+      <c r="B914" s="11">
         <v>643</v>
       </c>
-      <c r="C914" s="60"/>
-      <c r="D914" s="85" t="s">
+      <c r="C914" s="11"/>
+      <c r="D914" s="13" t="s">
         <v>1562</v>
       </c>
-      <c r="E914" s="60">
+      <c r="E914" s="11">
         <v>118</v>
       </c>
-      <c r="F914" s="60">
-        <v>1</v>
-      </c>
-      <c r="G914" s="60"/>
-      <c r="H914" s="60"/>
-    </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A915" s="61">
+      <c r="F914" s="11">
+        <v>1</v>
+      </c>
+      <c r="G914" s="11"/>
+      <c r="H914" s="11"/>
+      <c r="I914" s="11"/>
+    </row>
+    <row r="915" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A915" s="12">
         <v>914</v>
       </c>
-      <c r="B915" s="60">
+      <c r="B915" s="11">
         <v>644</v>
       </c>
-      <c r="C915" s="60"/>
-      <c r="D915" s="85" t="s">
+      <c r="C915" s="11"/>
+      <c r="D915" s="13" t="s">
         <v>1561</v>
       </c>
-      <c r="E915" s="60">
+      <c r="E915" s="11">
         <v>298</v>
       </c>
-      <c r="F915" s="60">
-        <v>1</v>
-      </c>
-      <c r="G915" s="60"/>
-      <c r="H915" s="60"/>
-    </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A916" s="61">
+      <c r="F915" s="11">
+        <v>1</v>
+      </c>
+      <c r="G915" s="11"/>
+      <c r="H915" s="11"/>
+      <c r="I915" s="11"/>
+    </row>
+    <row r="916" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A916" s="12">
         <v>915</v>
       </c>
-      <c r="B916" s="60">
+      <c r="B916" s="11">
         <v>644</v>
       </c>
-      <c r="C916" s="60"/>
-      <c r="D916" s="85" t="s">
+      <c r="C916" s="11"/>
+      <c r="D916" s="13" t="s">
         <v>1562</v>
       </c>
-      <c r="E916" s="60">
+      <c r="E916" s="11">
         <v>298</v>
       </c>
-      <c r="F916" s="60">
-        <v>1</v>
-      </c>
-      <c r="G916" s="60"/>
-      <c r="H916" s="60"/>
-    </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A917" s="61">
+      <c r="F916" s="11">
+        <v>1</v>
+      </c>
+      <c r="G916" s="11"/>
+      <c r="H916" s="11"/>
+      <c r="I916" s="11"/>
+    </row>
+    <row r="917" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A917" s="12">
         <v>916</v>
       </c>
-      <c r="B917" s="60">
+      <c r="B917" s="11">
         <v>645</v>
       </c>
-      <c r="C917" s="60"/>
-      <c r="D917" s="85" t="s">
+      <c r="C917" s="11"/>
+      <c r="D917" s="13" t="s">
         <v>1561</v>
       </c>
-      <c r="E917" s="60">
+      <c r="E917" s="11">
         <v>598</v>
       </c>
-      <c r="F917" s="60">
-        <v>1</v>
-      </c>
-      <c r="G917" s="60"/>
-      <c r="H917" s="60"/>
-    </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A918" s="61">
+      <c r="F917" s="11">
+        <v>1</v>
+      </c>
+      <c r="G917" s="11"/>
+      <c r="H917" s="11"/>
+      <c r="I917" s="11"/>
+    </row>
+    <row r="918" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A918" s="12">
         <v>917</v>
       </c>
-      <c r="B918" s="60">
+      <c r="B918" s="11">
         <v>645</v>
       </c>
-      <c r="C918" s="60"/>
-      <c r="D918" s="85" t="s">
+      <c r="C918" s="11"/>
+      <c r="D918" s="13" t="s">
         <v>1562</v>
       </c>
-      <c r="E918" s="60">
+      <c r="E918" s="11">
         <v>598</v>
       </c>
-      <c r="F918" s="60">
-        <v>1</v>
-      </c>
-      <c r="G918" s="60"/>
-      <c r="H918" s="60"/>
-    </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A919" s="61">
+      <c r="F918" s="11">
+        <v>1</v>
+      </c>
+      <c r="G918" s="11"/>
+      <c r="H918" s="11"/>
+      <c r="I918" s="11"/>
+    </row>
+    <row r="919" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A919" s="12">
         <v>918</v>
       </c>
-      <c r="B919" s="60">
+      <c r="B919" s="11">
         <v>646</v>
       </c>
-      <c r="C919" s="60"/>
-      <c r="D919" s="85" t="s">
+      <c r="C919" s="11"/>
+      <c r="D919" s="13" t="s">
         <v>1561</v>
       </c>
-      <c r="E919" s="60">
+      <c r="E919" s="11">
         <v>1498</v>
       </c>
-      <c r="F919" s="60">
-        <v>1</v>
-      </c>
-      <c r="G919" s="60"/>
-      <c r="H919" s="60"/>
-    </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A920" s="61">
+      <c r="F919" s="11">
+        <v>1</v>
+      </c>
+      <c r="G919" s="11"/>
+      <c r="H919" s="11"/>
+      <c r="I919" s="11"/>
+    </row>
+    <row r="920" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A920" s="12">
         <v>919</v>
       </c>
-      <c r="B920" s="60">
+      <c r="B920" s="11">
         <v>646</v>
       </c>
-      <c r="C920" s="60"/>
-      <c r="D920" s="85" t="s">
+      <c r="C920" s="11"/>
+      <c r="D920" s="13" t="s">
         <v>1562</v>
       </c>
-      <c r="E920" s="60">
+      <c r="E920" s="11">
         <v>1498</v>
       </c>
-      <c r="F920" s="60">
-        <v>1</v>
-      </c>
-      <c r="G920" s="60"/>
-      <c r="H920" s="60"/>
+      <c r="F920" s="11">
+        <v>1</v>
+      </c>
+      <c r="G920" s="11"/>
+      <c r="H920" s="11"/>
+      <c r="I920" s="11"/>
+    </row>
+    <row r="921" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A921" s="61">
+        <v>920</v>
+      </c>
+      <c r="B921" s="60">
+        <v>647</v>
+      </c>
+      <c r="C921" s="60"/>
+      <c r="D921" s="60" t="s">
+        <v>773</v>
+      </c>
+      <c r="E921" s="60">
+        <v>1000</v>
+      </c>
+      <c r="F921" s="60">
+        <v>1</v>
+      </c>
+      <c r="G921" s="60"/>
+      <c r="H921" s="60"/>
+    </row>
+    <row r="922" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A922" s="61">
+        <v>921</v>
+      </c>
+      <c r="B922" s="60">
+        <v>648</v>
+      </c>
+      <c r="C922" s="60"/>
+      <c r="D922" s="60" t="s">
+        <v>773</v>
+      </c>
+      <c r="E922" s="60">
+        <v>2000</v>
+      </c>
+      <c r="F922" s="60">
+        <v>1</v>
+      </c>
+      <c r="G922" s="60"/>
+      <c r="H922" s="60"/>
+    </row>
+    <row r="923" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A923" s="61">
+        <v>922</v>
+      </c>
+      <c r="B923" s="60">
+        <v>649</v>
+      </c>
+      <c r="C923" s="60"/>
+      <c r="D923" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E923" s="60">
+        <v>2</v>
+      </c>
+      <c r="F923" s="60">
+        <v>1</v>
+      </c>
+      <c r="G923" s="60"/>
+      <c r="H923" s="60"/>
+    </row>
+    <row r="924" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A924" s="61">
+        <v>923</v>
+      </c>
+      <c r="B924" s="60">
+        <v>650</v>
+      </c>
+      <c r="C924" s="60"/>
+      <c r="D924" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E924" s="60">
+        <v>5</v>
+      </c>
+      <c r="F924" s="60">
+        <v>1</v>
+      </c>
+      <c r="G924" s="60"/>
+      <c r="H924" s="60"/>
+    </row>
+    <row r="925" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A925" s="61">
+        <v>924</v>
+      </c>
+      <c r="B925" s="60">
+        <v>651</v>
+      </c>
+      <c r="C925" s="60"/>
+      <c r="D925" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E925" s="60">
+        <v>40</v>
+      </c>
+      <c r="F925" s="60">
+        <v>1</v>
+      </c>
+      <c r="G925" s="60"/>
+      <c r="H925" s="60"/>
+    </row>
+    <row r="926" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A926" s="61">
+        <v>925</v>
+      </c>
+      <c r="B926" s="60">
+        <v>652</v>
+      </c>
+      <c r="C926" s="60"/>
+      <c r="D926" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E926" s="60">
+        <v>100</v>
+      </c>
+      <c r="F926" s="60">
+        <v>1</v>
+      </c>
+      <c r="G926" s="60"/>
+      <c r="H926" s="60"/>
+    </row>
+    <row r="927" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A927" s="61">
+        <v>926</v>
+      </c>
+      <c r="B927" s="60">
+        <v>653</v>
+      </c>
+      <c r="C927" s="60"/>
+      <c r="D927" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E927" s="60">
+        <v>150</v>
+      </c>
+      <c r="F927" s="60">
+        <v>1</v>
+      </c>
+      <c r="G927" s="60"/>
+      <c r="H927" s="60"/>
+    </row>
+    <row r="928" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A928" s="61">
+        <v>927</v>
+      </c>
+      <c r="B928" s="60">
+        <v>654</v>
+      </c>
+      <c r="C928" s="60"/>
+      <c r="D928" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E928" s="60">
+        <v>300</v>
+      </c>
+      <c r="F928" s="60">
+        <v>1</v>
+      </c>
+      <c r="G928" s="60"/>
+      <c r="H928" s="60"/>
+    </row>
+    <row r="929" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A929" s="61">
+        <v>928</v>
+      </c>
+      <c r="B929" s="60">
+        <v>655</v>
+      </c>
+      <c r="C929" s="60"/>
+      <c r="D929" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E929" s="60">
+        <v>400</v>
+      </c>
+      <c r="F929" s="60">
+        <v>1</v>
+      </c>
+      <c r="G929" s="60"/>
+      <c r="H929" s="60"/>
+    </row>
+    <row r="930" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A930" s="61">
+        <v>929</v>
+      </c>
+      <c r="B930" s="60">
+        <v>656</v>
+      </c>
+      <c r="C930" s="60"/>
+      <c r="D930" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E930" s="60">
+        <v>1000</v>
+      </c>
+      <c r="F930" s="60">
+        <v>1</v>
+      </c>
+      <c r="G930" s="60"/>
+      <c r="H930" s="60"/>
+    </row>
+    <row r="931" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A931" s="61">
+        <v>930</v>
+      </c>
+      <c r="B931" s="60">
+        <v>657</v>
+      </c>
+      <c r="C931" s="60"/>
+      <c r="D931" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E931" s="60">
+        <v>2000</v>
+      </c>
+      <c r="F931" s="60">
+        <v>1</v>
+      </c>
+      <c r="G931" s="60"/>
+      <c r="H931" s="60"/>
+    </row>
+    <row r="932" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A932" s="61">
+        <v>931</v>
+      </c>
+      <c r="B932" s="60">
+        <v>658</v>
+      </c>
+      <c r="C932" s="60"/>
+      <c r="D932" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E932" s="60">
+        <v>3500</v>
+      </c>
+      <c r="F932" s="60">
+        <v>1</v>
+      </c>
+      <c r="G932" s="60"/>
+      <c r="H932" s="60"/>
+    </row>
+    <row r="933" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A933" s="61">
+        <v>932</v>
+      </c>
+      <c r="B933" s="60">
+        <v>659</v>
+      </c>
+      <c r="C933" s="60"/>
+      <c r="D933" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E933" s="60">
+        <v>17000</v>
+      </c>
+      <c r="F933" s="60">
+        <v>1</v>
+      </c>
+      <c r="G933" s="60"/>
+      <c r="H933" s="60"/>
+    </row>
+    <row r="934" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A934" s="61">
+        <v>933</v>
+      </c>
+      <c r="B934" s="60">
+        <v>660</v>
+      </c>
+      <c r="C934" s="60"/>
+      <c r="D934" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E934" s="60">
+        <v>32500</v>
+      </c>
+      <c r="F934" s="60">
+        <v>1</v>
+      </c>
+      <c r="G934" s="60"/>
+      <c r="H934" s="60"/>
+    </row>
+    <row r="935" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A935" s="61">
+        <v>934</v>
+      </c>
+      <c r="B935" s="60">
+        <v>661</v>
+      </c>
+      <c r="C935" s="60"/>
+      <c r="D935" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E935" s="60">
+        <v>30</v>
+      </c>
+      <c r="F935" s="60">
+        <v>1</v>
+      </c>
+      <c r="G935" s="60"/>
+      <c r="H935" s="60"/>
+    </row>
+    <row r="936" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A936" s="61">
+        <v>935</v>
+      </c>
+      <c r="B936" s="60">
+        <v>662</v>
+      </c>
+      <c r="C936" s="60"/>
+      <c r="D936" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E936" s="60">
+        <v>180</v>
+      </c>
+      <c r="F936" s="60">
+        <v>1</v>
+      </c>
+      <c r="G936" s="60"/>
+      <c r="H936" s="60"/>
+    </row>
+    <row r="937" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A937" s="61">
+        <v>936</v>
+      </c>
+      <c r="B937" s="60">
+        <v>663</v>
+      </c>
+      <c r="C937" s="60"/>
+      <c r="D937" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E937" s="60">
+        <v>700</v>
+      </c>
+      <c r="F937" s="60">
+        <v>1</v>
+      </c>
+      <c r="G937" s="60"/>
+      <c r="H937" s="60"/>
+    </row>
+    <row r="938" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A938" s="61">
+        <v>937</v>
+      </c>
+      <c r="B938" s="60">
+        <v>664</v>
+      </c>
+      <c r="C938" s="60"/>
+      <c r="D938" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E938" s="60">
+        <v>1500</v>
+      </c>
+      <c r="F938" s="60">
+        <v>1</v>
+      </c>
+      <c r="G938" s="60"/>
+      <c r="H938" s="60"/>
+    </row>
+    <row r="939" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A939" s="61">
+        <v>938</v>
+      </c>
+      <c r="B939" s="60">
+        <v>665</v>
+      </c>
+      <c r="C939" s="60"/>
+      <c r="D939" s="85" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E939" s="60">
+        <v>10000</v>
+      </c>
+      <c r="F939" s="60">
+        <v>1</v>
+      </c>
+      <c r="G939" s="60"/>
+      <c r="H939" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/config_Release/task_zajindan_server.xlsx
+++ b/config_Release/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5599" uniqueCount="1610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5706" uniqueCount="1644">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7049,10 +7049,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>is_auto_get_award|是否自动领取(0或空不自动，1自动领)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>buyu_3d_spend</t>
   </si>
   <si>
@@ -8877,34 +8873,6 @@
   <si>
     <t>prop_fish_drop_act_0</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>充值商城每日首次充值6元赠送</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>爱心</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9590,6 +9558,372 @@
   <si>
     <t>1,2,85,3,86,4,87,5,88,6,89,107,109,108,10044,110,10045,101,90,102,103,104,105,106,22,23,24,25,26,27,34,111,10189</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计赢金获得阳光</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_028_xycd</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500000,-1</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>66</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城每日首次充值6元赠送5个阳光</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城每日首次充值15元赠送12个阳光</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城每日首次充值30元赠送25个阳光</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城每日首次充值50元赠送38个阳光</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城每日首次充值98元赠送78个阳光</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城每日首次充值198元赠送158个阳光</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城每日首次充值498元赠送398个阳光</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城每日首次充值998元赠送798个阳光</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城每日首次充值2498元赠送1998个阳光</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_028_xycd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>67</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>68</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>69</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>671</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>672</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>673</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>674</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>675</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_028_xycd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_028_xycd_ljyj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xycd_sunshine</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_auto_get_award|是否自动领取(0或空不自动，1自动领，2累计赢金类型的自动领奖)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>充值商城每日首次充值6元赠送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10476,13 +10810,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T446"/>
+  <dimension ref="A1:T456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D425" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E425" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D452" sqref="D452"/>
+      <selection pane="bottomRight" activeCell="G435" sqref="G435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10517,7 +10851,7 @@
         <v>1038</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -14081,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>131</v>
@@ -14119,7 +14453,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>133</v>
@@ -14157,7 +14491,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>134</v>
@@ -14195,7 +14529,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>135</v>
@@ -14233,7 +14567,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>136</v>
@@ -14271,7 +14605,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>137</v>
@@ -14309,7 +14643,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>138</v>
@@ -14347,7 +14681,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>139</v>
@@ -14385,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>140</v>
@@ -14423,7 +14757,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>141</v>
@@ -14461,7 +14795,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>142</v>
@@ -14499,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>143</v>
@@ -14537,7 +14871,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>144</v>
@@ -14575,7 +14909,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>145</v>
@@ -14613,7 +14947,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>146</v>
@@ -14651,7 +14985,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>147</v>
@@ -14689,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>148</v>
@@ -14727,7 +15061,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>149</v>
@@ -14765,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>150</v>
@@ -14803,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>151</v>
@@ -14841,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>152</v>
@@ -14879,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>153</v>
@@ -14917,7 +15251,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>154</v>
@@ -14955,7 +15289,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>155</v>
@@ -14993,7 +15327,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>156</v>
@@ -15031,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>157</v>
@@ -15069,7 +15403,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>158</v>
@@ -15107,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>159</v>
@@ -15145,7 +15479,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>160</v>
@@ -15183,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>161</v>
@@ -15221,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>162</v>
@@ -15259,7 +15593,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>163</v>
@@ -15297,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>164</v>
@@ -15335,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>165</v>
@@ -15373,7 +15707,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>166</v>
@@ -15411,7 +15745,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>167</v>
@@ -17618,10 +17952,10 @@
         <v>1182</v>
       </c>
       <c r="D179" s="84" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E179" s="84" t="s">
         <v>1215</v>
-      </c>
-      <c r="E179" s="84" t="s">
-        <v>1216</v>
       </c>
       <c r="F179" s="84" t="s">
         <v>13</v>
@@ -17852,7 +18186,7 @@
         <v>1182</v>
       </c>
       <c r="D185" s="84" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E185" s="84" t="s">
         <v>132</v>
@@ -17891,7 +18225,7 @@
         <v>1182</v>
       </c>
       <c r="D186" s="84" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E186" s="84" t="s">
         <v>132</v>
@@ -17930,7 +18264,7 @@
         <v>1182</v>
       </c>
       <c r="D187" s="84" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E187" s="84" t="s">
         <v>132</v>
@@ -17969,7 +18303,7 @@
         <v>1182</v>
       </c>
       <c r="D188" s="84" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E188" s="84" t="s">
         <v>132</v>
@@ -18008,7 +18342,7 @@
         <v>1182</v>
       </c>
       <c r="D189" s="84" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E189" s="84" t="s">
         <v>132</v>
@@ -18047,7 +18381,7 @@
         <v>1182</v>
       </c>
       <c r="D190" s="84" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E190" s="84" t="s">
         <v>132</v>
@@ -18086,7 +18420,7 @@
         <v>1182</v>
       </c>
       <c r="D191" s="84" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E191" s="84" t="s">
         <v>132</v>
@@ -18163,7 +18497,7 @@
         <v>237</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E193" s="51" t="s">
         <v>239</v>
@@ -18239,7 +18573,7 @@
         <v>237</v>
       </c>
       <c r="D195" s="51" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E195" s="51" t="s">
         <v>239</v>
@@ -18277,7 +18611,7 @@
         <v>237</v>
       </c>
       <c r="D196" s="51" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E196" s="51" t="s">
         <v>239</v>
@@ -18315,7 +18649,7 @@
         <v>237</v>
       </c>
       <c r="D197" s="51" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E197" s="51" t="s">
         <v>239</v>
@@ -18353,7 +18687,7 @@
         <v>237</v>
       </c>
       <c r="D198" s="51" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E198" s="51" t="s">
         <v>239</v>
@@ -24357,7 +24691,7 @@
         <v>1131</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E356" s="16" t="s">
         <v>1126</v>
@@ -24810,16 +25144,16 @@
         <v>1</v>
       </c>
       <c r="C368" s="98" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D368" s="99" t="s">
         <v>1492</v>
-      </c>
-      <c r="D368" s="99" t="s">
-        <v>1493</v>
       </c>
       <c r="E368" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F368" s="98" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G368" s="97">
         <v>21315</v>
@@ -24848,16 +25182,16 @@
         <v>1</v>
       </c>
       <c r="C369" s="98" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D369" s="99" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E369" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F369" s="98" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G369" s="97">
         <v>21316</v>
@@ -24886,16 +25220,16 @@
         <v>1</v>
       </c>
       <c r="C370" s="98" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D370" s="98" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E370" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F370" s="98" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G370" s="97">
         <v>21317</v>
@@ -24924,16 +25258,16 @@
         <v>1</v>
       </c>
       <c r="C371" s="98" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D371" s="98" t="s">
         <v>1497</v>
-      </c>
-      <c r="D371" s="98" t="s">
-        <v>1498</v>
       </c>
       <c r="E371" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F371" s="98" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G371" s="97">
         <v>21318</v>
@@ -24962,16 +25296,16 @@
         <v>1</v>
       </c>
       <c r="C372" s="98" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D372" s="98" t="s">
         <v>1238</v>
       </c>
-      <c r="D372" s="98" t="s">
+      <c r="E372" s="98" t="s">
         <v>1239</v>
       </c>
-      <c r="E372" s="98" t="s">
+      <c r="F372" s="98" t="s">
         <v>1240</v>
-      </c>
-      <c r="F372" s="98" t="s">
-        <v>1241</v>
       </c>
       <c r="G372" s="97">
         <v>21319</v>
@@ -25000,16 +25334,16 @@
         <v>1</v>
       </c>
       <c r="C373" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D373" s="98" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E373" s="98" t="s">
         <v>1242</v>
       </c>
-      <c r="E373" s="98" t="s">
+      <c r="F373" s="98" t="s">
         <v>1243</v>
-      </c>
-      <c r="F373" s="98" t="s">
-        <v>1244</v>
       </c>
       <c r="G373" s="97">
         <v>21320</v>
@@ -25038,16 +25372,16 @@
         <v>1</v>
       </c>
       <c r="C374" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D374" s="98" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E374" s="98" t="s">
         <v>1245</v>
       </c>
-      <c r="E374" s="98" t="s">
-        <v>1246</v>
-      </c>
       <c r="F374" s="98" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G374" s="97">
         <v>21321</v>
@@ -25076,16 +25410,16 @@
         <v>1</v>
       </c>
       <c r="C375" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D375" s="98" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E375" s="100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F375" s="98" t="s">
         <v>1248</v>
-      </c>
-      <c r="F375" s="98" t="s">
-        <v>1249</v>
       </c>
       <c r="G375" s="97">
         <v>21322</v>
@@ -25114,16 +25448,16 @@
         <v>1</v>
       </c>
       <c r="C376" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D376" s="98" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E376" s="100" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F376" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G376" s="97">
         <v>21323</v>
@@ -25152,16 +25486,16 @@
         <v>1</v>
       </c>
       <c r="C377" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D377" s="98" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E377" s="100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F377" s="98" t="s">
         <v>1248</v>
-      </c>
-      <c r="F377" s="98" t="s">
-        <v>1249</v>
       </c>
       <c r="G377" s="97">
         <v>21324</v>
@@ -25190,16 +25524,16 @@
         <v>1</v>
       </c>
       <c r="C378" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D378" s="98" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E378" s="100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F378" s="98" t="s">
         <v>1248</v>
-      </c>
-      <c r="F378" s="98" t="s">
-        <v>1249</v>
       </c>
       <c r="G378" s="97">
         <v>21325</v>
@@ -25228,13 +25562,13 @@
         <v>1</v>
       </c>
       <c r="C379" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D379" s="98" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E379" s="100" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F379" s="98" t="s">
         <v>855</v>
@@ -25266,16 +25600,16 @@
         <v>1</v>
       </c>
       <c r="C380" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D380" s="98" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E380" s="100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F380" s="98" t="s">
         <v>1248</v>
-      </c>
-      <c r="F380" s="98" t="s">
-        <v>1249</v>
       </c>
       <c r="G380" s="97">
         <v>21327</v>
@@ -25304,16 +25638,16 @@
         <v>1</v>
       </c>
       <c r="C381" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D381" s="98" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E381" s="100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F381" s="98" t="s">
         <v>1248</v>
-      </c>
-      <c r="F381" s="98" t="s">
-        <v>1249</v>
       </c>
       <c r="G381" s="97">
         <v>21328</v>
@@ -25342,16 +25676,16 @@
         <v>1</v>
       </c>
       <c r="C382" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D382" s="98" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E382" s="100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F382" s="98" t="s">
         <v>1248</v>
-      </c>
-      <c r="F382" s="98" t="s">
-        <v>1249</v>
       </c>
       <c r="G382" s="97">
         <v>21329</v>
@@ -25380,16 +25714,16 @@
         <v>1</v>
       </c>
       <c r="C383" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D383" s="98" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E383" s="100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F383" s="98" t="s">
         <v>1248</v>
-      </c>
-      <c r="F383" s="98" t="s">
-        <v>1249</v>
       </c>
       <c r="G383" s="97">
         <v>21330</v>
@@ -25418,16 +25752,16 @@
         <v>1</v>
       </c>
       <c r="C384" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D384" s="98" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E384" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F384" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G384" s="97">
         <v>21331</v>
@@ -25456,13 +25790,13 @@
         <v>1</v>
       </c>
       <c r="C385" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D385" s="98" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E385" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F385" s="98" t="s">
         <v>855</v>
@@ -25494,16 +25828,16 @@
         <v>1</v>
       </c>
       <c r="C386" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D386" s="98" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E386" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F386" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G386" s="97">
         <v>21333</v>
@@ -25532,16 +25866,16 @@
         <v>1</v>
       </c>
       <c r="C387" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D387" s="98" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E387" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F387" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G387" s="97">
         <v>21334</v>
@@ -25570,16 +25904,16 @@
         <v>1</v>
       </c>
       <c r="C388" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D388" s="98" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E388" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F388" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G388" s="97">
         <v>21335</v>
@@ -25608,13 +25942,13 @@
         <v>1</v>
       </c>
       <c r="C389" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D389" s="98" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E389" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F389" s="98" t="s">
         <v>855</v>
@@ -25646,16 +25980,16 @@
         <v>1</v>
       </c>
       <c r="C390" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D390" s="98" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E390" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F390" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G390" s="97">
         <v>21337</v>
@@ -25684,16 +26018,16 @@
         <v>1</v>
       </c>
       <c r="C391" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D391" s="98" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E391" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F391" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G391" s="97">
         <v>21338</v>
@@ -25722,16 +26056,16 @@
         <v>1</v>
       </c>
       <c r="C392" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D392" s="98" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E392" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F392" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G392" s="97">
         <v>21339</v>
@@ -25760,16 +26094,16 @@
         <v>1</v>
       </c>
       <c r="C393" s="98" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D393" s="97" t="s">
         <v>1313</v>
       </c>
-      <c r="D393" s="97" t="s">
+      <c r="E393" s="100" t="s">
         <v>1314</v>
       </c>
-      <c r="E393" s="100" t="s">
-        <v>1315</v>
-      </c>
       <c r="F393" s="98" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G393" s="97">
         <v>21340</v>
@@ -25798,16 +26132,16 @@
         <v>1</v>
       </c>
       <c r="C394" s="98" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D394" s="98" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E394" s="98" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F394" s="98" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G394" s="97">
         <v>21341</v>
@@ -25836,13 +26170,13 @@
         <v>1</v>
       </c>
       <c r="C395" s="102" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D395" s="102" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E395" s="102" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F395" s="102" t="s">
         <v>13</v>
@@ -25874,13 +26208,13 @@
         <v>1</v>
       </c>
       <c r="C396" s="102" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D396" s="102" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E396" s="102" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F396" s="102" t="s">
         <v>13</v>
@@ -25912,13 +26246,13 @@
         <v>1</v>
       </c>
       <c r="C397" s="102" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D397" s="102" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E397" s="102" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F397" s="102" t="s">
         <v>13</v>
@@ -25950,13 +26284,13 @@
         <v>1</v>
       </c>
       <c r="C398" s="102" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D398" s="102" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E398" s="102" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F398" s="102" t="s">
         <v>13</v>
@@ -25988,13 +26322,13 @@
         <v>1</v>
       </c>
       <c r="C399" s="102" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D399" s="102" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E399" s="102" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F399" s="102" t="s">
         <v>13</v>
@@ -26026,13 +26360,13 @@
         <v>1</v>
       </c>
       <c r="C400" s="103" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D400" s="104" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E400" s="104" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F400" s="103" t="s">
         <v>13</v>
@@ -26064,13 +26398,13 @@
         <v>1</v>
       </c>
       <c r="C401" s="103" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D401" s="104" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E401" s="104" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F401" s="103" t="s">
         <v>13</v>
@@ -26102,13 +26436,13 @@
         <v>1</v>
       </c>
       <c r="C402" s="103" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D402" s="104" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E402" s="104" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F402" s="103" t="s">
         <v>13</v>
@@ -26140,13 +26474,13 @@
         <v>1</v>
       </c>
       <c r="C403" s="104" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D403" s="104" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E403" s="104" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F403" s="103" t="s">
         <v>13</v>
@@ -26178,16 +26512,16 @@
         <v>1</v>
       </c>
       <c r="C404" s="49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D404" s="49" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E404" s="49" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F404" s="49" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G404" s="7">
         <v>21351</v>
@@ -26216,16 +26550,16 @@
         <v>1</v>
       </c>
       <c r="C405" s="49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D405" s="49" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E405" s="49" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F405" s="49" t="s">
         <v>1401</v>
-      </c>
-      <c r="F405" s="49" t="s">
-        <v>1402</v>
       </c>
       <c r="G405" s="7">
         <v>21352</v>
@@ -26254,16 +26588,16 @@
         <v>1</v>
       </c>
       <c r="C406" s="49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D406" s="49" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E406" s="49" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F406" s="49" t="s">
         <v>1401</v>
-      </c>
-      <c r="F406" s="49" t="s">
-        <v>1402</v>
       </c>
       <c r="G406" s="7">
         <v>21353</v>
@@ -26292,16 +26626,16 @@
         <v>1</v>
       </c>
       <c r="C407" s="49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D407" s="49" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E407" s="49" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F407" s="49" t="s">
         <v>1401</v>
-      </c>
-      <c r="F407" s="49" t="s">
-        <v>1402</v>
       </c>
       <c r="G407" s="7">
         <v>21354</v>
@@ -26330,16 +26664,16 @@
         <v>1</v>
       </c>
       <c r="C408" s="49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D408" s="49" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E408" s="49" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F408" s="49" t="s">
         <v>1401</v>
-      </c>
-      <c r="F408" s="49" t="s">
-        <v>1402</v>
       </c>
       <c r="G408" s="7">
         <v>21355</v>
@@ -26368,16 +26702,16 @@
         <v>1</v>
       </c>
       <c r="C409" s="49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D409" s="49" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E409" s="49" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F409" s="49" t="s">
         <v>1401</v>
-      </c>
-      <c r="F409" s="49" t="s">
-        <v>1402</v>
       </c>
       <c r="G409" s="7">
         <v>21356</v>
@@ -26406,16 +26740,16 @@
         <v>1</v>
       </c>
       <c r="C410" s="49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D410" s="49" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E410" s="49" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F410" s="49" t="s">
         <v>1401</v>
-      </c>
-      <c r="F410" s="49" t="s">
-        <v>1402</v>
       </c>
       <c r="G410" s="7">
         <v>21357</v>
@@ -26444,16 +26778,16 @@
         <v>1</v>
       </c>
       <c r="C411" s="49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D411" s="49" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E411" s="49" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F411" s="49" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G411" s="7">
         <v>21358</v>
@@ -26482,13 +26816,13 @@
         <v>1</v>
       </c>
       <c r="C412" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D412" s="7" t="s">
         <v>1430</v>
       </c>
-      <c r="D412" s="7" t="s">
+      <c r="E412" s="7" t="s">
         <v>1431</v>
-      </c>
-      <c r="E412" s="7" t="s">
-        <v>1432</v>
       </c>
       <c r="F412" s="7" t="s">
         <v>855</v>
@@ -26520,13 +26854,13 @@
         <v>1</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E413" s="7" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F413" s="7" t="s">
         <v>855</v>
@@ -26558,13 +26892,13 @@
         <v>1</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D414" s="49" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E414" s="49" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F414" s="7" t="s">
         <v>855</v>
@@ -26596,13 +26930,13 @@
         <v>1</v>
       </c>
       <c r="C415" s="16" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D415" s="16" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E415" s="16" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F415" s="12" t="s">
         <v>855</v>
@@ -26634,16 +26968,16 @@
         <v>1</v>
       </c>
       <c r="C416" s="16" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D416" s="16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E416" s="16" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="F416" s="12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G416" s="12">
         <v>21363</v>
@@ -26672,13 +27006,13 @@
         <v>1</v>
       </c>
       <c r="C417" s="16" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D417" s="16" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E417" s="16" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F417" s="12" t="s">
         <v>855</v>
@@ -26710,16 +27044,16 @@
         <v>1</v>
       </c>
       <c r="C418" s="16" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D418" s="16" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E418" s="16" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F418" s="12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G418" s="12">
         <v>21365</v>
@@ -26748,16 +27082,16 @@
         <v>1</v>
       </c>
       <c r="C419" s="16" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D419" s="16" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E419" s="16" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F419" s="12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G419" s="12">
         <v>21366</v>
@@ -26786,13 +27120,13 @@
         <v>1</v>
       </c>
       <c r="C420" s="16" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D420" s="16" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E420" s="16" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F420" s="12" t="s">
         <v>855</v>
@@ -26824,16 +27158,16 @@
         <v>1</v>
       </c>
       <c r="C421" s="16" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D421" s="16" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E421" s="16" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F421" s="12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G421" s="12">
         <v>21368</v>
@@ -26862,16 +27196,16 @@
         <v>1</v>
       </c>
       <c r="C422" s="16" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D422" s="16" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E422" s="16" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F422" s="12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G422" s="12">
         <v>21369</v>
@@ -26900,16 +27234,16 @@
         <v>1</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D423" s="16" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E423" s="16" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F423" s="12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G423" s="12">
         <v>21370</v>
@@ -26938,16 +27272,16 @@
         <v>1</v>
       </c>
       <c r="C424" s="16" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D424" s="16" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E424" s="16" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F424" s="16" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="G424" s="12">
         <v>21371</v>
@@ -26976,16 +27310,16 @@
         <v>1</v>
       </c>
       <c r="C425" s="114" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D425" s="114" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E425" s="114" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F425" s="114" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="G425" s="113">
         <v>21372</v>
@@ -27014,13 +27348,13 @@
         <v>1</v>
       </c>
       <c r="C426" s="114" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D426" s="114" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E426" s="114" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F426" s="113" t="s">
         <v>855</v>
@@ -27052,13 +27386,13 @@
         <v>1</v>
       </c>
       <c r="C427" s="114" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D427" s="114" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E427" s="114" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F427" s="113" t="s">
         <v>855</v>
@@ -27090,13 +27424,13 @@
         <v>1</v>
       </c>
       <c r="C428" s="114" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D428" s="114" t="s">
         <v>1506</v>
       </c>
-      <c r="D428" s="114" t="s">
-        <v>1507</v>
-      </c>
       <c r="E428" s="114" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F428" s="113" t="s">
         <v>855</v>
@@ -27128,13 +27462,13 @@
         <v>1</v>
       </c>
       <c r="C429" s="61" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D429" s="61" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E429" s="84" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F429" s="61" t="s">
         <v>855</v>
@@ -27166,16 +27500,16 @@
         <v>1</v>
       </c>
       <c r="C430" s="16" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D430" s="16" t="s">
         <v>1533</v>
       </c>
-      <c r="D430" s="16" t="s">
+      <c r="E430" s="16" t="s">
         <v>1534</v>
       </c>
-      <c r="E430" s="16" t="s">
-        <v>1535</v>
-      </c>
       <c r="F430" s="16" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="G430" s="12">
         <v>21377</v>
@@ -27204,16 +27538,16 @@
         <v>1</v>
       </c>
       <c r="C431" s="16" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D431" s="16" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E431" s="16" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F431" s="16" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G431" s="12">
         <v>21378</v>
@@ -27242,16 +27576,16 @@
         <v>1</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D432" s="16" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E432" s="16" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F432" s="16" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G432" s="12">
         <v>21379</v>
@@ -27280,16 +27614,16 @@
         <v>1</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D433" s="16" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E433" s="16" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F433" s="16" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G433" s="12">
         <v>21380</v>
@@ -27318,16 +27652,16 @@
         <v>1</v>
       </c>
       <c r="C434" s="16" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D434" s="16" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E434" s="16" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F434" s="16" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G434" s="12">
         <v>21381</v>
@@ -27356,13 +27690,13 @@
         <v>1</v>
       </c>
       <c r="C435" s="16" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D435" s="16" t="s">
         <v>1556</v>
       </c>
-      <c r="D435" s="16" t="s">
-        <v>1557</v>
-      </c>
       <c r="E435" s="16" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="F435" s="16" t="s">
         <v>855</v>
@@ -27394,13 +27728,13 @@
         <v>1</v>
       </c>
       <c r="C436" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D436" s="16" t="s">
-        <v>1563</v>
+        <v>1643</v>
       </c>
       <c r="E436" s="16" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="F436" s="16" t="s">
         <v>855</v>
@@ -27432,13 +27766,13 @@
         <v>1</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D437" s="16" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="E437" s="16" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F437" s="16" t="s">
         <v>855</v>
@@ -27470,13 +27804,13 @@
         <v>1</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D438" s="16" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="E438" s="16" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F438" s="16" t="s">
         <v>855</v>
@@ -27508,13 +27842,13 @@
         <v>1</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D439" s="16" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="E439" s="16" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F439" s="16" t="s">
         <v>855</v>
@@ -27546,13 +27880,13 @@
         <v>1</v>
       </c>
       <c r="C440" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D440" s="16" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E440" s="16" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F440" s="16" t="s">
         <v>855</v>
@@ -27584,13 +27918,13 @@
         <v>1</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="D441" s="16" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E441" s="16" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F441" s="16" t="s">
         <v>855</v>
@@ -27622,13 +27956,13 @@
         <v>1</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D442" s="16" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E442" s="16" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F442" s="16" t="s">
         <v>855</v>
@@ -27660,13 +27994,13 @@
         <v>1</v>
       </c>
       <c r="C443" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D443" s="16" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E443" s="16" t="s">
         <v>1570</v>
-      </c>
-      <c r="E443" s="16" t="s">
-        <v>1572</v>
       </c>
       <c r="F443" s="16" t="s">
         <v>855</v>
@@ -27698,13 +28032,13 @@
         <v>1</v>
       </c>
       <c r="C444" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D444" s="16" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="E444" s="16" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F444" s="16" t="s">
         <v>855</v>
@@ -27728,79 +28062,459 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="445" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="61">
+    <row r="445" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="12">
         <v>1000034</v>
       </c>
-      <c r="B445" s="61">
-        <v>1</v>
-      </c>
-      <c r="C445" s="84" t="s">
+      <c r="B445" s="12">
+        <v>1</v>
+      </c>
+      <c r="C445" s="16" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D445" s="16" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E445" s="16" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F445" s="16" t="s">
+        <v>855</v>
+      </c>
+      <c r="G445" s="12">
+        <v>21392</v>
+      </c>
+      <c r="H445" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I445" s="12">
+        <v>1</v>
+      </c>
+      <c r="J445" s="12">
+        <v>1598889600</v>
+      </c>
+      <c r="K445" s="12">
+        <v>1599494399</v>
+      </c>
+      <c r="L445" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="12">
+        <v>1000035</v>
+      </c>
+      <c r="B446" s="12">
+        <v>1</v>
+      </c>
+      <c r="C446" s="16" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D446" s="16" t="s">
         <v>1591</v>
       </c>
-      <c r="D445" s="84" t="s">
+      <c r="E446" s="16" t="s">
         <v>1592</v>
       </c>
-      <c r="E445" s="84" t="s">
-        <v>1594</v>
-      </c>
-      <c r="F445" s="84" t="s">
+      <c r="F446" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="G445" s="61">
-        <v>21392</v>
-      </c>
-      <c r="H445" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I445" s="61">
-        <v>1</v>
-      </c>
-      <c r="J445" s="61">
+      <c r="G446" s="12">
+        <v>21393</v>
+      </c>
+      <c r="H446" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I446" s="12">
+        <v>1</v>
+      </c>
+      <c r="J446" s="12">
         <v>1598889600</v>
       </c>
-      <c r="K445" s="61">
+      <c r="K446" s="12">
         <v>1599494399</v>
       </c>
-      <c r="L445" s="61">
+      <c r="L446" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="446" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="61">
-        <v>1000035</v>
-      </c>
-      <c r="B446" s="61">
-        <v>1</v>
-      </c>
-      <c r="C446" s="84" t="s">
-        <v>1591</v>
-      </c>
-      <c r="D446" s="84" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E446" s="84" t="s">
-        <v>1594</v>
-      </c>
-      <c r="F446" s="84" t="s">
+    <row r="447" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="61">
+        <v>1000036</v>
+      </c>
+      <c r="B447" s="61">
+        <v>1</v>
+      </c>
+      <c r="C447" s="61" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D447" s="84" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E447" s="84" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F447" s="84" t="s">
         <v>855</v>
       </c>
-      <c r="G446" s="61">
-        <v>21393</v>
-      </c>
-      <c r="H446" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I446" s="61">
-        <v>1</v>
-      </c>
-      <c r="J446" s="61">
-        <v>1598889600</v>
-      </c>
-      <c r="K446" s="61">
-        <v>1599494399</v>
-      </c>
-      <c r="L446" s="61">
+      <c r="G447" s="61">
+        <v>21394</v>
+      </c>
+      <c r="H447" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I447" s="61">
+        <v>1</v>
+      </c>
+      <c r="J447" s="61">
+        <v>1599521400</v>
+      </c>
+      <c r="K447" s="61">
+        <v>1600099199</v>
+      </c>
+      <c r="L447" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="61">
+        <v>1000037</v>
+      </c>
+      <c r="B448" s="61">
+        <v>1</v>
+      </c>
+      <c r="C448" s="84" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D448" s="84" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E448" s="84" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F448" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G448" s="61">
+        <v>21395</v>
+      </c>
+      <c r="H448" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I448" s="61">
+        <v>1</v>
+      </c>
+      <c r="J448" s="61">
+        <v>1599494400</v>
+      </c>
+      <c r="K448" s="61">
+        <v>1600099199</v>
+      </c>
+      <c r="L448" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="61">
+        <v>1000038</v>
+      </c>
+      <c r="B449" s="61">
+        <v>1</v>
+      </c>
+      <c r="C449" s="61" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D449" s="84" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E449" s="84" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F449" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G449" s="61">
+        <v>21396</v>
+      </c>
+      <c r="H449" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I449" s="61">
+        <v>1</v>
+      </c>
+      <c r="J449" s="61">
+        <v>1599494400</v>
+      </c>
+      <c r="K449" s="61">
+        <v>1600099199</v>
+      </c>
+      <c r="L449" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="61">
+        <v>1000039</v>
+      </c>
+      <c r="B450" s="61">
+        <v>1</v>
+      </c>
+      <c r="C450" s="84" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D450" s="84" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E450" s="84" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F450" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G450" s="61">
+        <v>21397</v>
+      </c>
+      <c r="H450" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I450" s="61">
+        <v>1</v>
+      </c>
+      <c r="J450" s="61">
+        <v>1599494400</v>
+      </c>
+      <c r="K450" s="61">
+        <v>1600099199</v>
+      </c>
+      <c r="L450" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="61">
+        <v>1000040</v>
+      </c>
+      <c r="B451" s="61">
+        <v>1</v>
+      </c>
+      <c r="C451" s="61" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D451" s="84" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E451" s="84" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F451" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G451" s="61">
+        <v>21398</v>
+      </c>
+      <c r="H451" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I451" s="61">
+        <v>1</v>
+      </c>
+      <c r="J451" s="61">
+        <v>1599494400</v>
+      </c>
+      <c r="K451" s="61">
+        <v>1600099199</v>
+      </c>
+      <c r="L451" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="61">
+        <v>1000041</v>
+      </c>
+      <c r="B452" s="61">
+        <v>1</v>
+      </c>
+      <c r="C452" s="84" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D452" s="84" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E452" s="84" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F452" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G452" s="61">
+        <v>21399</v>
+      </c>
+      <c r="H452" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I452" s="61">
+        <v>1</v>
+      </c>
+      <c r="J452" s="61">
+        <v>1599494400</v>
+      </c>
+      <c r="K452" s="61">
+        <v>1600099199</v>
+      </c>
+      <c r="L452" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="61">
+        <v>1000042</v>
+      </c>
+      <c r="B453" s="61">
+        <v>1</v>
+      </c>
+      <c r="C453" s="61" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D453" s="84" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E453" s="84" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F453" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G453" s="61">
+        <v>21400</v>
+      </c>
+      <c r="H453" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I453" s="61">
+        <v>1</v>
+      </c>
+      <c r="J453" s="61">
+        <v>1599494400</v>
+      </c>
+      <c r="K453" s="61">
+        <v>1600099199</v>
+      </c>
+      <c r="L453" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="61">
+        <v>1000043</v>
+      </c>
+      <c r="B454" s="61">
+        <v>1</v>
+      </c>
+      <c r="C454" s="84" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D454" s="84" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E454" s="84" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F454" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G454" s="61">
+        <v>21401</v>
+      </c>
+      <c r="H454" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I454" s="61">
+        <v>1</v>
+      </c>
+      <c r="J454" s="61">
+        <v>1599494400</v>
+      </c>
+      <c r="K454" s="61">
+        <v>1600099199</v>
+      </c>
+      <c r="L454" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="61">
+        <v>1000044</v>
+      </c>
+      <c r="B455" s="61">
+        <v>1</v>
+      </c>
+      <c r="C455" s="61" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D455" s="84" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E455" s="84" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F455" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G455" s="61">
+        <v>21402</v>
+      </c>
+      <c r="H455" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I455" s="61">
+        <v>1</v>
+      </c>
+      <c r="J455" s="61">
+        <v>1599494400</v>
+      </c>
+      <c r="K455" s="61">
+        <v>1600099199</v>
+      </c>
+      <c r="L455" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="61">
+        <v>1000045</v>
+      </c>
+      <c r="B456" s="61">
+        <v>1</v>
+      </c>
+      <c r="C456" s="84" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D456" s="84" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E456" s="84" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F456" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G456" s="61">
+        <v>21403</v>
+      </c>
+      <c r="H456" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I456" s="61">
+        <v>1</v>
+      </c>
+      <c r="J456" s="61">
+        <v>1599494400</v>
+      </c>
+      <c r="K456" s="61">
+        <v>1600099199</v>
+      </c>
+      <c r="L456" s="61">
         <v>-1</v>
       </c>
     </row>
@@ -27815,13 +28529,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K446"/>
+  <dimension ref="A1:K456"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C427" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G439" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A449" sqref="A449"/>
+      <selection pane="bottomRight" activeCell="I465" sqref="I465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27849,7 +28563,7 @@
         <v>380</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>381</v>
@@ -27864,7 +28578,7 @@
         <v>917</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1192</v>
+        <v>1642</v>
       </c>
       <c r="K1" s="38"/>
     </row>
@@ -32644,7 +33358,7 @@
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="82" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G179" s="79"/>
       <c r="H179" s="83" t="s">
@@ -32791,7 +33505,7 @@
         <v>21132</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D185" s="11">
         <v>184</v>
@@ -33012,7 +33726,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="82" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G193" s="79"/>
       <c r="H193" s="83" t="s">
@@ -33037,7 +33751,7 @@
         <v>0</v>
       </c>
       <c r="F194" s="82" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G194" s="79"/>
       <c r="H194" s="83" t="s">
@@ -33062,7 +33776,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="82" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G195" s="79"/>
       <c r="H195" s="83" t="s">
@@ -33087,7 +33801,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="82" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G196" s="79"/>
       <c r="H196" s="83" t="s">
@@ -33112,7 +33826,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="82" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G197" s="79"/>
       <c r="H197" s="83" t="s">
@@ -35029,7 +35743,7 @@
         <v>21216</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D269" s="11">
         <v>268</v>
@@ -37407,14 +38121,14 @@
       </c>
       <c r="E368" s="11"/>
       <c r="F368" s="40" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G368" s="35"/>
       <c r="H368" s="15" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I368" s="13" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="369" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37430,14 +38144,14 @@
       </c>
       <c r="E369" s="11"/>
       <c r="F369" s="40" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G369" s="35"/>
       <c r="H369" s="15" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I369" s="13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="370" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37453,14 +38167,14 @@
       </c>
       <c r="E370" s="11"/>
       <c r="F370" s="40" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G370" s="35"/>
       <c r="H370" s="15" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I370" s="13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="371" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37476,14 +38190,14 @@
       </c>
       <c r="E371" s="11"/>
       <c r="F371" s="40" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G371" s="35"/>
       <c r="H371" s="15" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I371" s="13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="372" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37499,14 +38213,14 @@
       </c>
       <c r="E372" s="11"/>
       <c r="F372" s="40" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G372" s="35"/>
       <c r="H372" s="15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I372" s="13" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="373" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37520,12 +38234,12 @@
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
       <c r="F373" s="40" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G373" s="35"/>
       <c r="H373" s="15"/>
       <c r="I373" s="13" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="374" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37539,12 +38253,12 @@
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
       <c r="F374" s="40" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G374" s="35"/>
       <c r="H374" s="15"/>
       <c r="I374" s="13" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="375" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37560,14 +38274,14 @@
       </c>
       <c r="E375" s="11"/>
       <c r="F375" s="40" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G375" s="35"/>
       <c r="H375" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I375" s="13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="376" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37583,14 +38297,14 @@
       </c>
       <c r="E376" s="11"/>
       <c r="F376" s="40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G376" s="35"/>
       <c r="H376" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I376" s="13" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="377" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37606,14 +38320,14 @@
       </c>
       <c r="E377" s="11"/>
       <c r="F377" s="40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G377" s="35"/>
       <c r="H377" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I377" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="378" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37629,14 +38343,14 @@
       </c>
       <c r="E378" s="11"/>
       <c r="F378" s="40" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G378" s="35"/>
       <c r="H378" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I378" s="13" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="379" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37652,14 +38366,14 @@
       </c>
       <c r="E379" s="11"/>
       <c r="F379" s="40" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G379" s="35"/>
       <c r="H379" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I379" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="380" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37675,14 +38389,14 @@
       </c>
       <c r="E380" s="11"/>
       <c r="F380" s="40" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G380" s="35"/>
       <c r="H380" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I380" s="13" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="381" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37698,14 +38412,14 @@
       </c>
       <c r="E381" s="11"/>
       <c r="F381" s="40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G381" s="35"/>
       <c r="H381" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I381" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="382" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37721,14 +38435,14 @@
       </c>
       <c r="E382" s="11"/>
       <c r="F382" s="40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G382" s="35"/>
       <c r="H382" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I382" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="383" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37744,14 +38458,14 @@
       </c>
       <c r="E383" s="11"/>
       <c r="F383" s="40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G383" s="35"/>
       <c r="H383" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I383" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="384" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37767,14 +38481,14 @@
       </c>
       <c r="E384" s="11"/>
       <c r="F384" s="40" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G384" s="35"/>
       <c r="H384" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I384" s="13" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="385" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37792,14 +38506,14 @@
         <v>258</v>
       </c>
       <c r="F385" s="40" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G385" s="35"/>
       <c r="H385" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I385" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="386" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37817,14 +38531,14 @@
         <v>259</v>
       </c>
       <c r="F386" s="40" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G386" s="35"/>
       <c r="H386" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I386" s="13" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="387" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37840,14 +38554,14 @@
       </c>
       <c r="E387" s="11"/>
       <c r="F387" s="40" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G387" s="35"/>
       <c r="H387" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I387" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="388" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37863,14 +38577,14 @@
       </c>
       <c r="E388" s="11"/>
       <c r="F388" s="40" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G388" s="35"/>
       <c r="H388" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I388" s="13" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="389" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37888,14 +38602,14 @@
         <v>260</v>
       </c>
       <c r="F389" s="40" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G389" s="35"/>
       <c r="H389" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I389" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="390" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37911,14 +38625,14 @@
       </c>
       <c r="E390" s="11"/>
       <c r="F390" s="40" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G390" s="35"/>
       <c r="H390" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I390" s="13" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="391" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37936,14 +38650,14 @@
         <v>261</v>
       </c>
       <c r="F391" s="40" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G391" s="35"/>
       <c r="H391" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I391" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="392" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37961,14 +38675,14 @@
         <v>262</v>
       </c>
       <c r="F392" s="40" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="G392" s="35"/>
       <c r="H392" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I392" s="13" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="393" spans="1:9" s="6" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -37984,11 +38698,11 @@
       </c>
       <c r="E393" s="11"/>
       <c r="F393" s="40" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G393" s="35"/>
       <c r="H393" s="40" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I393" s="13" t="s">
         <v>387</v>
@@ -38009,11 +38723,11 @@
         <v>263</v>
       </c>
       <c r="F394" s="40" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G394" s="35"/>
       <c r="H394" s="15" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="I394" s="11"/>
     </row>
@@ -38034,7 +38748,7 @@
       </c>
       <c r="G395" s="108"/>
       <c r="H395" s="109" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I395" s="106" t="s">
         <v>387</v>
@@ -38057,7 +38771,7 @@
       </c>
       <c r="G396" s="108"/>
       <c r="H396" s="109" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I396" s="106" t="s">
         <v>387</v>
@@ -38080,7 +38794,7 @@
       </c>
       <c r="G397" s="108"/>
       <c r="H397" s="109" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I397" s="106" t="s">
         <v>387</v>
@@ -38103,7 +38817,7 @@
       </c>
       <c r="G398" s="108"/>
       <c r="H398" s="109" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I398" s="106" t="s">
         <v>387</v>
@@ -38126,7 +38840,7 @@
       </c>
       <c r="G399" s="108"/>
       <c r="H399" s="109" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I399" s="106" t="s">
         <v>387</v>
@@ -38149,7 +38863,7 @@
       </c>
       <c r="G400" s="108"/>
       <c r="H400" s="109" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I400" s="106" t="s">
         <v>387</v>
@@ -38172,7 +38886,7 @@
       </c>
       <c r="G401" s="108"/>
       <c r="H401" s="109" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I401" s="106" t="s">
         <v>387</v>
@@ -38195,7 +38909,7 @@
       </c>
       <c r="G402" s="108"/>
       <c r="H402" s="109" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I402" s="106" t="s">
         <v>387</v>
@@ -38218,7 +38932,7 @@
       </c>
       <c r="G403" s="108"/>
       <c r="H403" s="109" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I403" s="106" t="s">
         <v>387</v>
@@ -38235,7 +38949,7 @@
         <v>400</v>
       </c>
       <c r="F404" s="111" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.2">
@@ -38249,7 +38963,7 @@
         <v>401</v>
       </c>
       <c r="F405" s="111" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
@@ -38263,7 +38977,7 @@
         <v>402</v>
       </c>
       <c r="F406" s="111" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.2">
@@ -38277,7 +38991,7 @@
         <v>403</v>
       </c>
       <c r="F407" s="111" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.2">
@@ -38291,7 +39005,7 @@
         <v>404</v>
       </c>
       <c r="F408" s="111" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.2">
@@ -38305,7 +39019,7 @@
         <v>405</v>
       </c>
       <c r="F409" s="111" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
@@ -38319,7 +39033,7 @@
         <v>406</v>
       </c>
       <c r="F410" s="111" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.2">
@@ -38330,7 +39044,7 @@
         <v>21358</v>
       </c>
       <c r="F411" s="111" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.2">
@@ -38344,13 +39058,13 @@
         <v>407</v>
       </c>
       <c r="F412" s="32" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H412" s="65" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="I412" s="14" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
@@ -38364,13 +39078,13 @@
         <v>408</v>
       </c>
       <c r="F413" s="32" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H413" s="65" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I413" s="14" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
@@ -38384,13 +39098,13 @@
         <v>409</v>
       </c>
       <c r="F414" s="111" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H414" s="65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I414" s="14" t="s">
         <v>1436</v>
-      </c>
-      <c r="H414" s="65" t="s">
-        <v>1447</v>
-      </c>
-      <c r="I414" s="14" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="415" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
@@ -38410,7 +39124,7 @@
       </c>
       <c r="G415" s="79"/>
       <c r="H415" s="83" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I415" s="19" t="s">
         <v>387</v>
@@ -38432,11 +39146,11 @@
       </c>
       <c r="E416" s="10"/>
       <c r="F416" s="82" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G416" s="79"/>
       <c r="H416" s="83" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I416" s="19" t="s">
         <v>387</v>
@@ -38458,11 +39172,11 @@
       </c>
       <c r="E417" s="10"/>
       <c r="F417" s="82" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G417" s="79"/>
       <c r="H417" s="83" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I417" s="19" t="s">
         <v>387</v>
@@ -38484,11 +39198,11 @@
       </c>
       <c r="E418" s="10"/>
       <c r="F418" s="82" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G418" s="79"/>
       <c r="H418" s="83" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I418" s="19" t="s">
         <v>387</v>
@@ -38510,11 +39224,11 @@
       </c>
       <c r="E419" s="10"/>
       <c r="F419" s="82" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="G419" s="79"/>
       <c r="H419" s="83" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I419" s="19" t="s">
         <v>387</v>
@@ -38536,11 +39250,11 @@
       </c>
       <c r="E420" s="10"/>
       <c r="F420" s="82" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="G420" s="79"/>
       <c r="H420" s="83" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I420" s="19" t="s">
         <v>387</v>
@@ -38562,11 +39276,11 @@
       </c>
       <c r="E421" s="10"/>
       <c r="F421" s="82" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G421" s="79"/>
       <c r="H421" s="83" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I421" s="19" t="s">
         <v>387</v>
@@ -38588,11 +39302,11 @@
       </c>
       <c r="E422" s="10"/>
       <c r="F422" s="82" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G422" s="79"/>
       <c r="H422" s="83" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I422" s="19" t="s">
         <v>387</v>
@@ -38614,11 +39328,11 @@
       </c>
       <c r="E423" s="10"/>
       <c r="F423" s="82" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G423" s="79"/>
       <c r="H423" s="83" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I423" s="19" t="s">
         <v>387</v>
@@ -38644,10 +39358,10 @@
       </c>
       <c r="G424" s="79"/>
       <c r="H424" s="83" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I424" s="19" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="J424" s="81">
         <v>1</v>
@@ -38670,10 +39384,10 @@
       </c>
       <c r="G425" s="117"/>
       <c r="H425" s="118" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I425" s="119" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="J425" s="120">
         <v>1</v>
@@ -38696,10 +39410,10 @@
       </c>
       <c r="G426" s="117"/>
       <c r="H426" s="118" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I426" s="119" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="J426" s="120">
         <v>1</v>
@@ -38722,10 +39436,10 @@
       </c>
       <c r="G427" s="117"/>
       <c r="H427" s="118" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I427" s="119" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="J427" s="120">
         <v>1</v>
@@ -38742,14 +39456,14 @@
       <c r="D428" s="115"/>
       <c r="E428" s="115"/>
       <c r="F428" s="116" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="G428" s="117"/>
       <c r="H428" s="118" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="I428" s="119" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="429" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
@@ -38765,11 +39479,11 @@
       </c>
       <c r="E429" s="60"/>
       <c r="F429" s="63" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="G429" s="63"/>
       <c r="H429" s="121" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="I429" s="60" t="s">
         <v>856</v>
@@ -38786,13 +39500,13 @@
         <v>424</v>
       </c>
       <c r="F430" s="111" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H430" s="65" t="s">
         <v>1542</v>
       </c>
-      <c r="H430" s="65" t="s">
+      <c r="I430" s="14" t="s">
         <v>1543</v>
-      </c>
-      <c r="I430" s="14" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
@@ -38806,13 +39520,13 @@
         <v>425</v>
       </c>
       <c r="F431" s="111" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H431" s="65" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="I431" s="14" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
@@ -38826,13 +39540,13 @@
         <v>426</v>
       </c>
       <c r="F432" s="111" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H432" s="65" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="I432" s="14" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
@@ -38846,13 +39560,13 @@
         <v>427</v>
       </c>
       <c r="F433" s="111" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H433" s="65" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="I433" s="14" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
@@ -38866,13 +39580,13 @@
         <v>428</v>
       </c>
       <c r="F434" s="111" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H434" s="65" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I434" s="14" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="435" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38888,11 +39602,11 @@
       </c>
       <c r="E435" s="11"/>
       <c r="F435" s="40" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="G435" s="35"/>
       <c r="H435" s="15" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="I435" s="13" t="s">
         <v>1144</v>
@@ -38914,11 +39628,11 @@
       </c>
       <c r="E436" s="11"/>
       <c r="F436" s="40" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G436" s="35"/>
       <c r="H436" s="15" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="I436" s="13" t="s">
         <v>1144</v>
@@ -38940,11 +39654,11 @@
       </c>
       <c r="E437" s="11"/>
       <c r="F437" s="40" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G437" s="35"/>
       <c r="H437" s="15" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="I437" s="13" t="s">
         <v>1144</v>
@@ -38966,11 +39680,11 @@
       </c>
       <c r="E438" s="11"/>
       <c r="F438" s="40" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G438" s="35"/>
       <c r="H438" s="15" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="I438" s="13" t="s">
         <v>1144</v>
@@ -38992,11 +39706,11 @@
       </c>
       <c r="E439" s="11"/>
       <c r="F439" s="40" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G439" s="35"/>
       <c r="H439" s="15" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="I439" s="13" t="s">
         <v>1144</v>
@@ -39018,11 +39732,11 @@
       </c>
       <c r="E440" s="11"/>
       <c r="F440" s="40" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="G440" s="35"/>
       <c r="H440" s="15" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="I440" s="13" t="s">
         <v>1144</v>
@@ -39044,11 +39758,11 @@
       </c>
       <c r="E441" s="11"/>
       <c r="F441" s="40" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G441" s="35"/>
       <c r="H441" s="15" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="I441" s="13" t="s">
         <v>1144</v>
@@ -39070,11 +39784,11 @@
       </c>
       <c r="E442" s="11"/>
       <c r="F442" s="40" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G442" s="35"/>
       <c r="H442" s="15" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="I442" s="13" t="s">
         <v>1144</v>
@@ -39096,11 +39810,11 @@
       </c>
       <c r="E443" s="11"/>
       <c r="F443" s="40" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G443" s="35"/>
       <c r="H443" s="15" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="I443" s="13" t="s">
         <v>1144</v>
@@ -39122,11 +39836,11 @@
       </c>
       <c r="E444" s="11"/>
       <c r="F444" s="40" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G444" s="35"/>
       <c r="H444" s="15" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="I444" s="13" t="s">
         <v>1144</v>
@@ -39135,50 +39849,310 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:10" s="122" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A445" s="60">
+    <row r="445" spans="1:10" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A445" s="11">
         <v>444</v>
       </c>
-      <c r="B445" s="61">
+      <c r="B445" s="12">
         <v>21392</v>
       </c>
-      <c r="C445" s="60"/>
-      <c r="D445" s="60">
+      <c r="C445" s="11"/>
+      <c r="D445" s="11">
         <v>439</v>
       </c>
-      <c r="E445" s="60"/>
-      <c r="F445" s="62" t="s">
-        <v>1595</v>
-      </c>
-      <c r="G445" s="63"/>
-      <c r="H445" s="62" t="s">
-        <v>1605</v>
-      </c>
-      <c r="I445" s="85" t="s">
+      <c r="E445" s="11"/>
+      <c r="F445" s="40" t="s">
+        <v>1593</v>
+      </c>
+      <c r="G445" s="35"/>
+      <c r="H445" s="40" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I445" s="13" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="446" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="60">
+    <row r="446" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="11">
         <v>445</v>
       </c>
-      <c r="B446" s="61">
+      <c r="B446" s="12">
         <v>21393</v>
       </c>
-      <c r="C446" s="60"/>
-      <c r="D446" s="60">
+      <c r="C446" s="11"/>
+      <c r="D446" s="11">
         <v>440</v>
       </c>
-      <c r="E446" s="60"/>
-      <c r="F446" s="62" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G446" s="63"/>
-      <c r="H446" s="64" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I446" s="85" t="s">
+      <c r="E446" s="11"/>
+      <c r="F446" s="40" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G446" s="35"/>
+      <c r="H446" s="15" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I446" s="13" t="s">
         <v>856</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A447" s="60">
+        <v>446</v>
+      </c>
+      <c r="B447" s="61">
+        <v>21394</v>
+      </c>
+      <c r="C447" s="60"/>
+      <c r="D447" s="60">
+        <v>441</v>
+      </c>
+      <c r="E447" s="60"/>
+      <c r="F447" s="62" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G447" s="63"/>
+      <c r="H447" s="64" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I447" s="85" t="s">
+        <v>856</v>
+      </c>
+      <c r="J447" s="122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A448" s="60">
+        <v>447</v>
+      </c>
+      <c r="B448" s="61">
+        <v>21395</v>
+      </c>
+      <c r="C448" s="60"/>
+      <c r="D448" s="60">
+        <v>442</v>
+      </c>
+      <c r="E448" s="60"/>
+      <c r="F448" s="62" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G448" s="63"/>
+      <c r="H448" s="64" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I448" s="85" t="s">
+        <v>856</v>
+      </c>
+      <c r="J448" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A449" s="60">
+        <v>448</v>
+      </c>
+      <c r="B449" s="61">
+        <v>21396</v>
+      </c>
+      <c r="C449" s="60"/>
+      <c r="D449" s="60">
+        <v>443</v>
+      </c>
+      <c r="E449" s="60"/>
+      <c r="F449" s="62" t="s">
+        <v>1626</v>
+      </c>
+      <c r="G449" s="63"/>
+      <c r="H449" s="64" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I449" s="85" t="s">
+        <v>856</v>
+      </c>
+      <c r="J449" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A450" s="60">
+        <v>449</v>
+      </c>
+      <c r="B450" s="61">
+        <v>21397</v>
+      </c>
+      <c r="C450" s="60"/>
+      <c r="D450" s="60">
+        <v>444</v>
+      </c>
+      <c r="E450" s="60"/>
+      <c r="F450" s="62" t="s">
+        <v>1627</v>
+      </c>
+      <c r="G450" s="63"/>
+      <c r="H450" s="64" t="s">
+        <v>1632</v>
+      </c>
+      <c r="I450" s="85" t="s">
+        <v>856</v>
+      </c>
+      <c r="J450" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A451" s="60">
+        <v>450</v>
+      </c>
+      <c r="B451" s="61">
+        <v>21398</v>
+      </c>
+      <c r="C451" s="60"/>
+      <c r="D451" s="60">
+        <v>445</v>
+      </c>
+      <c r="E451" s="60"/>
+      <c r="F451" s="62" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G451" s="63"/>
+      <c r="H451" s="64" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I451" s="85" t="s">
+        <v>856</v>
+      </c>
+      <c r="J451" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A452" s="60">
+        <v>451</v>
+      </c>
+      <c r="B452" s="61">
+        <v>21399</v>
+      </c>
+      <c r="C452" s="60"/>
+      <c r="D452" s="60">
+        <v>446</v>
+      </c>
+      <c r="E452" s="60"/>
+      <c r="F452" s="62" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G452" s="63"/>
+      <c r="H452" s="64" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I452" s="85" t="s">
+        <v>856</v>
+      </c>
+      <c r="J452" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A453" s="60">
+        <v>452</v>
+      </c>
+      <c r="B453" s="61">
+        <v>21400</v>
+      </c>
+      <c r="C453" s="60"/>
+      <c r="D453" s="60">
+        <v>447</v>
+      </c>
+      <c r="E453" s="60"/>
+      <c r="F453" s="62" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G453" s="63"/>
+      <c r="H453" s="64" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I453" s="85" t="s">
+        <v>856</v>
+      </c>
+      <c r="J453" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A454" s="60">
+        <v>453</v>
+      </c>
+      <c r="B454" s="61">
+        <v>21401</v>
+      </c>
+      <c r="C454" s="60"/>
+      <c r="D454" s="60">
+        <v>448</v>
+      </c>
+      <c r="E454" s="60"/>
+      <c r="F454" s="62" t="s">
+        <v>1626</v>
+      </c>
+      <c r="G454" s="63"/>
+      <c r="H454" s="64" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I454" s="85" t="s">
+        <v>856</v>
+      </c>
+      <c r="J454" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A455" s="60">
+        <v>454</v>
+      </c>
+      <c r="B455" s="61">
+        <v>21402</v>
+      </c>
+      <c r="C455" s="60"/>
+      <c r="D455" s="60">
+        <v>449</v>
+      </c>
+      <c r="E455" s="60"/>
+      <c r="F455" s="62" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G455" s="63"/>
+      <c r="H455" s="64" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I455" s="85" t="s">
+        <v>856</v>
+      </c>
+      <c r="J455" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A456" s="60">
+        <v>455</v>
+      </c>
+      <c r="B456" s="61">
+        <v>21403</v>
+      </c>
+      <c r="C456" s="60"/>
+      <c r="D456" s="60">
+        <v>450</v>
+      </c>
+      <c r="E456" s="60"/>
+      <c r="F456" s="62" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G456" s="63"/>
+      <c r="H456" s="64" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I456" s="85" t="s">
+        <v>856</v>
+      </c>
+      <c r="J456" s="122">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -39191,10 +40165,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I617"/>
+  <dimension ref="A1:I635"/>
   <sheetViews>
-    <sheetView topLeftCell="A592" workbookViewId="0">
-      <selection activeCell="F627" sqref="F627"/>
+    <sheetView topLeftCell="A604" workbookViewId="0">
+      <selection activeCell="C618" sqref="C618:F626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -39403,7 +40377,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -40708,7 +41682,7 @@
         <v>83</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D105" s="11">
         <v>49</v>
@@ -40974,7 +41948,7 @@
         <v>102</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D124" s="11">
         <v>67</v>
@@ -42405,7 +43379,7 @@
         <v>178</v>
       </c>
       <c r="C224" s="85" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D224" s="60">
         <v>257</v>
@@ -42598,7 +43572,7 @@
         <v>184</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
@@ -42724,7 +43698,7 @@
         <v>185</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D245" s="11">
         <v>0</v>
@@ -42850,7 +43824,7 @@
         <v>186</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D253" s="11">
         <v>0</v>
@@ -42976,7 +43950,7 @@
         <v>187</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D261" s="11">
         <v>0</v>
@@ -43102,7 +44076,7 @@
         <v>188</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D269" s="11">
         <v>0</v>
@@ -43228,7 +44202,7 @@
         <v>189</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D277" s="11">
         <v>0</v>
@@ -43354,7 +44328,7 @@
         <v>190</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D285" s="11">
         <v>0</v>
@@ -43386,7 +44360,7 @@
         <v>192</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D287" s="10">
         <v>0</v>
@@ -43416,7 +44390,7 @@
         <v>194</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D289" s="10">
         <v>0</v>
@@ -43431,7 +44405,7 @@
         <v>195</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D290" s="10">
         <v>0</v>
@@ -43461,7 +44435,7 @@
         <v>196</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D292" s="10">
         <v>0</v>
@@ -43551,7 +44525,7 @@
         <v>197</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D298" s="10">
         <v>0</v>
@@ -45575,7 +46549,7 @@
         <v>308</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D441" s="11">
         <v>195</v>
@@ -46883,7 +47857,7 @@
         <v>367</v>
       </c>
       <c r="C530" s="86" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D530" s="10">
         <v>253</v>
@@ -46897,7 +47871,7 @@
         <v>368</v>
       </c>
       <c r="C531" s="86" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D531" s="10">
         <v>254</v>
@@ -46911,7 +47885,7 @@
         <v>369</v>
       </c>
       <c r="C532" s="86" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D532" s="10">
         <v>255</v>
@@ -46925,7 +47899,7 @@
         <v>370</v>
       </c>
       <c r="C533" s="86" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D533" s="10">
         <v>256</v>
@@ -46939,7 +47913,7 @@
         <v>371</v>
       </c>
       <c r="C534" s="13" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D534" s="12">
         <v>0</v>
@@ -46953,7 +47927,7 @@
         <v>372</v>
       </c>
       <c r="C535" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D535" s="12">
         <v>0</v>
@@ -46967,7 +47941,7 @@
         <v>373</v>
       </c>
       <c r="C536" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D536" s="12">
         <v>0</v>
@@ -46981,7 +47955,7 @@
         <v>374</v>
       </c>
       <c r="C537" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D537" s="12">
         <v>0</v>
@@ -46995,7 +47969,7 @@
         <v>375</v>
       </c>
       <c r="C538" s="13" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D538" s="12">
         <v>0</v>
@@ -47012,7 +47986,7 @@
         <v>376</v>
       </c>
       <c r="C539" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D539" s="12">
         <v>0</v>
@@ -47026,7 +48000,7 @@
         <v>377</v>
       </c>
       <c r="C540" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D540" s="12">
         <v>0</v>
@@ -47040,7 +48014,7 @@
         <v>378</v>
       </c>
       <c r="C541" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D541" s="12">
         <v>0</v>
@@ -47054,7 +48028,7 @@
         <v>379</v>
       </c>
       <c r="C542" s="13" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D542" s="12">
         <v>0</v>
@@ -47068,7 +48042,7 @@
         <v>380</v>
       </c>
       <c r="C543" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D543" s="12">
         <v>0</v>
@@ -47082,7 +48056,7 @@
         <v>381</v>
       </c>
       <c r="C544" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D544" s="12">
         <v>258</v>
@@ -47096,7 +48070,7 @@
         <v>382</v>
       </c>
       <c r="C545" s="13" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D545" s="12">
         <v>259</v>
@@ -47110,7 +48084,7 @@
         <v>383</v>
       </c>
       <c r="C546" s="13" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D546" s="12">
         <v>0</v>
@@ -47124,7 +48098,7 @@
         <v>384</v>
       </c>
       <c r="C547" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D547" s="12">
         <v>0</v>
@@ -47138,7 +48112,7 @@
         <v>385</v>
       </c>
       <c r="C548" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D548" s="12">
         <v>260</v>
@@ -47152,7 +48126,7 @@
         <v>386</v>
       </c>
       <c r="C549" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D549" s="12">
         <v>0</v>
@@ -47166,7 +48140,7 @@
         <v>387</v>
       </c>
       <c r="C550" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D550" s="12">
         <v>261</v>
@@ -47180,7 +48154,7 @@
         <v>388</v>
       </c>
       <c r="C551" s="13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D551" s="12">
         <v>262</v>
@@ -47254,7 +48228,7 @@
         <v>389</v>
       </c>
       <c r="C556" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D556" s="11">
         <v>0</v>
@@ -47269,7 +48243,7 @@
         <v>389</v>
       </c>
       <c r="C557" s="13" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D557" s="11">
         <v>0</v>
@@ -47301,7 +48275,7 @@
         <v>389</v>
       </c>
       <c r="C559" s="13" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D559" s="11">
         <v>0</v>
@@ -47318,7 +48292,7 @@
         <v>390</v>
       </c>
       <c r="C560" s="13" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D560" s="11">
         <v>263</v>
@@ -47458,7 +48432,7 @@
         <v>400</v>
       </c>
       <c r="C570" s="13" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D570" s="11">
         <v>273</v>
@@ -47472,7 +48446,7 @@
         <v>401</v>
       </c>
       <c r="C571" s="13" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D571" s="11">
         <v>274</v>
@@ -47486,7 +48460,7 @@
         <v>402</v>
       </c>
       <c r="C572" s="13" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D572" s="11">
         <v>275</v>
@@ -47500,7 +48474,7 @@
         <v>403</v>
       </c>
       <c r="C573" s="13" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D573" s="11">
         <v>276</v>
@@ -47514,7 +48488,7 @@
         <v>404</v>
       </c>
       <c r="C574" s="13" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D574" s="11">
         <v>277</v>
@@ -47528,7 +48502,7 @@
         <v>405</v>
       </c>
       <c r="C575" s="13" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D575" s="11">
         <v>278</v>
@@ -47542,7 +48516,7 @@
         <v>406</v>
       </c>
       <c r="C576" s="13" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D576" s="11">
         <v>279</v>
@@ -47556,7 +48530,7 @@
         <v>407</v>
       </c>
       <c r="C577" s="13" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D577" s="11">
         <v>280</v>
@@ -47570,7 +48544,7 @@
         <v>408</v>
       </c>
       <c r="C578" s="13" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D578" s="11">
         <v>281</v>
@@ -47584,7 +48558,7 @@
         <v>409</v>
       </c>
       <c r="C579" s="13" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D579" s="11">
         <v>282</v>
@@ -47613,7 +48587,7 @@
         <v>411</v>
       </c>
       <c r="C581" s="19" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D581" s="10">
         <v>283</v>
@@ -47628,7 +48602,7 @@
         <v>412</v>
       </c>
       <c r="C582" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D582" s="10">
         <v>0</v>
@@ -47642,7 +48616,7 @@
         <v>413</v>
       </c>
       <c r="C583" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D583" s="10">
         <v>0</v>
@@ -47656,7 +48630,7 @@
         <v>414</v>
       </c>
       <c r="C584" s="19" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D584" s="10">
         <v>0</v>
@@ -47670,7 +48644,7 @@
         <v>415</v>
       </c>
       <c r="C585" s="19" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D585" s="10">
         <v>284</v>
@@ -47685,7 +48659,7 @@
         <v>416</v>
       </c>
       <c r="C586" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D586" s="10">
         <v>0</v>
@@ -47699,7 +48673,7 @@
         <v>417</v>
       </c>
       <c r="C587" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D587" s="10">
         <v>0</v>
@@ -47713,7 +48687,7 @@
         <v>418</v>
       </c>
       <c r="C588" s="19" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D588" s="10">
         <v>0</v>
@@ -47727,7 +48701,7 @@
         <v>419</v>
       </c>
       <c r="C589" s="13" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D589" s="11">
         <v>285</v>
@@ -47741,7 +48715,7 @@
         <v>420</v>
       </c>
       <c r="C590" s="119" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D590" s="115">
         <v>286</v>
@@ -47755,7 +48729,7 @@
         <v>421</v>
       </c>
       <c r="C591" s="119" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D591" s="115">
         <v>287</v>
@@ -47769,7 +48743,7 @@
         <v>422</v>
       </c>
       <c r="C592" s="119" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D592" s="115">
         <v>288</v>
@@ -47797,7 +48771,7 @@
         <v>424</v>
       </c>
       <c r="C594" s="119" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D594" s="115">
         <v>290</v>
@@ -47811,7 +48785,7 @@
         <v>425</v>
       </c>
       <c r="C595" s="119" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D595" s="115">
         <v>291</v>
@@ -47825,7 +48799,7 @@
         <v>426</v>
       </c>
       <c r="C596" s="119" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D596" s="115">
         <v>292</v>
@@ -47839,7 +48813,7 @@
         <v>427</v>
       </c>
       <c r="C597" s="119" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D597" s="115">
         <v>293</v>
@@ -47853,7 +48827,7 @@
         <v>428</v>
       </c>
       <c r="C598" s="13" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D598" s="11">
         <v>294</v>
@@ -47975,7 +48949,7 @@
         <v>429</v>
       </c>
       <c r="C606" s="11" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D606" s="11">
         <v>0</v>
@@ -48118,14 +49092,14 @@
       <c r="E615" s="6"/>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A616" s="60">
+      <c r="A616" s="11">
         <v>615</v>
       </c>
       <c r="B616" s="60">
         <v>439</v>
       </c>
       <c r="C616" s="123" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D616" s="60">
         <v>304</v>
@@ -48133,19 +49107,293 @@
       <c r="E616" s="122"/>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A617" s="60">
+      <c r="A617" s="11">
         <v>616</v>
       </c>
       <c r="B617" s="60">
         <v>440</v>
       </c>
       <c r="C617" s="123" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D617" s="60">
         <v>305</v>
       </c>
       <c r="E617" s="122"/>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A618" s="60">
+        <v>617</v>
+      </c>
+      <c r="B618" s="60">
+        <v>441</v>
+      </c>
+      <c r="C618" s="123" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D618" s="60">
+        <v>0</v>
+      </c>
+      <c r="E618" s="122">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A619" s="60">
+        <v>618</v>
+      </c>
+      <c r="B619" s="60">
+        <v>441</v>
+      </c>
+      <c r="C619" s="123" t="s">
+        <v>393</v>
+      </c>
+      <c r="D619" s="60">
+        <v>0</v>
+      </c>
+      <c r="E619" s="122"/>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A620" s="60">
+        <v>619</v>
+      </c>
+      <c r="B620" s="60">
+        <v>441</v>
+      </c>
+      <c r="C620" s="60" t="s">
+        <v>438</v>
+      </c>
+      <c r="D620" s="60">
+        <v>0</v>
+      </c>
+      <c r="E620" s="122"/>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A621" s="60">
+        <v>620</v>
+      </c>
+      <c r="B621" s="60">
+        <v>441</v>
+      </c>
+      <c r="C621" s="60" t="s">
+        <v>664</v>
+      </c>
+      <c r="D621" s="60">
+        <v>0</v>
+      </c>
+      <c r="E621" s="122"/>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A622" s="60">
+        <v>621</v>
+      </c>
+      <c r="B622" s="60">
+        <v>441</v>
+      </c>
+      <c r="C622" s="60" t="s">
+        <v>665</v>
+      </c>
+      <c r="D622" s="60">
+        <v>0</v>
+      </c>
+      <c r="E622" s="122"/>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A623" s="60">
+        <v>622</v>
+      </c>
+      <c r="B623" s="60">
+        <v>441</v>
+      </c>
+      <c r="C623" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="D623" s="60">
+        <v>0</v>
+      </c>
+      <c r="E623" s="122"/>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A624" s="60">
+        <v>623</v>
+      </c>
+      <c r="B624" s="60">
+        <v>441</v>
+      </c>
+      <c r="C624" s="60" t="s">
+        <v>389</v>
+      </c>
+      <c r="D624" s="60">
+        <v>0</v>
+      </c>
+      <c r="E624" s="122">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A625" s="60">
+        <v>624</v>
+      </c>
+      <c r="B625" s="60">
+        <v>441</v>
+      </c>
+      <c r="C625" s="60" t="s">
+        <v>666</v>
+      </c>
+      <c r="D625" s="60">
+        <v>0</v>
+      </c>
+      <c r="E625" s="122"/>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A626" s="60">
+        <v>625</v>
+      </c>
+      <c r="B626" s="60">
+        <v>441</v>
+      </c>
+      <c r="C626" s="60" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D626" s="60">
+        <v>0</v>
+      </c>
+      <c r="E626" s="122"/>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A627" s="60">
+        <v>626</v>
+      </c>
+      <c r="B627" s="60">
+        <v>442</v>
+      </c>
+      <c r="C627" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D627" s="60">
+        <v>306</v>
+      </c>
+      <c r="E627" s="122"/>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A628" s="60">
+        <v>627</v>
+      </c>
+      <c r="B628" s="60">
+        <v>443</v>
+      </c>
+      <c r="C628" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D628" s="60">
+        <v>307</v>
+      </c>
+      <c r="E628" s="122"/>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A629" s="60">
+        <v>628</v>
+      </c>
+      <c r="B629" s="60">
+        <v>444</v>
+      </c>
+      <c r="C629" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D629" s="60">
+        <v>308</v>
+      </c>
+      <c r="E629" s="122"/>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A630" s="60">
+        <v>629</v>
+      </c>
+      <c r="B630" s="60">
+        <v>445</v>
+      </c>
+      <c r="C630" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D630" s="60">
+        <v>309</v>
+      </c>
+      <c r="E630" s="122"/>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A631" s="60">
+        <v>630</v>
+      </c>
+      <c r="B631" s="60">
+        <v>446</v>
+      </c>
+      <c r="C631" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D631" s="60">
+        <v>310</v>
+      </c>
+      <c r="E631" s="122"/>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A632" s="60">
+        <v>631</v>
+      </c>
+      <c r="B632" s="60">
+        <v>447</v>
+      </c>
+      <c r="C632" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D632" s="60">
+        <v>311</v>
+      </c>
+      <c r="E632" s="122"/>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A633" s="60">
+        <v>632</v>
+      </c>
+      <c r="B633" s="60">
+        <v>448</v>
+      </c>
+      <c r="C633" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D633" s="60">
+        <v>312</v>
+      </c>
+      <c r="E633" s="122"/>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A634" s="60">
+        <v>633</v>
+      </c>
+      <c r="B634" s="60">
+        <v>449</v>
+      </c>
+      <c r="C634" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D634" s="60">
+        <v>313</v>
+      </c>
+      <c r="E634" s="122"/>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A635" s="60">
+        <v>634</v>
+      </c>
+      <c r="B635" s="60">
+        <v>450</v>
+      </c>
+      <c r="C635" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D635" s="60">
+        <v>314</v>
+      </c>
+      <c r="E635" s="122"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -48157,13 +49405,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M424"/>
+  <dimension ref="A1:M433"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C401" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D430" sqref="D430"/>
+      <selection pane="bottomRight" activeCell="A425" sqref="A425:E433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -51062,7 +52310,7 @@
         <v>681</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E137" s="11">
         <v>2</v>
@@ -54883,7 +56131,7 @@
         <v>247</v>
       </c>
       <c r="C359" s="95" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D359" s="94">
         <v>0</v>
@@ -54901,7 +56149,7 @@
         <v>248</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D360" s="15" t="s">
         <v>969</v>
@@ -54975,7 +56223,7 @@
         <v>688</v>
       </c>
       <c r="D364" s="92" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E364" s="91">
         <v>2</v>
@@ -54990,10 +56238,10 @@
         <v>253</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D365" s="83" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E365" s="10">
         <v>2</v>
@@ -55007,7 +56255,7 @@
         <v>254</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D366" s="10">
         <v>3</v>
@@ -55024,7 +56272,7 @@
         <v>255</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D367" s="10">
         <v>4</v>
@@ -55041,7 +56289,7 @@
         <v>256</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D368" s="10">
         <v>5</v>
@@ -55061,7 +56309,7 @@
         <v>675</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E369" s="29">
         <v>2</v>
@@ -55077,7 +56325,7 @@
         <v>258</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D370" s="11">
         <v>5000000</v>
@@ -55094,7 +56342,7 @@
         <v>259</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D371" s="13">
         <v>20</v>
@@ -55111,7 +56359,7 @@
         <v>259</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D372" s="11">
         <v>100000</v>
@@ -55128,7 +56376,7 @@
         <v>260</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D373" s="11">
         <v>480000</v>
@@ -55145,7 +56393,7 @@
         <v>261</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D374" s="11">
         <v>960000</v>
@@ -55162,7 +56410,7 @@
         <v>262</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D375" s="11">
         <v>10</v>
@@ -55179,10 +56427,10 @@
         <v>263</v>
       </c>
       <c r="C376" s="13" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D376" s="13" t="s">
         <v>1355</v>
-      </c>
-      <c r="D376" s="13" t="s">
-        <v>1356</v>
       </c>
       <c r="E376" s="11">
         <v>2</v>
@@ -55196,10 +56444,10 @@
         <v>264</v>
       </c>
       <c r="C377" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E377" s="11">
         <v>2</v>
@@ -55213,7 +56461,7 @@
         <v>265</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D378" s="11" t="s">
         <v>1163</v>
@@ -55230,10 +56478,10 @@
         <v>266</v>
       </c>
       <c r="C379" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E379" s="11">
         <v>2</v>
@@ -55247,10 +56495,10 @@
         <v>267</v>
       </c>
       <c r="C380" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E380" s="11">
         <v>2</v>
@@ -55264,7 +56512,7 @@
         <v>268</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D381" s="11" t="s">
         <v>712</v>
@@ -55281,7 +56529,7 @@
         <v>269</v>
       </c>
       <c r="C382" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D382" s="11" t="s">
         <v>712</v>
@@ -55298,10 +56546,10 @@
         <v>270</v>
       </c>
       <c r="C383" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E383" s="11">
         <v>2</v>
@@ -55315,10 +56563,10 @@
         <v>271</v>
       </c>
       <c r="C384" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E384" s="11">
         <v>2</v>
@@ -55332,10 +56580,10 @@
         <v>272</v>
       </c>
       <c r="C385" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D385" s="11" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E385" s="11">
         <v>2</v>
@@ -55352,7 +56600,7 @@
         <v>688</v>
       </c>
       <c r="D386" s="13" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E386" s="11">
         <v>2</v>
@@ -55366,7 +56614,7 @@
         <v>273</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D387" s="11">
         <v>500</v>
@@ -55386,7 +56634,7 @@
         <v>688</v>
       </c>
       <c r="D388" s="13" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E388" s="11">
         <v>2</v>
@@ -55488,7 +56736,7 @@
         <v>859</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E394" s="11">
         <v>2</v>
@@ -55502,7 +56750,7 @@
         <v>278</v>
       </c>
       <c r="C395" s="13" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D395" s="11">
         <v>240000</v>
@@ -55519,7 +56767,7 @@
         <v>279</v>
       </c>
       <c r="C396" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D396" s="11">
         <v>1</v>
@@ -55553,7 +56801,7 @@
         <v>280</v>
       </c>
       <c r="C398" s="13" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D398" s="11">
         <v>9</v>
@@ -55570,7 +56818,7 @@
         <v>281</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D399" s="11">
         <v>51</v>
@@ -55587,7 +56835,7 @@
         <v>282</v>
       </c>
       <c r="C400" s="13" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D400" s="11">
         <v>240000</v>
@@ -55604,10 +56852,10 @@
         <v>283</v>
       </c>
       <c r="C401" s="19" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D401" s="83" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E401" s="10">
         <v>2</v>
@@ -55625,7 +56873,7 @@
         <v>681</v>
       </c>
       <c r="D402" s="112" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="E402" s="10">
         <v>2</v>
@@ -55640,7 +56888,7 @@
         <v>285</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D403" s="10">
         <v>30000</v>
@@ -55661,7 +56909,7 @@
         <v>700</v>
       </c>
       <c r="D404" s="119" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E404" s="115">
         <v>2</v>
@@ -55679,7 +56927,7 @@
         <v>700</v>
       </c>
       <c r="D405" s="119" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E405" s="115">
         <v>2</v>
@@ -55697,7 +56945,7 @@
         <v>700</v>
       </c>
       <c r="D406" s="119" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E406" s="115">
         <v>2</v>
@@ -55712,10 +56960,10 @@
         <v>289</v>
       </c>
       <c r="C407" s="60" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D407" s="64" t="s">
         <v>1529</v>
-      </c>
-      <c r="D407" s="64" t="s">
-        <v>1530</v>
       </c>
       <c r="E407" s="60">
         <v>2</v>
@@ -55729,7 +56977,7 @@
         <v>290</v>
       </c>
       <c r="C408" s="19" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D408" s="10">
         <v>5000</v>
@@ -55747,7 +56995,7 @@
         <v>291</v>
       </c>
       <c r="C409" s="19" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D409" s="10">
         <v>10000</v>
@@ -55764,7 +57012,7 @@
         <v>292</v>
       </c>
       <c r="C410" s="19" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D410" s="10">
         <v>30000</v>
@@ -55781,7 +57029,7 @@
         <v>293</v>
       </c>
       <c r="C411" s="19" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D411" s="10">
         <v>60000</v>
@@ -55798,7 +57046,7 @@
         <v>294</v>
       </c>
       <c r="C412" s="19" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D412" s="10">
         <v>120000</v>
@@ -55808,206 +57056,359 @@
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A413" s="61">
+      <c r="A413" s="12">
         <v>442</v>
       </c>
-      <c r="B413" s="60">
+      <c r="B413" s="11">
         <v>295</v>
       </c>
-      <c r="C413" s="85" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D413" s="60">
-        <v>1</v>
-      </c>
-      <c r="E413" s="60">
+      <c r="C413" s="13" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D413" s="11">
+        <v>1</v>
+      </c>
+      <c r="E413" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A414" s="61">
+      <c r="A414" s="12">
         <v>443</v>
       </c>
-      <c r="B414" s="60">
+      <c r="B414" s="11">
         <v>296</v>
       </c>
-      <c r="C414" s="85" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D414" s="60">
+      <c r="C414" s="13" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D414" s="11">
         <v>2</v>
       </c>
-      <c r="E414" s="60">
+      <c r="E414" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A415" s="61">
+      <c r="A415" s="12">
         <v>444</v>
       </c>
-      <c r="B415" s="60">
+      <c r="B415" s="11">
         <v>297</v>
       </c>
-      <c r="C415" s="85" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D415" s="60">
+      <c r="C415" s="13" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D415" s="11">
         <v>3</v>
       </c>
-      <c r="E415" s="60">
+      <c r="E415" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A416" s="61">
+      <c r="A416" s="12">
         <v>445</v>
       </c>
-      <c r="B416" s="60">
+      <c r="B416" s="11">
         <v>298</v>
       </c>
-      <c r="C416" s="85" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D416" s="60">
+      <c r="C416" s="13" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D416" s="11">
         <v>4</v>
       </c>
-      <c r="E416" s="60">
+      <c r="E416" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A417" s="61">
+      <c r="A417" s="12">
         <v>446</v>
       </c>
-      <c r="B417" s="60">
+      <c r="B417" s="11">
         <v>299</v>
       </c>
-      <c r="C417" s="85" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D417" s="60">
+      <c r="C417" s="13" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D417" s="11">
         <v>5</v>
       </c>
-      <c r="E417" s="60">
+      <c r="E417" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A418" s="61">
+      <c r="A418" s="12">
         <v>447</v>
       </c>
-      <c r="B418" s="60">
+      <c r="B418" s="11">
         <v>300</v>
       </c>
-      <c r="C418" s="85" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D418" s="60">
+      <c r="C418" s="13" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D418" s="11">
         <v>111</v>
       </c>
-      <c r="E418" s="60">
+      <c r="E418" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A419" s="61">
+      <c r="A419" s="12">
         <v>448</v>
       </c>
-      <c r="B419" s="60">
+      <c r="B419" s="11">
         <v>301</v>
       </c>
-      <c r="C419" s="85" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D419" s="60">
+      <c r="C419" s="13" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D419" s="11">
         <v>6</v>
       </c>
-      <c r="E419" s="60">
+      <c r="E419" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A420" s="61">
+      <c r="A420" s="12">
         <v>449</v>
       </c>
-      <c r="B420" s="60">
+      <c r="B420" s="11">
         <v>302</v>
       </c>
-      <c r="C420" s="85" t="s">
+      <c r="C420" s="13" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D420" s="11">
+        <v>108</v>
+      </c>
+      <c r="E420" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" s="12">
+        <v>450</v>
+      </c>
+      <c r="B421" s="11">
+        <v>303</v>
+      </c>
+      <c r="C421" s="13" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D421" s="11">
+        <v>110</v>
+      </c>
+      <c r="E421" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" s="12">
+        <v>451</v>
+      </c>
+      <c r="B422" s="12">
+        <v>304</v>
+      </c>
+      <c r="C422" s="13" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D422" s="15" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E422" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" s="12">
+        <v>452</v>
+      </c>
+      <c r="B423" s="12">
+        <v>304</v>
+      </c>
+      <c r="C423" s="13" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D423" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E423" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" s="12">
+        <v>453</v>
+      </c>
+      <c r="B424" s="12">
+        <v>305</v>
+      </c>
+      <c r="C424" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D424" s="11" t="s">
         <v>1607</v>
       </c>
-      <c r="D420" s="60">
+      <c r="E424" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" s="61">
+        <v>454</v>
+      </c>
+      <c r="B425" s="61">
+        <v>306</v>
+      </c>
+      <c r="C425" s="85" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D425" s="60">
+        <v>1</v>
+      </c>
+      <c r="E425" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" s="61">
+        <v>455</v>
+      </c>
+      <c r="B426" s="61">
+        <v>307</v>
+      </c>
+      <c r="C426" s="85" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D426" s="60">
+        <v>2</v>
+      </c>
+      <c r="E426" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" s="61">
+        <v>456</v>
+      </c>
+      <c r="B427" s="61">
+        <v>308</v>
+      </c>
+      <c r="C427" s="85" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D427" s="60">
+        <v>3</v>
+      </c>
+      <c r="E427" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" s="61">
+        <v>457</v>
+      </c>
+      <c r="B428" s="61">
+        <v>309</v>
+      </c>
+      <c r="C428" s="85" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D428" s="60">
+        <v>4</v>
+      </c>
+      <c r="E428" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" s="61">
+        <v>458</v>
+      </c>
+      <c r="B429" s="61">
+        <v>310</v>
+      </c>
+      <c r="C429" s="85" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D429" s="60">
+        <v>5</v>
+      </c>
+      <c r="E429" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" s="61">
+        <v>459</v>
+      </c>
+      <c r="B430" s="61">
+        <v>311</v>
+      </c>
+      <c r="C430" s="85" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D430" s="60">
+        <v>111</v>
+      </c>
+      <c r="E430" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" s="61">
+        <v>460</v>
+      </c>
+      <c r="B431" s="61">
+        <v>312</v>
+      </c>
+      <c r="C431" s="85" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D431" s="60">
+        <v>6</v>
+      </c>
+      <c r="E431" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" s="61">
+        <v>461</v>
+      </c>
+      <c r="B432" s="61">
+        <v>313</v>
+      </c>
+      <c r="C432" s="85" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D432" s="60">
         <v>108</v>
       </c>
-      <c r="E420" s="60">
+      <c r="E432" s="60">
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A421" s="61">
-        <v>450</v>
-      </c>
-      <c r="B421" s="60">
-        <v>303</v>
-      </c>
-      <c r="C421" s="85" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D421" s="60">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433" s="61">
+        <v>462</v>
+      </c>
+      <c r="B433" s="61">
+        <v>314</v>
+      </c>
+      <c r="C433" s="85" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D433" s="60">
         <v>110</v>
       </c>
-      <c r="E421" s="60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A422" s="61">
-        <v>451</v>
-      </c>
-      <c r="B422" s="61">
-        <v>304</v>
-      </c>
-      <c r="C422" s="85" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D422" s="64" t="s">
-        <v>1602</v>
-      </c>
-      <c r="E422" s="60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A423" s="61">
-        <v>452</v>
-      </c>
-      <c r="B423" s="61">
-        <v>304</v>
-      </c>
-      <c r="C423" s="85" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D423" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E423" s="60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A424" s="61">
-        <v>453</v>
-      </c>
-      <c r="B424" s="61">
-        <v>305</v>
-      </c>
-      <c r="C424" s="60" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D424" s="60" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E424" s="60">
+      <c r="E433" s="60">
         <v>2</v>
       </c>
     </row>
@@ -56021,13 +57422,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W939"/>
+  <dimension ref="A1:W949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C913" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C919" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C941" sqref="C941"/>
+      <selection pane="bottomRight" activeCell="C950" sqref="C950"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -61927,7 +63328,7 @@
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="19" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E266" s="10">
         <v>10</v>
@@ -61969,7 +63370,7 @@
       </c>
       <c r="C268" s="78"/>
       <c r="D268" s="77" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E268" s="78">
         <v>10</v>
@@ -61990,7 +63391,7 @@
       </c>
       <c r="C269" s="78"/>
       <c r="D269" s="77" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E269" s="78">
         <v>10</v>
@@ -68474,7 +69875,7 @@
       </c>
       <c r="C591" s="13"/>
       <c r="D591" s="13" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E591" s="11">
         <v>88</v>
@@ -70127,7 +71528,7 @@
       </c>
       <c r="C670" s="11"/>
       <c r="D670" s="13" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E670" s="11">
         <v>12000</v>
@@ -72263,7 +73664,7 @@
       </c>
       <c r="C774" s="11"/>
       <c r="D774" s="13" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E774" s="11">
         <v>10</v>
@@ -72284,10 +73685,10 @@
       </c>
       <c r="C775" s="10"/>
       <c r="D775" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E775" s="83" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F775" s="10">
         <v>50</v>
@@ -72303,10 +73704,10 @@
       </c>
       <c r="C776" s="10"/>
       <c r="D776" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E776" s="83" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F776" s="10">
         <v>30</v>
@@ -72324,10 +73725,10 @@
       </c>
       <c r="C777" s="10"/>
       <c r="D777" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E777" s="83" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F777" s="10">
         <v>20</v>
@@ -72345,10 +73746,10 @@
       </c>
       <c r="C778" s="10"/>
       <c r="D778" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E778" s="83" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F778" s="10">
         <v>50</v>
@@ -72363,10 +73764,10 @@
       </c>
       <c r="C779" s="10"/>
       <c r="D779" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E779" s="83" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F779" s="10">
         <v>30</v>
@@ -72381,10 +73782,10 @@
       </c>
       <c r="C780" s="10"/>
       <c r="D780" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E780" s="83" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F780" s="10">
         <v>20</v>
@@ -72399,10 +73800,10 @@
       </c>
       <c r="C781" s="10"/>
       <c r="D781" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E781" s="83" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F781" s="10">
         <v>50</v>
@@ -72417,10 +73818,10 @@
       </c>
       <c r="C782" s="10"/>
       <c r="D782" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E782" s="83" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F782" s="10">
         <v>30</v>
@@ -72435,10 +73836,10 @@
       </c>
       <c r="C783" s="10"/>
       <c r="D783" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E783" s="83" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F783" s="10">
         <v>20</v>
@@ -72453,10 +73854,10 @@
       </c>
       <c r="C784" s="10"/>
       <c r="D784" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E784" s="83" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F784" s="10">
         <v>25</v>
@@ -72471,10 +73872,10 @@
       </c>
       <c r="C785" s="10"/>
       <c r="D785" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E785" s="83" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F785" s="10">
         <v>50</v>
@@ -72489,10 +73890,10 @@
       </c>
       <c r="C786" s="10"/>
       <c r="D786" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E786" s="83" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F786" s="10">
         <v>25</v>
@@ -72507,10 +73908,10 @@
       </c>
       <c r="C787" s="10"/>
       <c r="D787" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E787" s="83" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F787" s="10">
         <v>25</v>
@@ -72525,10 +73926,10 @@
       </c>
       <c r="C788" s="10"/>
       <c r="D788" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E788" s="83" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F788" s="10">
         <v>50</v>
@@ -72543,7 +73944,7 @@
       </c>
       <c r="C789" s="10"/>
       <c r="D789" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E789" s="83">
         <v>150</v>
@@ -72561,7 +73962,7 @@
       </c>
       <c r="C790" s="10"/>
       <c r="D790" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E790" s="9">
         <v>400</v>
@@ -72579,7 +73980,7 @@
       </c>
       <c r="C791" s="10"/>
       <c r="D791" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E791" s="9">
         <v>500</v>
@@ -72597,7 +73998,7 @@
       </c>
       <c r="C792" s="10"/>
       <c r="D792" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E792" s="9">
         <v>600</v>
@@ -72615,7 +74016,7 @@
       </c>
       <c r="C793" s="10"/>
       <c r="D793" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E793" s="9">
         <v>100</v>
@@ -72633,7 +74034,7 @@
       </c>
       <c r="C794" s="10"/>
       <c r="D794" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E794" s="9">
         <v>300</v>
@@ -72651,7 +74052,7 @@
       </c>
       <c r="C795" s="10"/>
       <c r="D795" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E795" s="9">
         <v>500</v>
@@ -72669,7 +74070,7 @@
       </c>
       <c r="C796" s="10"/>
       <c r="D796" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E796" s="9">
         <v>500</v>
@@ -72687,7 +74088,7 @@
       </c>
       <c r="C797" s="10"/>
       <c r="D797" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E797" s="9">
         <v>1000</v>
@@ -72705,7 +74106,7 @@
       </c>
       <c r="C798" s="10"/>
       <c r="D798" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E798" s="9">
         <v>1500</v>
@@ -72723,7 +74124,7 @@
       </c>
       <c r="C799" s="10"/>
       <c r="D799" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E799" s="9">
         <v>4000</v>
@@ -72741,7 +74142,7 @@
       </c>
       <c r="C800" s="10"/>
       <c r="D800" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E800" s="9">
         <v>5000</v>
@@ -72759,7 +74160,7 @@
       </c>
       <c r="C801" s="10"/>
       <c r="D801" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E801" s="9">
         <v>6000</v>
@@ -72777,7 +74178,7 @@
       </c>
       <c r="C802" s="10"/>
       <c r="D802" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E802" s="9">
         <v>1000</v>
@@ -72795,7 +74196,7 @@
       </c>
       <c r="C803" s="10"/>
       <c r="D803" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E803" s="9">
         <v>3000</v>
@@ -72813,7 +74214,7 @@
       </c>
       <c r="C804" s="10"/>
       <c r="D804" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E804" s="9">
         <v>5000</v>
@@ -72831,7 +74232,7 @@
       </c>
       <c r="C805" s="10"/>
       <c r="D805" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E805" s="9">
         <v>5000</v>
@@ -72849,7 +74250,7 @@
       </c>
       <c r="C806" s="10"/>
       <c r="D806" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E806" s="9">
         <v>10000</v>
@@ -72867,7 +74268,7 @@
       </c>
       <c r="C807" s="10"/>
       <c r="D807" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E807" s="9">
         <v>15000</v>
@@ -72885,7 +74286,7 @@
       </c>
       <c r="C808" s="10"/>
       <c r="D808" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E808" s="9">
         <v>40000</v>
@@ -72903,7 +74304,7 @@
       </c>
       <c r="C809" s="10"/>
       <c r="D809" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E809" s="9">
         <v>50000</v>
@@ -72921,7 +74322,7 @@
       </c>
       <c r="C810" s="10"/>
       <c r="D810" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E810" s="9">
         <v>60000</v>
@@ -72939,10 +74340,10 @@
       </c>
       <c r="C811" s="11"/>
       <c r="D811" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E811" s="27" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F811" s="11">
         <v>1</v>
@@ -72960,10 +74361,10 @@
       </c>
       <c r="C812" s="11"/>
       <c r="D812" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E812" s="15" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F812" s="11">
         <v>1</v>
@@ -72981,7 +74382,7 @@
       </c>
       <c r="C813" s="11"/>
       <c r="D813" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E813" s="27">
         <v>1</v>
@@ -73002,7 +74403,7 @@
       </c>
       <c r="C814" s="11"/>
       <c r="D814" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E814" s="27">
         <v>400</v>
@@ -73023,7 +74424,7 @@
       </c>
       <c r="C815" s="11"/>
       <c r="D815" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E815" s="27">
         <v>1</v>
@@ -73086,7 +74487,7 @@
       </c>
       <c r="C818" s="11"/>
       <c r="D818" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E818" s="27">
         <v>200</v>
@@ -73170,7 +74571,7 @@
       </c>
       <c r="C822" s="11"/>
       <c r="D822" s="87" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E822" s="27">
         <v>3500</v>
@@ -73212,7 +74613,7 @@
       </c>
       <c r="C824" s="11"/>
       <c r="D824" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E824" s="27">
         <v>14000</v>
@@ -73232,7 +74633,7 @@
         <v>592</v>
       </c>
       <c r="C825" s="13" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D825" s="11"/>
       <c r="E825" s="27"/>
@@ -73253,7 +74654,7 @@
         <v>593</v>
       </c>
       <c r="C826" s="13" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D826" s="11"/>
       <c r="E826" s="27"/>
@@ -73274,7 +74675,7 @@
         <v>594</v>
       </c>
       <c r="C827" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D827" s="11"/>
       <c r="E827" s="27"/>
@@ -73295,7 +74696,7 @@
         <v>595</v>
       </c>
       <c r="C828" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D828" s="11"/>
       <c r="E828" s="27"/>
@@ -73316,7 +74717,7 @@
         <v>596</v>
       </c>
       <c r="C829" s="13" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D829" s="11"/>
       <c r="E829" s="27"/>
@@ -73337,7 +74738,7 @@
         <v>597</v>
       </c>
       <c r="C830" s="13" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D830" s="11"/>
       <c r="E830" s="27"/>
@@ -73376,7 +74777,7 @@
       </c>
       <c r="C832" s="29"/>
       <c r="D832" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E832" s="29">
         <v>1</v>
@@ -73397,7 +74798,7 @@
       </c>
       <c r="C833" s="29"/>
       <c r="D833" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E833" s="29">
         <v>1</v>
@@ -73434,7 +74835,7 @@
         <v>599</v>
       </c>
       <c r="D835" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E835" s="29">
         <v>1</v>
@@ -73451,7 +74852,7 @@
         <v>599</v>
       </c>
       <c r="D836" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E836" s="29">
         <v>1</v>
@@ -73485,7 +74886,7 @@
         <v>600</v>
       </c>
       <c r="D838" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E838" s="29">
         <v>1</v>
@@ -73502,7 +74903,7 @@
         <v>600</v>
       </c>
       <c r="D839" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E839" s="29">
         <v>1</v>
@@ -73536,7 +74937,7 @@
         <v>601</v>
       </c>
       <c r="D841" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E841" s="29">
         <v>2</v>
@@ -73553,7 +74954,7 @@
         <v>601</v>
       </c>
       <c r="D842" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E842" s="29">
         <v>2</v>
@@ -73587,7 +74988,7 @@
         <v>602</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E844" s="29">
         <v>2</v>
@@ -73604,7 +75005,7 @@
         <v>602</v>
       </c>
       <c r="D845" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E845" s="29">
         <v>2</v>
@@ -73638,7 +75039,7 @@
         <v>603</v>
       </c>
       <c r="D847" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E847" s="29">
         <v>2</v>
@@ -73655,7 +75056,7 @@
         <v>603</v>
       </c>
       <c r="D848" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E848" s="29">
         <v>2</v>
@@ -73689,7 +75090,7 @@
         <v>604</v>
       </c>
       <c r="D850" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E850" s="29">
         <v>3</v>
@@ -73706,7 +75107,7 @@
         <v>604</v>
       </c>
       <c r="D851" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E851" s="29">
         <v>3</v>
@@ -73740,7 +75141,7 @@
         <v>605</v>
       </c>
       <c r="D853" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E853" s="29">
         <v>3</v>
@@ -73757,7 +75158,7 @@
         <v>605</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E854" s="29">
         <v>3</v>
@@ -73791,7 +75192,7 @@
         <v>606</v>
       </c>
       <c r="D856" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E856" s="29">
         <v>3</v>
@@ -73808,7 +75209,7 @@
         <v>606</v>
       </c>
       <c r="D857" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E857" s="29">
         <v>3</v>
@@ -73842,7 +75243,7 @@
         <v>607</v>
       </c>
       <c r="D859" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E859" s="29">
         <v>5</v>
@@ -73859,7 +75260,7 @@
         <v>607</v>
       </c>
       <c r="D860" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E860" s="29">
         <v>5</v>
@@ -73893,7 +75294,7 @@
         <v>608</v>
       </c>
       <c r="D862" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E862" s="29">
         <v>5</v>
@@ -73910,7 +75311,7 @@
         <v>608</v>
       </c>
       <c r="D863" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E863" s="29">
         <v>5</v>
@@ -73944,7 +75345,7 @@
         <v>609</v>
       </c>
       <c r="D865" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E865" s="29">
         <v>5</v>
@@ -73961,7 +75362,7 @@
         <v>609</v>
       </c>
       <c r="D866" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E866" s="29">
         <v>5</v>
@@ -73978,7 +75379,7 @@
         <v>610</v>
       </c>
       <c r="C867" s="14" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F867" s="29">
         <v>1</v>
@@ -73993,7 +75394,7 @@
       </c>
       <c r="C868" s="29"/>
       <c r="D868" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E868" s="29">
         <v>9800000</v>
@@ -74010,7 +75411,7 @@
         <v>611</v>
       </c>
       <c r="C869" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F869" s="29">
         <v>1</v>
@@ -74025,7 +75426,7 @@
       </c>
       <c r="C870" s="29"/>
       <c r="D870" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E870" s="29">
         <v>4800000</v>
@@ -74042,7 +75443,7 @@
         <v>612</v>
       </c>
       <c r="D871" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E871" s="29">
         <v>4800000</v>
@@ -74059,7 +75460,7 @@
         <v>613</v>
       </c>
       <c r="D872" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E872" s="29">
         <v>1800000</v>
@@ -74076,7 +75477,7 @@
         <v>614</v>
       </c>
       <c r="D873" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E873" s="29">
         <v>800000</v>
@@ -74093,7 +75494,7 @@
         <v>615</v>
       </c>
       <c r="D874" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E874" s="29">
         <v>888888</v>
@@ -74110,7 +75511,7 @@
         <v>616</v>
       </c>
       <c r="D875" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E875" s="29">
         <v>588888</v>
@@ -74127,7 +75528,7 @@
         <v>617</v>
       </c>
       <c r="D876" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E876" s="29">
         <v>388888</v>
@@ -74144,7 +75545,7 @@
         <v>618</v>
       </c>
       <c r="D877" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E877" s="29">
         <v>188888</v>
@@ -74161,7 +75562,7 @@
         <v>619</v>
       </c>
       <c r="D878" s="14" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E878" s="1">
         <v>10000</v>
@@ -74181,7 +75582,7 @@
         <v>620</v>
       </c>
       <c r="D879" s="14" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E879" s="1">
         <v>20000</v>
@@ -74198,7 +75599,7 @@
         <v>621</v>
       </c>
       <c r="D880" s="14" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E880" s="1">
         <v>30000</v>
@@ -74218,7 +75619,7 @@
         <v>622</v>
       </c>
       <c r="D881" s="14" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E881" s="1">
         <v>10000</v>
@@ -74235,7 +75636,7 @@
         <v>623</v>
       </c>
       <c r="D882" s="14" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="E882" s="1">
         <v>20000</v>
@@ -74252,7 +75653,7 @@
         <v>624</v>
       </c>
       <c r="D883" s="14" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E883" s="1">
         <v>30000</v>
@@ -74269,7 +75670,7 @@
         <v>625</v>
       </c>
       <c r="D884" s="14" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E884" s="1">
         <v>50</v>
@@ -74286,7 +75687,7 @@
         <v>626</v>
       </c>
       <c r="D885" s="14" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E885" s="1">
         <v>1</v>
@@ -74303,7 +75704,7 @@
         <v>627</v>
       </c>
       <c r="D886" s="14" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E886" s="29">
         <v>1</v>
@@ -74320,7 +75721,7 @@
         <v>628</v>
       </c>
       <c r="D887" s="14" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E887" s="29">
         <v>1</v>
@@ -74338,7 +75739,7 @@
       </c>
       <c r="C888" s="29"/>
       <c r="D888" s="14" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E888" s="29">
         <v>1</v>
@@ -74359,7 +75760,7 @@
       </c>
       <c r="C889" s="29"/>
       <c r="D889" s="14" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E889" s="29">
         <v>1000</v>
@@ -74399,7 +75800,7 @@
         <v>632</v>
       </c>
       <c r="D891" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E891" s="1">
         <v>100</v>
@@ -74417,7 +75818,7 @@
       </c>
       <c r="C892" s="29"/>
       <c r="D892" s="13" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E892" s="29">
         <v>100</v>
@@ -74437,7 +75838,7 @@
         <v>633</v>
       </c>
       <c r="D893" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E893" s="29">
         <v>300</v>
@@ -74455,7 +75856,7 @@
       </c>
       <c r="C894" s="29"/>
       <c r="D894" s="13" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E894" s="29">
         <v>300</v>
@@ -74475,7 +75876,7 @@
         <v>634</v>
       </c>
       <c r="D895" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E895" s="29">
         <v>900</v>
@@ -74493,7 +75894,7 @@
       </c>
       <c r="C896" s="29"/>
       <c r="D896" s="13" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E896" s="29">
         <v>900</v>
@@ -74513,7 +75914,7 @@
         <v>635</v>
       </c>
       <c r="D897" s="13" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="E897" s="29">
         <v>3000</v>
@@ -74531,7 +75932,7 @@
       </c>
       <c r="C898" s="29"/>
       <c r="D898" s="13" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E898" s="29">
         <v>3000</v>
@@ -74551,7 +75952,7 @@
         <v>636</v>
       </c>
       <c r="D899" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E899" s="29">
         <v>8400</v>
@@ -74569,7 +75970,7 @@
       </c>
       <c r="C900" s="29"/>
       <c r="D900" s="13" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E900" s="29">
         <v>8400</v>
@@ -74590,7 +75991,7 @@
       </c>
       <c r="C901" s="11"/>
       <c r="D901" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E901" s="11">
         <v>1</v>
@@ -74611,7 +76012,7 @@
       </c>
       <c r="C902" s="11"/>
       <c r="D902" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E902" s="11">
         <v>1</v>
@@ -74632,7 +76033,7 @@
       </c>
       <c r="C903" s="11"/>
       <c r="D903" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E903" s="11">
         <v>4</v>
@@ -74653,7 +76054,7 @@
       </c>
       <c r="C904" s="11"/>
       <c r="D904" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E904" s="11">
         <v>4</v>
@@ -74674,7 +76075,7 @@
       </c>
       <c r="C905" s="11"/>
       <c r="D905" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E905" s="11">
         <v>9</v>
@@ -74695,7 +76096,7 @@
       </c>
       <c r="C906" s="11"/>
       <c r="D906" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E906" s="11">
         <v>9</v>
@@ -74716,7 +76117,7 @@
       </c>
       <c r="C907" s="11"/>
       <c r="D907" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E907" s="11">
         <v>18</v>
@@ -74737,7 +76138,7 @@
       </c>
       <c r="C908" s="11"/>
       <c r="D908" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E908" s="11">
         <v>18</v>
@@ -74758,7 +76159,7 @@
       </c>
       <c r="C909" s="11"/>
       <c r="D909" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E909" s="11">
         <v>30</v>
@@ -74779,7 +76180,7 @@
       </c>
       <c r="C910" s="11"/>
       <c r="D910" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E910" s="11">
         <v>30</v>
@@ -74800,7 +76201,7 @@
       </c>
       <c r="C911" s="11"/>
       <c r="D911" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E911" s="11">
         <v>58</v>
@@ -74821,7 +76222,7 @@
       </c>
       <c r="C912" s="11"/>
       <c r="D912" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E912" s="11">
         <v>58</v>
@@ -74842,7 +76243,7 @@
       </c>
       <c r="C913" s="11"/>
       <c r="D913" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E913" s="11">
         <v>118</v>
@@ -74863,7 +76264,7 @@
       </c>
       <c r="C914" s="11"/>
       <c r="D914" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E914" s="11">
         <v>118</v>
@@ -74884,7 +76285,7 @@
       </c>
       <c r="C915" s="11"/>
       <c r="D915" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E915" s="11">
         <v>298</v>
@@ -74905,7 +76306,7 @@
       </c>
       <c r="C916" s="11"/>
       <c r="D916" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E916" s="11">
         <v>298</v>
@@ -74926,7 +76327,7 @@
       </c>
       <c r="C917" s="11"/>
       <c r="D917" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E917" s="11">
         <v>598</v>
@@ -74947,7 +76348,7 @@
       </c>
       <c r="C918" s="11"/>
       <c r="D918" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E918" s="11">
         <v>598</v>
@@ -74968,7 +76369,7 @@
       </c>
       <c r="C919" s="11"/>
       <c r="D919" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E919" s="11">
         <v>1498</v>
@@ -74989,7 +76390,7 @@
       </c>
       <c r="C920" s="11"/>
       <c r="D920" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E920" s="11">
         <v>1498</v>
@@ -75001,385 +76402,584 @@
       <c r="H920" s="11"/>
       <c r="I920" s="11"/>
     </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A921" s="61">
+    <row r="921" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A921" s="12">
         <v>920</v>
       </c>
-      <c r="B921" s="60">
+      <c r="B921" s="11">
         <v>647</v>
       </c>
-      <c r="C921" s="60"/>
-      <c r="D921" s="60" t="s">
+      <c r="C921" s="11"/>
+      <c r="D921" s="11" t="s">
         <v>773</v>
       </c>
-      <c r="E921" s="60">
+      <c r="E921" s="11">
         <v>1000</v>
       </c>
-      <c r="F921" s="60">
-        <v>1</v>
-      </c>
-      <c r="G921" s="60"/>
-      <c r="H921" s="60"/>
-    </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A922" s="61">
+      <c r="F921" s="11">
+        <v>1</v>
+      </c>
+      <c r="G921" s="11"/>
+      <c r="H921" s="11"/>
+      <c r="I921" s="11"/>
+    </row>
+    <row r="922" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A922" s="12">
         <v>921</v>
       </c>
-      <c r="B922" s="60">
+      <c r="B922" s="11">
         <v>648</v>
       </c>
-      <c r="C922" s="60"/>
-      <c r="D922" s="60" t="s">
+      <c r="C922" s="11"/>
+      <c r="D922" s="11" t="s">
         <v>773</v>
       </c>
-      <c r="E922" s="60">
+      <c r="E922" s="11">
         <v>2000</v>
       </c>
-      <c r="F922" s="60">
-        <v>1</v>
-      </c>
-      <c r="G922" s="60"/>
-      <c r="H922" s="60"/>
-    </row>
-    <row r="923" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A923" s="61">
+      <c r="F922" s="11">
+        <v>1</v>
+      </c>
+      <c r="G922" s="11"/>
+      <c r="H922" s="11"/>
+      <c r="I922" s="11"/>
+    </row>
+    <row r="923" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A923" s="12">
         <v>922</v>
       </c>
-      <c r="B923" s="60">
+      <c r="B923" s="11">
         <v>649</v>
       </c>
-      <c r="C923" s="60"/>
-      <c r="D923" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E923" s="60">
+      <c r="C923" s="11"/>
+      <c r="D923" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E923" s="11">
         <v>2</v>
       </c>
-      <c r="F923" s="60">
-        <v>1</v>
-      </c>
-      <c r="G923" s="60"/>
-      <c r="H923" s="60"/>
-    </row>
-    <row r="924" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A924" s="61">
+      <c r="F923" s="11">
+        <v>1</v>
+      </c>
+      <c r="G923" s="11"/>
+      <c r="H923" s="11"/>
+      <c r="I923" s="11"/>
+    </row>
+    <row r="924" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A924" s="12">
         <v>923</v>
       </c>
-      <c r="B924" s="60">
+      <c r="B924" s="11">
         <v>650</v>
       </c>
-      <c r="C924" s="60"/>
-      <c r="D924" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E924" s="60">
+      <c r="C924" s="11"/>
+      <c r="D924" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E924" s="11">
         <v>5</v>
       </c>
-      <c r="F924" s="60">
-        <v>1</v>
-      </c>
-      <c r="G924" s="60"/>
-      <c r="H924" s="60"/>
-    </row>
-    <row r="925" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A925" s="61">
+      <c r="F924" s="11">
+        <v>1</v>
+      </c>
+      <c r="G924" s="11"/>
+      <c r="H924" s="11"/>
+      <c r="I924" s="11"/>
+    </row>
+    <row r="925" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A925" s="12">
         <v>924</v>
       </c>
-      <c r="B925" s="60">
+      <c r="B925" s="11">
         <v>651</v>
       </c>
-      <c r="C925" s="60"/>
-      <c r="D925" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E925" s="60">
+      <c r="C925" s="11"/>
+      <c r="D925" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E925" s="11">
         <v>40</v>
       </c>
-      <c r="F925" s="60">
-        <v>1</v>
-      </c>
-      <c r="G925" s="60"/>
-      <c r="H925" s="60"/>
-    </row>
-    <row r="926" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A926" s="61">
+      <c r="F925" s="11">
+        <v>1</v>
+      </c>
+      <c r="G925" s="11"/>
+      <c r="H925" s="11"/>
+      <c r="I925" s="11"/>
+    </row>
+    <row r="926" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A926" s="12">
         <v>925</v>
       </c>
-      <c r="B926" s="60">
+      <c r="B926" s="11">
         <v>652</v>
       </c>
-      <c r="C926" s="60"/>
-      <c r="D926" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E926" s="60">
+      <c r="C926" s="11"/>
+      <c r="D926" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E926" s="11">
         <v>100</v>
       </c>
-      <c r="F926" s="60">
-        <v>1</v>
-      </c>
-      <c r="G926" s="60"/>
-      <c r="H926" s="60"/>
-    </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A927" s="61">
+      <c r="F926" s="11">
+        <v>1</v>
+      </c>
+      <c r="G926" s="11"/>
+      <c r="H926" s="11"/>
+      <c r="I926" s="11"/>
+    </row>
+    <row r="927" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A927" s="12">
         <v>926</v>
       </c>
-      <c r="B927" s="60">
+      <c r="B927" s="11">
         <v>653</v>
       </c>
-      <c r="C927" s="60"/>
-      <c r="D927" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E927" s="60">
+      <c r="C927" s="11"/>
+      <c r="D927" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E927" s="11">
         <v>150</v>
       </c>
-      <c r="F927" s="60">
-        <v>1</v>
-      </c>
-      <c r="G927" s="60"/>
-      <c r="H927" s="60"/>
-    </row>
-    <row r="928" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A928" s="61">
+      <c r="F927" s="11">
+        <v>1</v>
+      </c>
+      <c r="G927" s="11"/>
+      <c r="H927" s="11"/>
+      <c r="I927" s="11"/>
+    </row>
+    <row r="928" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A928" s="12">
         <v>927</v>
       </c>
-      <c r="B928" s="60">
+      <c r="B928" s="11">
         <v>654</v>
       </c>
-      <c r="C928" s="60"/>
-      <c r="D928" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E928" s="60">
+      <c r="C928" s="11"/>
+      <c r="D928" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E928" s="11">
         <v>300</v>
       </c>
-      <c r="F928" s="60">
-        <v>1</v>
-      </c>
-      <c r="G928" s="60"/>
-      <c r="H928" s="60"/>
-    </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A929" s="61">
+      <c r="F928" s="11">
+        <v>1</v>
+      </c>
+      <c r="G928" s="11"/>
+      <c r="H928" s="11"/>
+      <c r="I928" s="11"/>
+    </row>
+    <row r="929" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A929" s="12">
         <v>928</v>
       </c>
-      <c r="B929" s="60">
+      <c r="B929" s="11">
         <v>655</v>
       </c>
-      <c r="C929" s="60"/>
-      <c r="D929" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E929" s="60">
+      <c r="C929" s="11"/>
+      <c r="D929" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E929" s="11">
         <v>400</v>
       </c>
-      <c r="F929" s="60">
-        <v>1</v>
-      </c>
-      <c r="G929" s="60"/>
-      <c r="H929" s="60"/>
-    </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A930" s="61">
+      <c r="F929" s="11">
+        <v>1</v>
+      </c>
+      <c r="G929" s="11"/>
+      <c r="H929" s="11"/>
+      <c r="I929" s="11"/>
+    </row>
+    <row r="930" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A930" s="12">
         <v>929</v>
       </c>
-      <c r="B930" s="60">
+      <c r="B930" s="11">
         <v>656</v>
       </c>
-      <c r="C930" s="60"/>
-      <c r="D930" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E930" s="60">
+      <c r="C930" s="11"/>
+      <c r="D930" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E930" s="11">
         <v>1000</v>
       </c>
-      <c r="F930" s="60">
-        <v>1</v>
-      </c>
-      <c r="G930" s="60"/>
-      <c r="H930" s="60"/>
-    </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A931" s="61">
+      <c r="F930" s="11">
+        <v>1</v>
+      </c>
+      <c r="G930" s="11"/>
+      <c r="H930" s="11"/>
+      <c r="I930" s="11"/>
+    </row>
+    <row r="931" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A931" s="12">
         <v>930</v>
       </c>
-      <c r="B931" s="60">
+      <c r="B931" s="11">
         <v>657</v>
       </c>
-      <c r="C931" s="60"/>
-      <c r="D931" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E931" s="60">
+      <c r="C931" s="11"/>
+      <c r="D931" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E931" s="11">
         <v>2000</v>
       </c>
-      <c r="F931" s="60">
-        <v>1</v>
-      </c>
-      <c r="G931" s="60"/>
-      <c r="H931" s="60"/>
-    </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A932" s="61">
+      <c r="F931" s="11">
+        <v>1</v>
+      </c>
+      <c r="G931" s="11"/>
+      <c r="H931" s="11"/>
+      <c r="I931" s="11"/>
+    </row>
+    <row r="932" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A932" s="12">
         <v>931</v>
       </c>
-      <c r="B932" s="60">
+      <c r="B932" s="11">
         <v>658</v>
       </c>
-      <c r="C932" s="60"/>
-      <c r="D932" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E932" s="60">
+      <c r="C932" s="11"/>
+      <c r="D932" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E932" s="11">
         <v>3500</v>
       </c>
-      <c r="F932" s="60">
-        <v>1</v>
-      </c>
-      <c r="G932" s="60"/>
-      <c r="H932" s="60"/>
-    </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A933" s="61">
+      <c r="F932" s="11">
+        <v>1</v>
+      </c>
+      <c r="G932" s="11"/>
+      <c r="H932" s="11"/>
+      <c r="I932" s="11"/>
+    </row>
+    <row r="933" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A933" s="12">
         <v>932</v>
       </c>
-      <c r="B933" s="60">
+      <c r="B933" s="11">
         <v>659</v>
       </c>
-      <c r="C933" s="60"/>
-      <c r="D933" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E933" s="60">
+      <c r="C933" s="11"/>
+      <c r="D933" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E933" s="11">
         <v>17000</v>
       </c>
-      <c r="F933" s="60">
-        <v>1</v>
-      </c>
-      <c r="G933" s="60"/>
-      <c r="H933" s="60"/>
-    </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A934" s="61">
+      <c r="F933" s="11">
+        <v>1</v>
+      </c>
+      <c r="G933" s="11"/>
+      <c r="H933" s="11"/>
+      <c r="I933" s="11"/>
+    </row>
+    <row r="934" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A934" s="12">
         <v>933</v>
       </c>
-      <c r="B934" s="60">
+      <c r="B934" s="11">
         <v>660</v>
       </c>
-      <c r="C934" s="60"/>
-      <c r="D934" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E934" s="60">
+      <c r="C934" s="11"/>
+      <c r="D934" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E934" s="11">
         <v>32500</v>
       </c>
-      <c r="F934" s="60">
-        <v>1</v>
-      </c>
-      <c r="G934" s="60"/>
-      <c r="H934" s="60"/>
-    </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A935" s="61">
+      <c r="F934" s="11">
+        <v>1</v>
+      </c>
+      <c r="G934" s="11"/>
+      <c r="H934" s="11"/>
+      <c r="I934" s="11"/>
+    </row>
+    <row r="935" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A935" s="12">
         <v>934</v>
       </c>
-      <c r="B935" s="60">
+      <c r="B935" s="11">
         <v>661</v>
       </c>
-      <c r="C935" s="60"/>
-      <c r="D935" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E935" s="60">
+      <c r="C935" s="11"/>
+      <c r="D935" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E935" s="11">
         <v>30</v>
       </c>
-      <c r="F935" s="60">
-        <v>1</v>
-      </c>
-      <c r="G935" s="60"/>
-      <c r="H935" s="60"/>
-    </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A936" s="61">
+      <c r="F935" s="11">
+        <v>1</v>
+      </c>
+      <c r="G935" s="11"/>
+      <c r="H935" s="11"/>
+      <c r="I935" s="11"/>
+    </row>
+    <row r="936" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A936" s="12">
         <v>935</v>
       </c>
-      <c r="B936" s="60">
+      <c r="B936" s="11">
         <v>662</v>
       </c>
-      <c r="C936" s="60"/>
-      <c r="D936" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E936" s="60">
+      <c r="C936" s="11"/>
+      <c r="D936" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E936" s="11">
         <v>180</v>
       </c>
-      <c r="F936" s="60">
-        <v>1</v>
-      </c>
-      <c r="G936" s="60"/>
-      <c r="H936" s="60"/>
-    </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A937" s="61">
+      <c r="F936" s="11">
+        <v>1</v>
+      </c>
+      <c r="G936" s="11"/>
+      <c r="H936" s="11"/>
+      <c r="I936" s="11"/>
+    </row>
+    <row r="937" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A937" s="12">
         <v>936</v>
       </c>
-      <c r="B937" s="60">
+      <c r="B937" s="11">
         <v>663</v>
       </c>
-      <c r="C937" s="60"/>
-      <c r="D937" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E937" s="60">
+      <c r="C937" s="11"/>
+      <c r="D937" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E937" s="11">
         <v>700</v>
       </c>
-      <c r="F937" s="60">
-        <v>1</v>
-      </c>
-      <c r="G937" s="60"/>
-      <c r="H937" s="60"/>
-    </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A938" s="61">
+      <c r="F937" s="11">
+        <v>1</v>
+      </c>
+      <c r="G937" s="11"/>
+      <c r="H937" s="11"/>
+      <c r="I937" s="11"/>
+    </row>
+    <row r="938" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A938" s="12">
         <v>937</v>
       </c>
-      <c r="B938" s="60">
+      <c r="B938" s="11">
         <v>664</v>
       </c>
-      <c r="C938" s="60"/>
-      <c r="D938" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E938" s="60">
+      <c r="C938" s="11"/>
+      <c r="D938" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E938" s="11">
         <v>1500</v>
       </c>
-      <c r="F938" s="60">
-        <v>1</v>
-      </c>
-      <c r="G938" s="60"/>
-      <c r="H938" s="60"/>
-    </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A939" s="61">
+      <c r="F938" s="11">
+        <v>1</v>
+      </c>
+      <c r="G938" s="11"/>
+      <c r="H938" s="11"/>
+      <c r="I938" s="11"/>
+    </row>
+    <row r="939" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A939" s="12">
         <v>938</v>
       </c>
-      <c r="B939" s="60">
+      <c r="B939" s="11">
         <v>665</v>
       </c>
-      <c r="C939" s="60"/>
-      <c r="D939" s="85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E939" s="60">
+      <c r="C939" s="11"/>
+      <c r="D939" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E939" s="11">
         <v>10000</v>
       </c>
-      <c r="F939" s="60">
-        <v>1</v>
-      </c>
-      <c r="G939" s="60"/>
-      <c r="H939" s="60"/>
+      <c r="F939" s="11">
+        <v>1</v>
+      </c>
+      <c r="G939" s="11"/>
+      <c r="H939" s="11"/>
+      <c r="I939" s="11"/>
+    </row>
+    <row r="940" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A940" s="61">
+        <v>939</v>
+      </c>
+      <c r="B940" s="60">
+        <v>666</v>
+      </c>
+      <c r="C940" s="60"/>
+      <c r="D940" s="85" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E940" s="60">
+        <v>1</v>
+      </c>
+      <c r="F940" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A941" s="61">
+        <v>940</v>
+      </c>
+      <c r="B941" s="60">
+        <v>667</v>
+      </c>
+      <c r="C941" s="60"/>
+      <c r="D941" s="85" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E941" s="60">
+        <v>5</v>
+      </c>
+      <c r="F941" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A942" s="61">
+        <v>941</v>
+      </c>
+      <c r="B942" s="60">
+        <v>668</v>
+      </c>
+      <c r="C942" s="60"/>
+      <c r="D942" s="85" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E942" s="60">
+        <v>12</v>
+      </c>
+      <c r="F942" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A943" s="61">
+        <v>942</v>
+      </c>
+      <c r="B943" s="60">
+        <v>669</v>
+      </c>
+      <c r="C943" s="60"/>
+      <c r="D943" s="85" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E943" s="60">
+        <v>25</v>
+      </c>
+      <c r="F943" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A944" s="61">
+        <v>943</v>
+      </c>
+      <c r="B944" s="60">
+        <v>670</v>
+      </c>
+      <c r="C944" s="60"/>
+      <c r="D944" s="85" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E944" s="60">
+        <v>38</v>
+      </c>
+      <c r="F944" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A945" s="61">
+        <v>944</v>
+      </c>
+      <c r="B945" s="60">
+        <v>671</v>
+      </c>
+      <c r="C945" s="60"/>
+      <c r="D945" s="85" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E945" s="60">
+        <v>78</v>
+      </c>
+      <c r="F945" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A946" s="61">
+        <v>945</v>
+      </c>
+      <c r="B946" s="60">
+        <v>672</v>
+      </c>
+      <c r="C946" s="60"/>
+      <c r="D946" s="85" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E946" s="60">
+        <v>158</v>
+      </c>
+      <c r="F946" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A947" s="61">
+        <v>946</v>
+      </c>
+      <c r="B947" s="60">
+        <v>673</v>
+      </c>
+      <c r="C947" s="60"/>
+      <c r="D947" s="85" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E947" s="60">
+        <v>398</v>
+      </c>
+      <c r="F947" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A948" s="61">
+        <v>947</v>
+      </c>
+      <c r="B948" s="60">
+        <v>674</v>
+      </c>
+      <c r="C948" s="60"/>
+      <c r="D948" s="85" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E948" s="60">
+        <v>798</v>
+      </c>
+      <c r="F948" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A949" s="61">
+        <v>948</v>
+      </c>
+      <c r="B949" s="60">
+        <v>675</v>
+      </c>
+      <c r="C949" s="60"/>
+      <c r="D949" s="85" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E949" s="60">
+        <v>1998</v>
+      </c>
+      <c r="F949" s="60">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/config_Release/task_zajindan_server.xlsx
+++ b/config_Release/task_zajindan_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7339" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6086" uniqueCount="1759">
   <si>
     <t>id|任务id</t>
   </si>
@@ -8510,10 +8510,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>normal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>task_21320</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9378,27 +9374,6 @@
   </si>
   <si>
     <r>
-      <t>累计抽取3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\6\10\20\100\300\600\1200\2000\4000\8000\15000\50000\100000福利券</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城累计充值6\48\198\500\2498元</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>p</t>
     </r>
     <r>
@@ -9413,40 +9388,6 @@
       <t>_027_mfflq</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,3,4,10,90,200,300,600,800,2000,4000,7000,35000,50000</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,4200,15000,30200,199800</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>task_award_receive</t>
@@ -9492,40 +9433,6 @@
   <si>
     <t>jing_bi</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>47,648,649,650,651,652,653,654,655,656,657,658,659,660</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>61,662,663,664,665</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>gift_id</t>
@@ -10253,6 +10160,208 @@
   <si>
     <t>1000000,4000000,5000000,10000000,30000000,50000000,400000000,500000000,1000000000</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神消消乐使用1万及以上档次，出现3次天女散花</t>
+  </si>
+  <si>
+    <t>敲敲乐财神模式中连续砸出2次财神</t>
+  </si>
+  <si>
+    <t>苹果大战中连胜2局</t>
+  </si>
+  <si>
+    <t>在苹果大战中种出1次金苹果</t>
+  </si>
+  <si>
+    <t>小游戏福利</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐使用1万及以上档次，出现1次幸运时刻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_lucky_award</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_spend</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_sky_girl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_spend</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_num</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲敲乐普通模式中砸中1次金猪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_game_num</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_value</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,3</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_continuity_caishen_model</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_value</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_award_kaijiang_type</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaijiang_type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浒消消乐使用1万及以上档次，累计召唤3个英雄</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_xxl_xc_num_hero</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent_guess_continuity_apple_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城累计充值3\10\48\198\500\2498元</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,700,3800,15000,30200,199800</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计抽取3\6\10\20\50\100\300\600\1200\2000\4000\8000\15000\50000\100000福利券</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,4,10,30,50,200,300,600,800,2000,4000,7000,35000,50000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>661,662,663,664,665,726</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>647,648,649,650,651,652,653,654,655,656,657,658,659,660,725</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
@@ -10512,7 +10621,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10859,6 +10968,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11143,13 +11255,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T471"/>
+  <dimension ref="A1:T478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E446" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D419" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C468" sqref="C468"/>
+      <selection pane="bottomRight" activeCell="D446" sqref="D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25024,7 +25136,7 @@
         <v>1131</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E356" s="16" t="s">
         <v>1126</v>
@@ -25480,10 +25592,10 @@
         <v>1490</v>
       </c>
       <c r="D368" s="99" t="s">
-        <v>1672</v>
+        <v>1665</v>
       </c>
       <c r="E368" s="98" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
       <c r="F368" s="98" t="s">
         <v>1491</v>
@@ -25518,10 +25630,10 @@
         <v>1490</v>
       </c>
       <c r="D369" s="99" t="s">
-        <v>1684</v>
+        <v>1677</v>
       </c>
       <c r="E369" s="98" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
       <c r="F369" s="98" t="s">
         <v>1491</v>
@@ -25556,10 +25668,10 @@
         <v>1490</v>
       </c>
       <c r="D370" s="98" t="s">
-        <v>1685</v>
+        <v>1678</v>
       </c>
       <c r="E370" s="98" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
       <c r="F370" s="98" t="s">
         <v>1491</v>
@@ -25594,10 +25706,10 @@
         <v>1492</v>
       </c>
       <c r="D371" s="98" t="s">
-        <v>1686</v>
+        <v>1679</v>
       </c>
       <c r="E371" s="98" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
       <c r="F371" s="98" t="s">
         <v>1491</v>
@@ -27228,7 +27340,7 @@
         <v>1428</v>
       </c>
       <c r="D414" s="49" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E414" s="49" t="s">
         <v>1430</v>
@@ -27614,7 +27726,7 @@
         <v>1476</v>
       </c>
       <c r="F424" s="16" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="G424" s="12">
         <v>21371</v>
@@ -27652,7 +27764,7 @@
         <v>1503</v>
       </c>
       <c r="F425" s="114" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="G425" s="113">
         <v>21372</v>
@@ -27687,7 +27799,7 @@
         <v>1498</v>
       </c>
       <c r="E426" s="114" t="s">
-        <v>1504</v>
+        <v>1718</v>
       </c>
       <c r="F426" s="113" t="s">
         <v>855</v>
@@ -27763,7 +27875,7 @@
         <v>1501</v>
       </c>
       <c r="E428" s="114" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="F428" s="113" t="s">
         <v>855</v>
@@ -27795,13 +27907,13 @@
         <v>1</v>
       </c>
       <c r="C429" s="61" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D429" s="61" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E429" s="84" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="F429" s="61" t="s">
         <v>855</v>
@@ -27833,16 +27945,16 @@
         <v>1</v>
       </c>
       <c r="C430" s="16" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D430" s="16" t="s">
         <v>1527</v>
       </c>
-      <c r="D430" s="16" t="s">
+      <c r="E430" s="16" t="s">
         <v>1528</v>
       </c>
-      <c r="E430" s="16" t="s">
-        <v>1529</v>
-      </c>
       <c r="F430" s="16" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="G430" s="12">
         <v>21377</v>
@@ -27871,13 +27983,13 @@
         <v>1</v>
       </c>
       <c r="C431" s="16" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D431" s="16" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E431" s="16" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F431" s="16" t="s">
         <v>1493</v>
@@ -27909,13 +28021,13 @@
         <v>1</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D432" s="16" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E432" s="16" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F432" s="16" t="s">
         <v>1493</v>
@@ -27947,13 +28059,13 @@
         <v>1</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D433" s="16" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E433" s="16" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F433" s="16" t="s">
         <v>1493</v>
@@ -27985,13 +28097,13 @@
         <v>1</v>
       </c>
       <c r="C434" s="16" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D434" s="16" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E434" s="16" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F434" s="16" t="s">
         <v>1493</v>
@@ -28023,13 +28135,13 @@
         <v>1</v>
       </c>
       <c r="C435" s="16" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D435" s="16" t="s">
         <v>1550</v>
       </c>
-      <c r="D435" s="16" t="s">
-        <v>1551</v>
-      </c>
       <c r="E435" s="16" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="F435" s="16" t="s">
         <v>855</v>
@@ -28061,13 +28173,13 @@
         <v>1</v>
       </c>
       <c r="C436" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D436" s="16" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="E436" s="16" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F436" s="16" t="s">
         <v>855</v>
@@ -28099,13 +28211,13 @@
         <v>1</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D437" s="16" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E437" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F437" s="16" t="s">
         <v>855</v>
@@ -28137,13 +28249,13 @@
         <v>1</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D438" s="16" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E438" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F438" s="16" t="s">
         <v>855</v>
@@ -28175,13 +28287,13 @@
         <v>1</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D439" s="16" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E439" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F439" s="16" t="s">
         <v>855</v>
@@ -28213,13 +28325,13 @@
         <v>1</v>
       </c>
       <c r="C440" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D440" s="16" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E440" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F440" s="16" t="s">
         <v>855</v>
@@ -28251,13 +28363,13 @@
         <v>1</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D441" s="16" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E441" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F441" s="16" t="s">
         <v>855</v>
@@ -28289,13 +28401,13 @@
         <v>1</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D442" s="16" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E442" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F442" s="16" t="s">
         <v>855</v>
@@ -28327,13 +28439,13 @@
         <v>1</v>
       </c>
       <c r="C443" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D443" s="16" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E443" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F443" s="16" t="s">
         <v>855</v>
@@ -28365,13 +28477,13 @@
         <v>1</v>
       </c>
       <c r="C444" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D444" s="16" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E444" s="16" t="s">
         <v>1564</v>
-      </c>
-      <c r="E444" s="16" t="s">
-        <v>1565</v>
       </c>
       <c r="F444" s="16" t="s">
         <v>855</v>
@@ -28395,79 +28507,79 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="445" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="12">
+    <row r="445" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="9">
         <v>1000034</v>
       </c>
-      <c r="B445" s="12">
-        <v>1</v>
-      </c>
-      <c r="C445" s="16" t="s">
+      <c r="B445" s="9">
+        <v>1</v>
+      </c>
+      <c r="C445" s="51" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D445" s="51" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E445" s="51" t="s">
         <v>1584</v>
       </c>
-      <c r="D445" s="16" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E445" s="16" t="s">
-        <v>1587</v>
-      </c>
-      <c r="F445" s="16" t="s">
+      <c r="F445" s="51" t="s">
         <v>855</v>
       </c>
-      <c r="G445" s="12">
+      <c r="G445" s="9">
         <v>21392</v>
       </c>
-      <c r="H445" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I445" s="12">
-        <v>1</v>
-      </c>
-      <c r="J445" s="12">
+      <c r="H445" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I445" s="9">
+        <v>1</v>
+      </c>
+      <c r="J445" s="9">
         <v>1598889600</v>
       </c>
-      <c r="K445" s="12">
+      <c r="K445" s="9">
         <v>1599494399</v>
       </c>
-      <c r="L445" s="12">
+      <c r="L445" s="9">
         <v>-1</v>
       </c>
     </row>
-    <row r="446" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="12">
+    <row r="446" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="9">
         <v>1000035</v>
       </c>
-      <c r="B446" s="12">
-        <v>1</v>
-      </c>
-      <c r="C446" s="16" t="s">
+      <c r="B446" s="9">
+        <v>1</v>
+      </c>
+      <c r="C446" s="51" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D446" s="51" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E446" s="51" t="s">
         <v>1584</v>
       </c>
-      <c r="D446" s="16" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E446" s="16" t="s">
-        <v>1587</v>
-      </c>
-      <c r="F446" s="16" t="s">
+      <c r="F446" s="51" t="s">
         <v>855</v>
       </c>
-      <c r="G446" s="12">
+      <c r="G446" s="9">
         <v>21393</v>
       </c>
-      <c r="H446" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I446" s="12">
-        <v>1</v>
-      </c>
-      <c r="J446" s="12">
+      <c r="H446" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I446" s="9">
+        <v>1</v>
+      </c>
+      <c r="J446" s="9">
         <v>1598889600</v>
       </c>
-      <c r="K446" s="12">
+      <c r="K446" s="9">
         <v>1599494399</v>
       </c>
-      <c r="L446" s="12">
+      <c r="L446" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -28479,13 +28591,13 @@
         <v>1</v>
       </c>
       <c r="C447" s="61" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="D447" s="84" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="E447" s="84" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="F447" s="84" t="s">
         <v>855</v>
@@ -28517,13 +28629,13 @@
         <v>1</v>
       </c>
       <c r="C448" s="84" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="D448" s="84" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="E448" s="84" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="F448" s="84" t="s">
         <v>855</v>
@@ -28555,13 +28667,13 @@
         <v>1</v>
       </c>
       <c r="C449" s="61" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="D449" s="84" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
       <c r="E449" s="84" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="F449" s="84" t="s">
         <v>855</v>
@@ -28593,13 +28705,13 @@
         <v>1</v>
       </c>
       <c r="C450" s="84" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="D450" s="84" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E450" s="84" t="s">
         <v>1612</v>
-      </c>
-      <c r="E450" s="84" t="s">
-        <v>1619</v>
       </c>
       <c r="F450" s="84" t="s">
         <v>855</v>
@@ -28631,13 +28743,13 @@
         <v>1</v>
       </c>
       <c r="C451" s="61" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="D451" s="84" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="E451" s="84" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="F451" s="84" t="s">
         <v>855</v>
@@ -28669,13 +28781,13 @@
         <v>1</v>
       </c>
       <c r="C452" s="84" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="D452" s="84" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="E452" s="84" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="F452" s="84" t="s">
         <v>855</v>
@@ -28707,13 +28819,13 @@
         <v>1</v>
       </c>
       <c r="C453" s="61" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="D453" s="84" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="E453" s="84" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="F453" s="84" t="s">
         <v>855</v>
@@ -28745,13 +28857,13 @@
         <v>1</v>
       </c>
       <c r="C454" s="84" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D454" s="84" t="s">
         <v>1609</v>
       </c>
-      <c r="D454" s="84" t="s">
-        <v>1616</v>
-      </c>
       <c r="E454" s="84" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="F454" s="84" t="s">
         <v>855</v>
@@ -28783,13 +28895,13 @@
         <v>1</v>
       </c>
       <c r="C455" s="61" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="D455" s="84" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="E455" s="84" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="F455" s="84" t="s">
         <v>855</v>
@@ -28821,13 +28933,13 @@
         <v>1</v>
       </c>
       <c r="C456" s="84" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="D456" s="84" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="E456" s="84" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="F456" s="84" t="s">
         <v>855</v>
@@ -28859,16 +28971,16 @@
         <v>1</v>
       </c>
       <c r="C457" s="98" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="D457" s="99" t="s">
-        <v>1704</v>
+        <v>1697</v>
       </c>
       <c r="E457" s="98" t="s">
-        <v>1703</v>
+        <v>1696</v>
       </c>
       <c r="F457" s="98" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="G457" s="97">
         <v>21404</v>
@@ -28897,16 +29009,16 @@
         <v>1</v>
       </c>
       <c r="C458" s="98" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="D458" s="99" t="s">
-        <v>1705</v>
+        <v>1698</v>
       </c>
       <c r="E458" s="98" t="s">
-        <v>1703</v>
+        <v>1696</v>
       </c>
       <c r="F458" s="98" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="G458" s="97">
         <v>21405</v>
@@ -28935,16 +29047,16 @@
         <v>1</v>
       </c>
       <c r="C459" s="98" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="D459" s="98" t="s">
-        <v>1706</v>
+        <v>1699</v>
       </c>
       <c r="E459" s="98" t="s">
-        <v>1718</v>
+        <v>1711</v>
       </c>
       <c r="F459" s="98" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="G459" s="97">
         <v>21406</v>
@@ -28973,16 +29085,16 @@
         <v>1</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="D460" s="7" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="E460" s="7" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="F460" s="7" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="G460" s="97">
         <v>21407</v>
@@ -29011,16 +29123,16 @@
         <v>1</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
       <c r="D461" s="7" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
       <c r="E461" s="7" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="F461" s="49" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="G461" s="97">
         <v>21408</v>
@@ -29049,16 +29161,16 @@
         <v>1</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="D462" s="7" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="E462" s="7" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="F462" s="7" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="G462" s="97">
         <v>21409</v>
@@ -29087,16 +29199,16 @@
         <v>1</v>
       </c>
       <c r="C463" s="51" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="D463" s="51" t="s">
-        <v>1674</v>
+        <v>1667</v>
       </c>
       <c r="E463" s="51" t="s">
-        <v>1675</v>
+        <v>1668</v>
       </c>
       <c r="F463" s="51" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
       <c r="G463" s="51">
         <v>21410</v>
@@ -29128,10 +29240,10 @@
         <v>1490</v>
       </c>
       <c r="D464" s="99" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
       <c r="E464" s="98" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
       <c r="F464" s="98" t="s">
         <v>1491</v>
@@ -29166,10 +29278,10 @@
         <v>1490</v>
       </c>
       <c r="D465" s="99" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
       <c r="E465" s="98" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
       <c r="F465" s="98" t="s">
         <v>1491</v>
@@ -29204,10 +29316,10 @@
         <v>1490</v>
       </c>
       <c r="D466" s="98" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="E466" s="98" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
       <c r="F466" s="98" t="s">
         <v>1491</v>
@@ -29242,10 +29354,10 @@
         <v>1490</v>
       </c>
       <c r="D467" s="98" t="s">
-        <v>1683</v>
+        <v>1676</v>
       </c>
       <c r="E467" s="98" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
       <c r="F467" s="98" t="s">
         <v>1491</v>
@@ -29277,16 +29389,16 @@
         <v>1</v>
       </c>
       <c r="C468" s="51" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="D468" s="51" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
       <c r="E468" s="51" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
       <c r="F468" s="51" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
       <c r="G468" s="97">
         <v>21415</v>
@@ -29315,16 +29427,16 @@
         <v>1</v>
       </c>
       <c r="C469" s="98" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="D469" s="99" t="s">
-        <v>1707</v>
+        <v>1700</v>
       </c>
       <c r="E469" s="98" t="s">
-        <v>1710</v>
+        <v>1703</v>
       </c>
       <c r="F469" s="98" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="G469" s="97">
         <v>21416</v>
@@ -29353,16 +29465,16 @@
         <v>1</v>
       </c>
       <c r="C470" s="98" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="D470" s="99" t="s">
-        <v>1708</v>
+        <v>1701</v>
       </c>
       <c r="E470" s="98" t="s">
-        <v>1710</v>
+        <v>1703</v>
       </c>
       <c r="F470" s="98" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="G470" s="97">
         <v>21417</v>
@@ -29391,16 +29503,16 @@
         <v>1</v>
       </c>
       <c r="C471" s="98" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="D471" s="98" t="s">
-        <v>1709</v>
+        <v>1702</v>
       </c>
       <c r="E471" s="98" t="s">
-        <v>1710</v>
+        <v>1703</v>
       </c>
       <c r="F471" s="98" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="G471" s="97">
         <v>21418</v>
@@ -29418,6 +29530,272 @@
         <v>32503651200</v>
       </c>
       <c r="L471" s="97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A472" s="7">
+        <v>1000061</v>
+      </c>
+      <c r="B472" s="7">
+        <v>1</v>
+      </c>
+      <c r="C472" s="49" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D472" s="49" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E472" s="49" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F472" s="49" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G472" s="7">
+        <v>21419</v>
+      </c>
+      <c r="H472" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I472" s="12">
+        <v>1</v>
+      </c>
+      <c r="J472" s="12">
+        <v>1600704000</v>
+      </c>
+      <c r="K472" s="12">
+        <v>1601308799</v>
+      </c>
+      <c r="L472" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A473" s="7">
+        <v>1000062</v>
+      </c>
+      <c r="B473" s="7">
+        <v>1</v>
+      </c>
+      <c r="C473" s="49" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D473" s="7" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E473" s="49" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F473" s="49" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G473" s="7">
+        <v>21420</v>
+      </c>
+      <c r="H473" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I473" s="12">
+        <v>1</v>
+      </c>
+      <c r="J473" s="12">
+        <v>1600704000</v>
+      </c>
+      <c r="K473" s="12">
+        <v>1601308799</v>
+      </c>
+      <c r="L473" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A474" s="7">
+        <v>1000063</v>
+      </c>
+      <c r="B474" s="7">
+        <v>1</v>
+      </c>
+      <c r="C474" s="49" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D474" s="7" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E474" s="49" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F474" s="49" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G474" s="7">
+        <v>21421</v>
+      </c>
+      <c r="H474" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I474" s="12">
+        <v>1</v>
+      </c>
+      <c r="J474" s="12">
+        <v>1600704000</v>
+      </c>
+      <c r="K474" s="12">
+        <v>1601308799</v>
+      </c>
+      <c r="L474" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A475" s="7">
+        <v>1000064</v>
+      </c>
+      <c r="B475" s="7">
+        <v>1</v>
+      </c>
+      <c r="C475" s="49" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D475" s="49" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E475" s="49" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F475" s="49" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G475" s="7">
+        <v>21422</v>
+      </c>
+      <c r="H475" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I475" s="12">
+        <v>1</v>
+      </c>
+      <c r="J475" s="12">
+        <v>1600704000</v>
+      </c>
+      <c r="K475" s="12">
+        <v>1601308799</v>
+      </c>
+      <c r="L475" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A476" s="7">
+        <v>1000065</v>
+      </c>
+      <c r="B476" s="7">
+        <v>1</v>
+      </c>
+      <c r="C476" s="49" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D476" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E476" s="49" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F476" s="49" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G476" s="7">
+        <v>21423</v>
+      </c>
+      <c r="H476" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I476" s="12">
+        <v>1</v>
+      </c>
+      <c r="J476" s="12">
+        <v>1600704000</v>
+      </c>
+      <c r="K476" s="12">
+        <v>1601308799</v>
+      </c>
+      <c r="L476" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A477" s="7">
+        <v>1000066</v>
+      </c>
+      <c r="B477" s="7">
+        <v>1</v>
+      </c>
+      <c r="C477" s="49" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D477" s="7" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E477" s="49" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F477" s="49" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G477" s="7">
+        <v>21424</v>
+      </c>
+      <c r="H477" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I477" s="12">
+        <v>1</v>
+      </c>
+      <c r="J477" s="12">
+        <v>1600704000</v>
+      </c>
+      <c r="K477" s="12">
+        <v>1601308799</v>
+      </c>
+      <c r="L477" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A478" s="7">
+        <v>1000067</v>
+      </c>
+      <c r="B478" s="7">
+        <v>1</v>
+      </c>
+      <c r="C478" s="49" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D478" s="7" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E478" s="49" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F478" s="49" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G478" s="7">
+        <v>21425</v>
+      </c>
+      <c r="H478" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I478" s="12">
+        <v>1</v>
+      </c>
+      <c r="J478" s="12">
+        <v>1600704000</v>
+      </c>
+      <c r="K478" s="12">
+        <v>1601308799</v>
+      </c>
+      <c r="L478" s="12">
         <v>-1</v>
       </c>
     </row>
@@ -29432,13 +29810,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K471"/>
+  <dimension ref="A1:K481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C451" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F421" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F468" sqref="F468"/>
+      <selection pane="bottomRight" activeCell="H446" sqref="H446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29481,7 +29859,7 @@
         <v>917</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="K1" s="38"/>
     </row>
@@ -40287,7 +40665,7 @@
       </c>
       <c r="G425" s="117"/>
       <c r="H425" s="118" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I425" s="119" t="s">
         <v>1435</v>
@@ -40313,7 +40691,7 @@
       </c>
       <c r="G426" s="117"/>
       <c r="H426" s="118" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I426" s="119" t="s">
         <v>1435</v>
@@ -40339,7 +40717,7 @@
       </c>
       <c r="G427" s="117"/>
       <c r="H427" s="118" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I427" s="119" t="s">
         <v>1435</v>
@@ -40359,11 +40737,11 @@
       <c r="D428" s="115"/>
       <c r="E428" s="115"/>
       <c r="F428" s="116" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="G428" s="117"/>
       <c r="H428" s="118" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="I428" s="119" t="s">
         <v>1435</v>
@@ -40382,11 +40760,11 @@
       </c>
       <c r="E429" s="60"/>
       <c r="F429" s="63" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="G429" s="63"/>
       <c r="H429" s="121" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="I429" s="60" t="s">
         <v>856</v>
@@ -40403,13 +40781,13 @@
         <v>424</v>
       </c>
       <c r="F430" s="111" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H430" s="65" t="s">
         <v>1536</v>
       </c>
-      <c r="H430" s="65" t="s">
+      <c r="I430" s="14" t="s">
         <v>1537</v>
-      </c>
-      <c r="I430" s="14" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
@@ -40423,13 +40801,13 @@
         <v>425</v>
       </c>
       <c r="F431" s="111" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H431" s="65" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="I431" s="14" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
@@ -40443,13 +40821,13 @@
         <v>426</v>
       </c>
       <c r="F432" s="111" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H432" s="65" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="I432" s="14" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
@@ -40463,13 +40841,13 @@
         <v>427</v>
       </c>
       <c r="F433" s="111" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H433" s="65" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="I433" s="14" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
@@ -40483,13 +40861,13 @@
         <v>428</v>
       </c>
       <c r="F434" s="111" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H434" s="65" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="I434" s="14" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="435" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -40505,11 +40883,11 @@
       </c>
       <c r="E435" s="11"/>
       <c r="F435" s="40" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="G435" s="35"/>
       <c r="H435" s="15" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="I435" s="13" t="s">
         <v>1144</v>
@@ -40531,11 +40909,11 @@
       </c>
       <c r="E436" s="11"/>
       <c r="F436" s="40" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G436" s="35"/>
       <c r="H436" s="15" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="I436" s="13" t="s">
         <v>1144</v>
@@ -40557,11 +40935,11 @@
       </c>
       <c r="E437" s="11"/>
       <c r="F437" s="40" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G437" s="35"/>
       <c r="H437" s="15" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="I437" s="13" t="s">
         <v>1144</v>
@@ -40583,11 +40961,11 @@
       </c>
       <c r="E438" s="11"/>
       <c r="F438" s="40" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G438" s="35"/>
       <c r="H438" s="15" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="I438" s="13" t="s">
         <v>1144</v>
@@ -40609,11 +40987,11 @@
       </c>
       <c r="E439" s="11"/>
       <c r="F439" s="40" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G439" s="35"/>
       <c r="H439" s="15" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="I439" s="13" t="s">
         <v>1144</v>
@@ -40635,11 +41013,11 @@
       </c>
       <c r="E440" s="11"/>
       <c r="F440" s="40" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G440" s="35"/>
       <c r="H440" s="15" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="I440" s="13" t="s">
         <v>1144</v>
@@ -40661,11 +41039,11 @@
       </c>
       <c r="E441" s="11"/>
       <c r="F441" s="40" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G441" s="35"/>
       <c r="H441" s="15" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="I441" s="13" t="s">
         <v>1144</v>
@@ -40687,11 +41065,11 @@
       </c>
       <c r="E442" s="11"/>
       <c r="F442" s="40" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G442" s="35"/>
       <c r="H442" s="15" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I442" s="13" t="s">
         <v>1144</v>
@@ -40713,11 +41091,11 @@
       </c>
       <c r="E443" s="11"/>
       <c r="F443" s="40" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G443" s="35"/>
       <c r="H443" s="15" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I443" s="13" t="s">
         <v>1144</v>
@@ -40739,11 +41117,11 @@
       </c>
       <c r="E444" s="11"/>
       <c r="F444" s="40" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G444" s="35"/>
       <c r="H444" s="15" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="I444" s="13" t="s">
         <v>1144</v>
@@ -40752,49 +41130,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:10" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A445" s="11">
+    <row r="445" spans="1:10" s="81" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A445" s="10">
         <v>444</v>
       </c>
-      <c r="B445" s="12">
+      <c r="B445" s="9">
         <v>21392</v>
       </c>
-      <c r="C445" s="11"/>
-      <c r="D445" s="11">
+      <c r="C445" s="10"/>
+      <c r="D445" s="10">
         <v>439</v>
       </c>
-      <c r="E445" s="11"/>
-      <c r="F445" s="40" t="s">
-        <v>1588</v>
-      </c>
-      <c r="G445" s="35"/>
-      <c r="H445" s="40" t="s">
-        <v>1598</v>
-      </c>
-      <c r="I445" s="13" t="s">
+      <c r="E445" s="10"/>
+      <c r="F445" s="82" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G445" s="79"/>
+      <c r="H445" s="82" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I445" s="19" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="446" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="11">
+    <row r="446" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="10">
         <v>445</v>
       </c>
-      <c r="B446" s="12">
+      <c r="B446" s="9">
         <v>21393</v>
       </c>
-      <c r="C446" s="11"/>
-      <c r="D446" s="11">
+      <c r="C446" s="10"/>
+      <c r="D446" s="10">
         <v>440</v>
       </c>
-      <c r="E446" s="11"/>
-      <c r="F446" s="40" t="s">
-        <v>1589</v>
-      </c>
-      <c r="G446" s="35"/>
-      <c r="H446" s="15" t="s">
-        <v>1599</v>
-      </c>
-      <c r="I446" s="13" t="s">
+      <c r="E446" s="10"/>
+      <c r="F446" s="82" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G446" s="79"/>
+      <c r="H446" s="83" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I446" s="19" t="s">
         <v>856</v>
       </c>
     </row>
@@ -40811,11 +41189,11 @@
       </c>
       <c r="E447" s="60"/>
       <c r="F447" s="62" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="G447" s="63"/>
       <c r="H447" s="64" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="I447" s="85" t="s">
         <v>856</v>
@@ -40837,11 +41215,11 @@
       </c>
       <c r="E448" s="60"/>
       <c r="F448" s="62" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="G448" s="63"/>
       <c r="H448" s="64" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="I448" s="85" t="s">
         <v>856</v>
@@ -40863,11 +41241,11 @@
       </c>
       <c r="E449" s="60"/>
       <c r="F449" s="62" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="G449" s="63"/>
       <c r="H449" s="64" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
       <c r="I449" s="85" t="s">
         <v>856</v>
@@ -40889,11 +41267,11 @@
       </c>
       <c r="E450" s="60"/>
       <c r="F450" s="62" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="G450" s="63"/>
       <c r="H450" s="64" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="I450" s="85" t="s">
         <v>856</v>
@@ -40915,11 +41293,11 @@
       </c>
       <c r="E451" s="60"/>
       <c r="F451" s="62" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="G451" s="63"/>
       <c r="H451" s="64" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
       <c r="I451" s="85" t="s">
         <v>856</v>
@@ -40941,11 +41319,11 @@
       </c>
       <c r="E452" s="60"/>
       <c r="F452" s="62" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="G452" s="63"/>
       <c r="H452" s="64" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="I452" s="85" t="s">
         <v>856</v>
@@ -40967,11 +41345,11 @@
       </c>
       <c r="E453" s="60"/>
       <c r="F453" s="62" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="G453" s="63"/>
       <c r="H453" s="64" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="I453" s="85" t="s">
         <v>856</v>
@@ -40993,11 +41371,11 @@
       </c>
       <c r="E454" s="60"/>
       <c r="F454" s="62" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="G454" s="63"/>
       <c r="H454" s="64" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="I454" s="85" t="s">
         <v>856</v>
@@ -41019,11 +41397,11 @@
       </c>
       <c r="E455" s="60"/>
       <c r="F455" s="62" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="G455" s="63"/>
       <c r="H455" s="64" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="I455" s="85" t="s">
         <v>856</v>
@@ -41045,11 +41423,11 @@
       </c>
       <c r="E456" s="60"/>
       <c r="F456" s="62" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="G456" s="63"/>
       <c r="H456" s="64" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="I456" s="85" t="s">
         <v>856</v>
@@ -41075,7 +41453,7 @@
       </c>
       <c r="G457" s="35"/>
       <c r="H457" s="15" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="I457" s="13" t="s">
         <v>1197</v>
@@ -41098,7 +41476,7 @@
       </c>
       <c r="G458" s="35"/>
       <c r="H458" s="15" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="I458" s="13" t="s">
         <v>1197</v>
@@ -41121,7 +41499,7 @@
       </c>
       <c r="G459" s="35"/>
       <c r="H459" s="15" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="I459" s="13" t="s">
         <v>1197</v>
@@ -41135,13 +41513,13 @@
         <v>21407</v>
       </c>
       <c r="F460" s="111" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="G460" s="111" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="I460" s="14" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.2">
@@ -41152,10 +41530,10 @@
         <v>21408</v>
       </c>
       <c r="F461" s="111" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="G461" s="111" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="I461" s="14" t="s">
         <v>856</v>
@@ -41169,10 +41547,10 @@
         <v>21409</v>
       </c>
       <c r="F462" s="111" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="G462" s="111" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
       <c r="I462" s="14" t="s">
         <v>856</v>
@@ -41191,14 +41569,14 @@
       </c>
       <c r="E463" s="10"/>
       <c r="F463" s="82" t="s">
-        <v>1719</v>
+        <v>1712</v>
       </c>
       <c r="G463" s="79"/>
       <c r="H463" s="112" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="I463" s="19" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="464" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41218,7 +41596,7 @@
       </c>
       <c r="G464" s="35"/>
       <c r="H464" s="15" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
       <c r="I464" s="13" t="s">
         <v>918</v>
@@ -41241,7 +41619,7 @@
       </c>
       <c r="G465" s="35"/>
       <c r="H465" s="15" t="s">
-        <v>1698</v>
+        <v>1691</v>
       </c>
       <c r="I465" s="13" t="s">
         <v>918</v>
@@ -41264,7 +41642,7 @@
       </c>
       <c r="G466" s="35"/>
       <c r="H466" s="15" t="s">
-        <v>1699</v>
+        <v>1692</v>
       </c>
       <c r="I466" s="13" t="s">
         <v>918</v>
@@ -41287,7 +41665,7 @@
       </c>
       <c r="G467" s="35"/>
       <c r="H467" s="15" t="s">
-        <v>1700</v>
+        <v>1693</v>
       </c>
       <c r="I467" s="13" t="s">
         <v>918</v>
@@ -41306,14 +41684,14 @@
       </c>
       <c r="E468" s="10"/>
       <c r="F468" s="82" t="s">
-        <v>1719</v>
+        <v>1712</v>
       </c>
       <c r="G468" s="79"/>
       <c r="H468" s="112" t="s">
-        <v>1702</v>
+        <v>1695</v>
       </c>
       <c r="I468" s="19" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="469" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41333,7 +41711,7 @@
       </c>
       <c r="G469" s="35"/>
       <c r="H469" s="15" t="s">
-        <v>1715</v>
+        <v>1708</v>
       </c>
       <c r="I469" s="13" t="s">
         <v>918</v>
@@ -41356,7 +41734,7 @@
       </c>
       <c r="G470" s="35"/>
       <c r="H470" s="15" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="I470" s="13" t="s">
         <v>918</v>
@@ -41379,11 +41757,169 @@
       </c>
       <c r="G471" s="35"/>
       <c r="H471" s="15" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="I471" s="13" t="s">
         <v>918</v>
       </c>
+    </row>
+    <row r="472" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="105">
+        <v>471</v>
+      </c>
+      <c r="B472" s="124">
+        <v>21419</v>
+      </c>
+      <c r="C472" s="105"/>
+      <c r="D472" s="105">
+        <v>463</v>
+      </c>
+      <c r="E472" s="105"/>
+      <c r="F472" s="107" t="s">
+        <v>1722</v>
+      </c>
+      <c r="G472" s="108"/>
+      <c r="H472" s="105">
+        <v>724</v>
+      </c>
+      <c r="I472" s="106" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="11">
+        <v>472</v>
+      </c>
+      <c r="B473" s="12">
+        <v>21420</v>
+      </c>
+      <c r="C473" s="11"/>
+      <c r="D473" s="11">
+        <v>464</v>
+      </c>
+      <c r="E473" s="11"/>
+      <c r="F473" s="40" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G473" s="35"/>
+      <c r="H473" s="105">
+        <v>724</v>
+      </c>
+      <c r="I473" s="13" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="11">
+        <v>473</v>
+      </c>
+      <c r="B474" s="12">
+        <v>21421</v>
+      </c>
+      <c r="C474" s="11"/>
+      <c r="D474" s="11">
+        <v>465</v>
+      </c>
+      <c r="E474" s="11"/>
+      <c r="F474" s="40" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G474" s="35"/>
+      <c r="H474" s="105">
+        <v>724</v>
+      </c>
+      <c r="I474" s="13" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A475" s="11">
+        <v>474</v>
+      </c>
+      <c r="B475" s="14">
+        <v>21422</v>
+      </c>
+      <c r="D475" s="1">
+        <v>466</v>
+      </c>
+      <c r="F475" s="111" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H475" s="105">
+        <v>724</v>
+      </c>
+      <c r="I475" s="14" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A476" s="11">
+        <v>475</v>
+      </c>
+      <c r="B476" s="1">
+        <v>21423</v>
+      </c>
+      <c r="D476" s="1">
+        <v>467</v>
+      </c>
+      <c r="F476" s="111" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H476" s="105">
+        <v>724</v>
+      </c>
+      <c r="I476" s="14" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A477" s="11">
+        <v>476</v>
+      </c>
+      <c r="B477" s="1">
+        <v>21424</v>
+      </c>
+      <c r="D477" s="1">
+        <v>468</v>
+      </c>
+      <c r="F477" s="111" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H477" s="105">
+        <v>724</v>
+      </c>
+      <c r="I477" s="14" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A478" s="11">
+        <v>477</v>
+      </c>
+      <c r="B478" s="1">
+        <v>21425</v>
+      </c>
+      <c r="D478" s="1">
+        <v>469</v>
+      </c>
+      <c r="F478" s="111" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H478" s="105">
+        <v>724</v>
+      </c>
+      <c r="I478" s="14" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A479" s="11"/>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A480" s="11"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -41395,10 +41931,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I661"/>
+  <dimension ref="A1:I671"/>
   <sheetViews>
-    <sheetView topLeftCell="A625" workbookViewId="0">
-      <selection activeCell="D661" sqref="D661"/>
+    <sheetView topLeftCell="A634" workbookViewId="0">
+      <selection activeCell="C667" sqref="C667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42912,7 +43448,7 @@
         <v>83</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D105" s="11">
         <v>49</v>
@@ -49087,7 +49623,7 @@
         <v>367</v>
       </c>
       <c r="C530" s="86" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="D530" s="10">
         <v>253</v>
@@ -49917,7 +50453,7 @@
         <v>418</v>
       </c>
       <c r="C588" s="19" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D588" s="10">
         <v>0</v>
@@ -49931,7 +50467,7 @@
         <v>419</v>
       </c>
       <c r="C589" s="13" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D589" s="11">
         <v>285</v>
@@ -49945,7 +50481,7 @@
         <v>420</v>
       </c>
       <c r="C590" s="119" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D590" s="115">
         <v>286</v>
@@ -49959,7 +50495,7 @@
         <v>421</v>
       </c>
       <c r="C591" s="119" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D591" s="115">
         <v>287</v>
@@ -49973,7 +50509,7 @@
         <v>422</v>
       </c>
       <c r="C592" s="119" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D592" s="115">
         <v>288</v>
@@ -50001,7 +50537,7 @@
         <v>424</v>
       </c>
       <c r="C594" s="119" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D594" s="115">
         <v>290</v>
@@ -50015,7 +50551,7 @@
         <v>425</v>
       </c>
       <c r="C595" s="119" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D595" s="115">
         <v>291</v>
@@ -50029,7 +50565,7 @@
         <v>426</v>
       </c>
       <c r="C596" s="119" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D596" s="115">
         <v>292</v>
@@ -50043,7 +50579,7 @@
         <v>427</v>
       </c>
       <c r="C597" s="119" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D597" s="115">
         <v>293</v>
@@ -50057,7 +50593,7 @@
         <v>428</v>
       </c>
       <c r="C598" s="13" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D598" s="11">
         <v>294</v>
@@ -50179,7 +50715,7 @@
         <v>429</v>
       </c>
       <c r="C606" s="11" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D606" s="11">
         <v>0</v>
@@ -50329,7 +50865,7 @@
         <v>439</v>
       </c>
       <c r="C616" s="123" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="D616" s="60">
         <v>304</v>
@@ -50344,7 +50880,7 @@
         <v>440</v>
       </c>
       <c r="C617" s="123" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="D617" s="60">
         <v>305</v>
@@ -50359,7 +50895,7 @@
         <v>441</v>
       </c>
       <c r="C618" s="123" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="D618" s="60">
         <v>0</v>
@@ -50483,7 +51019,7 @@
         <v>441</v>
       </c>
       <c r="C626" s="60" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D626" s="60">
         <v>0</v>
@@ -50633,7 +51169,7 @@
         <v>451</v>
       </c>
       <c r="C636" s="86" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="D636" s="10">
         <v>315</v>
@@ -50647,7 +51183,7 @@
         <v>452</v>
       </c>
       <c r="C637" s="86" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="D637" s="10">
         <v>316</v>
@@ -50661,7 +51197,7 @@
         <v>453</v>
       </c>
       <c r="C638" s="86" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="D638" s="10">
         <v>317</v>
@@ -50765,7 +51301,7 @@
         <v>454</v>
       </c>
       <c r="C645" s="26" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="D645" s="10">
         <v>0</v>
@@ -50782,7 +51318,7 @@
         <v>454</v>
       </c>
       <c r="C646" s="10" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="D646" s="10">
         <v>0</v>
@@ -50797,7 +51333,7 @@
         <v>455</v>
       </c>
       <c r="C647" s="86" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="D647" s="10">
         <v>318</v>
@@ -50960,7 +51496,7 @@
         <v>459</v>
       </c>
       <c r="C658" s="10" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="D658" s="10">
         <v>0</v>
@@ -50975,7 +51511,7 @@
         <v>460</v>
       </c>
       <c r="C659" s="86" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="D659" s="10">
         <v>322</v>
@@ -50989,7 +51525,7 @@
         <v>461</v>
       </c>
       <c r="C660" s="86" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="D660" s="10">
         <v>323</v>
@@ -51003,11 +51539,118 @@
         <v>462</v>
       </c>
       <c r="C661" s="86" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="D661" s="10">
         <v>324</v>
       </c>
+    </row>
+    <row r="662" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A662" s="11">
+        <v>661</v>
+      </c>
+      <c r="B662" s="11">
+        <v>463</v>
+      </c>
+      <c r="C662" s="23" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D662" s="11">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A663" s="11">
+        <v>662</v>
+      </c>
+      <c r="B663" s="11">
+        <v>464</v>
+      </c>
+      <c r="C663" s="13" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D663" s="12">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A664" s="11">
+        <v>663</v>
+      </c>
+      <c r="B664" s="11">
+        <v>465</v>
+      </c>
+      <c r="C664" s="13" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D664" s="12">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A665" s="11">
+        <v>664</v>
+      </c>
+      <c r="B665" s="29">
+        <v>466</v>
+      </c>
+      <c r="C665" s="13" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D665" s="12">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A666" s="11">
+        <v>665</v>
+      </c>
+      <c r="B666" s="29">
+        <v>467</v>
+      </c>
+      <c r="C666" s="13" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D666" s="12">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A667" s="11">
+        <v>666</v>
+      </c>
+      <c r="B667" s="29">
+        <v>468</v>
+      </c>
+      <c r="C667" s="13" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D667" s="12">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A668" s="11">
+        <v>667</v>
+      </c>
+      <c r="B668" s="29">
+        <v>469</v>
+      </c>
+      <c r="C668" s="13" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D668" s="12">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A669" s="11"/>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A670" s="11"/>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A671" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -51019,13 +51662,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M443"/>
+  <dimension ref="A1:M452"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C417" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C426" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D444" sqref="D444"/>
+      <selection pane="bottomRight" activeCell="B451" sqref="B451:E451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -58487,7 +59130,7 @@
         <v>681</v>
       </c>
       <c r="D402" s="112" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="E402" s="10">
         <v>2</v>
@@ -58523,7 +59166,7 @@
         <v>700</v>
       </c>
       <c r="D404" s="119" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E404" s="115">
         <v>2</v>
@@ -58541,7 +59184,7 @@
         <v>700</v>
       </c>
       <c r="D405" s="119" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E405" s="115">
         <v>2</v>
@@ -58559,7 +59202,7 @@
         <v>700</v>
       </c>
       <c r="D406" s="119" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E406" s="115">
         <v>2</v>
@@ -58574,10 +59217,10 @@
         <v>289</v>
       </c>
       <c r="C407" s="60" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D407" s="64" t="s">
         <v>1523</v>
-      </c>
-      <c r="D407" s="64" t="s">
-        <v>1524</v>
       </c>
       <c r="E407" s="60">
         <v>2</v>
@@ -58677,7 +59320,7 @@
         <v>295</v>
       </c>
       <c r="C413" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D413" s="11">
         <v>1</v>
@@ -58694,7 +59337,7 @@
         <v>296</v>
       </c>
       <c r="C414" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D414" s="11">
         <v>2</v>
@@ -58711,7 +59354,7 @@
         <v>297</v>
       </c>
       <c r="C415" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D415" s="11">
         <v>3</v>
@@ -58728,7 +59371,7 @@
         <v>298</v>
       </c>
       <c r="C416" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D416" s="11">
         <v>4</v>
@@ -58745,7 +59388,7 @@
         <v>299</v>
       </c>
       <c r="C417" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D417" s="11">
         <v>5</v>
@@ -58762,7 +59405,7 @@
         <v>300</v>
       </c>
       <c r="C418" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D418" s="11">
         <v>111</v>
@@ -58779,7 +59422,7 @@
         <v>301</v>
       </c>
       <c r="C419" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D419" s="11">
         <v>6</v>
@@ -58796,7 +59439,7 @@
         <v>302</v>
       </c>
       <c r="C420" s="13" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="D420" s="11">
         <v>108</v>
@@ -58813,7 +59456,7 @@
         <v>303</v>
       </c>
       <c r="C421" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D421" s="11">
         <v>110</v>
@@ -58830,10 +59473,10 @@
         <v>304</v>
       </c>
       <c r="C422" s="13" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="D422" s="15" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="E422" s="11">
         <v>2</v>
@@ -58847,10 +59490,10 @@
         <v>304</v>
       </c>
       <c r="C423" s="13" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="D423" s="13" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="E423" s="11">
         <v>2</v>
@@ -58864,10 +59507,10 @@
         <v>305</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="D424" s="11" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="E424" s="11">
         <v>2</v>
@@ -59193,6 +59836,159 @@
         <v>3</v>
       </c>
       <c r="E443" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" s="12">
+        <v>473</v>
+      </c>
+      <c r="B444" s="12">
+        <v>325</v>
+      </c>
+      <c r="C444" s="13" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D444" s="11">
+        <v>10000</v>
+      </c>
+      <c r="E444" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445" s="12">
+        <v>474</v>
+      </c>
+      <c r="B445" s="12">
+        <v>326</v>
+      </c>
+      <c r="C445" s="13" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D445" s="11">
+        <v>10000</v>
+      </c>
+      <c r="E445" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A446" s="12">
+        <v>475</v>
+      </c>
+      <c r="B446" s="12">
+        <v>326</v>
+      </c>
+      <c r="C446" s="13" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D446" s="11">
+        <v>1</v>
+      </c>
+      <c r="E446" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A447" s="12">
+        <v>476</v>
+      </c>
+      <c r="B447" s="12">
+        <v>327</v>
+      </c>
+      <c r="C447" s="13" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D447" s="11">
+        <v>10000</v>
+      </c>
+      <c r="E447" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A448" s="12">
+        <v>477</v>
+      </c>
+      <c r="B448" s="12">
+        <v>328</v>
+      </c>
+      <c r="C448" s="13" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D448" s="11">
+        <v>1</v>
+      </c>
+      <c r="E448" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449" s="12">
+        <v>478</v>
+      </c>
+      <c r="B449" s="12">
+        <v>328</v>
+      </c>
+      <c r="C449" s="13" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D449" s="13" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E449" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" s="12">
+        <v>479</v>
+      </c>
+      <c r="B450" s="12">
+        <v>329</v>
+      </c>
+      <c r="C450" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D450" s="11">
+        <v>1</v>
+      </c>
+      <c r="E450" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" s="12">
+        <v>480</v>
+      </c>
+      <c r="B451" s="12">
+        <v>330</v>
+      </c>
+      <c r="C451" s="13" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D451" s="11">
+        <v>1</v>
+      </c>
+      <c r="E451" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" s="12">
+        <v>481</v>
+      </c>
+      <c r="B452" s="12">
+        <v>331</v>
+      </c>
+      <c r="C452" s="13" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D452" s="11">
+        <v>2</v>
+      </c>
+      <c r="E452" s="11">
         <v>2</v>
       </c>
     </row>
@@ -59206,13 +60002,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W1093"/>
+  <dimension ref="A1:W1100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1010" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1076" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1032" sqref="H1032"/>
+      <selection pane="bottomRight" activeCell="E1103" sqref="E1103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -71659,7 +72455,7 @@
       </c>
       <c r="C591" s="13"/>
       <c r="D591" s="13" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E591" s="11">
         <v>88</v>
@@ -76166,7 +76962,7 @@
       </c>
       <c r="C813" s="11"/>
       <c r="D813" s="13" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E813" s="27">
         <v>1</v>
@@ -77420,7 +78216,7 @@
         <v>623</v>
       </c>
       <c r="D882" s="14" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="E882" s="1">
         <v>20000</v>
@@ -77523,7 +78319,7 @@
       </c>
       <c r="C888" s="29"/>
       <c r="D888" s="14" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E888" s="29">
         <v>1</v>
@@ -77544,7 +78340,7 @@
       </c>
       <c r="C889" s="29"/>
       <c r="D889" s="14" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E889" s="29">
         <v>1000</v>
@@ -77602,7 +78398,7 @@
       </c>
       <c r="C892" s="29"/>
       <c r="D892" s="13" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E892" s="29">
         <v>100</v>
@@ -77640,7 +78436,7 @@
       </c>
       <c r="C894" s="29"/>
       <c r="D894" s="13" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E894" s="29">
         <v>300</v>
@@ -77678,7 +78474,7 @@
       </c>
       <c r="C896" s="29"/>
       <c r="D896" s="13" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E896" s="29">
         <v>900</v>
@@ -77698,7 +78494,7 @@
         <v>635</v>
       </c>
       <c r="D897" s="13" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="E897" s="29">
         <v>3000</v>
@@ -77716,7 +78512,7 @@
       </c>
       <c r="C898" s="29"/>
       <c r="D898" s="13" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E898" s="29">
         <v>3000</v>
@@ -77754,7 +78550,7 @@
       </c>
       <c r="C900" s="29"/>
       <c r="D900" s="13" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E900" s="29">
         <v>8400</v>
@@ -77775,7 +78571,7 @@
       </c>
       <c r="C901" s="11"/>
       <c r="D901" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E901" s="11">
         <v>1</v>
@@ -77796,7 +78592,7 @@
       </c>
       <c r="C902" s="11"/>
       <c r="D902" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E902" s="11">
         <v>1</v>
@@ -77817,7 +78613,7 @@
       </c>
       <c r="C903" s="11"/>
       <c r="D903" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E903" s="11">
         <v>4</v>
@@ -77838,7 +78634,7 @@
       </c>
       <c r="C904" s="11"/>
       <c r="D904" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E904" s="11">
         <v>4</v>
@@ -77859,7 +78655,7 @@
       </c>
       <c r="C905" s="11"/>
       <c r="D905" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E905" s="11">
         <v>9</v>
@@ -77880,7 +78676,7 @@
       </c>
       <c r="C906" s="11"/>
       <c r="D906" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E906" s="11">
         <v>9</v>
@@ -77901,7 +78697,7 @@
       </c>
       <c r="C907" s="11"/>
       <c r="D907" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E907" s="11">
         <v>18</v>
@@ -77922,7 +78718,7 @@
       </c>
       <c r="C908" s="11"/>
       <c r="D908" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E908" s="11">
         <v>18</v>
@@ -77943,7 +78739,7 @@
       </c>
       <c r="C909" s="11"/>
       <c r="D909" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E909" s="11">
         <v>30</v>
@@ -77964,7 +78760,7 @@
       </c>
       <c r="C910" s="11"/>
       <c r="D910" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E910" s="11">
         <v>30</v>
@@ -77985,7 +78781,7 @@
       </c>
       <c r="C911" s="11"/>
       <c r="D911" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E911" s="11">
         <v>58</v>
@@ -78006,7 +78802,7 @@
       </c>
       <c r="C912" s="11"/>
       <c r="D912" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E912" s="11">
         <v>58</v>
@@ -78027,7 +78823,7 @@
       </c>
       <c r="C913" s="11"/>
       <c r="D913" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E913" s="11">
         <v>118</v>
@@ -78048,7 +78844,7 @@
       </c>
       <c r="C914" s="11"/>
       <c r="D914" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E914" s="11">
         <v>118</v>
@@ -78069,7 +78865,7 @@
       </c>
       <c r="C915" s="11"/>
       <c r="D915" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E915" s="11">
         <v>298</v>
@@ -78090,7 +78886,7 @@
       </c>
       <c r="C916" s="11"/>
       <c r="D916" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E916" s="11">
         <v>298</v>
@@ -78111,7 +78907,7 @@
       </c>
       <c r="C917" s="11"/>
       <c r="D917" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E917" s="11">
         <v>598</v>
@@ -78132,7 +78928,7 @@
       </c>
       <c r="C918" s="11"/>
       <c r="D918" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E918" s="11">
         <v>598</v>
@@ -78153,7 +78949,7 @@
       </c>
       <c r="C919" s="11"/>
       <c r="D919" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E919" s="11">
         <v>1498</v>
@@ -78174,7 +78970,7 @@
       </c>
       <c r="C920" s="11"/>
       <c r="D920" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E920" s="11">
         <v>1498</v>
@@ -78186,404 +78982,404 @@
       <c r="H920" s="11"/>
       <c r="I920" s="11"/>
     </row>
-    <row r="921" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A921" s="12">
+    <row r="921" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A921" s="9">
         <v>920</v>
       </c>
-      <c r="B921" s="11">
+      <c r="B921" s="10">
         <v>647</v>
       </c>
-      <c r="C921" s="11"/>
-      <c r="D921" s="11" t="s">
+      <c r="C921" s="10"/>
+      <c r="D921" s="10" t="s">
         <v>773</v>
       </c>
-      <c r="E921" s="11">
+      <c r="E921" s="10">
         <v>1000</v>
       </c>
-      <c r="F921" s="11">
-        <v>1</v>
-      </c>
-      <c r="G921" s="11"/>
-      <c r="H921" s="11"/>
-      <c r="I921" s="11"/>
-    </row>
-    <row r="922" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A922" s="12">
+      <c r="F921" s="10">
+        <v>1</v>
+      </c>
+      <c r="G921" s="10"/>
+      <c r="H921" s="10"/>
+      <c r="I921" s="10"/>
+    </row>
+    <row r="922" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A922" s="9">
         <v>921</v>
       </c>
-      <c r="B922" s="11">
+      <c r="B922" s="10">
         <v>648</v>
       </c>
-      <c r="C922" s="11"/>
-      <c r="D922" s="11" t="s">
+      <c r="C922" s="10"/>
+      <c r="D922" s="10" t="s">
         <v>773</v>
       </c>
-      <c r="E922" s="11">
+      <c r="E922" s="10">
         <v>2000</v>
       </c>
-      <c r="F922" s="11">
-        <v>1</v>
-      </c>
-      <c r="G922" s="11"/>
-      <c r="H922" s="11"/>
-      <c r="I922" s="11"/>
-    </row>
-    <row r="923" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A923" s="12">
+      <c r="F922" s="10">
+        <v>1</v>
+      </c>
+      <c r="G922" s="10"/>
+      <c r="H922" s="10"/>
+      <c r="I922" s="10"/>
+    </row>
+    <row r="923" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A923" s="9">
         <v>922</v>
       </c>
-      <c r="B923" s="11">
+      <c r="B923" s="10">
         <v>649</v>
       </c>
-      <c r="C923" s="11"/>
-      <c r="D923" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E923" s="11">
+      <c r="C923" s="10"/>
+      <c r="D923" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E923" s="10">
         <v>2</v>
       </c>
-      <c r="F923" s="11">
-        <v>1</v>
-      </c>
-      <c r="G923" s="11"/>
-      <c r="H923" s="11"/>
-      <c r="I923" s="11"/>
-    </row>
-    <row r="924" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A924" s="12">
+      <c r="F923" s="10">
+        <v>1</v>
+      </c>
+      <c r="G923" s="10"/>
+      <c r="H923" s="10"/>
+      <c r="I923" s="10"/>
+    </row>
+    <row r="924" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A924" s="9">
         <v>923</v>
       </c>
-      <c r="B924" s="11">
+      <c r="B924" s="10">
         <v>650</v>
       </c>
-      <c r="C924" s="11"/>
-      <c r="D924" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E924" s="11">
+      <c r="C924" s="10"/>
+      <c r="D924" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E924" s="10">
         <v>5</v>
       </c>
-      <c r="F924" s="11">
-        <v>1</v>
-      </c>
-      <c r="G924" s="11"/>
-      <c r="H924" s="11"/>
-      <c r="I924" s="11"/>
-    </row>
-    <row r="925" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A925" s="12">
+      <c r="F924" s="10">
+        <v>1</v>
+      </c>
+      <c r="G924" s="10"/>
+      <c r="H924" s="10"/>
+      <c r="I924" s="10"/>
+    </row>
+    <row r="925" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A925" s="9">
         <v>924</v>
       </c>
-      <c r="B925" s="11">
+      <c r="B925" s="10">
         <v>651</v>
       </c>
-      <c r="C925" s="11"/>
-      <c r="D925" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E925" s="11">
-        <v>40</v>
-      </c>
-      <c r="F925" s="11">
-        <v>1</v>
-      </c>
-      <c r="G925" s="11"/>
-      <c r="H925" s="11"/>
-      <c r="I925" s="11"/>
-    </row>
-    <row r="926" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A926" s="12">
+      <c r="C925" s="10"/>
+      <c r="D925" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E925" s="10">
+        <v>15</v>
+      </c>
+      <c r="F925" s="10">
+        <v>1</v>
+      </c>
+      <c r="G925" s="10"/>
+      <c r="H925" s="10"/>
+      <c r="I925" s="10"/>
+    </row>
+    <row r="926" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A926" s="9">
         <v>925</v>
       </c>
-      <c r="B926" s="11">
+      <c r="B926" s="10">
         <v>652</v>
       </c>
-      <c r="C926" s="11"/>
-      <c r="D926" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E926" s="11">
+      <c r="C926" s="10"/>
+      <c r="D926" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E926" s="10">
+        <v>25</v>
+      </c>
+      <c r="F926" s="10">
+        <v>1</v>
+      </c>
+      <c r="G926" s="10"/>
+      <c r="H926" s="10"/>
+      <c r="I926" s="10"/>
+    </row>
+    <row r="927" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A927" s="9">
+        <v>926</v>
+      </c>
+      <c r="B927" s="10">
+        <v>653</v>
+      </c>
+      <c r="C927" s="10"/>
+      <c r="D927" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E927" s="10">
         <v>100</v>
       </c>
-      <c r="F926" s="11">
-        <v>1</v>
-      </c>
-      <c r="G926" s="11"/>
-      <c r="H926" s="11"/>
-      <c r="I926" s="11"/>
-    </row>
-    <row r="927" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A927" s="12">
-        <v>926</v>
-      </c>
-      <c r="B927" s="11">
-        <v>653</v>
-      </c>
-      <c r="C927" s="11"/>
-      <c r="D927" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E927" s="11">
+      <c r="F927" s="10">
+        <v>1</v>
+      </c>
+      <c r="G927" s="10"/>
+      <c r="H927" s="10"/>
+      <c r="I927" s="10"/>
+    </row>
+    <row r="928" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A928" s="9">
+        <v>927</v>
+      </c>
+      <c r="B928" s="10">
+        <v>654</v>
+      </c>
+      <c r="C928" s="10"/>
+      <c r="D928" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E928" s="10">
         <v>150</v>
       </c>
-      <c r="F927" s="11">
-        <v>1</v>
-      </c>
-      <c r="G927" s="11"/>
-      <c r="H927" s="11"/>
-      <c r="I927" s="11"/>
-    </row>
-    <row r="928" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A928" s="12">
-        <v>927</v>
-      </c>
-      <c r="B928" s="11">
-        <v>654</v>
-      </c>
-      <c r="C928" s="11"/>
-      <c r="D928" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E928" s="11">
+      <c r="F928" s="10">
+        <v>1</v>
+      </c>
+      <c r="G928" s="10"/>
+      <c r="H928" s="10"/>
+      <c r="I928" s="10"/>
+    </row>
+    <row r="929" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A929" s="9">
+        <v>928</v>
+      </c>
+      <c r="B929" s="10">
+        <v>655</v>
+      </c>
+      <c r="C929" s="10"/>
+      <c r="D929" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E929" s="10">
         <v>300</v>
       </c>
-      <c r="F928" s="11">
-        <v>1</v>
-      </c>
-      <c r="G928" s="11"/>
-      <c r="H928" s="11"/>
-      <c r="I928" s="11"/>
-    </row>
-    <row r="929" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A929" s="12">
-        <v>928</v>
-      </c>
-      <c r="B929" s="11">
-        <v>655</v>
-      </c>
-      <c r="C929" s="11"/>
-      <c r="D929" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E929" s="11">
+      <c r="F929" s="10">
+        <v>1</v>
+      </c>
+      <c r="G929" s="10"/>
+      <c r="H929" s="10"/>
+      <c r="I929" s="10"/>
+    </row>
+    <row r="930" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A930" s="9">
+        <v>929</v>
+      </c>
+      <c r="B930" s="10">
+        <v>656</v>
+      </c>
+      <c r="C930" s="10"/>
+      <c r="D930" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E930" s="10">
         <v>400</v>
       </c>
-      <c r="F929" s="11">
-        <v>1</v>
-      </c>
-      <c r="G929" s="11"/>
-      <c r="H929" s="11"/>
-      <c r="I929" s="11"/>
-    </row>
-    <row r="930" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A930" s="12">
-        <v>929</v>
-      </c>
-      <c r="B930" s="11">
-        <v>656</v>
-      </c>
-      <c r="C930" s="11"/>
-      <c r="D930" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E930" s="11">
+      <c r="F930" s="10">
+        <v>1</v>
+      </c>
+      <c r="G930" s="10"/>
+      <c r="H930" s="10"/>
+      <c r="I930" s="10"/>
+    </row>
+    <row r="931" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A931" s="9">
+        <v>930</v>
+      </c>
+      <c r="B931" s="10">
+        <v>657</v>
+      </c>
+      <c r="C931" s="10"/>
+      <c r="D931" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E931" s="10">
         <v>1000</v>
       </c>
-      <c r="F930" s="11">
-        <v>1</v>
-      </c>
-      <c r="G930" s="11"/>
-      <c r="H930" s="11"/>
-      <c r="I930" s="11"/>
-    </row>
-    <row r="931" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A931" s="12">
-        <v>930</v>
-      </c>
-      <c r="B931" s="11">
-        <v>657</v>
-      </c>
-      <c r="C931" s="11"/>
-      <c r="D931" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E931" s="11">
+      <c r="F931" s="10">
+        <v>1</v>
+      </c>
+      <c r="G931" s="10"/>
+      <c r="H931" s="10"/>
+      <c r="I931" s="10"/>
+    </row>
+    <row r="932" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A932" s="9">
+        <v>931</v>
+      </c>
+      <c r="B932" s="10">
+        <v>658</v>
+      </c>
+      <c r="C932" s="10"/>
+      <c r="D932" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E932" s="10">
         <v>2000</v>
       </c>
-      <c r="F931" s="11">
-        <v>1</v>
-      </c>
-      <c r="G931" s="11"/>
-      <c r="H931" s="11"/>
-      <c r="I931" s="11"/>
-    </row>
-    <row r="932" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A932" s="12">
-        <v>931</v>
-      </c>
-      <c r="B932" s="11">
-        <v>658</v>
-      </c>
-      <c r="C932" s="11"/>
-      <c r="D932" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E932" s="11">
+      <c r="F932" s="10">
+        <v>1</v>
+      </c>
+      <c r="G932" s="10"/>
+      <c r="H932" s="10"/>
+      <c r="I932" s="10"/>
+    </row>
+    <row r="933" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A933" s="9">
+        <v>932</v>
+      </c>
+      <c r="B933" s="10">
+        <v>659</v>
+      </c>
+      <c r="C933" s="10"/>
+      <c r="D933" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E933" s="10">
         <v>3500</v>
       </c>
-      <c r="F932" s="11">
-        <v>1</v>
-      </c>
-      <c r="G932" s="11"/>
-      <c r="H932" s="11"/>
-      <c r="I932" s="11"/>
-    </row>
-    <row r="933" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A933" s="12">
-        <v>932</v>
-      </c>
-      <c r="B933" s="11">
-        <v>659</v>
-      </c>
-      <c r="C933" s="11"/>
-      <c r="D933" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E933" s="11">
+      <c r="F933" s="10">
+        <v>1</v>
+      </c>
+      <c r="G933" s="10"/>
+      <c r="H933" s="10"/>
+      <c r="I933" s="10"/>
+    </row>
+    <row r="934" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A934" s="9">
+        <v>933</v>
+      </c>
+      <c r="B934" s="10">
+        <v>660</v>
+      </c>
+      <c r="C934" s="10"/>
+      <c r="D934" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E934" s="10">
         <v>17000</v>
       </c>
-      <c r="F933" s="11">
-        <v>1</v>
-      </c>
-      <c r="G933" s="11"/>
-      <c r="H933" s="11"/>
-      <c r="I933" s="11"/>
-    </row>
-    <row r="934" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A934" s="12">
-        <v>933</v>
-      </c>
-      <c r="B934" s="11">
-        <v>660</v>
-      </c>
-      <c r="C934" s="11"/>
-      <c r="D934" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E934" s="11">
-        <v>32500</v>
-      </c>
-      <c r="F934" s="11">
-        <v>1</v>
-      </c>
-      <c r="G934" s="11"/>
-      <c r="H934" s="11"/>
-      <c r="I934" s="11"/>
-    </row>
-    <row r="935" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A935" s="12">
+      <c r="F934" s="10">
+        <v>1</v>
+      </c>
+      <c r="G934" s="10"/>
+      <c r="H934" s="10"/>
+      <c r="I934" s="10"/>
+    </row>
+    <row r="935" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A935" s="9">
         <v>934</v>
       </c>
-      <c r="B935" s="11">
+      <c r="B935" s="10">
         <v>661</v>
       </c>
-      <c r="C935" s="11"/>
-      <c r="D935" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E935" s="11">
-        <v>30</v>
-      </c>
-      <c r="F935" s="11">
-        <v>1</v>
-      </c>
-      <c r="G935" s="11"/>
-      <c r="H935" s="11"/>
-      <c r="I935" s="11"/>
-    </row>
-    <row r="936" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A936" s="12">
+      <c r="C935" s="10"/>
+      <c r="D935" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E935" s="10">
+        <v>15</v>
+      </c>
+      <c r="F935" s="10">
+        <v>1</v>
+      </c>
+      <c r="G935" s="10"/>
+      <c r="H935" s="10"/>
+      <c r="I935" s="10"/>
+    </row>
+    <row r="936" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A936" s="9">
         <v>935</v>
       </c>
-      <c r="B936" s="11">
+      <c r="B936" s="10">
         <v>662</v>
       </c>
-      <c r="C936" s="11"/>
-      <c r="D936" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E936" s="11">
+      <c r="C936" s="10"/>
+      <c r="D936" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E936" s="10">
+        <v>50</v>
+      </c>
+      <c r="F936" s="10">
+        <v>1</v>
+      </c>
+      <c r="G936" s="10"/>
+      <c r="H936" s="10"/>
+      <c r="I936" s="10"/>
+    </row>
+    <row r="937" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A937" s="9">
+        <v>936</v>
+      </c>
+      <c r="B937" s="10">
+        <v>663</v>
+      </c>
+      <c r="C937" s="10"/>
+      <c r="D937" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E937" s="10">
         <v>180</v>
       </c>
-      <c r="F936" s="11">
-        <v>1</v>
-      </c>
-      <c r="G936" s="11"/>
-      <c r="H936" s="11"/>
-      <c r="I936" s="11"/>
-    </row>
-    <row r="937" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A937" s="12">
-        <v>936</v>
-      </c>
-      <c r="B937" s="11">
-        <v>663</v>
-      </c>
-      <c r="C937" s="11"/>
-      <c r="D937" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E937" s="11">
+      <c r="F937" s="10">
+        <v>1</v>
+      </c>
+      <c r="G937" s="10"/>
+      <c r="H937" s="10"/>
+      <c r="I937" s="10"/>
+    </row>
+    <row r="938" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A938" s="9">
+        <v>937</v>
+      </c>
+      <c r="B938" s="10">
+        <v>664</v>
+      </c>
+      <c r="C938" s="10"/>
+      <c r="D938" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E938" s="10">
         <v>700</v>
       </c>
-      <c r="F937" s="11">
-        <v>1</v>
-      </c>
-      <c r="G937" s="11"/>
-      <c r="H937" s="11"/>
-      <c r="I937" s="11"/>
-    </row>
-    <row r="938" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A938" s="12">
-        <v>937</v>
-      </c>
-      <c r="B938" s="11">
-        <v>664</v>
-      </c>
-      <c r="C938" s="11"/>
-      <c r="D938" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E938" s="11">
+      <c r="F938" s="10">
+        <v>1</v>
+      </c>
+      <c r="G938" s="10"/>
+      <c r="H938" s="10"/>
+      <c r="I938" s="10"/>
+    </row>
+    <row r="939" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A939" s="9">
+        <v>938</v>
+      </c>
+      <c r="B939" s="10">
+        <v>665</v>
+      </c>
+      <c r="C939" s="10"/>
+      <c r="D939" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E939" s="10">
         <v>1500</v>
       </c>
-      <c r="F938" s="11">
-        <v>1</v>
-      </c>
-      <c r="G938" s="11"/>
-      <c r="H938" s="11"/>
-      <c r="I938" s="11"/>
-    </row>
-    <row r="939" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A939" s="12">
-        <v>938</v>
-      </c>
-      <c r="B939" s="11">
-        <v>665</v>
-      </c>
-      <c r="C939" s="11"/>
-      <c r="D939" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E939" s="11">
-        <v>10000</v>
-      </c>
-      <c r="F939" s="11">
-        <v>1</v>
-      </c>
-      <c r="G939" s="11"/>
-      <c r="H939" s="11"/>
-      <c r="I939" s="11"/>
+      <c r="F939" s="10">
+        <v>1</v>
+      </c>
+      <c r="G939" s="10"/>
+      <c r="H939" s="10"/>
+      <c r="I939" s="10"/>
     </row>
     <row r="940" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A940" s="61">
@@ -78594,7 +79390,7 @@
       </c>
       <c r="C940" s="60"/>
       <c r="D940" s="85" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="E940" s="60">
         <v>1</v>
@@ -78612,7 +79408,7 @@
       </c>
       <c r="C941" s="60"/>
       <c r="D941" s="85" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="E941" s="60">
         <v>5</v>
@@ -78630,7 +79426,7 @@
       </c>
       <c r="C942" s="60"/>
       <c r="D942" s="85" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="E942" s="60">
         <v>12</v>
@@ -78648,7 +79444,7 @@
       </c>
       <c r="C943" s="60"/>
       <c r="D943" s="85" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="E943" s="60">
         <v>25</v>
@@ -78666,7 +79462,7 @@
       </c>
       <c r="C944" s="60"/>
       <c r="D944" s="85" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="E944" s="60">
         <v>38</v>
@@ -78684,7 +79480,7 @@
       </c>
       <c r="C945" s="60"/>
       <c r="D945" s="85" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="E945" s="60">
         <v>78</v>
@@ -78702,7 +79498,7 @@
       </c>
       <c r="C946" s="60"/>
       <c r="D946" s="85" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="E946" s="60">
         <v>158</v>
@@ -78720,7 +79516,7 @@
       </c>
       <c r="C947" s="60"/>
       <c r="D947" s="85" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="E947" s="60">
         <v>398</v>
@@ -78738,7 +79534,7 @@
       </c>
       <c r="C948" s="60"/>
       <c r="D948" s="85" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="E948" s="60">
         <v>798</v>
@@ -78756,7 +79552,7 @@
       </c>
       <c r="C949" s="60"/>
       <c r="D949" s="85" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="E949" s="60">
         <v>1998</v>
@@ -79341,10 +80137,10 @@
       </c>
       <c r="C977" s="10"/>
       <c r="D977" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E977" s="83" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
       <c r="F977" s="10">
         <v>20</v>
@@ -79359,10 +80155,10 @@
       </c>
       <c r="C978" s="10"/>
       <c r="D978" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E978" s="83" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
       <c r="F978" s="10">
         <v>30</v>
@@ -79377,10 +80173,10 @@
       </c>
       <c r="C979" s="10"/>
       <c r="D979" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E979" s="83" t="s">
-        <v>1669</v>
+        <v>1662</v>
       </c>
       <c r="F979" s="10">
         <v>50</v>
@@ -79395,7 +80191,7 @@
       </c>
       <c r="C980" s="29"/>
       <c r="D980" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E980" s="29">
         <v>30</v>
@@ -79413,7 +80209,7 @@
       </c>
       <c r="C981" s="29"/>
       <c r="D981" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E981" s="29">
         <v>40</v>
@@ -79431,7 +80227,7 @@
       </c>
       <c r="C982" s="29"/>
       <c r="D982" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E982" s="29">
         <v>50</v>
@@ -79449,7 +80245,7 @@
       </c>
       <c r="C983" s="29"/>
       <c r="D983" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E983" s="29">
         <v>50</v>
@@ -79467,7 +80263,7 @@
       </c>
       <c r="C984" s="29"/>
       <c r="D984" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E984" s="29">
         <v>80</v>
@@ -79485,7 +80281,7 @@
       </c>
       <c r="C985" s="29"/>
       <c r="D985" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E985" s="29">
         <v>100</v>
@@ -79503,7 +80299,7 @@
       </c>
       <c r="C986" s="29"/>
       <c r="D986" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E986" s="29">
         <v>150</v>
@@ -79521,7 +80317,7 @@
       </c>
       <c r="C987" s="29"/>
       <c r="D987" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E987" s="29">
         <v>180</v>
@@ -79539,7 +80335,7 @@
       </c>
       <c r="C988" s="29"/>
       <c r="D988" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E988" s="29">
         <v>200</v>
@@ -79557,7 +80353,7 @@
       </c>
       <c r="C989" s="29"/>
       <c r="D989" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E989" s="29">
         <v>300</v>
@@ -79575,7 +80371,7 @@
       </c>
       <c r="C990" s="29"/>
       <c r="D990" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E990" s="29">
         <v>400</v>
@@ -79593,7 +80389,7 @@
       </c>
       <c r="C991" s="29"/>
       <c r="D991" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E991" s="29">
         <v>500</v>
@@ -79611,7 +80407,7 @@
       </c>
       <c r="C992" s="29"/>
       <c r="D992" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E992" s="29">
         <v>800</v>
@@ -79629,7 +80425,7 @@
       </c>
       <c r="C993" s="29"/>
       <c r="D993" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E993" s="29">
         <v>900</v>
@@ -79647,7 +80443,7 @@
       </c>
       <c r="C994" s="29"/>
       <c r="D994" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E994" s="29">
         <v>1000</v>
@@ -79665,7 +80461,7 @@
       </c>
       <c r="C995" s="29"/>
       <c r="D995" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E995" s="29">
         <v>4500</v>
@@ -79683,7 +80479,7 @@
       </c>
       <c r="C996" s="29"/>
       <c r="D996" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E996" s="29">
         <v>4800</v>
@@ -79701,7 +80497,7 @@
       </c>
       <c r="C997" s="29"/>
       <c r="D997" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E997" s="29">
         <v>5000</v>
@@ -79719,7 +80515,7 @@
       </c>
       <c r="C998" s="29"/>
       <c r="D998" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E998" s="29">
         <v>8000</v>
@@ -79737,7 +80533,7 @@
       </c>
       <c r="C999" s="29"/>
       <c r="D999" s="19" t="s">
-        <v>1670</v>
+        <v>1663</v>
       </c>
       <c r="E999" s="29">
         <v>9000</v>
@@ -79755,7 +80551,7 @@
       </c>
       <c r="C1000" s="29"/>
       <c r="D1000" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E1000" s="29">
         <v>10000</v>
@@ -79773,7 +80569,7 @@
       </c>
       <c r="C1001" s="29"/>
       <c r="D1001" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E1001" s="29">
         <v>15000</v>
@@ -79791,7 +80587,7 @@
       </c>
       <c r="C1002" s="29"/>
       <c r="D1002" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E1002" s="29">
         <v>18000</v>
@@ -79809,7 +80605,7 @@
       </c>
       <c r="C1003" s="29"/>
       <c r="D1003" s="19" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E1003" s="29">
         <v>20000</v>
@@ -79830,7 +80626,7 @@
         <v>877</v>
       </c>
       <c r="E1004" s="64" t="s">
-        <v>1678</v>
+        <v>1671</v>
       </c>
       <c r="F1004" s="60">
         <v>333</v>
@@ -79845,7 +80641,7 @@
       </c>
       <c r="C1005" s="60"/>
       <c r="D1005" s="85" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="E1005" s="64" t="s">
         <v>969</v>
@@ -79863,7 +80659,7 @@
       </c>
       <c r="C1006" s="60"/>
       <c r="D1006" s="85" t="s">
-        <v>1688</v>
+        <v>1681</v>
       </c>
       <c r="E1006" s="64" t="s">
         <v>970</v>
@@ -79881,10 +80677,10 @@
       </c>
       <c r="C1007" s="60"/>
       <c r="D1007" s="85" t="s">
-        <v>1690</v>
+        <v>1683</v>
       </c>
       <c r="E1007" s="64" t="s">
-        <v>1689</v>
+        <v>1682</v>
       </c>
       <c r="F1007" s="60">
         <v>333</v>
@@ -79935,10 +80731,10 @@
       </c>
       <c r="C1010" s="60"/>
       <c r="D1010" s="85" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="E1010" s="64" t="s">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="F1010" s="60">
         <v>333</v>
@@ -79989,10 +80785,10 @@
       </c>
       <c r="C1013" s="10"/>
       <c r="D1013" s="19" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="E1013" s="83" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="F1013" s="10">
         <v>333</v>
@@ -80055,7 +80851,7 @@
         <v>877</v>
       </c>
       <c r="E1016" s="83" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
       <c r="F1016" s="10">
         <v>333</v>
@@ -80115,7 +80911,7 @@
       </c>
       <c r="C1019" s="10"/>
       <c r="D1019" s="19" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="E1019" s="9">
         <v>400000</v>
@@ -80304,7 +81100,7 @@
       </c>
       <c r="C1028" s="10"/>
       <c r="D1028" s="19" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="E1028" s="9">
         <v>4000000</v>
@@ -80430,7 +81226,7 @@
       </c>
       <c r="C1034" s="10"/>
       <c r="D1034" s="19" t="s">
-        <v>1697</v>
+        <v>1690</v>
       </c>
       <c r="E1034" s="9">
         <v>5000000</v>
@@ -80493,7 +81289,7 @@
       </c>
       <c r="C1037" s="10"/>
       <c r="D1037" s="19" t="s">
-        <v>1720</v>
+        <v>1758</v>
       </c>
       <c r="E1037" s="9">
         <v>40000000</v>
@@ -80559,7 +81355,7 @@
         <v>877</v>
       </c>
       <c r="E1040" s="83" t="s">
-        <v>1701</v>
+        <v>1694</v>
       </c>
       <c r="F1040" s="10">
         <v>333</v>
@@ -80577,7 +81373,7 @@
         <v>1296</v>
       </c>
       <c r="E1041" s="83" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
       <c r="F1041" s="10">
         <v>333</v>
@@ -80595,7 +81391,7 @@
         <v>1296</v>
       </c>
       <c r="E1042" s="83" t="s">
-        <v>1669</v>
+        <v>1662</v>
       </c>
       <c r="F1042" s="10">
         <v>333</v>
@@ -80772,7 +81568,7 @@
       </c>
       <c r="C1052" s="29"/>
       <c r="D1052" s="19" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="E1052" s="29">
         <v>300000</v>
@@ -81042,10 +81838,10 @@
       </c>
       <c r="C1067" s="10"/>
       <c r="D1067" s="19" t="s">
-        <v>1711</v>
+        <v>1704</v>
       </c>
       <c r="E1067" s="83" t="s">
-        <v>1712</v>
+        <v>1705</v>
       </c>
       <c r="F1067" s="10">
         <v>333</v>
@@ -81096,10 +81892,10 @@
       </c>
       <c r="C1070" s="10"/>
       <c r="D1070" s="19" t="s">
-        <v>1697</v>
+        <v>1690</v>
       </c>
       <c r="E1070" s="83" t="s">
-        <v>1713</v>
+        <v>1706</v>
       </c>
       <c r="F1070" s="10">
         <v>333</v>
@@ -81420,7 +82216,7 @@
       </c>
       <c r="C1088" s="10"/>
       <c r="D1088" s="19" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="E1088" s="9">
         <v>5000000</v>
@@ -81429,7 +82225,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1089" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1089" s="61">
         <v>1088</v>
       </c>
@@ -81447,7 +82243,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1090" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1090" s="61">
         <v>1089</v>
       </c>
@@ -81465,7 +82261,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1091" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1091" s="61">
         <v>1090</v>
       </c>
@@ -81474,7 +82270,7 @@
       </c>
       <c r="C1091" s="10"/>
       <c r="D1091" s="19" t="s">
-        <v>1692</v>
+        <v>925</v>
       </c>
       <c r="E1091" s="9">
         <v>40000000</v>
@@ -81483,7 +82279,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1092" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1092" s="61">
         <v>1091</v>
       </c>
@@ -81501,7 +82297,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1093" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1093" s="61">
         <v>1092</v>
       </c>
@@ -81518,6 +82314,77 @@
       <c r="F1093" s="10">
         <v>333</v>
       </c>
+    </row>
+    <row r="1094" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1094" s="7">
+        <v>1093</v>
+      </c>
+      <c r="B1094" s="1">
+        <v>724</v>
+      </c>
+      <c r="D1094" s="14" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E1094" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F1094" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1095" s="61">
+        <v>1094</v>
+      </c>
+      <c r="B1095" s="10">
+        <v>725</v>
+      </c>
+      <c r="C1095" s="10"/>
+      <c r="D1095" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1095" s="10">
+        <v>32500</v>
+      </c>
+      <c r="F1095" s="10">
+        <v>1</v>
+      </c>
+      <c r="G1095" s="10"/>
+      <c r="H1095" s="10"/>
+      <c r="I1095" s="10"/>
+    </row>
+    <row r="1096" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1096" s="61">
+        <v>1095</v>
+      </c>
+      <c r="B1096" s="10">
+        <v>726</v>
+      </c>
+      <c r="C1096" s="10"/>
+      <c r="D1096" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1096" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F1096" s="10">
+        <v>1</v>
+      </c>
+      <c r="G1096" s="10"/>
+      <c r="H1096" s="10"/>
+      <c r="I1096" s="10"/>
+    </row>
+    <row r="1097" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1097" s="29"/>
+    </row>
+    <row r="1098" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1098" s="29"/>
+    </row>
+    <row r="1099" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1099" s="29"/>
+    </row>
+    <row r="1100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1100" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/config_Release/task_zajindan_server.xlsx
+++ b/config_Release/task_zajindan_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -11686,10 +11686,10 @@
   <dimension ref="A1:T480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D452" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H446" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D484" sqref="D484"/>
+      <selection pane="bottomRight" activeCell="J462" sqref="J462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29534,7 +29534,7 @@
         <v>1</v>
       </c>
       <c r="J460" s="7">
-        <v>1602547200</v>
+        <v>1602518400</v>
       </c>
       <c r="K460" s="7">
         <v>1603123199</v>
@@ -29572,7 +29572,7 @@
         <v>1</v>
       </c>
       <c r="J461" s="7">
-        <v>1602547200</v>
+        <v>1602518400</v>
       </c>
       <c r="K461" s="7">
         <v>1603123199</v>
@@ -29610,7 +29610,7 @@
         <v>1</v>
       </c>
       <c r="J462" s="7">
-        <v>1602547200</v>
+        <v>1602518400</v>
       </c>
       <c r="K462" s="7">
         <v>1603123199</v>

--- a/config_Release/task_zajindan_server.xlsx
+++ b/config_Release/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">task!$B$1:$B$367</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6134" uniqueCount="1794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6164" uniqueCount="1818">
   <si>
     <t>id|任务id</t>
   </si>
@@ -9893,10 +9893,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>685,686,687,688,689,690,691,692,693</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>random</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9949,10 +9945,6 @@
   </si>
   <si>
     <t>小游戏赢金（CPS渠道）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_xyxyj_cps</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -10779,6 +10771,201 @@
       <t>500</t>
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,19999</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,29999</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,39999</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,49999</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,59999</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,69999</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>word_len</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>duiju</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_player_advise</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission_task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_xyxyj_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,700000,4000000,5000000,10000000,30000000,50000000,400000000,500000000,1000000000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>732,685,686,687,688,689,690,691,692,693</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11683,13 +11870,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T480"/>
+  <dimension ref="A1:T481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H446" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F441" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J462" sqref="J462"/>
+      <selection pane="bottomRight" activeCell="I463" sqref="I463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26020,10 +26207,10 @@
         <v>1490</v>
       </c>
       <c r="D368" s="98" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E368" s="97" t="s">
         <v>1662</v>
-      </c>
-      <c r="E368" s="97" t="s">
-        <v>1663</v>
       </c>
       <c r="F368" s="97" t="s">
         <v>1491</v>
@@ -26058,10 +26245,10 @@
         <v>1490</v>
       </c>
       <c r="D369" s="98" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="E369" s="97" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="F369" s="97" t="s">
         <v>1491</v>
@@ -26096,10 +26283,10 @@
         <v>1490</v>
       </c>
       <c r="D370" s="97" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="E370" s="97" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="F370" s="97" t="s">
         <v>1491</v>
@@ -26134,10 +26321,10 @@
         <v>1492</v>
       </c>
       <c r="D371" s="97" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="E371" s="97" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="F371" s="97" t="s">
         <v>1491</v>
@@ -28227,7 +28414,7 @@
         <v>1498</v>
       </c>
       <c r="E426" s="113" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="F426" s="112" t="s">
         <v>855</v>
@@ -28943,16 +29130,16 @@
         <v>1</v>
       </c>
       <c r="C445" s="50" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="D445" s="50" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E445" s="50" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F445" s="50" t="s">
         <v>1759</v>
-      </c>
-      <c r="E445" s="50" t="s">
-        <v>1770</v>
-      </c>
-      <c r="F445" s="50" t="s">
-        <v>1761</v>
       </c>
       <c r="G445" s="9">
         <v>21392</v>
@@ -28981,16 +29168,16 @@
         <v>1</v>
       </c>
       <c r="C446" s="50" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="D446" s="50" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="E446" s="50" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="F446" s="50" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="G446" s="9">
         <v>21393</v>
@@ -29402,10 +29589,10 @@
         <v>1630</v>
       </c>
       <c r="D457" s="98" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="E457" s="97" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="F457" s="97" t="s">
         <v>1636</v>
@@ -29440,10 +29627,10 @@
         <v>1631</v>
       </c>
       <c r="D458" s="98" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="E458" s="97" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="F458" s="97" t="s">
         <v>1636</v>
@@ -29478,10 +29665,10 @@
         <v>1630</v>
       </c>
       <c r="D459" s="97" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="E459" s="97" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="F459" s="97" t="s">
         <v>1636</v>
@@ -29519,7 +29706,7 @@
         <v>1642</v>
       </c>
       <c r="E460" s="48" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="F460" s="7" t="s">
         <v>1637</v>
@@ -29630,10 +29817,10 @@
         <v>1650</v>
       </c>
       <c r="D463" s="50" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E463" s="50" t="s">
         <v>1664</v>
-      </c>
-      <c r="E463" s="50" t="s">
-        <v>1665</v>
       </c>
       <c r="F463" s="50" t="s">
         <v>1651</v>
@@ -29668,10 +29855,10 @@
         <v>1490</v>
       </c>
       <c r="D464" s="98" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="E464" s="97" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="F464" s="97" t="s">
         <v>1491</v>
@@ -29706,10 +29893,10 @@
         <v>1490</v>
       </c>
       <c r="D465" s="98" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E465" s="97" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="F465" s="97" t="s">
         <v>1491</v>
@@ -29744,10 +29931,10 @@
         <v>1490</v>
       </c>
       <c r="D466" s="97" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="E466" s="97" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="F466" s="97" t="s">
         <v>1491</v>
@@ -29782,10 +29969,10 @@
         <v>1490</v>
       </c>
       <c r="D467" s="97" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="E467" s="97" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="F467" s="97" t="s">
         <v>1491</v>
@@ -29820,10 +30007,10 @@
         <v>1650</v>
       </c>
       <c r="D468" s="50" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E468" s="50" t="s">
-        <v>1667</v>
+        <v>1809</v>
       </c>
       <c r="F468" s="50" t="s">
         <v>1651</v>
@@ -29858,10 +30045,10 @@
         <v>1630</v>
       </c>
       <c r="D469" s="98" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="E469" s="97" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="F469" s="97" t="s">
         <v>1636</v>
@@ -29896,10 +30083,10 @@
         <v>1630</v>
       </c>
       <c r="D470" s="98" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E470" s="97" t="s">
         <v>1698</v>
-      </c>
-      <c r="E470" s="97" t="s">
-        <v>1700</v>
       </c>
       <c r="F470" s="97" t="s">
         <v>1636</v>
@@ -29934,10 +30121,10 @@
         <v>1630</v>
       </c>
       <c r="D471" s="97" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="E471" s="97" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="F471" s="97" t="s">
         <v>1636</v>
@@ -29969,16 +30156,16 @@
         <v>1</v>
       </c>
       <c r="C472" s="48" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D472" s="48" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E472" s="48" t="s">
         <v>1714</v>
       </c>
-      <c r="D472" s="48" t="s">
-        <v>1717</v>
-      </c>
-      <c r="E472" s="48" t="s">
+      <c r="F472" s="48" t="s">
         <v>1716</v>
-      </c>
-      <c r="F472" s="48" t="s">
-        <v>1718</v>
       </c>
       <c r="G472" s="7">
         <v>21419</v>
@@ -30007,16 +30194,16 @@
         <v>1</v>
       </c>
       <c r="C473" s="48" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D473" s="7" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E473" s="48" t="s">
         <v>1714</v>
       </c>
-      <c r="D473" s="7" t="s">
-        <v>1745</v>
-      </c>
-      <c r="E473" s="48" t="s">
+      <c r="F473" s="48" t="s">
         <v>1716</v>
-      </c>
-      <c r="F473" s="48" t="s">
-        <v>1718</v>
       </c>
       <c r="G473" s="7">
         <v>21420</v>
@@ -30045,16 +30232,16 @@
         <v>1</v>
       </c>
       <c r="C474" s="48" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D474" s="7" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E474" s="48" t="s">
         <v>1714</v>
       </c>
-      <c r="D474" s="7" t="s">
-        <v>1710</v>
-      </c>
-      <c r="E474" s="48" t="s">
+      <c r="F474" s="48" t="s">
         <v>1716</v>
-      </c>
-      <c r="F474" s="48" t="s">
-        <v>1718</v>
       </c>
       <c r="G474" s="7">
         <v>21421</v>
@@ -30083,16 +30270,16 @@
         <v>1</v>
       </c>
       <c r="C475" s="48" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D475" s="48" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E475" s="48" t="s">
         <v>1714</v>
       </c>
-      <c r="D475" s="48" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E475" s="48" t="s">
+      <c r="F475" s="48" t="s">
         <v>1716</v>
-      </c>
-      <c r="F475" s="48" t="s">
-        <v>1718</v>
       </c>
       <c r="G475" s="7">
         <v>21422</v>
@@ -30121,16 +30308,16 @@
         <v>1</v>
       </c>
       <c r="C476" s="48" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D476" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E476" s="48" t="s">
         <v>1714</v>
       </c>
-      <c r="D476" s="7" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E476" s="48" t="s">
+      <c r="F476" s="48" t="s">
         <v>1716</v>
-      </c>
-      <c r="F476" s="48" t="s">
-        <v>1718</v>
       </c>
       <c r="G476" s="7">
         <v>21423</v>
@@ -30159,16 +30346,16 @@
         <v>1</v>
       </c>
       <c r="C477" s="48" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D477" s="7" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E477" s="48" t="s">
         <v>1714</v>
       </c>
-      <c r="D477" s="7" t="s">
-        <v>1712</v>
-      </c>
-      <c r="E477" s="48" t="s">
+      <c r="F477" s="48" t="s">
         <v>1716</v>
-      </c>
-      <c r="F477" s="48" t="s">
-        <v>1718</v>
       </c>
       <c r="G477" s="7">
         <v>21424</v>
@@ -30197,16 +30384,16 @@
         <v>1</v>
       </c>
       <c r="C478" s="48" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D478" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E478" s="48" t="s">
         <v>1714</v>
       </c>
-      <c r="D478" s="7" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E478" s="48" t="s">
+      <c r="F478" s="48" t="s">
         <v>1716</v>
-      </c>
-      <c r="F478" s="48" t="s">
-        <v>1718</v>
       </c>
       <c r="G478" s="7">
         <v>21425</v>
@@ -30235,13 +30422,13 @@
         <v>1</v>
       </c>
       <c r="C479" s="48" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D479" s="48" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E479" s="48" t="s">
         <v>1749</v>
-      </c>
-      <c r="D479" s="48" t="s">
-        <v>1750</v>
-      </c>
-      <c r="E479" s="48" t="s">
-        <v>1751</v>
       </c>
       <c r="F479" s="60" t="s">
         <v>855</v>
@@ -30273,13 +30460,13 @@
         <v>1</v>
       </c>
       <c r="C480" s="48" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="D480" s="48" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="E480" s="48" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="F480" s="60" t="s">
         <v>855</v>
@@ -30300,6 +30487,44 @@
         <v>1601913599</v>
       </c>
       <c r="L480" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="7">
+        <v>1000070</v>
+      </c>
+      <c r="B481" s="12">
+        <v>1</v>
+      </c>
+      <c r="C481" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D481" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E481" s="16" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F481" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G481" s="7">
+        <v>21428</v>
+      </c>
+      <c r="H481" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I481" s="12">
+        <v>1</v>
+      </c>
+      <c r="J481" s="12">
+        <v>1603152000</v>
+      </c>
+      <c r="K481" s="12">
+        <v>1603727999</v>
+      </c>
+      <c r="L481" s="12">
         <v>-1</v>
       </c>
     </row>
@@ -30316,11 +30541,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K481"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C472" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E455" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A487" sqref="A487"/>
+      <selection pane="bottomRight" activeCell="F463" sqref="F463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41647,11 +41872,11 @@
       </c>
       <c r="E445" s="10"/>
       <c r="F445" s="81" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="G445" s="78"/>
       <c r="H445" s="81" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="I445" s="19" t="s">
         <v>1265</v>
@@ -41670,11 +41895,11 @@
       </c>
       <c r="E446" s="10"/>
       <c r="F446" s="81" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="G446" s="78"/>
       <c r="H446" s="82" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="I446" s="19" t="s">
         <v>1265</v>
@@ -42060,7 +42285,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="463" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A463" s="50">
         <v>462</v>
       </c>
@@ -42073,14 +42298,14 @@
       </c>
       <c r="E463" s="10"/>
       <c r="F463" s="81" t="s">
-        <v>1709</v>
+        <v>1810</v>
       </c>
       <c r="G463" s="78"/>
       <c r="H463" s="111" t="s">
+        <v>1817</v>
+      </c>
+      <c r="I463" s="19" t="s">
         <v>1652</v>
-      </c>
-      <c r="I463" s="19" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="464" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -42100,7 +42325,7 @@
       </c>
       <c r="G464" s="34"/>
       <c r="H464" s="15" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="I464" s="13" t="s">
         <v>918</v>
@@ -42123,7 +42348,7 @@
       </c>
       <c r="G465" s="34"/>
       <c r="H465" s="15" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="I465" s="13" t="s">
         <v>918</v>
@@ -42146,7 +42371,7 @@
       </c>
       <c r="G466" s="34"/>
       <c r="H466" s="15" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="I466" s="13" t="s">
         <v>918</v>
@@ -42169,7 +42394,7 @@
       </c>
       <c r="G467" s="34"/>
       <c r="H467" s="15" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="I467" s="13" t="s">
         <v>918</v>
@@ -42188,14 +42413,14 @@
       </c>
       <c r="E468" s="10"/>
       <c r="F468" s="81" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="G468" s="78"/>
       <c r="H468" s="111" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="I468" s="19" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="469" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -42215,7 +42440,7 @@
       </c>
       <c r="G469" s="34"/>
       <c r="H469" s="15" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="I469" s="13" t="s">
         <v>918</v>
@@ -42238,7 +42463,7 @@
       </c>
       <c r="G470" s="34"/>
       <c r="H470" s="15" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="I470" s="13" t="s">
         <v>918</v>
@@ -42261,7 +42486,7 @@
       </c>
       <c r="G471" s="34"/>
       <c r="H471" s="15" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="I471" s="13" t="s">
         <v>918</v>
@@ -42280,14 +42505,14 @@
       </c>
       <c r="E472" s="104"/>
       <c r="F472" s="106" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="G472" s="107"/>
       <c r="H472" s="104">
         <v>724</v>
       </c>
       <c r="I472" s="105" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="473" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -42303,14 +42528,14 @@
       </c>
       <c r="E473" s="11"/>
       <c r="F473" s="39" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="G473" s="34"/>
       <c r="H473" s="104">
         <v>724</v>
       </c>
       <c r="I473" s="13" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="474" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -42326,14 +42551,14 @@
       </c>
       <c r="E474" s="11"/>
       <c r="F474" s="39" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="G474" s="34"/>
       <c r="H474" s="104">
         <v>724</v>
       </c>
       <c r="I474" s="13" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.2">
@@ -42347,13 +42572,13 @@
         <v>466</v>
       </c>
       <c r="F475" s="110" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="H475" s="104">
         <v>724</v>
       </c>
       <c r="I475" s="14" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.2">
@@ -42367,13 +42592,13 @@
         <v>467</v>
       </c>
       <c r="F476" s="110" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="H476" s="104">
         <v>724</v>
       </c>
       <c r="I476" s="14" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.2">
@@ -42387,13 +42612,13 @@
         <v>468</v>
       </c>
       <c r="F477" s="110" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="H477" s="104">
         <v>724</v>
       </c>
       <c r="I477" s="14" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.2">
@@ -42407,13 +42632,13 @@
         <v>469</v>
       </c>
       <c r="F478" s="110" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="H478" s="104">
         <v>724</v>
       </c>
       <c r="I478" s="14" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.2">
@@ -42427,13 +42652,13 @@
         <v>470</v>
       </c>
       <c r="F479" s="31" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="H479" s="32" t="s">
-        <v>1753</v>
-      </c>
-      <c r="I479" s="1" t="s">
-        <v>918</v>
+        <v>1751</v>
+      </c>
+      <c r="I479" s="14" t="s">
+        <v>1794</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.2">
@@ -42447,10 +42672,10 @@
         <v>471</v>
       </c>
       <c r="F480" s="110" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="H480" s="64" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="I480" s="14" t="s">
         <v>1259</v>
@@ -42459,8 +42684,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A481" s="11"/>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A481" s="11">
+        <v>480</v>
+      </c>
+      <c r="B481" s="28">
+        <v>21428</v>
+      </c>
+      <c r="D481" s="28">
+        <v>472</v>
+      </c>
+      <c r="F481" s="110" t="s">
+        <v>1792</v>
+      </c>
+      <c r="H481" s="64" t="s">
+        <v>1793</v>
+      </c>
+      <c r="I481" s="14" t="s">
+        <v>1795</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -42472,10 +42714,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I677"/>
+  <dimension ref="A1:I680"/>
   <sheetViews>
-    <sheetView topLeftCell="A646" workbookViewId="0">
-      <selection activeCell="C677" sqref="C677"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A653" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A661" sqref="A661:A680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -45364,7 +45607,7 @@
         <v>155</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>418</v>
+        <v>1804</v>
       </c>
       <c r="D201" s="11">
         <v>98</v>
@@ -47643,7 +47886,7 @@
         <v>255</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>618</v>
+        <v>1805</v>
       </c>
       <c r="D356" s="11">
         <v>166</v>
@@ -51842,7 +52085,7 @@
         <v>454</v>
       </c>
       <c r="C645" s="26" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D645" s="10">
         <v>0</v>
@@ -51859,39 +52102,40 @@
         <v>454</v>
       </c>
       <c r="C646" s="10" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D646" s="10">
         <v>0</v>
       </c>
       <c r="E646" s="10"/>
     </row>
-    <row r="647" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A647" s="11">
         <v>646</v>
       </c>
-      <c r="B647" s="10">
-        <v>455</v>
-      </c>
-      <c r="C647" s="85" t="s">
-        <v>1629</v>
+      <c r="B647" s="50">
+        <v>454</v>
+      </c>
+      <c r="C647" s="19" t="s">
+        <v>1807</v>
       </c>
       <c r="D647" s="10">
-        <v>318</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E647" s="10"/>
     </row>
     <row r="648" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A648" s="11">
         <v>647</v>
       </c>
       <c r="B648" s="10">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C648" s="85" t="s">
-        <v>1192</v>
+        <v>1629</v>
       </c>
       <c r="D648" s="10">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="649" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -51899,13 +52143,13 @@
         <v>648</v>
       </c>
       <c r="B649" s="10">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C649" s="85" t="s">
         <v>1192</v>
       </c>
       <c r="D649" s="10">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="650" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -51913,29 +52157,28 @@
         <v>649</v>
       </c>
       <c r="B650" s="10">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C650" s="85" t="s">
         <v>1192</v>
       </c>
       <c r="D650" s="10">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A651" s="11">
         <v>650</v>
       </c>
-      <c r="B651" s="28">
-        <v>459</v>
-      </c>
-      <c r="C651" s="26" t="s">
-        <v>393</v>
+      <c r="B651" s="10">
+        <v>458</v>
+      </c>
+      <c r="C651" s="85" t="s">
+        <v>1192</v>
       </c>
       <c r="D651" s="10">
-        <v>0</v>
-      </c>
-      <c r="E651" s="10"/>
+        <v>321</v>
+      </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A652" s="11">
@@ -51944,8 +52187,8 @@
       <c r="B652" s="28">
         <v>459</v>
       </c>
-      <c r="C652" s="10" t="s">
-        <v>438</v>
+      <c r="C652" s="26" t="s">
+        <v>393</v>
       </c>
       <c r="D652" s="10">
         <v>0</v>
@@ -51960,7 +52203,7 @@
         <v>459</v>
       </c>
       <c r="C653" s="10" t="s">
-        <v>664</v>
+        <v>438</v>
       </c>
       <c r="D653" s="10">
         <v>0</v>
@@ -51975,7 +52218,7 @@
         <v>459</v>
       </c>
       <c r="C654" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D654" s="10">
         <v>0</v>
@@ -51990,7 +52233,7 @@
         <v>459</v>
       </c>
       <c r="C655" s="10" t="s">
-        <v>384</v>
+        <v>665</v>
       </c>
       <c r="D655" s="10">
         <v>0</v>
@@ -52005,7 +52248,7 @@
         <v>459</v>
       </c>
       <c r="C656" s="10" t="s">
-        <v>666</v>
+        <v>384</v>
       </c>
       <c r="D656" s="10">
         <v>0</v>
@@ -52019,15 +52262,13 @@
       <c r="B657" s="28">
         <v>459</v>
       </c>
-      <c r="C657" s="26" t="s">
-        <v>1282</v>
+      <c r="C657" s="10" t="s">
+        <v>666</v>
       </c>
       <c r="D657" s="10">
         <v>0</v>
       </c>
-      <c r="E657" s="10">
-        <v>0.5</v>
-      </c>
+      <c r="E657" s="10"/>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A658" s="11">
@@ -52036,124 +52277,128 @@
       <c r="B658" s="28">
         <v>459</v>
       </c>
-      <c r="C658" s="10" t="s">
-        <v>1655</v>
+      <c r="C658" s="26" t="s">
+        <v>1282</v>
       </c>
       <c r="D658" s="10">
         <v>0</v>
       </c>
-      <c r="E658" s="10"/>
-    </row>
-    <row r="659" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E658" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A659" s="11">
         <v>658</v>
       </c>
-      <c r="B659" s="10">
-        <v>460</v>
-      </c>
-      <c r="C659" s="85" t="s">
-        <v>1635</v>
+      <c r="B659" s="28">
+        <v>459</v>
+      </c>
+      <c r="C659" s="10" t="s">
+        <v>1654</v>
       </c>
       <c r="D659" s="10">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="660" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E659" s="10"/>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A660" s="11">
         <v>659</v>
       </c>
-      <c r="B660" s="10">
-        <v>461</v>
-      </c>
-      <c r="C660" s="85" t="s">
-        <v>1635</v>
+      <c r="B660" s="28">
+        <v>459</v>
+      </c>
+      <c r="C660" s="19" t="s">
+        <v>1808</v>
       </c>
       <c r="D660" s="10">
-        <v>323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E660" s="10"/>
     </row>
     <row r="661" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A661" s="11">
         <v>660</v>
       </c>
       <c r="B661" s="10">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C661" s="85" t="s">
         <v>1635</v>
       </c>
       <c r="D661" s="10">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="662" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A662" s="11">
         <v>661</v>
       </c>
-      <c r="B662" s="11">
-        <v>463</v>
-      </c>
-      <c r="C662" s="23" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D662" s="11">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B662" s="10">
+        <v>461</v>
+      </c>
+      <c r="C662" s="85" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D662" s="10">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A663" s="11">
         <v>662</v>
       </c>
-      <c r="B663" s="11">
-        <v>464</v>
-      </c>
-      <c r="C663" s="13" t="s">
-        <v>1748</v>
-      </c>
-      <c r="D663" s="12">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B663" s="10">
+        <v>462</v>
+      </c>
+      <c r="C663" s="85" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D663" s="10">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A664" s="11">
         <v>663</v>
       </c>
       <c r="B664" s="11">
-        <v>465</v>
-      </c>
-      <c r="C664" s="13" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D664" s="12">
-        <v>327</v>
+        <v>463</v>
+      </c>
+      <c r="C664" s="23" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D664" s="11">
+        <v>325</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A665" s="11">
         <v>664</v>
       </c>
-      <c r="B665" s="28">
-        <v>466</v>
+      <c r="B665" s="11">
+        <v>464</v>
       </c>
       <c r="C665" s="13" t="s">
-        <v>1731</v>
+        <v>1746</v>
       </c>
       <c r="D665" s="12">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A666" s="11">
         <v>665</v>
       </c>
-      <c r="B666" s="28">
-        <v>467</v>
+      <c r="B666" s="11">
+        <v>465</v>
       </c>
       <c r="C666" s="13" t="s">
-        <v>1737</v>
+        <v>1723</v>
       </c>
       <c r="D666" s="12">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.2">
@@ -52161,13 +52406,13 @@
         <v>666</v>
       </c>
       <c r="B667" s="28">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C667" s="13" t="s">
-        <v>1740</v>
+        <v>1729</v>
       </c>
       <c r="D667" s="12">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.2">
@@ -52175,13 +52420,13 @@
         <v>667</v>
       </c>
       <c r="B668" s="28">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C668" s="13" t="s">
-        <v>1742</v>
+        <v>1735</v>
       </c>
       <c r="D668" s="12">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.2">
@@ -52189,13 +52434,13 @@
         <v>668</v>
       </c>
       <c r="B669" s="28">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C669" s="13" t="s">
-        <v>1754</v>
+        <v>1738</v>
       </c>
       <c r="D669" s="12">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.2">
@@ -52203,13 +52448,13 @@
         <v>669</v>
       </c>
       <c r="B670" s="28">
-        <v>471</v>
-      </c>
-      <c r="C670" s="26" t="s">
-        <v>393</v>
+        <v>469</v>
+      </c>
+      <c r="C670" s="13" t="s">
+        <v>1740</v>
       </c>
       <c r="D670" s="12">
-        <v>0</v>
+        <v>331</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.2">
@@ -52217,13 +52462,13 @@
         <v>670</v>
       </c>
       <c r="B671" s="28">
-        <v>471</v>
-      </c>
-      <c r="C671" s="10" t="s">
-        <v>438</v>
+        <v>470</v>
+      </c>
+      <c r="C671" s="13" t="s">
+        <v>1752</v>
       </c>
       <c r="D671" s="12">
-        <v>0</v>
+        <v>332</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.2">
@@ -52233,8 +52478,8 @@
       <c r="B672" s="28">
         <v>471</v>
       </c>
-      <c r="C672" s="10" t="s">
-        <v>664</v>
+      <c r="C672" s="26" t="s">
+        <v>393</v>
       </c>
       <c r="D672" s="12">
         <v>0</v>
@@ -52248,7 +52493,7 @@
         <v>471</v>
       </c>
       <c r="C673" s="10" t="s">
-        <v>665</v>
+        <v>438</v>
       </c>
       <c r="D673" s="12">
         <v>0</v>
@@ -52262,7 +52507,7 @@
         <v>471</v>
       </c>
       <c r="C674" s="10" t="s">
-        <v>384</v>
+        <v>664</v>
       </c>
       <c r="D674" s="12">
         <v>0</v>
@@ -52276,7 +52521,7 @@
         <v>471</v>
       </c>
       <c r="C675" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D675" s="12">
         <v>0</v>
@@ -52289,8 +52534,8 @@
       <c r="B676" s="28">
         <v>471</v>
       </c>
-      <c r="C676" s="26" t="s">
-        <v>1282</v>
+      <c r="C676" s="10" t="s">
+        <v>384</v>
       </c>
       <c r="D676" s="12">
         <v>0</v>
@@ -52303,14 +52548,56 @@
       <c r="B677" s="28">
         <v>471</v>
       </c>
-      <c r="C677" s="26" t="s">
-        <v>1775</v>
+      <c r="C677" s="10" t="s">
+        <v>666</v>
       </c>
       <c r="D677" s="12">
         <v>0</v>
       </c>
-      <c r="E677" s="28">
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A678" s="11">
+        <v>677</v>
+      </c>
+      <c r="B678" s="28">
+        <v>471</v>
+      </c>
+      <c r="C678" s="26" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D678" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A679" s="11">
+        <v>678</v>
+      </c>
+      <c r="B679" s="28">
+        <v>471</v>
+      </c>
+      <c r="C679" s="26" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D679" s="12">
+        <v>0</v>
+      </c>
+      <c r="E679" s="28">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A680" s="11">
+        <v>679</v>
+      </c>
+      <c r="B680" s="28">
+        <v>472</v>
+      </c>
+      <c r="C680" t="s">
+        <v>618</v>
+      </c>
+      <c r="D680" s="12">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -52323,13 +52610,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M453"/>
+  <dimension ref="A1:M454"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C384" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C417" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D457" sqref="D457"/>
+      <selection pane="bottomRight" activeCell="B454" sqref="B454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -57627,7 +57914,7 @@
         <v>166</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>739</v>
+        <v>1803</v>
       </c>
       <c r="D276" s="128">
         <v>11</v>
@@ -60137,7 +60424,7 @@
         <v>1585</v>
       </c>
       <c r="D422" s="15" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="E422" s="11">
         <v>2</v>
@@ -60508,7 +60795,7 @@
         <v>325</v>
       </c>
       <c r="C444" s="13" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D444" s="27">
         <v>10000</v>
@@ -60525,7 +60812,7 @@
         <v>326</v>
       </c>
       <c r="C445" s="13" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D445" s="27">
         <v>10000</v>
@@ -60542,7 +60829,7 @@
         <v>326</v>
       </c>
       <c r="C446" s="13" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="D446" s="27">
         <v>1</v>
@@ -60559,7 +60846,7 @@
         <v>327</v>
       </c>
       <c r="C447" s="13" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D447" s="27">
         <v>10000</v>
@@ -60576,7 +60863,7 @@
         <v>328</v>
       </c>
       <c r="C448" s="13" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="D448" s="27">
         <v>1</v>
@@ -60593,10 +60880,10 @@
         <v>328</v>
       </c>
       <c r="C449" s="13" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="D449" s="15" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="E449" s="11">
         <v>2</v>
@@ -60610,7 +60897,7 @@
         <v>329</v>
       </c>
       <c r="C450" s="13" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="D450" s="27">
         <v>1</v>
@@ -60627,7 +60914,7 @@
         <v>330</v>
       </c>
       <c r="C451" s="13" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="D451" s="27">
         <v>1</v>
@@ -60644,7 +60931,7 @@
         <v>331</v>
       </c>
       <c r="C452" s="13" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="D452" s="27">
         <v>2</v>
@@ -60661,13 +60948,30 @@
         <v>332</v>
       </c>
       <c r="C453" s="11" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="D453" s="15" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="E453" s="11">
         <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454" s="12">
+        <v>483</v>
+      </c>
+      <c r="B454" s="12">
+        <v>333</v>
+      </c>
+      <c r="C454" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="D454" s="15" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E454" s="11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -60680,13 +60984,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W1100"/>
+  <dimension ref="A1:W1109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1076" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1092" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1098" sqref="E1098"/>
+      <selection pane="bottomRight" activeCell="B1107" sqref="B1107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -79757,7 +80061,7 @@
         <v>1588</v>
       </c>
       <c r="E925" s="15" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="F925" s="11">
         <v>1</v>
@@ -79778,7 +80082,7 @@
         <v>1588</v>
       </c>
       <c r="E926" s="15" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="F926" s="11">
         <v>1</v>
@@ -79799,7 +80103,7 @@
         <v>1588</v>
       </c>
       <c r="E927" s="15" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="F927" s="11">
         <v>1</v>
@@ -79820,7 +80124,7 @@
         <v>1588</v>
       </c>
       <c r="E928" s="15" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="F928" s="11">
         <v>1</v>
@@ -79841,7 +80145,7 @@
         <v>1588</v>
       </c>
       <c r="E929" s="15" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="F929" s="11">
         <v>1</v>
@@ -79862,7 +80166,7 @@
         <v>1588</v>
       </c>
       <c r="E930" s="15" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="F930" s="11">
         <v>1</v>
@@ -79883,7 +80187,7 @@
         <v>1588</v>
       </c>
       <c r="E931" s="15" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F931" s="11">
         <v>1</v>
@@ -79904,7 +80208,7 @@
         <v>1588</v>
       </c>
       <c r="E932" s="15" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="F932" s="11">
         <v>1</v>
@@ -79925,7 +80229,7 @@
         <v>1588</v>
       </c>
       <c r="E933" s="15" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="F933" s="11">
         <v>1</v>
@@ -79946,7 +80250,7 @@
         <v>1588</v>
       </c>
       <c r="E934" s="15" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="F934" s="11">
         <v>1</v>
@@ -79967,7 +80271,7 @@
         <v>1588</v>
       </c>
       <c r="E935" s="15" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="F935" s="11">
         <v>1</v>
@@ -79988,7 +80292,7 @@
         <v>1588</v>
       </c>
       <c r="E936" s="15" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F936" s="11">
         <v>1</v>
@@ -80009,7 +80313,7 @@
         <v>1588</v>
       </c>
       <c r="E937" s="15" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="F937" s="11">
         <v>1</v>
@@ -80030,7 +80334,7 @@
         <v>1588</v>
       </c>
       <c r="E938" s="15" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F938" s="11">
         <v>1</v>
@@ -80051,7 +80355,7 @@
         <v>1588</v>
       </c>
       <c r="E939" s="15" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="F939" s="11">
         <v>1</v>
@@ -80816,10 +81120,10 @@
       </c>
       <c r="C977" s="10"/>
       <c r="D977" s="19" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E977" s="82" t="s">
         <v>1656</v>
-      </c>
-      <c r="E977" s="82" t="s">
-        <v>1657</v>
       </c>
       <c r="F977" s="10">
         <v>20</v>
@@ -80834,10 +81138,10 @@
       </c>
       <c r="C978" s="10"/>
       <c r="D978" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E978" s="82" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="F978" s="10">
         <v>30</v>
@@ -80852,10 +81156,10 @@
       </c>
       <c r="C979" s="10"/>
       <c r="D979" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E979" s="82" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="F979" s="10">
         <v>50</v>
@@ -80870,7 +81174,7 @@
       </c>
       <c r="C980" s="28"/>
       <c r="D980" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E980" s="32">
         <v>30</v>
@@ -80888,7 +81192,7 @@
       </c>
       <c r="C981" s="28"/>
       <c r="D981" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E981" s="32">
         <v>40</v>
@@ -80906,7 +81210,7 @@
       </c>
       <c r="C982" s="28"/>
       <c r="D982" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E982" s="32">
         <v>50</v>
@@ -80924,7 +81228,7 @@
       </c>
       <c r="C983" s="28"/>
       <c r="D983" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E983" s="32">
         <v>50</v>
@@ -80942,7 +81246,7 @@
       </c>
       <c r="C984" s="28"/>
       <c r="D984" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E984" s="32">
         <v>80</v>
@@ -80960,7 +81264,7 @@
       </c>
       <c r="C985" s="28"/>
       <c r="D985" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E985" s="32">
         <v>100</v>
@@ -80978,7 +81282,7 @@
       </c>
       <c r="C986" s="28"/>
       <c r="D986" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E986" s="32">
         <v>150</v>
@@ -80996,7 +81300,7 @@
       </c>
       <c r="C987" s="28"/>
       <c r="D987" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E987" s="32">
         <v>180</v>
@@ -81014,7 +81318,7 @@
       </c>
       <c r="C988" s="28"/>
       <c r="D988" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E988" s="32">
         <v>200</v>
@@ -81032,7 +81336,7 @@
       </c>
       <c r="C989" s="28"/>
       <c r="D989" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E989" s="32">
         <v>300</v>
@@ -81050,7 +81354,7 @@
       </c>
       <c r="C990" s="28"/>
       <c r="D990" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E990" s="32">
         <v>400</v>
@@ -81068,7 +81372,7 @@
       </c>
       <c r="C991" s="28"/>
       <c r="D991" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E991" s="32">
         <v>500</v>
@@ -81086,7 +81390,7 @@
       </c>
       <c r="C992" s="28"/>
       <c r="D992" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E992" s="32">
         <v>800</v>
@@ -81104,7 +81408,7 @@
       </c>
       <c r="C993" s="28"/>
       <c r="D993" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E993" s="32">
         <v>900</v>
@@ -81122,7 +81426,7 @@
       </c>
       <c r="C994" s="28"/>
       <c r="D994" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E994" s="32">
         <v>1000</v>
@@ -81140,7 +81444,7 @@
       </c>
       <c r="C995" s="28"/>
       <c r="D995" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E995" s="32">
         <v>4500</v>
@@ -81158,7 +81462,7 @@
       </c>
       <c r="C996" s="28"/>
       <c r="D996" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E996" s="32">
         <v>4800</v>
@@ -81176,7 +81480,7 @@
       </c>
       <c r="C997" s="28"/>
       <c r="D997" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E997" s="32">
         <v>5000</v>
@@ -81194,7 +81498,7 @@
       </c>
       <c r="C998" s="28"/>
       <c r="D998" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E998" s="32">
         <v>8000</v>
@@ -81212,7 +81516,7 @@
       </c>
       <c r="C999" s="28"/>
       <c r="D999" s="19" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E999" s="32">
         <v>9000</v>
@@ -81230,7 +81534,7 @@
       </c>
       <c r="C1000" s="28"/>
       <c r="D1000" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E1000" s="32">
         <v>10000</v>
@@ -81248,7 +81552,7 @@
       </c>
       <c r="C1001" s="28"/>
       <c r="D1001" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E1001" s="32">
         <v>15000</v>
@@ -81266,7 +81570,7 @@
       </c>
       <c r="C1002" s="28"/>
       <c r="D1002" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E1002" s="32">
         <v>18000</v>
@@ -81284,7 +81588,7 @@
       </c>
       <c r="C1003" s="28"/>
       <c r="D1003" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E1003" s="32">
         <v>20000</v>
@@ -81305,7 +81609,7 @@
         <v>877</v>
       </c>
       <c r="E1004" s="63" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="F1004" s="59">
         <v>333</v>
@@ -81320,7 +81624,7 @@
       </c>
       <c r="C1005" s="59"/>
       <c r="D1005" s="84" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="E1005" s="63" t="s">
         <v>969</v>
@@ -81338,7 +81642,7 @@
       </c>
       <c r="C1006" s="59"/>
       <c r="D1006" s="84" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="E1006" s="63" t="s">
         <v>970</v>
@@ -81356,10 +81660,10 @@
       </c>
       <c r="C1007" s="59"/>
       <c r="D1007" s="84" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="E1007" s="63" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="F1007" s="59">
         <v>333</v>
@@ -81410,10 +81714,10 @@
       </c>
       <c r="C1010" s="59"/>
       <c r="D1010" s="84" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="E1010" s="63" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="F1010" s="59">
         <v>333</v>
@@ -81464,10 +81768,10 @@
       </c>
       <c r="C1013" s="10"/>
       <c r="D1013" s="19" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="E1013" s="82" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="F1013" s="10">
         <v>333</v>
@@ -81530,7 +81834,7 @@
         <v>877</v>
       </c>
       <c r="E1016" s="82" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F1016" s="10">
         <v>333</v>
@@ -81590,7 +81894,7 @@
       </c>
       <c r="C1019" s="10"/>
       <c r="D1019" s="19" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="E1019" s="126">
         <v>400000</v>
@@ -81779,7 +82083,7 @@
       </c>
       <c r="C1028" s="10"/>
       <c r="D1028" s="19" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="E1028" s="126">
         <v>4000000</v>
@@ -81905,7 +82209,7 @@
       </c>
       <c r="C1034" s="10"/>
       <c r="D1034" s="19" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="E1034" s="126">
         <v>5000000</v>
@@ -82034,7 +82338,7 @@
         <v>877</v>
       </c>
       <c r="E1040" s="82" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="F1040" s="10">
         <v>333</v>
@@ -82052,7 +82356,7 @@
         <v>1296</v>
       </c>
       <c r="E1041" s="82" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="F1041" s="10">
         <v>333</v>
@@ -82070,7 +82374,7 @@
         <v>1296</v>
       </c>
       <c r="E1042" s="82" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="F1042" s="10">
         <v>333</v>
@@ -82247,7 +82551,7 @@
       </c>
       <c r="C1052" s="28"/>
       <c r="D1052" s="19" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="E1052" s="32">
         <v>300000</v>
@@ -82517,10 +82821,10 @@
       </c>
       <c r="C1067" s="10"/>
       <c r="D1067" s="19" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="E1067" s="82" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="F1067" s="10">
         <v>333</v>
@@ -82571,10 +82875,10 @@
       </c>
       <c r="C1070" s="10"/>
       <c r="D1070" s="19" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="E1070" s="82" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F1070" s="10">
         <v>333</v>
@@ -82895,7 +83199,7 @@
       </c>
       <c r="C1088" s="10"/>
       <c r="D1088" s="19" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="E1088" s="126">
         <v>5000000</v>
@@ -83002,7 +83306,7 @@
         <v>724</v>
       </c>
       <c r="D1094" s="14" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="E1094" s="32">
         <v>10000</v>
@@ -83022,7 +83326,7 @@
         <v>877</v>
       </c>
       <c r="E1095" s="64" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F1095" s="1">
         <v>1</v>
@@ -83039,7 +83343,7 @@
         <v>877</v>
       </c>
       <c r="E1096" s="64" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="F1096" s="1">
         <v>1</v>
@@ -83056,7 +83360,7 @@
         <v>877</v>
       </c>
       <c r="E1097" s="64" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="F1097" s="1">
         <v>1</v>
@@ -83071,7 +83375,7 @@
       </c>
       <c r="C1098" s="10"/>
       <c r="D1098" s="19" t="s">
-        <v>1768</v>
+        <v>1811</v>
       </c>
       <c r="E1098" s="10">
         <v>32500</v>
@@ -83092,7 +83396,7 @@
       </c>
       <c r="C1099" s="10"/>
       <c r="D1099" s="19" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="E1099" s="10">
         <v>10000</v>
@@ -83112,13 +83416,166 @@
         <v>730</v>
       </c>
       <c r="D1100" s="14" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="E1100" s="64" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F1100" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1101" s="7">
+        <v>1100</v>
+      </c>
+      <c r="B1101" s="1">
+        <v>731</v>
+      </c>
+      <c r="D1101" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E1101" s="64" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F1101" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1102" s="7">
+        <v>1101</v>
+      </c>
+      <c r="B1102" s="28">
+        <v>731</v>
+      </c>
+      <c r="D1102" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="E1102" s="64" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F1102" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1103" s="7">
+        <v>1102</v>
+      </c>
+      <c r="B1103" s="28">
+        <v>731</v>
+      </c>
+      <c r="D1103" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="E1103" s="64" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F1103" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1104" s="7">
+        <v>1103</v>
+      </c>
+      <c r="B1104" s="28">
+        <v>731</v>
+      </c>
+      <c r="D1104" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="E1104" s="64" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F1104" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1105" s="7">
+        <v>1104</v>
+      </c>
+      <c r="B1105" s="28">
+        <v>731</v>
+      </c>
+      <c r="D1105" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="E1105" s="64" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F1105" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1106" s="7">
+        <v>1105</v>
+      </c>
+      <c r="B1106" s="28">
+        <v>731</v>
+      </c>
+      <c r="D1106" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="E1106" s="64" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F1106" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1107" s="7">
+        <v>1106</v>
+      </c>
+      <c r="B1107" s="1">
+        <v>732</v>
+      </c>
+      <c r="D1107" s="14" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E1107" s="64" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F1107" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1108" s="7">
+        <v>1107</v>
+      </c>
+      <c r="B1108" s="28">
+        <v>732</v>
+      </c>
+      <c r="D1108" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E1108" s="64" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F1108" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1109" s="7">
+        <v>1108</v>
+      </c>
+      <c r="B1109" s="28">
+        <v>732</v>
+      </c>
+      <c r="D1109" s="14" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E1109" s="64" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F1109" s="1">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/task_zajindan_server.xlsx
+++ b/config_Release/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">task!$B$1:$B$367</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6164" uniqueCount="1818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6256" uniqueCount="1871">
   <si>
     <t>id|任务id</t>
   </si>
@@ -10299,23 +10299,6 @@
   </si>
   <si>
     <r>
-      <t>累计购买3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\5\7次国庆福袋后可获得奖励</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>p</t>
     </r>
     <r>
@@ -10341,10 +10324,6 @@
   </si>
   <si>
     <t>buy_gift</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_id</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -10966,6 +10945,313 @@
   <si>
     <t>732,685,686,687,688,689,690,691,692,693</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计购买3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\5\7次国庆福袋后可获得奖励</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000,300000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,580000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,2900000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>33,734,735</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_gift</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_gift</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10350,10351,10352,10353,10354,10355,10356</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏福利</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果大战中连胜2局</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲敲乐普通模式中砸中1次金猪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲敲乐财神模式中连续砸出2次财神</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神消消乐使用1万及以上档次，出现3次天女散花</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浒消消乐使用1万及以上档次，累计召唤3次英雄</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐使用1万及以上档次，出现1次幸运时刻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中种出1次金苹果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>736</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_game_num</t>
+  </si>
+  <si>
+    <t>award_id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_continuity_caishen_model</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_sky_girl</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_spend</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_xxl_xc_num_hero</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>sky_girl_type</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_num</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_lucky_award</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaijiang_type</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_value</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent_guess_continuity_apple_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_award_kaijiang_type</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_034_xyxfl</t>
+  </si>
+  <si>
+    <t>p_034_xyxfl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计购买2\3\5次国庆福袋后可获得奖励</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11064,7 +11350,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11179,6 +11465,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -11221,7 +11525,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11583,7 +11887,67 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11870,13 +12234,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T481"/>
+  <dimension ref="A1:T490"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F441" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H466" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I463" sqref="I463"/>
+      <selection pane="bottomRight" activeCell="J485" sqref="J485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29130,16 +29494,16 @@
         <v>1</v>
       </c>
       <c r="C445" s="50" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="D445" s="50" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E445" s="50" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F445" s="50" t="s">
         <v>1757</v>
-      </c>
-      <c r="E445" s="50" t="s">
-        <v>1768</v>
-      </c>
-      <c r="F445" s="50" t="s">
-        <v>1759</v>
       </c>
       <c r="G445" s="9">
         <v>21392</v>
@@ -29168,16 +29532,16 @@
         <v>1</v>
       </c>
       <c r="C446" s="50" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="D446" s="50" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="E446" s="50" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="F446" s="50" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="G446" s="9">
         <v>21393</v>
@@ -29706,7 +30070,7 @@
         <v>1642</v>
       </c>
       <c r="E460" s="48" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="F460" s="7" t="s">
         <v>1637</v>
@@ -30010,7 +30374,7 @@
         <v>1665</v>
       </c>
       <c r="E468" s="50" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="F468" s="50" t="s">
         <v>1651</v>
@@ -30148,7 +30512,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A472" s="7">
         <v>1000061</v>
       </c>
@@ -30167,7 +30531,7 @@
       <c r="F472" s="48" t="s">
         <v>1716</v>
       </c>
-      <c r="G472" s="7">
+      <c r="G472" s="151">
         <v>21419</v>
       </c>
       <c r="H472" s="12" t="b">
@@ -30186,7 +30550,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A473" s="7">
         <v>1000062</v>
       </c>
@@ -30205,7 +30569,7 @@
       <c r="F473" s="48" t="s">
         <v>1716</v>
       </c>
-      <c r="G473" s="7">
+      <c r="G473" s="151">
         <v>21420</v>
       </c>
       <c r="H473" s="12" t="b">
@@ -30276,7 +30640,7 @@
         <v>1726</v>
       </c>
       <c r="E475" s="48" t="s">
-        <v>1714</v>
+        <v>1818</v>
       </c>
       <c r="F475" s="48" t="s">
         <v>1716</v>
@@ -30317,7 +30681,7 @@
         <v>1714</v>
       </c>
       <c r="F476" s="48" t="s">
-        <v>1716</v>
+        <v>1836</v>
       </c>
       <c r="G476" s="7">
         <v>21423</v>
@@ -30425,10 +30789,10 @@
         <v>1747</v>
       </c>
       <c r="D479" s="48" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E479" s="48" t="s">
         <v>1748</v>
-      </c>
-      <c r="E479" s="48" t="s">
-        <v>1749</v>
       </c>
       <c r="F479" s="60" t="s">
         <v>855</v>
@@ -30460,13 +30824,13 @@
         <v>1</v>
       </c>
       <c r="C480" s="48" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="D480" s="48" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="E480" s="48" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F480" s="60" t="s">
         <v>855</v>
@@ -30504,7 +30868,7 @@
         <v>319</v>
       </c>
       <c r="E481" s="16" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="F481" s="16" t="s">
         <v>13</v>
@@ -30527,6 +30891,313 @@
       <c r="L481" s="12">
         <v>-1</v>
       </c>
+    </row>
+    <row r="482" spans="1:12" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="129">
+        <v>1000071</v>
+      </c>
+      <c r="B482" s="129">
+        <v>1</v>
+      </c>
+      <c r="C482" s="130" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D482" s="129" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E482" s="130" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F482" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G482" s="129">
+        <v>21429</v>
+      </c>
+      <c r="H482" s="129" t="b">
+        <v>1</v>
+      </c>
+      <c r="I482" s="129">
+        <v>1</v>
+      </c>
+      <c r="J482" s="129">
+        <v>1604332800</v>
+      </c>
+      <c r="K482" s="129">
+        <v>1604937599</v>
+      </c>
+      <c r="L482" s="129">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="137">
+        <v>1000072</v>
+      </c>
+      <c r="B483" s="137">
+        <v>1</v>
+      </c>
+      <c r="C483" s="138" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D483" s="138" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E483" s="138" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F483" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G483" s="137">
+        <v>21430</v>
+      </c>
+      <c r="H483" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I483" s="137">
+        <v>1</v>
+      </c>
+      <c r="J483" s="137">
+        <v>1604332800</v>
+      </c>
+      <c r="K483" s="137">
+        <v>1604937599</v>
+      </c>
+      <c r="L483" s="137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="137">
+        <v>1000073</v>
+      </c>
+      <c r="B484" s="137">
+        <v>1</v>
+      </c>
+      <c r="C484" s="138" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D484" s="138" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E484" s="138" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F484" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G484" s="137">
+        <v>21431</v>
+      </c>
+      <c r="H484" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I484" s="137">
+        <v>1</v>
+      </c>
+      <c r="J484" s="137">
+        <v>1604332800</v>
+      </c>
+      <c r="K484" s="137">
+        <v>1604937599</v>
+      </c>
+      <c r="L484" s="137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="137">
+        <v>1000074</v>
+      </c>
+      <c r="B485" s="137">
+        <v>1</v>
+      </c>
+      <c r="C485" s="138" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D485" s="138" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E485" s="138" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F485" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G485" s="137">
+        <v>21432</v>
+      </c>
+      <c r="H485" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I485" s="137">
+        <v>1</v>
+      </c>
+      <c r="J485" s="137">
+        <v>1604332800</v>
+      </c>
+      <c r="K485" s="137">
+        <v>1604937599</v>
+      </c>
+      <c r="L485" s="137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="137">
+        <v>1000075</v>
+      </c>
+      <c r="B486" s="137">
+        <v>1</v>
+      </c>
+      <c r="C486" s="138" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D486" s="138" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E486" s="138" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F486" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G486" s="137">
+        <v>21433</v>
+      </c>
+      <c r="H486" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I486" s="137">
+        <v>1</v>
+      </c>
+      <c r="J486" s="137">
+        <v>1604332800</v>
+      </c>
+      <c r="K486" s="137">
+        <v>1604937599</v>
+      </c>
+      <c r="L486" s="137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="137">
+        <v>1000076</v>
+      </c>
+      <c r="B487" s="137">
+        <v>1</v>
+      </c>
+      <c r="C487" s="138" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D487" s="138" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E487" s="138" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F487" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G487" s="137">
+        <v>21434</v>
+      </c>
+      <c r="H487" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I487" s="137">
+        <v>1</v>
+      </c>
+      <c r="J487" s="137">
+        <v>1604332800</v>
+      </c>
+      <c r="K487" s="137">
+        <v>1604937599</v>
+      </c>
+      <c r="L487" s="137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="137">
+        <v>1000077</v>
+      </c>
+      <c r="B488" s="137">
+        <v>1</v>
+      </c>
+      <c r="C488" s="138" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D488" s="138" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E488" s="138" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F488" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G488" s="137">
+        <v>21435</v>
+      </c>
+      <c r="H488" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I488" s="137">
+        <v>1</v>
+      </c>
+      <c r="J488" s="137">
+        <v>1604332800</v>
+      </c>
+      <c r="K488" s="137">
+        <v>1604937599</v>
+      </c>
+      <c r="L488" s="137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="137">
+        <v>1000078</v>
+      </c>
+      <c r="B489" s="137">
+        <v>1</v>
+      </c>
+      <c r="C489" s="138" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D489" s="138" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E489" s="138" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F489" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G489" s="137">
+        <v>21436</v>
+      </c>
+      <c r="H489" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I489" s="137">
+        <v>1</v>
+      </c>
+      <c r="J489" s="137">
+        <v>1604332800</v>
+      </c>
+      <c r="K489" s="137">
+        <v>1604937599</v>
+      </c>
+      <c r="L489" s="137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K490" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B367"/>
@@ -30539,13 +31210,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K481"/>
+  <dimension ref="A1:K489"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E455" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C463" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F463" sqref="F463"/>
+      <selection pane="bottomRight" activeCell="A482" sqref="A482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41872,11 +42543,11 @@
       </c>
       <c r="E445" s="10"/>
       <c r="F445" s="81" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="G445" s="78"/>
       <c r="H445" s="81" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="I445" s="19" t="s">
         <v>1265</v>
@@ -41895,11 +42566,11 @@
       </c>
       <c r="E446" s="10"/>
       <c r="F446" s="81" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="G446" s="78"/>
       <c r="H446" s="82" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="I446" s="19" t="s">
         <v>1265</v>
@@ -42298,11 +42969,11 @@
       </c>
       <c r="E463" s="10"/>
       <c r="F463" s="81" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="G463" s="78"/>
       <c r="H463" s="111" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="I463" s="19" t="s">
         <v>1652</v>
@@ -42652,13 +43323,13 @@
         <v>470</v>
       </c>
       <c r="F479" s="31" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H479" s="32" t="s">
         <v>1750</v>
       </c>
-      <c r="H479" s="32" t="s">
-        <v>1751</v>
-      </c>
       <c r="I479" s="14" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.2">
@@ -42672,10 +43343,10 @@
         <v>471</v>
       </c>
       <c r="F480" s="110" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="H480" s="64" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="I480" s="14" t="s">
         <v>1259</v>
@@ -42695,13 +43366,197 @@
         <v>472</v>
       </c>
       <c r="F481" s="110" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H481" s="64" t="s">
+        <v>1791</v>
+      </c>
+      <c r="I481" s="14" t="s">
         <v>1793</v>
       </c>
-      <c r="I481" s="14" t="s">
-        <v>1795</v>
+    </row>
+    <row r="482" spans="1:9" s="133" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="131">
+        <v>481</v>
+      </c>
+      <c r="B482" s="134">
+        <v>21429</v>
+      </c>
+      <c r="C482" s="131"/>
+      <c r="D482" s="131">
+        <v>473</v>
+      </c>
+      <c r="E482" s="131"/>
+      <c r="F482" s="135" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G482" s="132"/>
+      <c r="H482" s="136" t="s">
+        <v>1823</v>
+      </c>
+      <c r="I482" s="134" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="139">
+        <v>482</v>
+      </c>
+      <c r="B483" s="137">
+        <v>21430</v>
+      </c>
+      <c r="C483" s="139"/>
+      <c r="D483" s="139">
+        <v>474</v>
+      </c>
+      <c r="E483" s="139"/>
+      <c r="F483" s="145" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G483" s="140"/>
+      <c r="H483" s="144" t="s">
+        <v>1838</v>
+      </c>
+      <c r="I483" s="143" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="139">
+        <v>483</v>
+      </c>
+      <c r="B484" s="137">
+        <v>21431</v>
+      </c>
+      <c r="C484" s="139"/>
+      <c r="D484" s="139">
+        <v>475</v>
+      </c>
+      <c r="E484" s="139"/>
+      <c r="F484" s="145" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G484" s="140"/>
+      <c r="H484" s="141" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I484" s="143" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="139">
+        <v>484</v>
+      </c>
+      <c r="B485" s="137">
+        <v>21432</v>
+      </c>
+      <c r="C485" s="139"/>
+      <c r="D485" s="139">
+        <v>476</v>
+      </c>
+      <c r="E485" s="139"/>
+      <c r="F485" s="145" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G485" s="140"/>
+      <c r="H485" s="144" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I485" s="143" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="139">
+        <v>485</v>
+      </c>
+      <c r="B486" s="137">
+        <v>21433</v>
+      </c>
+      <c r="C486" s="139"/>
+      <c r="D486" s="139">
+        <v>477</v>
+      </c>
+      <c r="E486" s="139"/>
+      <c r="F486" s="145" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G486" s="140"/>
+      <c r="H486" s="141" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I486" s="143" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="139">
+        <v>486</v>
+      </c>
+      <c r="B487" s="137">
+        <v>21434</v>
+      </c>
+      <c r="C487" s="139"/>
+      <c r="D487" s="139">
+        <v>478</v>
+      </c>
+      <c r="E487" s="139"/>
+      <c r="F487" s="145" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G487" s="140"/>
+      <c r="H487" s="144" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I487" s="143" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="139">
+        <v>487</v>
+      </c>
+      <c r="B488" s="137">
+        <v>21435</v>
+      </c>
+      <c r="C488" s="139"/>
+      <c r="D488" s="139">
+        <v>479</v>
+      </c>
+      <c r="E488" s="139"/>
+      <c r="F488" s="145" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G488" s="140"/>
+      <c r="H488" s="141" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I488" s="143" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="139">
+        <v>488</v>
+      </c>
+      <c r="B489" s="137">
+        <v>21436</v>
+      </c>
+      <c r="C489" s="139"/>
+      <c r="D489" s="139">
+        <v>480</v>
+      </c>
+      <c r="E489" s="139"/>
+      <c r="F489" s="145" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G489" s="140"/>
+      <c r="H489" s="144" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I489" s="143" t="s">
+        <v>1839</v>
       </c>
     </row>
   </sheetData>
@@ -42714,18 +43569,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I680"/>
+  <dimension ref="A1:I688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A653" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A661" sqref="A661:A680"/>
+      <pane ySplit="1" topLeftCell="A659" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D682" sqref="D682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="28"/>
-    <col min="3" max="3" width="41.25" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="41.25" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="28" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
@@ -45607,7 +46462,7 @@
         <v>155</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="D201" s="11">
         <v>98</v>
@@ -47886,7 +48741,7 @@
         <v>255</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="D356" s="11">
         <v>166</v>
@@ -52117,7 +52972,7 @@
         <v>454</v>
       </c>
       <c r="C647" s="19" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="D647" s="10">
         <v>0</v>
@@ -52310,7 +53165,7 @@
         <v>459</v>
       </c>
       <c r="C660" s="19" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="D660" s="10">
         <v>0</v>
@@ -52465,7 +53320,7 @@
         <v>470</v>
       </c>
       <c r="C671" s="13" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D671" s="12">
         <v>332</v>
@@ -52577,7 +53432,7 @@
         <v>471</v>
       </c>
       <c r="C679" s="26" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="D679" s="12">
         <v>0</v>
@@ -52593,11 +53448,123 @@
       <c r="B680" s="28">
         <v>472</v>
       </c>
-      <c r="C680" t="s">
+      <c r="C680" s="28" t="s">
         <v>618</v>
       </c>
       <c r="D680" s="12">
         <v>333</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" s="133" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A681" s="131">
+        <v>680</v>
+      </c>
+      <c r="B681" s="131">
+        <v>473</v>
+      </c>
+      <c r="C681" s="134" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D681" s="131">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A682" s="139">
+        <v>681</v>
+      </c>
+      <c r="B682" s="139">
+        <v>474</v>
+      </c>
+      <c r="C682" s="143" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D682" s="139">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A683" s="139">
+        <v>682</v>
+      </c>
+      <c r="B683" s="139">
+        <v>475</v>
+      </c>
+      <c r="C683" s="139" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D683" s="139">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A684" s="139">
+        <v>683</v>
+      </c>
+      <c r="B684" s="139">
+        <v>476</v>
+      </c>
+      <c r="C684" s="143" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D684" s="139">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A685" s="139">
+        <v>684</v>
+      </c>
+      <c r="B685" s="139">
+        <v>477</v>
+      </c>
+      <c r="C685" s="143" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D685" s="139">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A686" s="139">
+        <v>685</v>
+      </c>
+      <c r="B686" s="139">
+        <v>478</v>
+      </c>
+      <c r="C686" s="143" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D686" s="139">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A687" s="139">
+        <v>686</v>
+      </c>
+      <c r="B687" s="139">
+        <v>479</v>
+      </c>
+      <c r="C687" s="139" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D687" s="139">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A688" s="139">
+        <v>687</v>
+      </c>
+      <c r="B688" s="139">
+        <v>480</v>
+      </c>
+      <c r="C688" s="143" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D688" s="139">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -52610,13 +53577,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M454"/>
+  <dimension ref="A1:M464"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C417" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C437" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B454" sqref="B454"/>
+      <selection pane="bottomRight" activeCell="E453" sqref="E453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -57914,7 +58881,7 @@
         <v>166</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="D276" s="128">
         <v>11</v>
@@ -59338,8 +60305,8 @@
       <c r="C359" s="94" t="s">
         <v>1329</v>
       </c>
-      <c r="D359" s="129">
-        <v>0</v>
+      <c r="D359" s="150" t="s">
+        <v>1849</v>
       </c>
       <c r="E359" s="93">
         <v>2</v>
@@ -60424,7 +61391,7 @@
         <v>1585</v>
       </c>
       <c r="D422" s="15" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="E422" s="11">
         <v>2</v>
@@ -60872,7 +61839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="12">
         <v>478</v>
       </c>
@@ -60889,7 +61856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="12">
         <v>479</v>
       </c>
@@ -60906,7 +61873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="12">
         <v>480</v>
       </c>
@@ -60923,7 +61890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="12">
         <v>481</v>
       </c>
@@ -60940,24 +61907,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="12">
         <v>482</v>
       </c>
       <c r="B453" s="12">
         <v>332</v>
       </c>
-      <c r="C453" s="11" t="s">
-        <v>1753</v>
+      <c r="C453" s="13" t="s">
+        <v>1076</v>
       </c>
       <c r="D453" s="15" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="E453" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="12">
         <v>483</v>
       </c>
@@ -60968,11 +61935,191 @@
         <v>739</v>
       </c>
       <c r="D454" s="15" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="E454" s="11">
         <v>3</v>
       </c>
+    </row>
+    <row r="455" spans="1:6" s="149" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="146">
+        <v>484</v>
+      </c>
+      <c r="B455" s="146">
+        <v>334</v>
+      </c>
+      <c r="C455" s="147" t="s">
+        <v>681</v>
+      </c>
+      <c r="D455" s="148" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E455" s="147">
+        <v>2</v>
+      </c>
+      <c r="F455" s="147"/>
+    </row>
+    <row r="456" spans="1:6" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="137">
+        <v>485</v>
+      </c>
+      <c r="B456" s="137">
+        <v>335</v>
+      </c>
+      <c r="C456" s="143" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D456" s="144" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E456" s="139">
+        <v>3</v>
+      </c>
+      <c r="F456" s="139"/>
+    </row>
+    <row r="457" spans="1:6" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="137">
+        <v>486</v>
+      </c>
+      <c r="B457" s="137">
+        <v>336</v>
+      </c>
+      <c r="C457" s="143" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D457" s="144" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E457" s="139">
+        <v>2</v>
+      </c>
+      <c r="F457" s="139"/>
+    </row>
+    <row r="458" spans="1:6" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="137">
+        <v>487</v>
+      </c>
+      <c r="B458" s="137">
+        <v>337</v>
+      </c>
+      <c r="C458" s="143" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D458" s="144" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E458" s="139">
+        <v>3</v>
+      </c>
+      <c r="F458" s="139"/>
+    </row>
+    <row r="459" spans="1:6" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="137">
+        <v>488</v>
+      </c>
+      <c r="B459" s="137">
+        <v>338</v>
+      </c>
+      <c r="C459" s="143" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D459" s="144" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E459" s="139">
+        <v>2</v>
+      </c>
+      <c r="F459" s="139"/>
+    </row>
+    <row r="460" spans="1:6" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="137">
+        <v>489</v>
+      </c>
+      <c r="B460" s="137">
+        <v>338</v>
+      </c>
+      <c r="C460" s="143" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D460" s="144" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E460" s="139">
+        <v>3</v>
+      </c>
+      <c r="F460" s="139"/>
+    </row>
+    <row r="461" spans="1:6" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="137">
+        <v>490</v>
+      </c>
+      <c r="B461" s="137">
+        <v>339</v>
+      </c>
+      <c r="C461" s="143" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D461" s="144" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E461" s="139">
+        <v>3</v>
+      </c>
+      <c r="F461" s="139"/>
+    </row>
+    <row r="462" spans="1:6" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="137">
+        <v>491</v>
+      </c>
+      <c r="B462" s="137">
+        <v>339</v>
+      </c>
+      <c r="C462" s="139" t="s">
+        <v>718</v>
+      </c>
+      <c r="D462" s="144" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E462" s="139">
+        <v>3</v>
+      </c>
+      <c r="F462" s="139"/>
+    </row>
+    <row r="463" spans="1:6" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="137">
+        <v>492</v>
+      </c>
+      <c r="B463" s="137">
+        <v>340</v>
+      </c>
+      <c r="C463" s="139" t="s">
+        <v>718</v>
+      </c>
+      <c r="D463" s="144" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E463" s="139">
+        <v>3</v>
+      </c>
+      <c r="F463" s="139"/>
+    </row>
+    <row r="464" spans="1:6" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="137">
+        <v>493</v>
+      </c>
+      <c r="B464" s="137">
+        <v>341</v>
+      </c>
+      <c r="C464" s="143" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D464" s="144" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E464" s="139">
+        <v>2</v>
+      </c>
+      <c r="F464" s="139"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -60984,13 +62131,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W1109"/>
+  <dimension ref="A1:W1113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1092" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1086" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1107" sqref="B1107"/>
+      <selection pane="bottomRight" activeCell="A1113" sqref="A1113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -80061,7 +81208,7 @@
         <v>1588</v>
       </c>
       <c r="E925" s="15" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F925" s="11">
         <v>1</v>
@@ -80082,7 +81229,7 @@
         <v>1588</v>
       </c>
       <c r="E926" s="15" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="F926" s="11">
         <v>1</v>
@@ -80103,7 +81250,7 @@
         <v>1588</v>
       </c>
       <c r="E927" s="15" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="F927" s="11">
         <v>1</v>
@@ -80124,7 +81271,7 @@
         <v>1588</v>
       </c>
       <c r="E928" s="15" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="F928" s="11">
         <v>1</v>
@@ -80145,7 +81292,7 @@
         <v>1588</v>
       </c>
       <c r="E929" s="15" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="F929" s="11">
         <v>1</v>
@@ -80166,7 +81313,7 @@
         <v>1588</v>
       </c>
       <c r="E930" s="15" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="F930" s="11">
         <v>1</v>
@@ -80187,7 +81334,7 @@
         <v>1588</v>
       </c>
       <c r="E931" s="15" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="F931" s="11">
         <v>1</v>
@@ -80208,7 +81355,7 @@
         <v>1588</v>
       </c>
       <c r="E932" s="15" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="F932" s="11">
         <v>1</v>
@@ -80229,7 +81376,7 @@
         <v>1588</v>
       </c>
       <c r="E933" s="15" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F933" s="11">
         <v>1</v>
@@ -80250,7 +81397,7 @@
         <v>1588</v>
       </c>
       <c r="E934" s="15" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="F934" s="11">
         <v>1</v>
@@ -80271,7 +81418,7 @@
         <v>1588</v>
       </c>
       <c r="E935" s="15" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F935" s="11">
         <v>1</v>
@@ -80292,7 +81439,7 @@
         <v>1588</v>
       </c>
       <c r="E936" s="15" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="F936" s="11">
         <v>1</v>
@@ -80313,7 +81460,7 @@
         <v>1588</v>
       </c>
       <c r="E937" s="15" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="F937" s="11">
         <v>1</v>
@@ -80334,7 +81481,7 @@
         <v>1588</v>
       </c>
       <c r="E938" s="15" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F938" s="11">
         <v>1</v>
@@ -80355,7 +81502,7 @@
         <v>1588</v>
       </c>
       <c r="E939" s="15" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="F939" s="11">
         <v>1</v>
@@ -83326,7 +84473,7 @@
         <v>877</v>
       </c>
       <c r="E1095" s="64" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F1095" s="1">
         <v>1</v>
@@ -83343,7 +84490,7 @@
         <v>877</v>
       </c>
       <c r="E1096" s="64" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="F1096" s="1">
         <v>1</v>
@@ -83360,7 +84507,7 @@
         <v>877</v>
       </c>
       <c r="E1097" s="64" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F1097" s="1">
         <v>1</v>
@@ -83375,7 +84522,7 @@
       </c>
       <c r="C1098" s="10"/>
       <c r="D1098" s="19" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="E1098" s="10">
         <v>32500</v>
@@ -83396,7 +84543,7 @@
       </c>
       <c r="C1099" s="10"/>
       <c r="D1099" s="19" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="E1099" s="10">
         <v>10000</v>
@@ -83416,10 +84563,10 @@
         <v>730</v>
       </c>
       <c r="D1100" s="14" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="E1100" s="64" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="F1100" s="1">
         <v>1</v>
@@ -83436,7 +84583,7 @@
         <v>773</v>
       </c>
       <c r="E1101" s="64" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="F1101" s="1">
         <v>400</v>
@@ -83453,7 +84600,7 @@
         <v>773</v>
       </c>
       <c r="E1102" s="64" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="F1102" s="1">
         <v>350</v>
@@ -83470,7 +84617,7 @@
         <v>773</v>
       </c>
       <c r="E1103" s="64" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="F1103" s="1">
         <v>100</v>
@@ -83487,13 +84634,13 @@
         <v>773</v>
       </c>
       <c r="E1104" s="64" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F1104" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="1105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1105" s="7">
         <v>1104</v>
       </c>
@@ -83504,30 +84651,30 @@
         <v>773</v>
       </c>
       <c r="E1105" s="64" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="F1105" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="1106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1106" s="7">
         <v>1105</v>
       </c>
       <c r="B1106" s="28">
         <v>731</v>
       </c>
-      <c r="D1106" s="28" t="s">
-        <v>773</v>
+      <c r="D1106" s="14" t="s">
+        <v>1819</v>
       </c>
       <c r="E1106" s="64" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="F1106" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="1107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1107" s="7">
         <v>1106</v>
       </c>
@@ -83535,16 +84682,16 @@
         <v>732</v>
       </c>
       <c r="D1107" s="14" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E1107" s="64" t="s">
         <v>1812</v>
-      </c>
-      <c r="E1107" s="64" t="s">
-        <v>1814</v>
       </c>
       <c r="F1107" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="1108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1108" s="7">
         <v>1107</v>
       </c>
@@ -83552,16 +84699,16 @@
         <v>732</v>
       </c>
       <c r="D1108" s="14" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E1108" s="64" t="s">
         <v>1813</v>
-      </c>
-      <c r="E1108" s="64" t="s">
-        <v>1815</v>
       </c>
       <c r="F1108" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="1109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1109" s="7">
         <v>1108</v>
       </c>
@@ -83569,14 +84716,98 @@
         <v>732</v>
       </c>
       <c r="D1109" s="14" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="E1109" s="64" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="F1109" s="1">
         <v>33</v>
       </c>
+    </row>
+    <row r="1110" spans="1:9" s="133" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1110" s="129">
+        <v>1109</v>
+      </c>
+      <c r="B1110" s="131">
+        <v>733</v>
+      </c>
+      <c r="C1110" s="131"/>
+      <c r="D1110" s="131" t="s">
+        <v>773</v>
+      </c>
+      <c r="E1110" s="136" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F1110" s="131">
+        <v>1</v>
+      </c>
+      <c r="G1110" s="131"/>
+      <c r="H1110" s="131"/>
+      <c r="I1110" s="131"/>
+    </row>
+    <row r="1111" spans="1:9" s="133" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1111" s="129">
+        <v>1110</v>
+      </c>
+      <c r="B1111" s="131">
+        <v>734</v>
+      </c>
+      <c r="C1111" s="131"/>
+      <c r="D1111" s="131" t="s">
+        <v>773</v>
+      </c>
+      <c r="E1111" s="136" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F1111" s="131">
+        <v>1</v>
+      </c>
+      <c r="G1111" s="131"/>
+      <c r="H1111" s="131"/>
+      <c r="I1111" s="131"/>
+    </row>
+    <row r="1112" spans="1:9" s="133" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1112" s="129">
+        <v>1111</v>
+      </c>
+      <c r="B1112" s="131">
+        <v>735</v>
+      </c>
+      <c r="C1112" s="131"/>
+      <c r="D1112" s="131" t="s">
+        <v>773</v>
+      </c>
+      <c r="E1112" s="136" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F1112" s="131">
+        <v>1</v>
+      </c>
+      <c r="G1112" s="131"/>
+      <c r="H1112" s="131"/>
+      <c r="I1112" s="131"/>
+    </row>
+    <row r="1113" spans="1:9" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1113" s="137">
+        <v>1112</v>
+      </c>
+      <c r="B1113" s="139">
+        <v>736</v>
+      </c>
+      <c r="C1113" s="139"/>
+      <c r="D1113" s="143" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1113" s="141">
+        <v>10000</v>
+      </c>
+      <c r="F1113" s="139">
+        <v>1</v>
+      </c>
+      <c r="G1113" s="139"/>
+      <c r="H1113" s="139"/>
+      <c r="I1113" s="139"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -83591,7 +84822,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -83698,7 +84929,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>435</v>
+        <v>1824</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>849</v>

--- a/config_Release/task_zajindan_server.xlsx
+++ b/config_Release/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11111\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -12236,11 +12236,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T490"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H466" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E454" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J485" sqref="J485"/>
+      <selection pane="bottomRight" activeCell="G468" sqref="G468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31213,10 +31213,10 @@
   <dimension ref="A1:K489"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C463" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E457" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A482" sqref="A482"/>
+      <selection pane="bottomRight" activeCell="H463" sqref="H463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -62133,11 +62133,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1086" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C973" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1113" sqref="A1113"/>
+      <selection pane="bottomRight" activeCell="F990" sqref="F990"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -82272,8 +82272,8 @@
       <c r="E977" s="82" t="s">
         <v>1656</v>
       </c>
-      <c r="F977" s="10">
-        <v>20</v>
+      <c r="F977" s="28">
+        <v>80</v>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.2">
@@ -82290,8 +82290,8 @@
       <c r="E978" s="82" t="s">
         <v>1657</v>
       </c>
-      <c r="F978" s="10">
-        <v>30</v>
+      <c r="F978" s="28">
+        <v>15</v>
       </c>
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.2">
@@ -82308,8 +82308,8 @@
       <c r="E979" s="82" t="s">
         <v>1658</v>
       </c>
-      <c r="F979" s="10">
-        <v>50</v>
+      <c r="F979" s="28">
+        <v>5</v>
       </c>
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.2">
@@ -82326,8 +82326,8 @@
       <c r="E980" s="32">
         <v>30</v>
       </c>
-      <c r="F980" s="10">
-        <v>20</v>
+      <c r="F980" s="28">
+        <v>80</v>
       </c>
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.2">
@@ -82344,8 +82344,8 @@
       <c r="E981" s="32">
         <v>40</v>
       </c>
-      <c r="F981" s="10">
-        <v>30</v>
+      <c r="F981" s="28">
+        <v>15</v>
       </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.2">
@@ -82362,8 +82362,8 @@
       <c r="E982" s="32">
         <v>50</v>
       </c>
-      <c r="F982" s="10">
-        <v>50</v>
+      <c r="F982" s="28">
+        <v>5</v>
       </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.2">
@@ -82380,8 +82380,8 @@
       <c r="E983" s="32">
         <v>50</v>
       </c>
-      <c r="F983" s="10">
-        <v>20</v>
+      <c r="F983" s="28">
+        <v>80</v>
       </c>
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.2">
@@ -82398,8 +82398,8 @@
       <c r="E984" s="32">
         <v>80</v>
       </c>
-      <c r="F984" s="10">
-        <v>30</v>
+      <c r="F984" s="28">
+        <v>15</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.2">
@@ -82416,8 +82416,8 @@
       <c r="E985" s="32">
         <v>100</v>
       </c>
-      <c r="F985" s="10">
-        <v>50</v>
+      <c r="F985" s="28">
+        <v>5</v>
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.2">
@@ -82434,8 +82434,8 @@
       <c r="E986" s="32">
         <v>150</v>
       </c>
-      <c r="F986" s="10">
-        <v>20</v>
+      <c r="F986" s="28">
+        <v>80</v>
       </c>
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.2">
@@ -82452,8 +82452,8 @@
       <c r="E987" s="32">
         <v>180</v>
       </c>
-      <c r="F987" s="10">
-        <v>30</v>
+      <c r="F987" s="28">
+        <v>15</v>
       </c>
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.2">
@@ -82470,8 +82470,8 @@
       <c r="E988" s="32">
         <v>200</v>
       </c>
-      <c r="F988" s="10">
-        <v>50</v>
+      <c r="F988" s="28">
+        <v>5</v>
       </c>
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.2">
@@ -82488,8 +82488,8 @@
       <c r="E989" s="32">
         <v>300</v>
       </c>
-      <c r="F989" s="10">
-        <v>20</v>
+      <c r="F989" s="28">
+        <v>80</v>
       </c>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.2">
@@ -82506,8 +82506,8 @@
       <c r="E990" s="32">
         <v>400</v>
       </c>
-      <c r="F990" s="10">
-        <v>30</v>
+      <c r="F990" s="28">
+        <v>15</v>
       </c>
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.2">
@@ -82524,8 +82524,8 @@
       <c r="E991" s="32">
         <v>500</v>
       </c>
-      <c r="F991" s="10">
-        <v>50</v>
+      <c r="F991" s="28">
+        <v>5</v>
       </c>
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.2">
@@ -82542,8 +82542,8 @@
       <c r="E992" s="32">
         <v>800</v>
       </c>
-      <c r="F992" s="10">
-        <v>20</v>
+      <c r="F992" s="28">
+        <v>80</v>
       </c>
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.2">
@@ -82560,8 +82560,8 @@
       <c r="E993" s="32">
         <v>900</v>
       </c>
-      <c r="F993" s="10">
-        <v>30</v>
+      <c r="F993" s="28">
+        <v>15</v>
       </c>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.2">
@@ -82578,8 +82578,8 @@
       <c r="E994" s="32">
         <v>1000</v>
       </c>
-      <c r="F994" s="10">
-        <v>50</v>
+      <c r="F994" s="28">
+        <v>5</v>
       </c>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.2">
@@ -82596,8 +82596,8 @@
       <c r="E995" s="32">
         <v>4500</v>
       </c>
-      <c r="F995" s="10">
-        <v>20</v>
+      <c r="F995" s="28">
+        <v>80</v>
       </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.2">
@@ -82614,8 +82614,8 @@
       <c r="E996" s="32">
         <v>4800</v>
       </c>
-      <c r="F996" s="10">
-        <v>30</v>
+      <c r="F996" s="28">
+        <v>15</v>
       </c>
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="0.2">
@@ -82632,8 +82632,8 @@
       <c r="E997" s="32">
         <v>5000</v>
       </c>
-      <c r="F997" s="10">
-        <v>50</v>
+      <c r="F997" s="28">
+        <v>5</v>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.2">
@@ -82650,8 +82650,8 @@
       <c r="E998" s="32">
         <v>8000</v>
       </c>
-      <c r="F998" s="10">
-        <v>20</v>
+      <c r="F998" s="28">
+        <v>80</v>
       </c>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.2">
@@ -82668,8 +82668,8 @@
       <c r="E999" s="32">
         <v>9000</v>
       </c>
-      <c r="F999" s="10">
-        <v>30</v>
+      <c r="F999" s="28">
+        <v>15</v>
       </c>
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.2">
@@ -82686,8 +82686,8 @@
       <c r="E1000" s="32">
         <v>10000</v>
       </c>
-      <c r="F1000" s="10">
-        <v>50</v>
+      <c r="F1000" s="28">
+        <v>5</v>
       </c>
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.2">
@@ -82704,8 +82704,8 @@
       <c r="E1001" s="32">
         <v>15000</v>
       </c>
-      <c r="F1001" s="10">
-        <v>20</v>
+      <c r="F1001" s="28">
+        <v>80</v>
       </c>
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.2">
@@ -82722,8 +82722,8 @@
       <c r="E1002" s="32">
         <v>18000</v>
       </c>
-      <c r="F1002" s="10">
-        <v>30</v>
+      <c r="F1002" s="28">
+        <v>15</v>
       </c>
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.2">
@@ -82740,8 +82740,8 @@
       <c r="E1003" s="32">
         <v>20000</v>
       </c>
-      <c r="F1003" s="10">
-        <v>50</v>
+      <c r="F1003" s="28">
+        <v>5</v>
       </c>
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.2">
@@ -84688,7 +84688,7 @@
         <v>1812</v>
       </c>
       <c r="F1107" s="1">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1108" spans="1:9" x14ac:dyDescent="0.2">
@@ -84705,7 +84705,7 @@
         <v>1813</v>
       </c>
       <c r="F1108" s="1">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1109" spans="1:9" x14ac:dyDescent="0.2">
@@ -84722,7 +84722,7 @@
         <v>1814</v>
       </c>
       <c r="F1109" s="1">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1110" spans="1:9" s="133" customFormat="1" x14ac:dyDescent="0.2">
